--- a/general-before.xlsx
+++ b/general-before.xlsx
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c s="3" r="B18">
-        <v>5543</v>
+        <v>5545</v>
       </c>
       <c s="2" t="inlineStr" r="C18">
         <is>
@@ -1438,51 +1438,45 @@
       </c>
       <c s="2" t="inlineStr" r="D18">
         <is>
-          <t xml:space="preserve">מאיר בן סירא</t>
+          <t xml:space="preserve">עמאר אבו אלהיגא</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">בטיחות</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F18"/>
+          <t xml:space="preserve">עץ הסקה לכפריים</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F18">
+        <is>
+          <t xml:space="preserve">עצים יבשים</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G18">
         <is>
-          <t xml:space="preserve">ניר עציון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H18">
-        <is>
-          <t xml:space="preserve">לידמלון ניר עציון,בישוב ומחוץ לגדר הישוב</t>
-        </is>
-      </c>
+          <t xml:space="preserve">יערות קק"ל</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="5" t="str" r="J18"/>
       <c s="6" t="str" r="K18"/>
       <c s="7" r="L18">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c s="7" r="M18">
-        <v>44286</v>
+        <v>44235</v>
       </c>
       <c s="2" t="inlineStr" r="N18">
         <is>
           <t xml:space="preserve">שלי בן ישי</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="O18">
-        <is>
-          <t xml:space="preserve">אורן ירושלים</t>
-        </is>
-      </c>
-      <c s="3" r="P18">
-        <v>20</v>
-      </c>
+      <c s="2" t="str" r="O18"/>
+      <c s="5" t="str" r="P18"/>
       <c s="2" t="str" r="Q18"/>
       <c s="4" t="str" r="R18"/>
       <c s="7" r="S18">
-        <v>44233</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="19" ht="14.15" customHeight="0">
@@ -1492,7 +1486,7 @@
         </is>
       </c>
       <c s="3" r="B19">
-        <v>5543</v>
+        <v>5545</v>
       </c>
       <c s="2" t="inlineStr" r="C19">
         <is>
@@ -1501,51 +1495,45 @@
       </c>
       <c s="2" t="inlineStr" r="D19">
         <is>
-          <t xml:space="preserve">מאיר בן סירא</t>
+          <t xml:space="preserve">עמאר אבו אלהיגא</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">בטיחות</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F19"/>
+          <t xml:space="preserve">עץ הסקה לכפריים</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F19">
+        <is>
+          <t xml:space="preserve">עצים יבשים</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G19">
         <is>
-          <t xml:space="preserve">ניר עציון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H19">
-        <is>
-          <t xml:space="preserve">לידמלון ניר עציון,בישוב ומחוץ לגדר הישוב</t>
-        </is>
-      </c>
+          <t xml:space="preserve">יערות קק"ל</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
       <c s="5" t="str" r="J19"/>
       <c s="6" t="str" r="K19"/>
       <c s="7" r="L19">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c s="7" r="M19">
-        <v>44286</v>
+        <v>44235</v>
       </c>
       <c s="2" t="inlineStr" r="N19">
         <is>
           <t xml:space="preserve">שלי בן ישי</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="O19">
-        <is>
-          <t xml:space="preserve">אורן ירושלים</t>
-        </is>
-      </c>
-      <c s="3" r="P19">
-        <v>5</v>
-      </c>
+      <c s="2" t="str" r="O19"/>
+      <c s="5" t="str" r="P19"/>
       <c s="2" t="str" r="Q19"/>
       <c s="4" t="str" r="R19"/>
       <c s="7" r="S19">
-        <v>44233</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="20" ht="14.2" customHeight="0">
@@ -2349,7 +2337,7 @@
       </c>
       <c s="2" t="inlineStr" r="C30">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D30">
@@ -2392,16 +2380,26 @@
         <v>44243</v>
       </c>
       <c s="7" r="M30">
-        <v>44270</v>
+        <v>44347</v>
       </c>
       <c s="2" t="inlineStr" r="N30">
         <is>
           <t xml:space="preserve">שלי בן ישי</t>
         </is>
       </c>
-      <c s="2" t="str" r="O30"/>
-      <c s="5" t="str" r="P30"/>
-      <c s="2" t="str" r="Q30"/>
+      <c s="2" t="inlineStr" r="O30">
+        <is>
+          <t xml:space="preserve">אורן ירושלים</t>
+        </is>
+      </c>
+      <c s="3" r="P30">
+        <v>93</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q30">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R30"/>
       <c s="7" r="S30">
         <v>44242</v>
@@ -2410,11 +2408,11 @@
     <row r="31" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">ג. מערבי - כרמל</t>
         </is>
       </c>
       <c s="3" r="B31">
-        <v>11500</v>
+        <v>5548</v>
       </c>
       <c s="2" t="inlineStr" r="C31">
         <is>
@@ -2423,7 +2421,7 @@
       </c>
       <c s="2" t="inlineStr" r="D31">
         <is>
-          <t xml:space="preserve">ראובן גודלי</t>
+          <t xml:space="preserve">אבו חסאן יוסף ובניו בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E31">
@@ -2431,37 +2429,41 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="str" r="F31"/>
+      <c s="2" t="inlineStr" r="F31">
+        <is>
+          <t xml:space="preserve">הרחבת מצובה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G31">
         <is>
-          <t xml:space="preserve">בת ים               </t>
+          <t xml:space="preserve">מצובה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H31">
         <is>
-          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
+          <t xml:space="preserve">הרחבה 31 יח"ד</t>
         </is>
       </c>
       <c s="5" t="str" r="I31"/>
       <c s="5" t="inlineStr" r="J31">
         <is>
-          <t xml:space="preserve">7133</t>
+          <t xml:space="preserve">19014</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K31">
         <is>
-          <t xml:space="preserve">93+95</t>
+          <t xml:space="preserve">10</t>
         </is>
       </c>
       <c s="7" r="L31">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c s="7" r="M31">
-        <v>44333</v>
+        <v>44347</v>
       </c>
       <c s="2" t="inlineStr" r="N31">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">שלי בן ישי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O31">
@@ -2470,7 +2472,7 @@
         </is>
       </c>
       <c s="3" r="P31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c s="2" t="inlineStr" r="Q31">
         <is>
@@ -2479,17 +2481,17 @@
       </c>
       <c s="4" t="str" r="R31"/>
       <c s="7" r="S31">
-        <v>44243</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="32" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">ג. מערבי - כרמל</t>
         </is>
       </c>
       <c s="3" r="B32">
-        <v>11500</v>
+        <v>5548</v>
       </c>
       <c s="2" t="inlineStr" r="C32">
         <is>
@@ -2498,7 +2500,7 @@
       </c>
       <c s="2" t="inlineStr" r="D32">
         <is>
-          <t xml:space="preserve">ראובן גודלי</t>
+          <t xml:space="preserve">אבו חסאן יוסף ובניו בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E32">
@@ -2506,65 +2508,69 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="str" r="F32"/>
+      <c s="2" t="inlineStr" r="F32">
+        <is>
+          <t xml:space="preserve">הרחבת מצובה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G32">
         <is>
-          <t xml:space="preserve">בת ים               </t>
+          <t xml:space="preserve">מצובה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
+          <t xml:space="preserve">הרחבה 31 יח"ד</t>
         </is>
       </c>
       <c s="5" t="str" r="I32"/>
       <c s="5" t="inlineStr" r="J32">
         <is>
-          <t xml:space="preserve">7133</t>
+          <t xml:space="preserve">19014</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K32">
         <is>
-          <t xml:space="preserve">93+95</t>
+          <t xml:space="preserve">10</t>
         </is>
       </c>
       <c s="7" r="L32">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c s="7" r="M32">
-        <v>44333</v>
+        <v>44347</v>
       </c>
       <c s="2" t="inlineStr" r="N32">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">שלי בן ישי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O32">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t xml:space="preserve">אלה ארץ-ישראלית</t>
         </is>
       </c>
       <c s="3" r="P32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c s="2" t="inlineStr" r="Q32">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R32"/>
       <c s="7" r="S32">
-        <v>44243</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="33" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">ג. מערבי - כרמל</t>
         </is>
       </c>
       <c s="3" r="B33">
-        <v>11500</v>
+        <v>5548</v>
       </c>
       <c s="2" t="inlineStr" r="C33">
         <is>
@@ -2573,7 +2579,7 @@
       </c>
       <c s="2" t="inlineStr" r="D33">
         <is>
-          <t xml:space="preserve">ראובן גודלי</t>
+          <t xml:space="preserve">אבו חסאן יוסף ובניו בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E33">
@@ -2581,65 +2587,69 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="str" r="F33"/>
+      <c s="2" t="inlineStr" r="F33">
+        <is>
+          <t xml:space="preserve">הרחבת מצובה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G33">
         <is>
-          <t xml:space="preserve">בת ים               </t>
+          <t xml:space="preserve">מצובה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H33">
         <is>
-          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
+          <t xml:space="preserve">הרחבה 31 יח"ד</t>
         </is>
       </c>
       <c s="5" t="str" r="I33"/>
       <c s="5" t="inlineStr" r="J33">
         <is>
-          <t xml:space="preserve">7133</t>
+          <t xml:space="preserve">19014</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K33">
         <is>
-          <t xml:space="preserve">93+95</t>
+          <t xml:space="preserve">10</t>
         </is>
       </c>
       <c s="7" r="L33">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c s="7" r="M33">
-        <v>44333</v>
+        <v>44347</v>
       </c>
       <c s="2" t="inlineStr" r="N33">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">שלי בן ישי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O33">
         <is>
-          <t xml:space="preserve">אילנתה בלוטית</t>
+          <t xml:space="preserve">אלון מצוי</t>
         </is>
       </c>
       <c s="3" r="P33">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c s="2" t="inlineStr" r="Q33">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R33"/>
       <c s="7" r="S33">
-        <v>44243</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="34" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">ג. מערבי - כרמל</t>
         </is>
       </c>
       <c s="3" r="B34">
-        <v>11500</v>
+        <v>5548</v>
       </c>
       <c s="2" t="inlineStr" r="C34">
         <is>
@@ -2648,7 +2658,7 @@
       </c>
       <c s="2" t="inlineStr" r="D34">
         <is>
-          <t xml:space="preserve">ראובן גודלי</t>
+          <t xml:space="preserve">אבו חסאן יוסף ובניו בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E34">
@@ -2656,65 +2666,69 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="str" r="F34"/>
+      <c s="2" t="inlineStr" r="F34">
+        <is>
+          <t xml:space="preserve">הרחבת מצובה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G34">
         <is>
-          <t xml:space="preserve">בת ים               </t>
+          <t xml:space="preserve">מצובה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H34">
         <is>
-          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
+          <t xml:space="preserve">הרחבה 31 יח"ד</t>
         </is>
       </c>
       <c s="5" t="str" r="I34"/>
       <c s="5" t="inlineStr" r="J34">
         <is>
-          <t xml:space="preserve">7133</t>
+          <t xml:space="preserve">19014</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K34">
         <is>
-          <t xml:space="preserve">93+95</t>
+          <t xml:space="preserve">10</t>
         </is>
       </c>
       <c s="7" r="L34">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c s="7" r="M34">
-        <v>44333</v>
+        <v>44347</v>
       </c>
       <c s="2" t="inlineStr" r="N34">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">שלי בן ישי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O34">
         <is>
-          <t xml:space="preserve">מכנף נאה</t>
+          <t xml:space="preserve">זית אירופי</t>
         </is>
       </c>
       <c s="3" r="P34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="2" t="inlineStr" r="Q34">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R34"/>
       <c s="7" r="S34">
-        <v>44243</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="35" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">ג. מערבי - כרמל</t>
         </is>
       </c>
       <c s="3" r="B35">
-        <v>11500</v>
+        <v>5548</v>
       </c>
       <c s="2" t="inlineStr" r="C35">
         <is>
@@ -2723,7 +2737,7 @@
       </c>
       <c s="2" t="inlineStr" r="D35">
         <is>
-          <t xml:space="preserve">ראובן גודלי</t>
+          <t xml:space="preserve">אבו חסאן יוסף ובניו בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E35">
@@ -2731,65 +2745,69 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="str" r="F35"/>
+      <c s="2" t="inlineStr" r="F35">
+        <is>
+          <t xml:space="preserve">הרחבת מצובה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G35">
         <is>
-          <t xml:space="preserve">בת ים               </t>
+          <t xml:space="preserve">מצובה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H35">
         <is>
-          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
+          <t xml:space="preserve">הרחבה 31 יח"ד</t>
         </is>
       </c>
       <c s="5" t="str" r="I35"/>
       <c s="5" t="inlineStr" r="J35">
         <is>
-          <t xml:space="preserve">7133</t>
+          <t xml:space="preserve">19014</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K35">
         <is>
-          <t xml:space="preserve">93+95</t>
+          <t xml:space="preserve">10</t>
         </is>
       </c>
       <c s="7" r="L35">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c s="7" r="M35">
-        <v>44333</v>
+        <v>44347</v>
       </c>
       <c s="2" t="inlineStr" r="N35">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">שלי בן ישי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O35">
         <is>
-          <t xml:space="preserve">סיסם הודי</t>
+          <t xml:space="preserve">חרוב מצוי</t>
         </is>
       </c>
       <c s="3" r="P35">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c s="2" t="inlineStr" r="Q35">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R35"/>
       <c s="7" r="S35">
-        <v>44243</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="36" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">ג. מערבי - כרמל</t>
         </is>
       </c>
       <c s="3" r="B36">
-        <v>11500</v>
+        <v>5548</v>
       </c>
       <c s="2" t="inlineStr" r="C36">
         <is>
@@ -2798,7 +2816,7 @@
       </c>
       <c s="2" t="inlineStr" r="D36">
         <is>
-          <t xml:space="preserve">ראובן גודלי</t>
+          <t xml:space="preserve">אבו חסאן יוסף ובניו בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E36">
@@ -2806,46 +2824,50 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="str" r="F36"/>
+      <c s="2" t="inlineStr" r="F36">
+        <is>
+          <t xml:space="preserve">הרחבת מצובה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G36">
         <is>
-          <t xml:space="preserve">בת ים               </t>
+          <t xml:space="preserve">מצובה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
+          <t xml:space="preserve">הרחבה 31 יח"ד</t>
         </is>
       </c>
       <c s="5" t="str" r="I36"/>
       <c s="5" t="inlineStr" r="J36">
         <is>
-          <t xml:space="preserve">7133</t>
+          <t xml:space="preserve">19014</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K36">
         <is>
-          <t xml:space="preserve">93+95</t>
+          <t xml:space="preserve">10</t>
         </is>
       </c>
       <c s="7" r="L36">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c s="7" r="M36">
-        <v>44333</v>
+        <v>44347</v>
       </c>
       <c s="2" t="inlineStr" r="N36">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">שלי בן ישי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O36">
         <is>
-          <t xml:space="preserve">פלפלון דמוי-אלה</t>
+          <t xml:space="preserve">שקד מצוי</t>
         </is>
       </c>
       <c s="3" r="P36">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c s="2" t="inlineStr" r="Q36">
         <is>
@@ -2854,17 +2876,17 @@
       </c>
       <c s="4" t="str" r="R36"/>
       <c s="7" r="S36">
-        <v>44243</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="37" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">ג. מערבי - כרמל</t>
         </is>
       </c>
       <c s="3" r="B37">
-        <v>11500</v>
+        <v>5548</v>
       </c>
       <c s="2" t="inlineStr" r="C37">
         <is>
@@ -2873,7 +2895,7 @@
       </c>
       <c s="2" t="inlineStr" r="D37">
         <is>
-          <t xml:space="preserve">ראובן גודלי</t>
+          <t xml:space="preserve">אבו חסאן יוסף ובניו בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E37">
@@ -2881,55 +2903,63 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="str" r="F37"/>
+      <c s="2" t="inlineStr" r="F37">
+        <is>
+          <t xml:space="preserve">הרחבת מצובה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G37">
         <is>
-          <t xml:space="preserve">בת ים               </t>
+          <t xml:space="preserve">מצובה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
+          <t xml:space="preserve">הרחבה 31 יח"ד</t>
         </is>
       </c>
       <c s="5" t="str" r="I37"/>
       <c s="5" t="inlineStr" r="J37">
         <is>
-          <t xml:space="preserve">7133</t>
+          <t xml:space="preserve">19014</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K37">
         <is>
-          <t xml:space="preserve">93+95</t>
+          <t xml:space="preserve">10</t>
         </is>
       </c>
       <c s="7" r="L37">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c s="7" r="M37">
-        <v>44333</v>
+        <v>44347</v>
       </c>
       <c s="2" t="inlineStr" r="N37">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">שלי בן ישי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O37">
         <is>
-          <t xml:space="preserve">קזוארינה</t>
+          <t xml:space="preserve">חורש טבעי</t>
         </is>
       </c>
       <c s="3" r="P37">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c s="2" t="inlineStr" r="Q37">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R37"/>
+      <c s="4" t="inlineStr" r="R37">
+        <is>
+          <t xml:space="preserve">אלון, כליל החורש, חרוב</t>
+        </is>
+      </c>
       <c s="7" r="S37">
-        <v>44243</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="38" ht="14.15" customHeight="0">
@@ -2991,7 +3021,7 @@
       </c>
       <c s="2" t="inlineStr" r="O38">
         <is>
-          <t xml:space="preserve">תות</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P38">
@@ -3066,7 +3096,7 @@
       </c>
       <c s="2" t="inlineStr" r="O39">
         <is>
-          <t xml:space="preserve">פיקוס כינורי</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c s="3" r="P39">
@@ -3074,7 +3104,7 @@
       </c>
       <c s="2" t="inlineStr" r="Q39">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R39"/>
@@ -3141,11 +3171,11 @@
       </c>
       <c s="2" t="inlineStr" r="O40">
         <is>
-          <t xml:space="preserve">ושינגטוניה חוטית</t>
+          <t xml:space="preserve">אילנתה בלוטית</t>
         </is>
       </c>
       <c s="3" r="P40">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c s="2" t="inlineStr" r="Q40">
         <is>
@@ -3216,7 +3246,7 @@
       </c>
       <c s="2" t="inlineStr" r="O41">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">מכנף נאה</t>
         </is>
       </c>
       <c s="3" r="P41">
@@ -3291,11 +3321,11 @@
       </c>
       <c s="2" t="inlineStr" r="O42">
         <is>
-          <t xml:space="preserve">אלמוגן רחב-עלים</t>
+          <t xml:space="preserve">סיסם הודי</t>
         </is>
       </c>
       <c s="3" r="P42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q42">
         <is>
@@ -3366,11 +3396,11 @@
       </c>
       <c s="2" t="inlineStr" r="O43">
         <is>
-          <t xml:space="preserve">בוהיניה מגוונת</t>
+          <t xml:space="preserve">פלפלון דמוי-אלה</t>
         </is>
       </c>
       <c s="3" r="P43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q43">
         <is>
@@ -3441,11 +3471,11 @@
       </c>
       <c s="2" t="inlineStr" r="O44">
         <is>
-          <t xml:space="preserve">ברכיכיטון אדרי</t>
+          <t xml:space="preserve">קזוארינה</t>
         </is>
       </c>
       <c s="3" r="P44">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c s="2" t="inlineStr" r="Q44">
         <is>
@@ -3516,11 +3546,11 @@
       </c>
       <c s="2" t="inlineStr" r="O45">
         <is>
-          <t xml:space="preserve">סיגלון עלה-מימוסה</t>
+          <t xml:space="preserve">תות</t>
         </is>
       </c>
       <c s="3" r="P45">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q45">
         <is>
@@ -3591,7 +3621,7 @@
       </c>
       <c s="2" t="inlineStr" r="O46">
         <is>
-          <t xml:space="preserve">פיקוס הגומי</t>
+          <t xml:space="preserve">פיקוס כינורי</t>
         </is>
       </c>
       <c s="3" r="P46">
@@ -3599,7 +3629,7 @@
       </c>
       <c s="2" t="inlineStr" r="Q46">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R46"/>
@@ -3666,11 +3696,11 @@
       </c>
       <c s="2" t="inlineStr" r="O47">
         <is>
-          <t xml:space="preserve">פיקוס השדרות</t>
+          <t xml:space="preserve">ושינגטוניה חוטית</t>
         </is>
       </c>
       <c s="3" r="P47">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c s="2" t="inlineStr" r="Q47">
         <is>
@@ -3741,7 +3771,7 @@
       </c>
       <c s="2" t="inlineStr" r="O48">
         <is>
-          <t xml:space="preserve">פיקוס קדוש</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P48">
@@ -3816,7 +3846,7 @@
       </c>
       <c s="2" t="inlineStr" r="O49">
         <is>
-          <t xml:space="preserve">פיקוס גדול-עלים</t>
+          <t xml:space="preserve">אלמוגן רחב-עלים</t>
         </is>
       </c>
       <c s="3" r="P49">
@@ -3891,11 +3921,11 @@
       </c>
       <c s="2" t="inlineStr" r="O50">
         <is>
-          <t xml:space="preserve">הדר הלימון זנים שונים </t>
+          <t xml:space="preserve">בוהיניה מגוונת</t>
         </is>
       </c>
       <c s="3" r="P50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q50">
         <is>
@@ -3966,7 +3996,7 @@
       </c>
       <c s="2" t="inlineStr" r="O51">
         <is>
-          <t xml:space="preserve">שסק יפני</t>
+          <t xml:space="preserve">ברכיכיטון אדרי</t>
         </is>
       </c>
       <c s="3" r="P51">
@@ -4041,11 +4071,11 @@
       </c>
       <c s="2" t="inlineStr" r="O52">
         <is>
-          <t xml:space="preserve">עץ לא מזוה מת -לכריתה</t>
+          <t xml:space="preserve">סיגלון עלה-מימוסה</t>
         </is>
       </c>
       <c s="3" r="P52">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c s="2" t="inlineStr" r="Q52">
         <is>
@@ -4116,7 +4146,7 @@
       </c>
       <c s="2" t="inlineStr" r="O53">
         <is>
-          <t xml:space="preserve">עץ לא מזוה מת -לכריתה</t>
+          <t xml:space="preserve">פיקוס הגומי</t>
         </is>
       </c>
       <c s="3" r="P53">
@@ -4139,46 +4169,50 @@
         </is>
       </c>
       <c s="3" r="B54">
-        <v>13244</v>
+        <v>11500</v>
       </c>
       <c s="2" t="inlineStr" r="C54">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D54">
         <is>
-          <t xml:space="preserve">עיריית אור יהודה-אריה חיים</t>
+          <t xml:space="preserve">ראובן גודלי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E54">
         <is>
-          <t xml:space="preserve">בטיחות</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F54"/>
       <c s="4" t="inlineStr" r="G54">
         <is>
-          <t xml:space="preserve">אור יהודה           </t>
+          <t xml:space="preserve">בת ים               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H54">
         <is>
-          <t xml:space="preserve">בר לב </t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I54">
-        <is>
-          <t xml:space="preserve">12</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J54"/>
-      <c s="6" t="str" r="K54"/>
+          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I54"/>
+      <c s="5" t="inlineStr" r="J54">
+        <is>
+          <t xml:space="preserve">7133</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K54">
+        <is>
+          <t xml:space="preserve">93+95</t>
+        </is>
+      </c>
       <c s="7" r="L54">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c s="7" r="M54">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c s="2" t="inlineStr" r="N54">
         <is>
@@ -4187,16 +4221,20 @@
       </c>
       <c s="2" t="inlineStr" r="O54">
         <is>
-          <t xml:space="preserve">ברכיכיטון אדרי</t>
+          <t xml:space="preserve">פיקוס השדרות</t>
         </is>
       </c>
       <c s="3" r="P54">
         <v>2</v>
       </c>
-      <c s="2" t="str" r="Q54"/>
+      <c s="2" t="inlineStr" r="Q54">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R54"/>
       <c s="7" r="S54">
-        <v>44244</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="55" ht="14.15" customHeight="0">
@@ -4206,46 +4244,50 @@
         </is>
       </c>
       <c s="3" r="B55">
-        <v>13244</v>
+        <v>11500</v>
       </c>
       <c s="2" t="inlineStr" r="C55">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D55">
         <is>
-          <t xml:space="preserve">עיריית אור יהודה-אריה חיים</t>
+          <t xml:space="preserve">ראובן גודלי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E55">
         <is>
-          <t xml:space="preserve">בטיחות</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F55"/>
       <c s="4" t="inlineStr" r="G55">
         <is>
-          <t xml:space="preserve">אור יהודה           </t>
+          <t xml:space="preserve">בת ים               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H55">
         <is>
-          <t xml:space="preserve">בר לב </t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I55">
-        <is>
-          <t xml:space="preserve">12</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J55"/>
-      <c s="6" t="str" r="K55"/>
+          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I55"/>
+      <c s="5" t="inlineStr" r="J55">
+        <is>
+          <t xml:space="preserve">7133</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K55">
+        <is>
+          <t xml:space="preserve">93+95</t>
+        </is>
+      </c>
       <c s="7" r="L55">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c s="7" r="M55">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c s="2" t="inlineStr" r="N55">
         <is>
@@ -4254,16 +4296,20 @@
       </c>
       <c s="2" t="inlineStr" r="O55">
         <is>
-          <t xml:space="preserve">שלטית מקומטת</t>
+          <t xml:space="preserve">פיקוס קדוש</t>
         </is>
       </c>
       <c s="3" r="P55">
         <v>1</v>
       </c>
-      <c s="2" t="str" r="Q55"/>
+      <c s="2" t="inlineStr" r="Q55">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R55"/>
       <c s="7" r="S55">
-        <v>44244</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="56" ht="14.2" customHeight="0">
@@ -4273,42 +4319,50 @@
         </is>
       </c>
       <c s="3" r="B56">
-        <v>13246</v>
+        <v>11500</v>
       </c>
       <c s="2" t="inlineStr" r="C56">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D56">
         <is>
-          <t xml:space="preserve">ניר מלמד (עיריית חולון )</t>
+          <t xml:space="preserve">ראובן גודלי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E56">
         <is>
-          <t xml:space="preserve">בטיחות</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F56"/>
       <c s="4" t="inlineStr" r="G56">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">בת ים               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H56">
         <is>
-          <t xml:space="preserve">שכונת נווה ארזים</t>
+          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
         </is>
       </c>
       <c s="5" t="str" r="I56"/>
-      <c s="5" t="str" r="J56"/>
-      <c s="6" t="str" r="K56"/>
+      <c s="5" t="inlineStr" r="J56">
+        <is>
+          <t xml:space="preserve">7133</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K56">
+        <is>
+          <t xml:space="preserve">93+95</t>
+        </is>
+      </c>
       <c s="7" r="L56">
-        <v>44236</v>
+        <v>44244</v>
       </c>
       <c s="7" r="M56">
-        <v>44325</v>
+        <v>44333</v>
       </c>
       <c s="2" t="inlineStr" r="N56">
         <is>
@@ -4317,20 +4371,20 @@
       </c>
       <c s="2" t="inlineStr" r="O56">
         <is>
-          <t xml:space="preserve">אורנים</t>
+          <t xml:space="preserve">פיקוס גדול-עלים</t>
         </is>
       </c>
       <c s="3" r="P56">
         <v>1</v>
       </c>
-      <c s="2" t="str" r="Q56"/>
-      <c s="4" t="inlineStr" r="R56">
-        <is>
-          <t xml:space="preserve">אורן החוף מס' 1618</t>
-        </is>
-      </c>
+      <c s="2" t="inlineStr" r="Q56">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R56"/>
       <c s="7" r="S56">
-        <v>44235</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="57" ht="14.15" customHeight="0">
@@ -4340,42 +4394,50 @@
         </is>
       </c>
       <c s="3" r="B57">
-        <v>13246</v>
+        <v>11500</v>
       </c>
       <c s="2" t="inlineStr" r="C57">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D57">
         <is>
-          <t xml:space="preserve">ניר מלמד (עיריית חולון )</t>
+          <t xml:space="preserve">ראובן גודלי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E57">
         <is>
-          <t xml:space="preserve">בטיחות</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F57"/>
       <c s="4" t="inlineStr" r="G57">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">בת ים               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H57">
         <is>
-          <t xml:space="preserve">שכונת נווה ארזים</t>
+          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
         </is>
       </c>
       <c s="5" t="str" r="I57"/>
-      <c s="5" t="str" r="J57"/>
-      <c s="6" t="str" r="K57"/>
+      <c s="5" t="inlineStr" r="J57">
+        <is>
+          <t xml:space="preserve">7133</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K57">
+        <is>
+          <t xml:space="preserve">93+95</t>
+        </is>
+      </c>
       <c s="7" r="L57">
-        <v>44236</v>
+        <v>44244</v>
       </c>
       <c s="7" r="M57">
-        <v>44325</v>
+        <v>44333</v>
       </c>
       <c s="2" t="inlineStr" r="N57">
         <is>
@@ -4384,20 +4446,20 @@
       </c>
       <c s="2" t="inlineStr" r="O57">
         <is>
-          <t xml:space="preserve">אורן הגלעין</t>
+          <t xml:space="preserve">הדר הלימון זנים שונים </t>
         </is>
       </c>
       <c s="3" r="P57">
-        <v>2</v>
-      </c>
-      <c s="2" t="str" r="Q57"/>
-      <c s="4" t="inlineStr" r="R57">
-        <is>
-          <t xml:space="preserve">מס' 1571 +1182</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q57">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R57"/>
       <c s="7" r="S57">
-        <v>44235</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="58" ht="14.15" customHeight="0">
@@ -4407,42 +4469,50 @@
         </is>
       </c>
       <c s="3" r="B58">
-        <v>13246</v>
+        <v>11500</v>
       </c>
       <c s="2" t="inlineStr" r="C58">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D58">
         <is>
-          <t xml:space="preserve">ניר מלמד (עיריית חולון )</t>
+          <t xml:space="preserve">ראובן גודלי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E58">
         <is>
-          <t xml:space="preserve">בטיחות</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F58"/>
       <c s="4" t="inlineStr" r="G58">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">בת ים               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H58">
         <is>
-          <t xml:space="preserve">שכונת נווה ארזים</t>
+          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
         </is>
       </c>
       <c s="5" t="str" r="I58"/>
-      <c s="5" t="str" r="J58"/>
-      <c s="6" t="str" r="K58"/>
+      <c s="5" t="inlineStr" r="J58">
+        <is>
+          <t xml:space="preserve">7133</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K58">
+        <is>
+          <t xml:space="preserve">93+95</t>
+        </is>
+      </c>
       <c s="7" r="L58">
-        <v>44236</v>
+        <v>44244</v>
       </c>
       <c s="7" r="M58">
-        <v>44325</v>
+        <v>44333</v>
       </c>
       <c s="2" t="inlineStr" r="N58">
         <is>
@@ -4451,20 +4521,20 @@
       </c>
       <c s="2" t="inlineStr" r="O58">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">שסק יפני</t>
         </is>
       </c>
       <c s="3" r="P58">
-        <v>3</v>
-      </c>
-      <c s="2" t="str" r="Q58"/>
-      <c s="4" t="inlineStr" r="R58">
-        <is>
-          <t xml:space="preserve">עץ מס' 595.1178.1172</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q58">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R58"/>
       <c s="7" r="S58">
-        <v>44235</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="59" ht="14.2" customHeight="0">
@@ -4474,42 +4544,50 @@
         </is>
       </c>
       <c s="3" r="B59">
-        <v>13246</v>
+        <v>11500</v>
       </c>
       <c s="2" t="inlineStr" r="C59">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D59">
         <is>
-          <t xml:space="preserve">ניר מלמד (עיריית חולון )</t>
+          <t xml:space="preserve">ראובן גודלי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E59">
         <is>
-          <t xml:space="preserve">בטיחות</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F59"/>
       <c s="4" t="inlineStr" r="G59">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">בת ים               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H59">
         <is>
-          <t xml:space="preserve">שכונת נווה ארזים</t>
+          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
         </is>
       </c>
       <c s="5" t="str" r="I59"/>
-      <c s="5" t="str" r="J59"/>
-      <c s="6" t="str" r="K59"/>
+      <c s="5" t="inlineStr" r="J59">
+        <is>
+          <t xml:space="preserve">7133</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K59">
+        <is>
+          <t xml:space="preserve">93+95</t>
+        </is>
+      </c>
       <c s="7" r="L59">
-        <v>44236</v>
+        <v>44244</v>
       </c>
       <c s="7" r="M59">
-        <v>44325</v>
+        <v>44333</v>
       </c>
       <c s="2" t="inlineStr" r="N59">
         <is>
@@ -4518,20 +4596,20 @@
       </c>
       <c s="2" t="inlineStr" r="O59">
         <is>
-          <t xml:space="preserve">אזדרכת מצויה</t>
+          <t xml:space="preserve">עץ לא מזוה מת -לכריתה</t>
         </is>
       </c>
       <c s="3" r="P59">
         <v>1</v>
       </c>
-      <c s="2" t="str" r="Q59"/>
-      <c s="4" t="inlineStr" r="R59">
-        <is>
-          <t xml:space="preserve">עץ מס' 684</t>
-        </is>
-      </c>
+      <c s="2" t="inlineStr" r="Q59">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R59"/>
       <c s="7" r="S59">
-        <v>44235</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="60" ht="14.15" customHeight="0">
@@ -4541,42 +4619,50 @@
         </is>
       </c>
       <c s="3" r="B60">
-        <v>13246</v>
+        <v>11500</v>
       </c>
       <c s="2" t="inlineStr" r="C60">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D60">
         <is>
-          <t xml:space="preserve">ניר מלמד (עיריית חולון )</t>
+          <t xml:space="preserve">ראובן גודלי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E60">
         <is>
-          <t xml:space="preserve">בטיחות</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F60"/>
       <c s="4" t="inlineStr" r="G60">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">בת ים               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H60">
         <is>
-          <t xml:space="preserve">שכונת נווה ארזים</t>
+          <t xml:space="preserve">ב"ח אברבנאל רח'  יוסף הנשיא</t>
         </is>
       </c>
       <c s="5" t="str" r="I60"/>
-      <c s="5" t="str" r="J60"/>
-      <c s="6" t="str" r="K60"/>
+      <c s="5" t="inlineStr" r="J60">
+        <is>
+          <t xml:space="preserve">7133</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K60">
+        <is>
+          <t xml:space="preserve">93+95</t>
+        </is>
+      </c>
       <c s="7" r="L60">
-        <v>44236</v>
+        <v>44244</v>
       </c>
       <c s="7" r="M60">
-        <v>44325</v>
+        <v>44333</v>
       </c>
       <c s="2" t="inlineStr" r="N60">
         <is>
@@ -4585,16 +4671,20 @@
       </c>
       <c s="2" t="inlineStr" r="O60">
         <is>
-          <t xml:space="preserve">קזוארינה שבטבטית</t>
+          <t xml:space="preserve">עץ לא מזוה מת -לכריתה</t>
         </is>
       </c>
       <c s="3" r="P60">
-        <v>6</v>
-      </c>
-      <c s="2" t="str" r="Q60"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q60">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R60"/>
       <c s="7" r="S60">
-        <v>44235</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="61" ht="14.2" customHeight="0">
@@ -4604,7 +4694,7 @@
         </is>
       </c>
       <c s="3" r="B61">
-        <v>13246</v>
+        <v>13244</v>
       </c>
       <c s="2" t="inlineStr" r="C61">
         <is>
@@ -4613,7 +4703,7 @@
       </c>
       <c s="2" t="inlineStr" r="D61">
         <is>
-          <t xml:space="preserve">ניר מלמד (עיריית חולון )</t>
+          <t xml:space="preserve">עיריית אור יהודה-אריה חיים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E61">
@@ -4624,22 +4714,26 @@
       <c s="2" t="str" r="F61"/>
       <c s="4" t="inlineStr" r="G61">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">אור יהודה           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H61">
         <is>
-          <t xml:space="preserve">שכונת נווה ארזים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I61"/>
+          <t xml:space="preserve">בר לב </t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I61">
+        <is>
+          <t xml:space="preserve">12</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J61"/>
       <c s="6" t="str" r="K61"/>
       <c s="7" r="L61">
-        <v>44236</v>
+        <v>44245</v>
       </c>
       <c s="7" r="M61">
-        <v>44325</v>
+        <v>44334</v>
       </c>
       <c s="2" t="inlineStr" r="N61">
         <is>
@@ -4648,16 +4742,16 @@
       </c>
       <c s="2" t="inlineStr" r="O61">
         <is>
-          <t xml:space="preserve">לא ידוע</t>
+          <t xml:space="preserve">ברכיכיטון אדרי</t>
         </is>
       </c>
       <c s="3" r="P61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q61"/>
       <c s="4" t="str" r="R61"/>
       <c s="7" r="S61">
-        <v>44235</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="62" ht="14.15" customHeight="0">
@@ -4667,42 +4761,46 @@
         </is>
       </c>
       <c s="3" r="B62">
-        <v>13247</v>
+        <v>13244</v>
       </c>
       <c s="2" t="inlineStr" r="C62">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D62">
         <is>
-          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
+          <t xml:space="preserve">עיריית אור יהודה-אריה חיים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E62">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">בטיחות</t>
         </is>
       </c>
       <c s="2" t="str" r="F62"/>
       <c s="4" t="inlineStr" r="G62">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">אור יהודה           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H62">
         <is>
-          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I62"/>
+          <t xml:space="preserve">בר לב </t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I62">
+        <is>
+          <t xml:space="preserve">12</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J62"/>
       <c s="6" t="str" r="K62"/>
       <c s="7" r="L62">
-        <v>44236</v>
+        <v>44245</v>
       </c>
       <c s="7" r="M62">
-        <v>44325</v>
+        <v>44334</v>
       </c>
       <c s="2" t="inlineStr" r="N62">
         <is>
@@ -4711,20 +4809,16 @@
       </c>
       <c s="2" t="inlineStr" r="O62">
         <is>
-          <t xml:space="preserve">שיטה כחלחלה</t>
+          <t xml:space="preserve">שלטית מקומטת</t>
         </is>
       </c>
       <c s="3" r="P62">
-        <v>23</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q62">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q62"/>
       <c s="4" t="str" r="R62"/>
       <c s="7" r="S62">
-        <v>44235</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="63" ht="14.2" customHeight="0">
@@ -4734,21 +4828,21 @@
         </is>
       </c>
       <c s="3" r="B63">
-        <v>13247</v>
+        <v>13246</v>
       </c>
       <c s="2" t="inlineStr" r="C63">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D63">
         <is>
-          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
+          <t xml:space="preserve">ניר מלמד (עיריית חולון )</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E63">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">בטיחות</t>
         </is>
       </c>
       <c s="2" t="str" r="F63"/>
@@ -4759,7 +4853,7 @@
       </c>
       <c s="2" t="inlineStr" r="H63">
         <is>
-          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
+          <t xml:space="preserve">שכונת נווה ארזים</t>
         </is>
       </c>
       <c s="5" t="str" r="I63"/>
@@ -4778,18 +4872,18 @@
       </c>
       <c s="2" t="inlineStr" r="O63">
         <is>
-          <t xml:space="preserve">אילנתה בלוטית</t>
+          <t xml:space="preserve">אורנים</t>
         </is>
       </c>
       <c s="3" r="P63">
         <v>1</v>
       </c>
-      <c s="2" t="inlineStr" r="Q63">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R63"/>
+      <c s="2" t="str" r="Q63"/>
+      <c s="4" t="inlineStr" r="R63">
+        <is>
+          <t xml:space="preserve">אורן החוף מס' 1618</t>
+        </is>
+      </c>
       <c s="7" r="S63">
         <v>44235</v>
       </c>
@@ -4801,21 +4895,21 @@
         </is>
       </c>
       <c s="3" r="B64">
-        <v>13247</v>
+        <v>13246</v>
       </c>
       <c s="2" t="inlineStr" r="C64">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D64">
         <is>
-          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
+          <t xml:space="preserve">ניר מלמד (עיריית חולון )</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E64">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">בטיחות</t>
         </is>
       </c>
       <c s="2" t="str" r="F64"/>
@@ -4826,7 +4920,7 @@
       </c>
       <c s="2" t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
+          <t xml:space="preserve">שכונת נווה ארזים</t>
         </is>
       </c>
       <c s="5" t="str" r="I64"/>
@@ -4845,18 +4939,18 @@
       </c>
       <c s="2" t="inlineStr" r="O64">
         <is>
-          <t xml:space="preserve">מכנף נאה</t>
+          <t xml:space="preserve">אורן הגלעין</t>
         </is>
       </c>
       <c s="3" r="P64">
-        <v>13</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q64">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R64"/>
+        <v>2</v>
+      </c>
+      <c s="2" t="str" r="Q64"/>
+      <c s="4" t="inlineStr" r="R64">
+        <is>
+          <t xml:space="preserve">מס' 1571 +1182</t>
+        </is>
+      </c>
       <c s="7" r="S64">
         <v>44235</v>
       </c>
@@ -4868,21 +4962,21 @@
         </is>
       </c>
       <c s="3" r="B65">
-        <v>13247</v>
+        <v>13246</v>
       </c>
       <c s="2" t="inlineStr" r="C65">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D65">
         <is>
-          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
+          <t xml:space="preserve">ניר מלמד (עיריית חולון )</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E65">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">בטיחות</t>
         </is>
       </c>
       <c s="2" t="str" r="F65"/>
@@ -4893,7 +4987,7 @@
       </c>
       <c s="2" t="inlineStr" r="H65">
         <is>
-          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
+          <t xml:space="preserve">שכונת נווה ארזים</t>
         </is>
       </c>
       <c s="5" t="str" r="I65"/>
@@ -4912,18 +5006,18 @@
       </c>
       <c s="2" t="inlineStr" r="O65">
         <is>
-          <t xml:space="preserve">סיסם הודי</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P65">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q65">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R65"/>
+        <v>3</v>
+      </c>
+      <c s="2" t="str" r="Q65"/>
+      <c s="4" t="inlineStr" r="R65">
+        <is>
+          <t xml:space="preserve">עץ מס' 595.1178.1172</t>
+        </is>
+      </c>
       <c s="7" r="S65">
         <v>44235</v>
       </c>
@@ -4935,21 +5029,21 @@
         </is>
       </c>
       <c s="3" r="B66">
-        <v>13247</v>
+        <v>13246</v>
       </c>
       <c s="2" t="inlineStr" r="C66">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D66">
         <is>
-          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
+          <t xml:space="preserve">ניר מלמד (עיריית חולון )</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E66">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">בטיחות</t>
         </is>
       </c>
       <c s="2" t="str" r="F66"/>
@@ -4960,7 +5054,7 @@
       </c>
       <c s="2" t="inlineStr" r="H66">
         <is>
-          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
+          <t xml:space="preserve">שכונת נווה ארזים</t>
         </is>
       </c>
       <c s="5" t="str" r="I66"/>
@@ -4979,18 +5073,18 @@
       </c>
       <c s="2" t="inlineStr" r="O66">
         <is>
-          <t xml:space="preserve">צאלון נאה</t>
+          <t xml:space="preserve">אזדרכת מצויה</t>
         </is>
       </c>
       <c s="3" r="P66">
-        <v>2</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q66">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R66"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q66"/>
+      <c s="4" t="inlineStr" r="R66">
+        <is>
+          <t xml:space="preserve">עץ מס' 684</t>
+        </is>
+      </c>
       <c s="7" r="S66">
         <v>44235</v>
       </c>
@@ -5002,21 +5096,21 @@
         </is>
       </c>
       <c s="3" r="B67">
-        <v>13247</v>
+        <v>13246</v>
       </c>
       <c s="2" t="inlineStr" r="C67">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D67">
         <is>
-          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
+          <t xml:space="preserve">ניר מלמד (עיריית חולון )</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E67">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">בטיחות</t>
         </is>
       </c>
       <c s="2" t="str" r="F67"/>
@@ -5027,7 +5121,7 @@
       </c>
       <c s="2" t="inlineStr" r="H67">
         <is>
-          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
+          <t xml:space="preserve">שכונת נווה ארזים</t>
         </is>
       </c>
       <c s="5" t="str" r="I67"/>
@@ -5046,17 +5140,13 @@
       </c>
       <c s="2" t="inlineStr" r="O67">
         <is>
-          <t xml:space="preserve">פיקוס השיקמה</t>
+          <t xml:space="preserve">קזוארינה שבטבטית</t>
         </is>
       </c>
       <c s="3" r="P67">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q67">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c s="2" t="str" r="Q67"/>
       <c s="4" t="str" r="R67"/>
       <c s="7" r="S67">
         <v>44235</v>
@@ -5069,21 +5159,21 @@
         </is>
       </c>
       <c s="3" r="B68">
-        <v>13247</v>
+        <v>13246</v>
       </c>
       <c s="2" t="inlineStr" r="C68">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D68">
         <is>
-          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
+          <t xml:space="preserve">ניר מלמד (עיריית חולון )</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E68">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">בטיחות</t>
         </is>
       </c>
       <c s="2" t="str" r="F68"/>
@@ -5094,7 +5184,7 @@
       </c>
       <c s="2" t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
+          <t xml:space="preserve">שכונת נווה ארזים</t>
         </is>
       </c>
       <c s="5" t="str" r="I68"/>
@@ -5113,17 +5203,13 @@
       </c>
       <c s="2" t="inlineStr" r="O68">
         <is>
-          <t xml:space="preserve">דקלים - גילת</t>
+          <t xml:space="preserve">לא ידוע</t>
         </is>
       </c>
       <c s="3" r="P68">
-        <v>7</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q68">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q68"/>
       <c s="4" t="str" r="R68"/>
       <c s="7" r="S68">
         <v>44235</v>
@@ -5180,11 +5266,11 @@
       </c>
       <c s="2" t="inlineStr" r="O69">
         <is>
-          <t xml:space="preserve">ליוויסטונה סינית</t>
+          <t xml:space="preserve">שיטה כחלחלה</t>
         </is>
       </c>
       <c s="3" r="P69">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c s="2" t="inlineStr" r="Q69">
         <is>
@@ -5247,11 +5333,11 @@
       </c>
       <c s="2" t="inlineStr" r="O70">
         <is>
-          <t xml:space="preserve">סייאגרוס רומנזוף</t>
+          <t xml:space="preserve">אילנתה בלוטית</t>
         </is>
       </c>
       <c s="3" r="P70">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q70">
         <is>
@@ -5314,11 +5400,11 @@
       </c>
       <c s="2" t="inlineStr" r="O71">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">מכנף נאה</t>
         </is>
       </c>
       <c s="3" r="P71">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c s="2" t="inlineStr" r="Q71">
         <is>
@@ -5381,7 +5467,7 @@
       </c>
       <c s="2" t="inlineStr" r="O72">
         <is>
-          <t xml:space="preserve">תמר קנרי</t>
+          <t xml:space="preserve">סיסם הודי</t>
         </is>
       </c>
       <c s="3" r="P72">
@@ -5448,11 +5534,11 @@
       </c>
       <c s="2" t="inlineStr" r="O73">
         <is>
-          <t xml:space="preserve">פיקוס מעוקם</t>
+          <t xml:space="preserve">צאלון נאה</t>
         </is>
       </c>
       <c s="3" r="P73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q73">
         <is>
@@ -5515,15 +5601,15 @@
       </c>
       <c s="2" t="inlineStr" r="O74">
         <is>
-          <t xml:space="preserve">שלטית מקומטת</t>
+          <t xml:space="preserve">פיקוס השיקמה</t>
         </is>
       </c>
       <c s="3" r="P74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q74">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R74"/>
@@ -5538,21 +5624,21 @@
         </is>
       </c>
       <c s="3" r="B75">
-        <v>13250</v>
+        <v>13247</v>
       </c>
       <c s="2" t="inlineStr" r="C75">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D75">
         <is>
-          <t xml:space="preserve">*עיריית חולון*-מרדכי ישר</t>
+          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E75">
         <is>
-          <t xml:space="preserve">סכנה בריאותית לציבור</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F75"/>
@@ -5563,21 +5649,17 @@
       </c>
       <c s="2" t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">גאולים (פינת הקונגרס)</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I75">
-        <is>
-          <t xml:space="preserve">16</t>
-        </is>
-      </c>
+          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I75"/>
       <c s="5" t="str" r="J75"/>
       <c s="6" t="str" r="K75"/>
       <c s="7" r="L75">
         <v>44236</v>
       </c>
       <c s="7" r="M75">
-        <v>44263</v>
+        <v>44325</v>
       </c>
       <c s="2" t="inlineStr" r="N75">
         <is>
@@ -5590,9 +5672,13 @@
         </is>
       </c>
       <c s="3" r="P75">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q75"/>
+        <v>7</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q75">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R75"/>
       <c s="7" r="S75">
         <v>44235</v>
@@ -5605,46 +5691,42 @@
         </is>
       </c>
       <c s="3" r="B76">
-        <v>13253</v>
+        <v>13247</v>
       </c>
       <c s="2" t="inlineStr" r="C76">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D76">
         <is>
-          <t xml:space="preserve">עיריית בני ברק</t>
+          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E76">
         <is>
-          <t xml:space="preserve">בטיחות</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F76"/>
       <c s="4" t="inlineStr" r="G76">
         <is>
-          <t xml:space="preserve">בני ברק             </t>
+          <t xml:space="preserve">חולון               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H76">
         <is>
-          <t xml:space="preserve">דנגור</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I76">
-        <is>
-          <t xml:space="preserve">13</t>
-        </is>
-      </c>
+          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I76"/>
       <c s="5" t="str" r="J76"/>
       <c s="6" t="str" r="K76"/>
       <c s="7" r="L76">
-        <v>44245</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M76">
-        <v>44334</v>
+        <v>44325</v>
       </c>
       <c s="2" t="inlineStr" r="N76">
         <is>
@@ -5653,16 +5735,20 @@
       </c>
       <c s="2" t="inlineStr" r="O76">
         <is>
-          <t xml:space="preserve">אזדרכת מצויה</t>
+          <t xml:space="preserve">ליוויסטונה סינית</t>
         </is>
       </c>
       <c s="3" r="P76">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q76"/>
+        <v>5</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q76">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R76"/>
       <c s="7" r="S76">
-        <v>44244</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="77" ht="14.15" customHeight="0">
@@ -5672,16 +5758,16 @@
         </is>
       </c>
       <c s="3" r="B77">
-        <v>13256</v>
+        <v>13247</v>
       </c>
       <c s="2" t="inlineStr" r="C77">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D77">
         <is>
-          <t xml:space="preserve">יגל דויטש</t>
+          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E77">
@@ -5692,22 +5778,22 @@
       <c s="2" t="str" r="F77"/>
       <c s="4" t="inlineStr" r="G77">
         <is>
-          <t xml:space="preserve">בת ים               </t>
+          <t xml:space="preserve">חולון               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H77">
         <is>
-          <t xml:space="preserve">רק"ל קו אדום בת ים רח' רוטשילד</t>
+          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
         </is>
       </c>
       <c s="5" t="str" r="I77"/>
       <c s="5" t="str" r="J77"/>
       <c s="6" t="str" r="K77"/>
       <c s="7" r="L77">
-        <v>44245</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M77">
-        <v>44334</v>
+        <v>44325</v>
       </c>
       <c s="2" t="inlineStr" r="N77">
         <is>
@@ -5716,16 +5802,20 @@
       </c>
       <c s="2" t="inlineStr" r="O77">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">סייאגרוס רומנזוף</t>
         </is>
       </c>
       <c s="3" r="P77">
-        <v>3</v>
-      </c>
-      <c s="2" t="str" r="Q77"/>
+        <v>31</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q77">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R77"/>
       <c s="7" r="S77">
-        <v>44244</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="78" ht="14.2" customHeight="0">
@@ -5735,16 +5825,16 @@
         </is>
       </c>
       <c s="3" r="B78">
-        <v>13258</v>
+        <v>13247</v>
       </c>
       <c s="2" t="inlineStr" r="C78">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D78">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E78">
@@ -5760,25 +5850,17 @@
       </c>
       <c s="2" t="inlineStr" r="H78">
         <is>
-          <t xml:space="preserve">משה דיין</t>
+          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
         </is>
       </c>
       <c s="5" t="str" r="I78"/>
-      <c s="5" t="inlineStr" r="J78">
-        <is>
-          <t xml:space="preserve">6759,7126</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K78">
-        <is>
-          <t xml:space="preserve">224.240.291.323</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J78"/>
+      <c s="6" t="str" r="K78"/>
       <c s="7" r="L78">
-        <v>44245</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M78">
-        <v>44334</v>
+        <v>44325</v>
       </c>
       <c s="2" t="inlineStr" r="N78">
         <is>
@@ -5787,16 +5869,20 @@
       </c>
       <c s="2" t="inlineStr" r="O78">
         <is>
-          <t xml:space="preserve">ברוש גדול-פירות</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P78">
-        <v>4</v>
-      </c>
-      <c s="2" t="str" r="Q78"/>
+        <v>5</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q78">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R78"/>
       <c s="7" r="S78">
-        <v>44244</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="79" ht="14.15" customHeight="0">
@@ -5806,16 +5892,16 @@
         </is>
       </c>
       <c s="3" r="B79">
-        <v>13258</v>
+        <v>13247</v>
       </c>
       <c s="2" t="inlineStr" r="C79">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D79">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E79">
@@ -5831,25 +5917,17 @@
       </c>
       <c s="2" t="inlineStr" r="H79">
         <is>
-          <t xml:space="preserve">משה דיין</t>
+          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
         </is>
       </c>
       <c s="5" t="str" r="I79"/>
-      <c s="5" t="inlineStr" r="J79">
-        <is>
-          <t xml:space="preserve">6759,7126</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K79">
-        <is>
-          <t xml:space="preserve">224.240.291.323</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J79"/>
+      <c s="6" t="str" r="K79"/>
       <c s="7" r="L79">
-        <v>44245</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M79">
-        <v>44334</v>
+        <v>44325</v>
       </c>
       <c s="2" t="inlineStr" r="N79">
         <is>
@@ -5858,16 +5936,20 @@
       </c>
       <c s="2" t="inlineStr" r="O79">
         <is>
-          <t xml:space="preserve">מכנף נאה</t>
+          <t xml:space="preserve">תמר קנרי</t>
         </is>
       </c>
       <c s="3" r="P79">
-        <v>4</v>
-      </c>
-      <c s="2" t="str" r="Q79"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q79">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R79"/>
       <c s="7" r="S79">
-        <v>44244</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="80" ht="14.2" customHeight="0">
@@ -5877,16 +5959,16 @@
         </is>
       </c>
       <c s="3" r="B80">
-        <v>13258</v>
+        <v>13247</v>
       </c>
       <c s="2" t="inlineStr" r="C80">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D80">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E80">
@@ -5902,25 +5984,17 @@
       </c>
       <c s="2" t="inlineStr" r="H80">
         <is>
-          <t xml:space="preserve">משה דיין</t>
+          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
         </is>
       </c>
       <c s="5" t="str" r="I80"/>
-      <c s="5" t="inlineStr" r="J80">
-        <is>
-          <t xml:space="preserve">6759,7126</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K80">
-        <is>
-          <t xml:space="preserve">224.240.291.323</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J80"/>
+      <c s="6" t="str" r="K80"/>
       <c s="7" r="L80">
-        <v>44245</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M80">
-        <v>44334</v>
+        <v>44325</v>
       </c>
       <c s="2" t="inlineStr" r="N80">
         <is>
@@ -5929,16 +6003,20 @@
       </c>
       <c s="2" t="inlineStr" r="O80">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">פיקוס מעוקם</t>
         </is>
       </c>
       <c s="3" r="P80">
-        <v>12</v>
-      </c>
-      <c s="2" t="str" r="Q80"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q80">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R80"/>
       <c s="7" r="S80">
-        <v>44244</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="81" ht="14.15" customHeight="0">
@@ -5948,16 +6026,16 @@
         </is>
       </c>
       <c s="3" r="B81">
-        <v>13258</v>
+        <v>13247</v>
       </c>
       <c s="2" t="inlineStr" r="C81">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D81">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">י.ד עשוש תעשיות בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E81">
@@ -5973,25 +6051,17 @@
       </c>
       <c s="2" t="inlineStr" r="H81">
         <is>
-          <t xml:space="preserve">משה דיין</t>
+          <t xml:space="preserve">מקטע g1-7 - שד' לוי אשכול </t>
         </is>
       </c>
       <c s="5" t="str" r="I81"/>
-      <c s="5" t="inlineStr" r="J81">
-        <is>
-          <t xml:space="preserve">6759,7126</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K81">
-        <is>
-          <t xml:space="preserve">224.240.291.323</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J81"/>
+      <c s="6" t="str" r="K81"/>
       <c s="7" r="L81">
-        <v>44245</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M81">
-        <v>44334</v>
+        <v>44325</v>
       </c>
       <c s="2" t="inlineStr" r="N81">
         <is>
@@ -6000,16 +6070,20 @@
       </c>
       <c s="2" t="inlineStr" r="O81">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">שלטית מקומטת</t>
         </is>
       </c>
       <c s="3" r="P81">
-        <v>9</v>
-      </c>
-      <c s="2" t="str" r="Q81"/>
+        <v>4</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q81">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R81"/>
       <c s="7" r="S81">
-        <v>44244</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="82" ht="14.2" customHeight="0">
@@ -6019,7 +6093,7 @@
         </is>
       </c>
       <c s="3" r="B82">
-        <v>13258</v>
+        <v>13250</v>
       </c>
       <c s="2" t="inlineStr" r="C82">
         <is>
@@ -6028,12 +6102,12 @@
       </c>
       <c s="2" t="inlineStr" r="D82">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">*עיריית חולון*-מרדכי ישר</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E82">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">סכנה בריאותית לציבור</t>
         </is>
       </c>
       <c s="2" t="str" r="F82"/>
@@ -6044,25 +6118,21 @@
       </c>
       <c s="2" t="inlineStr" r="H82">
         <is>
-          <t xml:space="preserve">משה דיין</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I82"/>
-      <c s="5" t="inlineStr" r="J82">
-        <is>
-          <t xml:space="preserve">6759,7126</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K82">
-        <is>
-          <t xml:space="preserve">224.240.291.323</t>
-        </is>
-      </c>
+          <t xml:space="preserve">גאולים (פינת הקונגרס)</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I82">
+        <is>
+          <t xml:space="preserve">16</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J82"/>
+      <c s="6" t="str" r="K82"/>
       <c s="7" r="L82">
-        <v>44245</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M82">
-        <v>44334</v>
+        <v>44263</v>
       </c>
       <c s="2" t="inlineStr" r="N82">
         <is>
@@ -6071,16 +6141,16 @@
       </c>
       <c s="2" t="inlineStr" r="O82">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">דקלים - גילת</t>
         </is>
       </c>
       <c s="3" r="P82">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q82"/>
       <c s="4" t="str" r="R82"/>
       <c s="7" r="S82">
-        <v>44244</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="83" ht="14.15" customHeight="0">
@@ -6090,7 +6160,7 @@
         </is>
       </c>
       <c s="3" r="B83">
-        <v>13258</v>
+        <v>13253</v>
       </c>
       <c s="2" t="inlineStr" r="C83">
         <is>
@@ -6099,36 +6169,32 @@
       </c>
       <c s="2" t="inlineStr" r="D83">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">עיריית בני ברק</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E83">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">בטיחות</t>
         </is>
       </c>
       <c s="2" t="str" r="F83"/>
       <c s="4" t="inlineStr" r="G83">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">בני ברק             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H83">
         <is>
-          <t xml:space="preserve">משה דיין</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I83"/>
-      <c s="5" t="inlineStr" r="J83">
-        <is>
-          <t xml:space="preserve">6759,7126</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K83">
-        <is>
-          <t xml:space="preserve">224.240.291.323</t>
-        </is>
-      </c>
+          <t xml:space="preserve">דנגור</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I83">
+        <is>
+          <t xml:space="preserve">13</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J83"/>
+      <c s="6" t="str" r="K83"/>
       <c s="7" r="L83">
         <v>44245</v>
       </c>
@@ -6142,7 +6208,7 @@
       </c>
       <c s="2" t="inlineStr" r="O83">
         <is>
-          <t xml:space="preserve">פיקוס בינימינה</t>
+          <t xml:space="preserve">אזדרכת מצויה</t>
         </is>
       </c>
       <c s="3" r="P83">
@@ -6161,7 +6227,7 @@
         </is>
       </c>
       <c s="3" r="B84">
-        <v>13258</v>
+        <v>13256</v>
       </c>
       <c s="2" t="inlineStr" r="C84">
         <is>
@@ -6170,7 +6236,7 @@
       </c>
       <c s="2" t="inlineStr" r="D84">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">יגל דויטש</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E84">
@@ -6181,25 +6247,17 @@
       <c s="2" t="str" r="F84"/>
       <c s="4" t="inlineStr" r="G84">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">בת ים               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H84">
         <is>
-          <t xml:space="preserve">משה דיין</t>
+          <t xml:space="preserve">רק"ל קו אדום בת ים רח' רוטשילד</t>
         </is>
       </c>
       <c s="5" t="str" r="I84"/>
-      <c s="5" t="inlineStr" r="J84">
-        <is>
-          <t xml:space="preserve">6759,7126</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K84">
-        <is>
-          <t xml:space="preserve">224.240.291.323</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J84"/>
+      <c s="6" t="str" r="K84"/>
       <c s="7" r="L84">
         <v>44245</v>
       </c>
@@ -6213,11 +6271,11 @@
       </c>
       <c s="2" t="inlineStr" r="O84">
         <is>
-          <t xml:space="preserve">שלטית מקומטת</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P84">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c s="2" t="str" r="Q84"/>
       <c s="4" t="str" r="R84"/>
@@ -6284,7 +6342,7 @@
       </c>
       <c s="2" t="inlineStr" r="O85">
         <is>
-          <t xml:space="preserve">פנסית דו-נוצתית</t>
+          <t xml:space="preserve">ברוש גדול-פירות</t>
         </is>
       </c>
       <c s="3" r="P85">
@@ -6299,11 +6357,11 @@
     <row r="86" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A86">
         <is>
-          <t xml:space="preserve">מנשה שרון</t>
+          <t xml:space="preserve">שפלה חוף</t>
         </is>
       </c>
       <c s="3" r="B86">
-        <v>18332</v>
+        <v>13258</v>
       </c>
       <c s="2" t="inlineStr" r="C86">
         <is>
@@ -6312,7 +6370,7 @@
       </c>
       <c s="2" t="inlineStr" r="D86">
         <is>
-          <t xml:space="preserve">סוירף ואדים</t>
+          <t xml:space="preserve">גיל נכט</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E86">
@@ -6323,66 +6381,58 @@
       <c s="2" t="str" r="F86"/>
       <c s="4" t="inlineStr" r="G86">
         <is>
-          <t xml:space="preserve">כפר שמריהו          </t>
+          <t xml:space="preserve">חולון               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H86">
         <is>
-          <t xml:space="preserve">הזורע</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I86">
-        <is>
-          <t xml:space="preserve">34</t>
-        </is>
-      </c>
+          <t xml:space="preserve">משה דיין</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I86"/>
       <c s="5" t="inlineStr" r="J86">
         <is>
-          <t xml:space="preserve">6665</t>
+          <t xml:space="preserve">6759,7126</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K86">
         <is>
-          <t xml:space="preserve">284</t>
+          <t xml:space="preserve">224.240.291.323</t>
         </is>
       </c>
       <c s="7" r="L86">
-        <v>44235</v>
+        <v>44245</v>
       </c>
       <c s="7" r="M86">
-        <v>44965</v>
+        <v>44334</v>
       </c>
       <c s="2" t="inlineStr" r="N86">
         <is>
-          <t xml:space="preserve">רמי דוידי</t>
+          <t xml:space="preserve">גלעד מסטאי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O86">
         <is>
-          <t xml:space="preserve">תות לבן</t>
+          <t xml:space="preserve">מכנף נאה</t>
         </is>
       </c>
       <c s="3" r="P86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="2" t="str" r="Q86"/>
-      <c s="4" t="inlineStr" r="R86">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R86"/>
       <c s="7" r="S86">
-        <v>44234</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="87" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A87">
         <is>
-          <t xml:space="preserve">מנשה שרון</t>
+          <t xml:space="preserve">שפלה חוף</t>
         </is>
       </c>
       <c s="3" r="B87">
-        <v>18332</v>
+        <v>13258</v>
       </c>
       <c s="2" t="inlineStr" r="C87">
         <is>
@@ -6391,7 +6441,7 @@
       </c>
       <c s="2" t="inlineStr" r="D87">
         <is>
-          <t xml:space="preserve">סוירף ואדים</t>
+          <t xml:space="preserve">גיל נכט</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E87">
@@ -6402,66 +6452,58 @@
       <c s="2" t="str" r="F87"/>
       <c s="4" t="inlineStr" r="G87">
         <is>
-          <t xml:space="preserve">כפר שמריהו          </t>
+          <t xml:space="preserve">חולון               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H87">
         <is>
-          <t xml:space="preserve">הזורע</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I87">
-        <is>
-          <t xml:space="preserve">34</t>
-        </is>
-      </c>
+          <t xml:space="preserve">משה דיין</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I87"/>
       <c s="5" t="inlineStr" r="J87">
         <is>
-          <t xml:space="preserve">6665</t>
+          <t xml:space="preserve">6759,7126</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K87">
         <is>
-          <t xml:space="preserve">284</t>
+          <t xml:space="preserve">224.240.291.323</t>
         </is>
       </c>
       <c s="7" r="L87">
-        <v>44235</v>
+        <v>44245</v>
       </c>
       <c s="7" r="M87">
-        <v>44965</v>
+        <v>44334</v>
       </c>
       <c s="2" t="inlineStr" r="N87">
         <is>
-          <t xml:space="preserve">רמי דוידי</t>
+          <t xml:space="preserve">גלעד מסטאי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O87">
         <is>
-          <t xml:space="preserve">טרכיקרפוס פורטון</t>
+          <t xml:space="preserve">זית אירופי</t>
         </is>
       </c>
       <c s="3" r="P87">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c s="2" t="str" r="Q87"/>
-      <c s="4" t="inlineStr" r="R87">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R87"/>
       <c s="7" r="S87">
-        <v>44234</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="88" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A88">
         <is>
-          <t xml:space="preserve">מנשה שרון</t>
+          <t xml:space="preserve">שפלה חוף</t>
         </is>
       </c>
       <c s="3" r="B88">
-        <v>18332</v>
+        <v>13258</v>
       </c>
       <c s="2" t="inlineStr" r="C88">
         <is>
@@ -6470,7 +6512,7 @@
       </c>
       <c s="2" t="inlineStr" r="D88">
         <is>
-          <t xml:space="preserve">סוירף ואדים</t>
+          <t xml:space="preserve">גיל נכט</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E88">
@@ -6481,38 +6523,34 @@
       <c s="2" t="str" r="F88"/>
       <c s="4" t="inlineStr" r="G88">
         <is>
-          <t xml:space="preserve">כפר שמריהו          </t>
+          <t xml:space="preserve">חולון               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H88">
         <is>
-          <t xml:space="preserve">הזורע</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I88">
-        <is>
-          <t xml:space="preserve">34</t>
-        </is>
-      </c>
+          <t xml:space="preserve">משה דיין</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I88"/>
       <c s="5" t="inlineStr" r="J88">
         <is>
-          <t xml:space="preserve">6665</t>
+          <t xml:space="preserve">6759,7126</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K88">
         <is>
-          <t xml:space="preserve">284</t>
+          <t xml:space="preserve">224.240.291.323</t>
         </is>
       </c>
       <c s="7" r="L88">
-        <v>44235</v>
+        <v>44245</v>
       </c>
       <c s="7" r="M88">
-        <v>44965</v>
+        <v>44334</v>
       </c>
       <c s="2" t="inlineStr" r="N88">
         <is>
-          <t xml:space="preserve">רמי דוידי</t>
+          <t xml:space="preserve">גלעד מסטאי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O88">
@@ -6521,26 +6559,22 @@
         </is>
       </c>
       <c s="3" r="P88">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c s="2" t="str" r="Q88"/>
-      <c s="4" t="inlineStr" r="R88">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R88"/>
       <c s="7" r="S88">
-        <v>44234</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="89" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A89">
         <is>
-          <t xml:space="preserve">מנשה שרון</t>
+          <t xml:space="preserve">שפלה חוף</t>
         </is>
       </c>
       <c s="3" r="B89">
-        <v>18332</v>
+        <v>13258</v>
       </c>
       <c s="2" t="inlineStr" r="C89">
         <is>
@@ -6549,7 +6583,7 @@
       </c>
       <c s="2" t="inlineStr" r="D89">
         <is>
-          <t xml:space="preserve">סוירף ואדים</t>
+          <t xml:space="preserve">גיל נכט</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E89">
@@ -6560,66 +6594,58 @@
       <c s="2" t="str" r="F89"/>
       <c s="4" t="inlineStr" r="G89">
         <is>
-          <t xml:space="preserve">כפר שמריהו          </t>
+          <t xml:space="preserve">חולון               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H89">
         <is>
-          <t xml:space="preserve">הזורע</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I89">
-        <is>
-          <t xml:space="preserve">34</t>
-        </is>
-      </c>
+          <t xml:space="preserve">משה דיין</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I89"/>
       <c s="5" t="inlineStr" r="J89">
         <is>
-          <t xml:space="preserve">6665</t>
+          <t xml:space="preserve">6759,7126</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K89">
         <is>
-          <t xml:space="preserve">284</t>
+          <t xml:space="preserve">224.240.291.323</t>
         </is>
       </c>
       <c s="7" r="L89">
-        <v>44235</v>
+        <v>44245</v>
       </c>
       <c s="7" r="M89">
-        <v>44965</v>
+        <v>44334</v>
       </c>
       <c s="2" t="inlineStr" r="N89">
         <is>
-          <t xml:space="preserve">רמי דוידי</t>
+          <t xml:space="preserve">גלעד מסטאי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O89">
         <is>
-          <t xml:space="preserve">דקל משולש</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P89">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c s="2" t="str" r="Q89"/>
-      <c s="4" t="inlineStr" r="R89">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R89"/>
       <c s="7" r="S89">
-        <v>44234</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="90" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A90">
         <is>
-          <t xml:space="preserve">מנשה שרון</t>
+          <t xml:space="preserve">שפלה חוף</t>
         </is>
       </c>
       <c s="3" r="B90">
-        <v>18332</v>
+        <v>13258</v>
       </c>
       <c s="2" t="inlineStr" r="C90">
         <is>
@@ -6628,7 +6654,7 @@
       </c>
       <c s="2" t="inlineStr" r="D90">
         <is>
-          <t xml:space="preserve">סוירף ואדים</t>
+          <t xml:space="preserve">גיל נכט</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E90">
@@ -6639,66 +6665,58 @@
       <c s="2" t="str" r="F90"/>
       <c s="4" t="inlineStr" r="G90">
         <is>
-          <t xml:space="preserve">כפר שמריהו          </t>
+          <t xml:space="preserve">חולון               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H90">
         <is>
-          <t xml:space="preserve">הזורע</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I90">
-        <is>
-          <t xml:space="preserve">34</t>
-        </is>
-      </c>
+          <t xml:space="preserve">משה דיין</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I90"/>
       <c s="5" t="inlineStr" r="J90">
         <is>
-          <t xml:space="preserve">6665</t>
+          <t xml:space="preserve">6759,7126</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K90">
         <is>
-          <t xml:space="preserve">284</t>
+          <t xml:space="preserve">224.240.291.323</t>
         </is>
       </c>
       <c s="7" r="L90">
-        <v>44235</v>
+        <v>44245</v>
       </c>
       <c s="7" r="M90">
-        <v>44965</v>
+        <v>44334</v>
       </c>
       <c s="2" t="inlineStr" r="N90">
         <is>
-          <t xml:space="preserve">רמי דוידי</t>
+          <t xml:space="preserve">גלעד מסטאי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O90">
         <is>
-          <t xml:space="preserve">סייגרוס רומנזוף</t>
+          <t xml:space="preserve">פיקוס בינימינה</t>
         </is>
       </c>
       <c s="3" r="P90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q90"/>
-      <c s="4" t="inlineStr" r="R90">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R90"/>
       <c s="7" r="S90">
-        <v>44234</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="91" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A91">
         <is>
-          <t xml:space="preserve">מנשה שרון</t>
+          <t xml:space="preserve">שפלה חוף</t>
         </is>
       </c>
       <c s="3" r="B91">
-        <v>18332</v>
+        <v>13258</v>
       </c>
       <c s="2" t="inlineStr" r="C91">
         <is>
@@ -6707,7 +6725,7 @@
       </c>
       <c s="2" t="inlineStr" r="D91">
         <is>
-          <t xml:space="preserve">סוירף ואדים</t>
+          <t xml:space="preserve">גיל נכט</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E91">
@@ -6718,66 +6736,58 @@
       <c s="2" t="str" r="F91"/>
       <c s="4" t="inlineStr" r="G91">
         <is>
-          <t xml:space="preserve">כפר שמריהו          </t>
+          <t xml:space="preserve">חולון               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H91">
         <is>
-          <t xml:space="preserve">הזורע</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I91">
-        <is>
-          <t xml:space="preserve">34</t>
-        </is>
-      </c>
+          <t xml:space="preserve">משה דיין</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I91"/>
       <c s="5" t="inlineStr" r="J91">
         <is>
-          <t xml:space="preserve">6665</t>
+          <t xml:space="preserve">6759,7126</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K91">
         <is>
-          <t xml:space="preserve">284</t>
+          <t xml:space="preserve">224.240.291.323</t>
         </is>
       </c>
       <c s="7" r="L91">
-        <v>44235</v>
+        <v>44245</v>
       </c>
       <c s="7" r="M91">
-        <v>44965</v>
+        <v>44334</v>
       </c>
       <c s="2" t="inlineStr" r="N91">
         <is>
-          <t xml:space="preserve">רמי דוידי</t>
+          <t xml:space="preserve">גלעד מסטאי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O91">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">שלטית מקומטת</t>
         </is>
       </c>
       <c s="3" r="P91">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c s="2" t="str" r="Q91"/>
-      <c s="4" t="inlineStr" r="R91">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R91"/>
       <c s="7" r="S91">
-        <v>44234</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="92" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A92">
         <is>
-          <t xml:space="preserve">מנשה שרון</t>
+          <t xml:space="preserve">שפלה חוף</t>
         </is>
       </c>
       <c s="3" r="B92">
-        <v>18332</v>
+        <v>13258</v>
       </c>
       <c s="2" t="inlineStr" r="C92">
         <is>
@@ -6786,7 +6796,7 @@
       </c>
       <c s="2" t="inlineStr" r="D92">
         <is>
-          <t xml:space="preserve">סוירף ואדים</t>
+          <t xml:space="preserve">גיל נכט</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E92">
@@ -6797,56 +6807,48 @@
       <c s="2" t="str" r="F92"/>
       <c s="4" t="inlineStr" r="G92">
         <is>
-          <t xml:space="preserve">כפר שמריהו          </t>
+          <t xml:space="preserve">חולון               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H92">
         <is>
-          <t xml:space="preserve">הזורע</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I92">
-        <is>
-          <t xml:space="preserve">34</t>
-        </is>
-      </c>
+          <t xml:space="preserve">משה דיין</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I92"/>
       <c s="5" t="inlineStr" r="J92">
         <is>
-          <t xml:space="preserve">6665</t>
+          <t xml:space="preserve">6759,7126</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K92">
         <is>
-          <t xml:space="preserve">284</t>
+          <t xml:space="preserve">224.240.291.323</t>
         </is>
       </c>
       <c s="7" r="L92">
-        <v>44235</v>
+        <v>44245</v>
       </c>
       <c s="7" r="M92">
-        <v>44965</v>
+        <v>44334</v>
       </c>
       <c s="2" t="inlineStr" r="N92">
         <is>
-          <t xml:space="preserve">רמי דוידי</t>
+          <t xml:space="preserve">גלעד מסטאי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O92">
         <is>
-          <t xml:space="preserve">פיקוס בינימינה</t>
+          <t xml:space="preserve">פנסית דו-נוצתית</t>
         </is>
       </c>
       <c s="3" r="P92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="2" t="str" r="Q92"/>
-      <c s="4" t="inlineStr" r="R92">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R92"/>
       <c s="7" r="S92">
-        <v>44234</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="93" ht="14.2" customHeight="0">
@@ -6912,7 +6914,7 @@
       </c>
       <c s="2" t="inlineStr" r="O93">
         <is>
-          <t xml:space="preserve">פיקוס אוזני</t>
+          <t xml:space="preserve">תות לבן</t>
         </is>
       </c>
       <c s="3" r="P93">
@@ -6921,7 +6923,7 @@
       <c s="2" t="str" r="Q93"/>
       <c s="4" t="inlineStr" r="R93">
         <is>
-          <t xml:space="preserve">דקל טבעות לכריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S93">
@@ -6991,11 +6993,11 @@
       </c>
       <c s="2" t="inlineStr" r="O94">
         <is>
-          <t xml:space="preserve">קתרוסית מרובעת</t>
+          <t xml:space="preserve">טרכיקרפוס פורטון</t>
         </is>
       </c>
       <c s="3" r="P94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q94"/>
       <c s="4" t="inlineStr" r="R94">
@@ -7014,7 +7016,7 @@
         </is>
       </c>
       <c s="3" r="B95">
-        <v>20947</v>
+        <v>18332</v>
       </c>
       <c s="2" t="inlineStr" r="C95">
         <is>
@@ -7023,41 +7025,45 @@
       </c>
       <c s="2" t="inlineStr" r="D95">
         <is>
-          <t xml:space="preserve">כוכבי אריאלה</t>
+          <t xml:space="preserve">סוירף ואדים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E95">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F95">
-        <is>
-          <t xml:space="preserve">גבוה וקרוב לבית</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F95"/>
       <c s="4" t="inlineStr" r="G95">
         <is>
-          <t xml:space="preserve">כפר סבא             </t>
+          <t xml:space="preserve">כפר שמריהו          </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H95">
         <is>
-          <t xml:space="preserve">טהון</t>
+          <t xml:space="preserve">הזורע</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I95">
         <is>
-          <t xml:space="preserve">9</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J95"/>
-      <c s="6" t="str" r="K95"/>
+          <t xml:space="preserve">34</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J95">
+        <is>
+          <t xml:space="preserve">6665</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K95">
+        <is>
+          <t xml:space="preserve">284</t>
+        </is>
+      </c>
       <c s="7" r="L95">
-        <v>44629</v>
+        <v>44235</v>
       </c>
       <c s="7" r="M95">
-        <v>44629</v>
+        <v>44965</v>
       </c>
       <c s="2" t="inlineStr" r="N95">
         <is>
@@ -7066,20 +7072,20 @@
       </c>
       <c s="2" t="inlineStr" r="O95">
         <is>
-          <t xml:space="preserve">דקל משולש</t>
+          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P95">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c s="2" t="str" r="Q95"/>
       <c s="4" t="inlineStr" r="R95">
         <is>
-          <t xml:space="preserve">דקל לכריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S95">
-        <v>44628</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="96" ht="14.15" customHeight="0">
@@ -7089,7 +7095,7 @@
         </is>
       </c>
       <c s="3" r="B96">
-        <v>20947</v>
+        <v>18332</v>
       </c>
       <c s="2" t="inlineStr" r="C96">
         <is>
@@ -7098,41 +7104,45 @@
       </c>
       <c s="2" t="inlineStr" r="D96">
         <is>
-          <t xml:space="preserve">כוכבי אריאלה</t>
+          <t xml:space="preserve">סוירף ואדים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E96">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F96">
-        <is>
-          <t xml:space="preserve">גבוה וקרוב לבית</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F96"/>
       <c s="4" t="inlineStr" r="G96">
         <is>
-          <t xml:space="preserve">כפר סבא             </t>
+          <t xml:space="preserve">כפר שמריהו          </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H96">
         <is>
-          <t xml:space="preserve">טהון</t>
+          <t xml:space="preserve">הזורע</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I96">
         <is>
-          <t xml:space="preserve">9</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J96"/>
-      <c s="6" t="str" r="K96"/>
+          <t xml:space="preserve">34</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J96">
+        <is>
+          <t xml:space="preserve">6665</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K96">
+        <is>
+          <t xml:space="preserve">284</t>
+        </is>
+      </c>
       <c s="7" r="L96">
-        <v>44629</v>
+        <v>44235</v>
       </c>
       <c s="7" r="M96">
-        <v>44629</v>
+        <v>44965</v>
       </c>
       <c s="2" t="inlineStr" r="N96">
         <is>
@@ -7141,11 +7151,11 @@
       </c>
       <c s="2" t="inlineStr" r="O96">
         <is>
-          <t xml:space="preserve">אבוקדו הודי</t>
+          <t xml:space="preserve">דקל משולש</t>
         </is>
       </c>
       <c s="3" r="P96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="2" t="str" r="Q96"/>
       <c s="4" t="inlineStr" r="R96">
@@ -7154,7 +7164,7 @@
         </is>
       </c>
       <c s="7" r="S96">
-        <v>44628</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="97" ht="14.2" customHeight="0">
@@ -7164,7 +7174,7 @@
         </is>
       </c>
       <c s="3" r="B97">
-        <v>20965</v>
+        <v>18332</v>
       </c>
       <c s="2" t="inlineStr" r="C97">
         <is>
@@ -7173,7 +7183,7 @@
       </c>
       <c s="2" t="inlineStr" r="D97">
         <is>
-          <t xml:space="preserve">תמ"א 38 בורוכוב 41 רעננה בע"מ</t>
+          <t xml:space="preserve">סוירף ואדים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E97">
@@ -7184,27 +7194,27 @@
       <c s="2" t="str" r="F97"/>
       <c s="4" t="inlineStr" r="G97">
         <is>
-          <t xml:space="preserve">רעננה               </t>
+          <t xml:space="preserve">כפר שמריהו          </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H97">
         <is>
-          <t xml:space="preserve">בורוכוב</t>
+          <t xml:space="preserve">הזורע</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I97">
         <is>
-          <t xml:space="preserve">41</t>
+          <t xml:space="preserve">34</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="J97">
         <is>
-          <t xml:space="preserve">6580</t>
+          <t xml:space="preserve">6665</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K97">
         <is>
-          <t xml:space="preserve">952</t>
+          <t xml:space="preserve">284</t>
         </is>
       </c>
       <c s="7" r="L97">
@@ -7220,11 +7230,11 @@
       </c>
       <c s="2" t="inlineStr" r="O97">
         <is>
-          <t xml:space="preserve">אראוקריה רמה</t>
+          <t xml:space="preserve">סייגרוס רומנזוף</t>
         </is>
       </c>
       <c s="3" r="P97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q97"/>
       <c s="4" t="inlineStr" r="R97">
@@ -7243,7 +7253,7 @@
         </is>
       </c>
       <c s="3" r="B98">
-        <v>20965</v>
+        <v>18332</v>
       </c>
       <c s="2" t="inlineStr" r="C98">
         <is>
@@ -7252,7 +7262,7 @@
       </c>
       <c s="2" t="inlineStr" r="D98">
         <is>
-          <t xml:space="preserve">תמ"א 38 בורוכוב 41 רעננה בע"מ</t>
+          <t xml:space="preserve">סוירף ואדים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E98">
@@ -7263,27 +7273,27 @@
       <c s="2" t="str" r="F98"/>
       <c s="4" t="inlineStr" r="G98">
         <is>
-          <t xml:space="preserve">רעננה               </t>
+          <t xml:space="preserve">כפר שמריהו          </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H98">
         <is>
-          <t xml:space="preserve">בורוכוב</t>
+          <t xml:space="preserve">הזורע</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I98">
         <is>
-          <t xml:space="preserve">41</t>
+          <t xml:space="preserve">34</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="J98">
         <is>
-          <t xml:space="preserve">6580</t>
+          <t xml:space="preserve">6665</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K98">
         <is>
-          <t xml:space="preserve">952</t>
+          <t xml:space="preserve">284</t>
         </is>
       </c>
       <c s="7" r="L98">
@@ -7299,7 +7309,7 @@
       </c>
       <c s="2" t="inlineStr" r="O98">
         <is>
-          <t xml:space="preserve">תמר קנרי</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P98">
@@ -7308,7 +7318,7 @@
       <c s="2" t="str" r="Q98"/>
       <c s="4" t="inlineStr" r="R98">
         <is>
-          <t xml:space="preserve">מת לכריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S98">
@@ -7322,7 +7332,7 @@
         </is>
       </c>
       <c s="3" r="B99">
-        <v>20965</v>
+        <v>18332</v>
       </c>
       <c s="2" t="inlineStr" r="C99">
         <is>
@@ -7331,7 +7341,7 @@
       </c>
       <c s="2" t="inlineStr" r="D99">
         <is>
-          <t xml:space="preserve">תמ"א 38 בורוכוב 41 רעננה בע"מ</t>
+          <t xml:space="preserve">סוירף ואדים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E99">
@@ -7342,27 +7352,27 @@
       <c s="2" t="str" r="F99"/>
       <c s="4" t="inlineStr" r="G99">
         <is>
-          <t xml:space="preserve">רעננה               </t>
+          <t xml:space="preserve">כפר שמריהו          </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H99">
         <is>
-          <t xml:space="preserve">בורוכוב</t>
+          <t xml:space="preserve">הזורע</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I99">
         <is>
-          <t xml:space="preserve">41</t>
+          <t xml:space="preserve">34</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="J99">
         <is>
-          <t xml:space="preserve">6580</t>
+          <t xml:space="preserve">6665</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K99">
         <is>
-          <t xml:space="preserve">952</t>
+          <t xml:space="preserve">284</t>
         </is>
       </c>
       <c s="7" r="L99">
@@ -7382,7 +7392,7 @@
         </is>
       </c>
       <c s="3" r="P99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q99"/>
       <c s="4" t="inlineStr" r="R99">
@@ -7401,16 +7411,16 @@
         </is>
       </c>
       <c s="3" r="B100">
-        <v>22053</v>
+        <v>18332</v>
       </c>
       <c s="2" t="inlineStr" r="C100">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D100">
         <is>
-          <t xml:space="preserve">קיבוץ גליל ים</t>
+          <t xml:space="preserve">סוירף ואדים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E100">
@@ -7418,37 +7428,37 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F100">
-        <is>
-          <t xml:space="preserve">בניית ממ"ד</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F100"/>
       <c s="4" t="inlineStr" r="G100">
         <is>
-          <t xml:space="preserve">גליל ים             </t>
+          <t xml:space="preserve">כפר שמריהו          </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H100">
         <is>
-          <t xml:space="preserve">אלת המסטיק,הוספת ממ"ד גן ילדים </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I100"/>
+          <t xml:space="preserve">הזורע</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I100">
+        <is>
+          <t xml:space="preserve">34</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J100">
         <is>
-          <t xml:space="preserve">6424</t>
+          <t xml:space="preserve">6665</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K100">
         <is>
-          <t xml:space="preserve">133</t>
+          <t xml:space="preserve">284</t>
         </is>
       </c>
       <c s="7" r="L100">
-        <v>44245</v>
+        <v>44235</v>
       </c>
       <c s="7" r="M100">
-        <v>44976</v>
+        <v>44965</v>
       </c>
       <c s="2" t="inlineStr" r="N100">
         <is>
@@ -7457,7 +7467,7 @@
       </c>
       <c s="2" t="inlineStr" r="O100">
         <is>
-          <t xml:space="preserve">אלה ארץ-ישראלית</t>
+          <t xml:space="preserve">פיקוס אוזני</t>
         </is>
       </c>
       <c s="3" r="P100">
@@ -7466,11 +7476,11 @@
       <c s="2" t="str" r="Q100"/>
       <c s="4" t="inlineStr" r="R100">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">דקל טבעות לכריתה</t>
         </is>
       </c>
       <c s="7" r="S100">
-        <v>44244</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="101" ht="14.15" customHeight="0">
@@ -7480,16 +7490,16 @@
         </is>
       </c>
       <c s="3" r="B101">
-        <v>22181</v>
+        <v>18332</v>
       </c>
       <c s="2" t="inlineStr" r="C101">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D101">
         <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
+          <t xml:space="preserve">סוירף ואדים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E101">
@@ -7500,30 +7510,34 @@
       <c s="2" t="str" r="F101"/>
       <c s="4" t="inlineStr" r="G101">
         <is>
-          <t xml:space="preserve">רמת השרון           </t>
+          <t xml:space="preserve">כפר שמריהו          </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H101">
         <is>
-          <t xml:space="preserve">הראשונים ,אופני דן</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I101"/>
+          <t xml:space="preserve">הזורע</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I101">
+        <is>
+          <t xml:space="preserve">34</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J101">
         <is>
-          <t xml:space="preserve">6614 ,6794</t>
+          <t xml:space="preserve">6665</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K101">
         <is>
-          <t xml:space="preserve">116,214,417,450</t>
+          <t xml:space="preserve">284</t>
         </is>
       </c>
       <c s="7" r="L101">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c s="7" r="M101">
-        <v>44966</v>
+        <v>44965</v>
       </c>
       <c s="2" t="inlineStr" r="N101">
         <is>
@@ -7532,24 +7546,20 @@
       </c>
       <c s="2" t="inlineStr" r="O101">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">קתרוסית מרובעת</t>
         </is>
       </c>
       <c s="3" r="P101">
         <v>1</v>
       </c>
-      <c s="2" t="inlineStr" r="Q101">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="Q101"/>
       <c s="4" t="inlineStr" r="R101">
         <is>
-          <t xml:space="preserve">להעתקה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S101">
-        <v>44235</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="102" ht="14.2" customHeight="0">
@@ -7559,50 +7569,50 @@
         </is>
       </c>
       <c s="3" r="B102">
-        <v>22181</v>
+        <v>20947</v>
       </c>
       <c s="2" t="inlineStr" r="C102">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D102">
         <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
+          <t xml:space="preserve">כוכבי אריאלה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E102">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F102"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F102">
+        <is>
+          <t xml:space="preserve">גבוה וקרוב לבית</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G102">
         <is>
-          <t xml:space="preserve">רמת השרון           </t>
+          <t xml:space="preserve">כפר סבא             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H102">
         <is>
-          <t xml:space="preserve">הראשונים ,אופני דן</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I102"/>
-      <c s="5" t="inlineStr" r="J102">
-        <is>
-          <t xml:space="preserve">6614 ,6794</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K102">
-        <is>
-          <t xml:space="preserve">116,214,417,450</t>
-        </is>
-      </c>
+          <t xml:space="preserve">טהון</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I102">
+        <is>
+          <t xml:space="preserve">9</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J102"/>
+      <c s="6" t="str" r="K102"/>
       <c s="7" r="L102">
-        <v>44236</v>
+        <v>44629</v>
       </c>
       <c s="7" r="M102">
-        <v>44966</v>
+        <v>44629</v>
       </c>
       <c s="2" t="inlineStr" r="N102">
         <is>
@@ -7611,24 +7621,20 @@
       </c>
       <c s="2" t="inlineStr" r="O102">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">דקל משולש</t>
         </is>
       </c>
       <c s="3" r="P102">
-        <v>19</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q102">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q102"/>
       <c s="4" t="inlineStr" r="R102">
         <is>
-          <t xml:space="preserve">דקלים ממינים שונים לכריתה</t>
+          <t xml:space="preserve">דקל לכריתה</t>
         </is>
       </c>
       <c s="7" r="S102">
-        <v>44235</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="103" ht="14.15" customHeight="0">
@@ -7638,50 +7644,50 @@
         </is>
       </c>
       <c s="3" r="B103">
-        <v>22181</v>
+        <v>20947</v>
       </c>
       <c s="2" t="inlineStr" r="C103">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D103">
         <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
+          <t xml:space="preserve">כוכבי אריאלה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E103">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F103"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F103">
+        <is>
+          <t xml:space="preserve">גבוה וקרוב לבית</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G103">
         <is>
-          <t xml:space="preserve">רמת השרון           </t>
+          <t xml:space="preserve">כפר סבא             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H103">
         <is>
-          <t xml:space="preserve">הראשונים ,אופני דן</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I103"/>
-      <c s="5" t="inlineStr" r="J103">
-        <is>
-          <t xml:space="preserve">6614 ,6794</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K103">
-        <is>
-          <t xml:space="preserve">116,214,417,450</t>
-        </is>
-      </c>
+          <t xml:space="preserve">טהון</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I103">
+        <is>
+          <t xml:space="preserve">9</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J103"/>
+      <c s="6" t="str" r="K103"/>
       <c s="7" r="L103">
-        <v>44236</v>
+        <v>44629</v>
       </c>
       <c s="7" r="M103">
-        <v>44966</v>
+        <v>44629</v>
       </c>
       <c s="2" t="inlineStr" r="N103">
         <is>
@@ -7690,24 +7696,20 @@
       </c>
       <c s="2" t="inlineStr" r="O103">
         <is>
-          <t xml:space="preserve">סיגלון עלה-מימוסה</t>
+          <t xml:space="preserve">אבוקדו הודי</t>
         </is>
       </c>
       <c s="3" r="P103">
-        <v>28</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q103">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q103"/>
       <c s="4" t="inlineStr" r="R103">
         <is>
           <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S103">
-        <v>44235</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="104" ht="14.2" customHeight="0">
@@ -7717,7 +7719,7 @@
         </is>
       </c>
       <c s="3" r="B104">
-        <v>22226</v>
+        <v>20965</v>
       </c>
       <c s="2" t="inlineStr" r="C104">
         <is>
@@ -7726,7 +7728,7 @@
       </c>
       <c s="2" t="inlineStr" r="D104">
         <is>
-          <t xml:space="preserve">מועצה מקומית פרדס חנה כרכור</t>
+          <t xml:space="preserve">תמ"א 38 בורוכוב 41 רעננה בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E104">
@@ -7734,37 +7736,37 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F104">
-        <is>
-          <t xml:space="preserve">הרחבת בית ספר</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F104"/>
       <c s="4" t="inlineStr" r="G104">
         <is>
-          <t xml:space="preserve">פרדס חנה-כרכור</t>
+          <t xml:space="preserve">רעננה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H104">
         <is>
-          <t xml:space="preserve">סמטת ברקן </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I104"/>
+          <t xml:space="preserve">בורוכוב</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I104">
+        <is>
+          <t xml:space="preserve">41</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J104">
         <is>
-          <t xml:space="preserve">13922</t>
+          <t xml:space="preserve">6580</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K104">
         <is>
-          <t xml:space="preserve">126</t>
+          <t xml:space="preserve">952</t>
         </is>
       </c>
       <c s="7" r="L104">
-        <v>44244</v>
+        <v>44235</v>
       </c>
       <c s="7" r="M104">
-        <v>44976</v>
+        <v>44965</v>
       </c>
       <c s="2" t="inlineStr" r="N104">
         <is>
@@ -7773,20 +7775,20 @@
       </c>
       <c s="2" t="inlineStr" r="O104">
         <is>
-          <t xml:space="preserve">אורן ירושלים</t>
+          <t xml:space="preserve">אראוקריה רמה</t>
         </is>
       </c>
       <c s="3" r="P104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q104"/>
       <c s="4" t="inlineStr" r="R104">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S104">
-        <v>44243</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="105" ht="14.15" customHeight="0">
@@ -7796,7 +7798,7 @@
         </is>
       </c>
       <c s="3" r="B105">
-        <v>22226</v>
+        <v>20965</v>
       </c>
       <c s="2" t="inlineStr" r="C105">
         <is>
@@ -7805,7 +7807,7 @@
       </c>
       <c s="2" t="inlineStr" r="D105">
         <is>
-          <t xml:space="preserve">מועצה מקומית פרדס חנה כרכור</t>
+          <t xml:space="preserve">תמ"א 38 בורוכוב 41 רעננה בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E105">
@@ -7813,37 +7815,37 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F105">
-        <is>
-          <t xml:space="preserve">הרחבת בית ספר</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F105"/>
       <c s="4" t="inlineStr" r="G105">
         <is>
-          <t xml:space="preserve">פרדס חנה-כרכור</t>
+          <t xml:space="preserve">רעננה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H105">
         <is>
-          <t xml:space="preserve">סמטת ברקן </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I105"/>
+          <t xml:space="preserve">בורוכוב</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I105">
+        <is>
+          <t xml:space="preserve">41</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J105">
         <is>
-          <t xml:space="preserve">13922</t>
+          <t xml:space="preserve">6580</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K105">
         <is>
-          <t xml:space="preserve">126</t>
+          <t xml:space="preserve">952</t>
         </is>
       </c>
       <c s="7" r="L105">
-        <v>44244</v>
+        <v>44235</v>
       </c>
       <c s="7" r="M105">
-        <v>44976</v>
+        <v>44965</v>
       </c>
       <c s="2" t="inlineStr" r="N105">
         <is>
@@ -7852,20 +7854,20 @@
       </c>
       <c s="2" t="inlineStr" r="O105">
         <is>
-          <t xml:space="preserve">אקליפטוסים</t>
+          <t xml:space="preserve">תמר קנרי</t>
         </is>
       </c>
       <c s="3" r="P105">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q105"/>
       <c s="4" t="inlineStr" r="R105">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">מת לכריתה</t>
         </is>
       </c>
       <c s="7" r="S105">
-        <v>44243</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="106" ht="14.2" customHeight="0">
@@ -7875,16 +7877,16 @@
         </is>
       </c>
       <c s="3" r="B106">
-        <v>22261</v>
+        <v>20965</v>
       </c>
       <c s="2" t="inlineStr" r="C106">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D106">
         <is>
-          <t xml:space="preserve">משה ומרשה מרן</t>
+          <t xml:space="preserve">תמ"א 38 בורוכוב 41 רעננה בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E106">
@@ -7895,34 +7897,34 @@
       <c s="2" t="str" r="F106"/>
       <c s="4" t="inlineStr" r="G106">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רעננה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H106">
         <is>
-          <t xml:space="preserve">שלמה המלך</t>
+          <t xml:space="preserve">בורוכוב</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I106">
         <is>
-          <t xml:space="preserve">2</t>
+          <t xml:space="preserve">41</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="J106">
         <is>
-          <t xml:space="preserve">6667</t>
+          <t xml:space="preserve">6580</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K106">
         <is>
-          <t xml:space="preserve">72</t>
+          <t xml:space="preserve">952</t>
         </is>
       </c>
       <c s="7" r="L106">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c s="7" r="M106">
-        <v>44966</v>
+        <v>44965</v>
       </c>
       <c s="2" t="inlineStr" r="N106">
         <is>
@@ -7931,24 +7933,20 @@
       </c>
       <c s="2" t="inlineStr" r="O106">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">פיקוס בינימינה</t>
         </is>
       </c>
       <c s="3" r="P106">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q106">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c s="2" t="str" r="Q106"/>
       <c s="4" t="inlineStr" r="R106">
         <is>
-          <t xml:space="preserve">להעתקה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S106">
-        <v>44235</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="107" ht="14.15" customHeight="0">
@@ -7958,16 +7956,16 @@
         </is>
       </c>
       <c s="3" r="B107">
-        <v>22261</v>
+        <v>22053</v>
       </c>
       <c s="2" t="inlineStr" r="C107">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D107">
         <is>
-          <t xml:space="preserve">משה ומרשה מרן</t>
+          <t xml:space="preserve">קיבוץ גליל ים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E107">
@@ -7975,37 +7973,37 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="str" r="F107"/>
+      <c s="2" t="inlineStr" r="F107">
+        <is>
+          <t xml:space="preserve">בניית ממ"ד</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G107">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">גליל ים             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H107">
         <is>
-          <t xml:space="preserve">שלמה המלך</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I107">
-        <is>
-          <t xml:space="preserve">2</t>
-        </is>
-      </c>
+          <t xml:space="preserve">אלת המסטיק,הוספת ממ"ד גן ילדים </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I107"/>
       <c s="5" t="inlineStr" r="J107">
         <is>
-          <t xml:space="preserve">6667</t>
+          <t xml:space="preserve">6424</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K107">
         <is>
-          <t xml:space="preserve">72</t>
+          <t xml:space="preserve">133</t>
         </is>
       </c>
       <c s="7" r="L107">
-        <v>44236</v>
+        <v>44245</v>
       </c>
       <c s="7" r="M107">
-        <v>44966</v>
+        <v>44976</v>
       </c>
       <c s="2" t="inlineStr" r="N107">
         <is>
@@ -8014,24 +8012,20 @@
       </c>
       <c s="2" t="inlineStr" r="O107">
         <is>
-          <t xml:space="preserve">ושינגטוניה חוטית</t>
+          <t xml:space="preserve">אלה ארץ-ישראלית</t>
         </is>
       </c>
       <c s="3" r="P107">
         <v>1</v>
       </c>
-      <c s="2" t="inlineStr" r="Q107">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="Q107"/>
       <c s="4" t="inlineStr" r="R107">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="7" r="S107">
-        <v>44235</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="108" ht="14.2" customHeight="0">
@@ -8041,7 +8035,7 @@
         </is>
       </c>
       <c s="3" r="B108">
-        <v>22261</v>
+        <v>22181</v>
       </c>
       <c s="2" t="inlineStr" r="C108">
         <is>
@@ -8050,7 +8044,7 @@
       </c>
       <c s="2" t="inlineStr" r="D108">
         <is>
-          <t xml:space="preserve">משה ומרשה מרן</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E108">
@@ -8061,27 +8055,23 @@
       <c s="2" t="str" r="F108"/>
       <c s="4" t="inlineStr" r="G108">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H108">
         <is>
-          <t xml:space="preserve">שלמה המלך</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I108">
-        <is>
-          <t xml:space="preserve">2</t>
-        </is>
-      </c>
+          <t xml:space="preserve">הראשונים ,אופני דן</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I108"/>
       <c s="5" t="inlineStr" r="J108">
         <is>
-          <t xml:space="preserve">6667</t>
+          <t xml:space="preserve">6614 ,6794</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K108">
         <is>
-          <t xml:space="preserve">72</t>
+          <t xml:space="preserve">116,214,417,450</t>
         </is>
       </c>
       <c s="7" r="L108">
@@ -8097,20 +8087,20 @@
       </c>
       <c s="2" t="inlineStr" r="O108">
         <is>
-          <t xml:space="preserve">פיקוס השדרות</t>
+          <t xml:space="preserve">זית אירופי</t>
         </is>
       </c>
       <c s="3" r="P108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q108">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="R108">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">להעתקה</t>
         </is>
       </c>
       <c s="7" r="S108">
@@ -8124,7 +8114,7 @@
         </is>
       </c>
       <c s="3" r="B109">
-        <v>22455</v>
+        <v>22181</v>
       </c>
       <c s="2" t="inlineStr" r="C109">
         <is>
@@ -8133,7 +8123,7 @@
       </c>
       <c s="2" t="inlineStr" r="D109">
         <is>
-          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E109">
@@ -8144,30 +8134,30 @@
       <c s="2" t="str" r="F109"/>
       <c s="4" t="inlineStr" r="G109">
         <is>
-          <t xml:space="preserve">פרדס חנה-כרכור</t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H109">
         <is>
-          <t xml:space="preserve">בית ספר חקלאי </t>
+          <t xml:space="preserve">הראשונים ,אופני דן</t>
         </is>
       </c>
       <c s="5" t="str" r="I109"/>
       <c s="5" t="inlineStr" r="J109">
         <is>
-          <t xml:space="preserve">10105</t>
+          <t xml:space="preserve">6614 ,6794</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K109">
         <is>
-          <t xml:space="preserve">89-117</t>
+          <t xml:space="preserve">116,214,417,450</t>
         </is>
       </c>
       <c s="7" r="L109">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M109">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c s="2" t="inlineStr" r="N109">
         <is>
@@ -8176,20 +8166,24 @@
       </c>
       <c s="2" t="inlineStr" r="O109">
         <is>
-          <t xml:space="preserve">אורן קנרי</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P109">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c s="2" t="inlineStr" r="Q109">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R109"/>
+      <c s="4" t="inlineStr" r="R109">
+        <is>
+          <t xml:space="preserve">דקלים ממינים שונים לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S109">
-        <v>44237</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="110" ht="14.2" customHeight="0">
@@ -8199,7 +8193,7 @@
         </is>
       </c>
       <c s="3" r="B110">
-        <v>22455</v>
+        <v>22181</v>
       </c>
       <c s="2" t="inlineStr" r="C110">
         <is>
@@ -8208,7 +8202,7 @@
       </c>
       <c s="2" t="inlineStr" r="D110">
         <is>
-          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E110">
@@ -8219,30 +8213,30 @@
       <c s="2" t="str" r="F110"/>
       <c s="4" t="inlineStr" r="G110">
         <is>
-          <t xml:space="preserve">פרדס חנה-כרכור</t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H110">
         <is>
-          <t xml:space="preserve">בית ספר חקלאי </t>
+          <t xml:space="preserve">הראשונים ,אופני דן</t>
         </is>
       </c>
       <c s="5" t="str" r="I110"/>
       <c s="5" t="inlineStr" r="J110">
         <is>
-          <t xml:space="preserve">10105</t>
+          <t xml:space="preserve">6614 ,6794</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K110">
         <is>
-          <t xml:space="preserve">89-117</t>
+          <t xml:space="preserve">116,214,417,450</t>
         </is>
       </c>
       <c s="7" r="L110">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M110">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c s="2" t="inlineStr" r="N110">
         <is>
@@ -8251,20 +8245,24 @@
       </c>
       <c s="2" t="inlineStr" r="O110">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">סיגלון עלה-מימוסה</t>
         </is>
       </c>
       <c s="3" r="P110">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c s="2" t="inlineStr" r="Q110">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R110"/>
+      <c s="4" t="inlineStr" r="R110">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S110">
-        <v>44237</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="111" ht="14.15" customHeight="0">
@@ -8274,16 +8272,16 @@
         </is>
       </c>
       <c s="3" r="B111">
-        <v>22455</v>
+        <v>22226</v>
       </c>
       <c s="2" t="inlineStr" r="C111">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D111">
         <is>
-          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
+          <t xml:space="preserve">מועצה מקומית פרדס חנה כרכור</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E111">
@@ -8291,7 +8289,11 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="str" r="F111"/>
+      <c s="2" t="inlineStr" r="F111">
+        <is>
+          <t xml:space="preserve">הרחבת בית ספר</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G111">
         <is>
           <t xml:space="preserve">פרדס חנה-כרכור</t>
@@ -8299,25 +8301,25 @@
       </c>
       <c s="2" t="inlineStr" r="H111">
         <is>
-          <t xml:space="preserve">בית ספר חקלאי </t>
+          <t xml:space="preserve">סמטת ברקן </t>
         </is>
       </c>
       <c s="5" t="str" r="I111"/>
       <c s="5" t="inlineStr" r="J111">
         <is>
-          <t xml:space="preserve">10105</t>
+          <t xml:space="preserve">13922</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K111">
         <is>
-          <t xml:space="preserve">89-117</t>
+          <t xml:space="preserve">126</t>
         </is>
       </c>
       <c s="7" r="L111">
-        <v>44238</v>
+        <v>44244</v>
       </c>
       <c s="7" r="M111">
-        <v>44969</v>
+        <v>44976</v>
       </c>
       <c s="2" t="inlineStr" r="N111">
         <is>
@@ -8326,20 +8328,20 @@
       </c>
       <c s="2" t="inlineStr" r="O111">
         <is>
-          <t xml:space="preserve">אזדרכת מצויה</t>
+          <t xml:space="preserve">אורן ירושלים</t>
         </is>
       </c>
       <c s="3" r="P111">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q111">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R111"/>
+        <v>3</v>
+      </c>
+      <c s="2" t="str" r="Q111"/>
+      <c s="4" t="inlineStr" r="R111">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="7" r="S111">
-        <v>44237</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="112" ht="14.2" customHeight="0">
@@ -8349,16 +8351,16 @@
         </is>
       </c>
       <c s="3" r="B112">
-        <v>22455</v>
+        <v>22226</v>
       </c>
       <c s="2" t="inlineStr" r="C112">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D112">
         <is>
-          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
+          <t xml:space="preserve">מועצה מקומית פרדס חנה כרכור</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E112">
@@ -8366,7 +8368,11 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="str" r="F112"/>
+      <c s="2" t="inlineStr" r="F112">
+        <is>
+          <t xml:space="preserve">הרחבת בית ספר</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G112">
         <is>
           <t xml:space="preserve">פרדס חנה-כרכור</t>
@@ -8374,25 +8380,25 @@
       </c>
       <c s="2" t="inlineStr" r="H112">
         <is>
-          <t xml:space="preserve">בית ספר חקלאי </t>
+          <t xml:space="preserve">סמטת ברקן </t>
         </is>
       </c>
       <c s="5" t="str" r="I112"/>
       <c s="5" t="inlineStr" r="J112">
         <is>
-          <t xml:space="preserve">10105</t>
+          <t xml:space="preserve">13922</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K112">
         <is>
-          <t xml:space="preserve">89-117</t>
+          <t xml:space="preserve">126</t>
         </is>
       </c>
       <c s="7" r="L112">
-        <v>44238</v>
+        <v>44244</v>
       </c>
       <c s="7" r="M112">
-        <v>44969</v>
+        <v>44976</v>
       </c>
       <c s="2" t="inlineStr" r="N112">
         <is>
@@ -8401,20 +8407,20 @@
       </c>
       <c s="2" t="inlineStr" r="O112">
         <is>
-          <t xml:space="preserve">סיסם הודי</t>
+          <t xml:space="preserve">אקליפטוסים</t>
         </is>
       </c>
       <c s="3" r="P112">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q112">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R112"/>
+        <v>60</v>
+      </c>
+      <c s="2" t="str" r="Q112"/>
+      <c s="4" t="inlineStr" r="R112">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="7" r="S112">
-        <v>44237</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="113" ht="14.15" customHeight="0">
@@ -8424,7 +8430,7 @@
         </is>
       </c>
       <c s="3" r="B113">
-        <v>22455</v>
+        <v>22261</v>
       </c>
       <c s="2" t="inlineStr" r="C113">
         <is>
@@ -8433,7 +8439,7 @@
       </c>
       <c s="2" t="inlineStr" r="D113">
         <is>
-          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
+          <t xml:space="preserve">משה ומרשה מרן</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E113">
@@ -8444,30 +8450,34 @@
       <c s="2" t="str" r="F113"/>
       <c s="4" t="inlineStr" r="G113">
         <is>
-          <t xml:space="preserve">פרדס חנה-כרכור</t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H113">
         <is>
-          <t xml:space="preserve">בית ספר חקלאי </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I113"/>
+          <t xml:space="preserve">שלמה המלך</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I113">
+        <is>
+          <t xml:space="preserve">2</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J113">
         <is>
-          <t xml:space="preserve">10105</t>
+          <t xml:space="preserve">6667</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K113">
         <is>
-          <t xml:space="preserve">89-117</t>
+          <t xml:space="preserve">72</t>
         </is>
       </c>
       <c s="7" r="L113">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M113">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c s="2" t="inlineStr" r="N113">
         <is>
@@ -8476,7 +8486,7 @@
       </c>
       <c s="2" t="inlineStr" r="O113">
         <is>
-          <t xml:space="preserve">פלפלון דמוי-אלה</t>
+          <t xml:space="preserve">זית אירופי</t>
         </is>
       </c>
       <c s="3" r="P113">
@@ -8484,12 +8494,16 @@
       </c>
       <c s="2" t="inlineStr" r="Q113">
         <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R113"/>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="R113">
+        <is>
+          <t xml:space="preserve">להעתקה</t>
+        </is>
+      </c>
       <c s="7" r="S113">
-        <v>44237</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="114" ht="14.15" customHeight="0">
@@ -8499,7 +8513,7 @@
         </is>
       </c>
       <c s="3" r="B114">
-        <v>22455</v>
+        <v>22261</v>
       </c>
       <c s="2" t="inlineStr" r="C114">
         <is>
@@ -8508,7 +8522,7 @@
       </c>
       <c s="2" t="inlineStr" r="D114">
         <is>
-          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
+          <t xml:space="preserve">משה ומרשה מרן</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E114">
@@ -8519,30 +8533,34 @@
       <c s="2" t="str" r="F114"/>
       <c s="4" t="inlineStr" r="G114">
         <is>
-          <t xml:space="preserve">פרדס חנה-כרכור</t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H114">
         <is>
-          <t xml:space="preserve">בית ספר חקלאי </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I114"/>
+          <t xml:space="preserve">שלמה המלך</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I114">
+        <is>
+          <t xml:space="preserve">2</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J114">
         <is>
-          <t xml:space="preserve">10105</t>
+          <t xml:space="preserve">6667</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K114">
         <is>
-          <t xml:space="preserve">89-117</t>
+          <t xml:space="preserve">72</t>
         </is>
       </c>
       <c s="7" r="L114">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M114">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c s="2" t="inlineStr" r="N114">
         <is>
@@ -8551,20 +8569,24 @@
       </c>
       <c s="2" t="inlineStr" r="O114">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">ושינגטוניה חוטית</t>
         </is>
       </c>
       <c s="3" r="P114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q114">
         <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R114"/>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="R114">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S114">
-        <v>44237</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="115" ht="14.2" customHeight="0">
@@ -8574,7 +8596,7 @@
         </is>
       </c>
       <c s="3" r="B115">
-        <v>22455</v>
+        <v>22261</v>
       </c>
       <c s="2" t="inlineStr" r="C115">
         <is>
@@ -8583,7 +8605,7 @@
       </c>
       <c s="2" t="inlineStr" r="D115">
         <is>
-          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
+          <t xml:space="preserve">משה ומרשה מרן</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E115">
@@ -8594,30 +8616,34 @@
       <c s="2" t="str" r="F115"/>
       <c s="4" t="inlineStr" r="G115">
         <is>
-          <t xml:space="preserve">פרדס חנה-כרכור</t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H115">
         <is>
-          <t xml:space="preserve">בית ספר חקלאי </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I115"/>
+          <t xml:space="preserve">שלמה המלך</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I115">
+        <is>
+          <t xml:space="preserve">2</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J115">
         <is>
-          <t xml:space="preserve">10105</t>
+          <t xml:space="preserve">6667</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K115">
         <is>
-          <t xml:space="preserve">89-117</t>
+          <t xml:space="preserve">72</t>
         </is>
       </c>
       <c s="7" r="L115">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M115">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c s="2" t="inlineStr" r="N115">
         <is>
@@ -8626,20 +8652,24 @@
       </c>
       <c s="2" t="inlineStr" r="O115">
         <is>
-          <t xml:space="preserve">קליסטמון הנצרים 'ליטל-ז'ון'</t>
+          <t xml:space="preserve">פיקוס השדרות</t>
         </is>
       </c>
       <c s="3" r="P115">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q115">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R115"/>
+      <c s="4" t="inlineStr" r="R115">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S115">
-        <v>44237</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="116" ht="14.15" customHeight="0">
@@ -8649,39 +8679,47 @@
         </is>
       </c>
       <c s="3" r="B116">
-        <v>22477</v>
+        <v>22455</v>
       </c>
       <c s="2" t="inlineStr" r="C116">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D116">
         <is>
-          <t xml:space="preserve">מועצה מקומית זכרון יעקב</t>
+          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E116">
         <is>
-          <t xml:space="preserve">עץ מת</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F116"/>
       <c s="4" t="inlineStr" r="G116">
         <is>
-          <t xml:space="preserve">זכרון יעקב          </t>
+          <t xml:space="preserve">פרדס חנה-כרכור</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H116">
         <is>
-          <t xml:space="preserve">שיכונים פינת תירוש </t>
+          <t xml:space="preserve">בית ספר חקלאי </t>
         </is>
       </c>
       <c s="5" t="str" r="I116"/>
-      <c s="5" t="str" r="J116"/>
-      <c s="6" t="str" r="K116"/>
+      <c s="5" t="inlineStr" r="J116">
+        <is>
+          <t xml:space="preserve">10105</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K116">
+        <is>
+          <t xml:space="preserve">89-117</t>
+        </is>
+      </c>
       <c s="7" r="L116">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c s="7" r="M116">
         <v>44969</v>
@@ -8693,20 +8731,20 @@
       </c>
       <c s="2" t="inlineStr" r="O116">
         <is>
-          <t xml:space="preserve">אורנים</t>
+          <t xml:space="preserve">אורן קנרי</t>
         </is>
       </c>
       <c s="3" r="P116">
         <v>1</v>
       </c>
-      <c s="2" t="str" r="Q116"/>
-      <c s="4" t="inlineStr" r="R116">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="2" t="inlineStr" r="Q116">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R116"/>
       <c s="7" r="S116">
-        <v>44236</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="117" ht="14.2" customHeight="0">
@@ -8716,50 +8754,50 @@
         </is>
       </c>
       <c s="3" r="B117">
-        <v>22479</v>
+        <v>22455</v>
       </c>
       <c s="2" t="inlineStr" r="C117">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D117">
         <is>
-          <t xml:space="preserve">מועצה מקומית זכרון יעקב</t>
+          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E117">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F117">
-        <is>
-          <t xml:space="preserve">נוטים</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F117"/>
       <c s="4" t="inlineStr" r="G117">
         <is>
-          <t xml:space="preserve">זכרון יעקב          </t>
+          <t xml:space="preserve">פרדס חנה-כרכור</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H117">
         <is>
-          <t xml:space="preserve">חצב</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I117">
-        <is>
-          <t xml:space="preserve">71</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J117"/>
-      <c s="6" t="str" r="K117"/>
+          <t xml:space="preserve">בית ספר חקלאי </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I117"/>
+      <c s="5" t="inlineStr" r="J117">
+        <is>
+          <t xml:space="preserve">10105</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K117">
+        <is>
+          <t xml:space="preserve">89-117</t>
+        </is>
+      </c>
       <c s="7" r="L117">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c s="7" r="M117">
-        <v>44966</v>
+        <v>44969</v>
       </c>
       <c s="2" t="inlineStr" r="N117">
         <is>
@@ -8768,20 +8806,20 @@
       </c>
       <c s="2" t="inlineStr" r="O117">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P117">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q117"/>
-      <c s="4" t="inlineStr" r="R117">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q117">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R117"/>
       <c s="7" r="S117">
-        <v>44235</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="118" ht="14.15" customHeight="0">
@@ -8791,50 +8829,50 @@
         </is>
       </c>
       <c s="3" r="B118">
-        <v>22479</v>
+        <v>22455</v>
       </c>
       <c s="2" t="inlineStr" r="C118">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D118">
         <is>
-          <t xml:space="preserve">מועצה מקומית זכרון יעקב</t>
+          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E118">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F118">
-        <is>
-          <t xml:space="preserve">נוטים</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F118"/>
       <c s="4" t="inlineStr" r="G118">
         <is>
-          <t xml:space="preserve">זכרון יעקב          </t>
+          <t xml:space="preserve">פרדס חנה-כרכור</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H118">
         <is>
-          <t xml:space="preserve">חצב</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I118">
-        <is>
-          <t xml:space="preserve">71</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J118"/>
-      <c s="6" t="str" r="K118"/>
+          <t xml:space="preserve">בית ספר חקלאי </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I118"/>
+      <c s="5" t="inlineStr" r="J118">
+        <is>
+          <t xml:space="preserve">10105</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K118">
+        <is>
+          <t xml:space="preserve">89-117</t>
+        </is>
+      </c>
       <c s="7" r="L118">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c s="7" r="M118">
-        <v>44966</v>
+        <v>44969</v>
       </c>
       <c s="2" t="inlineStr" r="N118">
         <is>
@@ -8843,20 +8881,20 @@
       </c>
       <c s="2" t="inlineStr" r="O118">
         <is>
-          <t xml:space="preserve">מילה ירוקת-עד</t>
+          <t xml:space="preserve">אזדרכת מצויה</t>
         </is>
       </c>
       <c s="3" r="P118">
-        <v>3</v>
-      </c>
-      <c s="2" t="str" r="Q118"/>
-      <c s="4" t="inlineStr" r="R118">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q118">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R118"/>
       <c s="7" r="S118">
-        <v>44235</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="119" ht="14.2" customHeight="0">
@@ -8866,50 +8904,50 @@
         </is>
       </c>
       <c s="3" r="B119">
-        <v>22523</v>
+        <v>22455</v>
       </c>
       <c s="2" t="inlineStr" r="C119">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D119">
         <is>
-          <t xml:space="preserve">דנה ורונן קלמי</t>
+          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E119">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F119">
-        <is>
-          <t xml:space="preserve">נוטה לכיוון הבית</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F119"/>
       <c s="4" t="inlineStr" r="G119">
         <is>
-          <t xml:space="preserve">גן השומרון          </t>
-        </is>
-      </c>
-      <c s="2" t="str" r="H119"/>
+          <t xml:space="preserve">פרדס חנה-כרכור</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H119">
+        <is>
+          <t xml:space="preserve">בית ספר חקלאי </t>
+        </is>
+      </c>
       <c s="5" t="str" r="I119"/>
       <c s="5" t="inlineStr" r="J119">
         <is>
-          <t xml:space="preserve">10080</t>
+          <t xml:space="preserve">10105</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K119">
         <is>
-          <t xml:space="preserve">84</t>
+          <t xml:space="preserve">89-117</t>
         </is>
       </c>
       <c s="7" r="L119">
-        <v>44244</v>
+        <v>44238</v>
       </c>
       <c s="7" r="M119">
-        <v>44976</v>
+        <v>44969</v>
       </c>
       <c s="2" t="inlineStr" r="N119">
         <is>
@@ -8918,20 +8956,20 @@
       </c>
       <c s="2" t="inlineStr" r="O119">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">סיסם הודי</t>
         </is>
       </c>
       <c s="3" r="P119">
         <v>1</v>
       </c>
-      <c s="2" t="str" r="Q119"/>
-      <c s="4" t="inlineStr" r="R119">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="2" t="inlineStr" r="Q119">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R119"/>
       <c s="7" r="S119">
-        <v>44243</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="120" ht="14.15" customHeight="0">
@@ -8941,46 +8979,50 @@
         </is>
       </c>
       <c s="3" r="B120">
-        <v>22554</v>
+        <v>22455</v>
       </c>
       <c s="2" t="inlineStr" r="C120">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D120">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E120">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F120">
-        <is>
-          <t xml:space="preserve">שבר בגזע מרכזי</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F120"/>
       <c s="4" t="inlineStr" r="G120">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">פרדס חנה-כרכור</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H120">
         <is>
-          <t xml:space="preserve">חניה של הבין תחומי</t>
+          <t xml:space="preserve">בית ספר חקלאי </t>
         </is>
       </c>
       <c s="5" t="str" r="I120"/>
-      <c s="5" t="str" r="J120"/>
-      <c s="6" t="str" r="K120"/>
+      <c s="5" t="inlineStr" r="J120">
+        <is>
+          <t xml:space="preserve">10105</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K120">
+        <is>
+          <t xml:space="preserve">89-117</t>
+        </is>
+      </c>
       <c s="7" r="L120">
-        <v>44241</v>
+        <v>44238</v>
       </c>
       <c s="7" r="M120">
-        <v>44971</v>
+        <v>44969</v>
       </c>
       <c s="2" t="inlineStr" r="N120">
         <is>
@@ -8989,20 +9031,20 @@
       </c>
       <c s="2" t="inlineStr" r="O120">
         <is>
-          <t xml:space="preserve">שלטית מקומטת</t>
+          <t xml:space="preserve">פלפלון דמוי-אלה</t>
         </is>
       </c>
       <c s="3" r="P120">
         <v>1</v>
       </c>
-      <c s="2" t="str" r="Q120"/>
-      <c s="4" t="inlineStr" r="R120">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="2" t="inlineStr" r="Q120">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R120"/>
       <c s="7" r="S120">
-        <v>44240</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="121" ht="14.2" customHeight="0">
@@ -9012,46 +9054,50 @@
         </is>
       </c>
       <c s="3" r="B121">
-        <v>22555</v>
+        <v>22455</v>
       </c>
       <c s="2" t="inlineStr" r="C121">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D121">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E121">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F121">
-        <is>
-          <t xml:space="preserve">רקבונות קשים בגזע מרכזי</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F121"/>
       <c s="4" t="inlineStr" r="G121">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">פרדס חנה-כרכור</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H121">
         <is>
-          <t xml:space="preserve">מול בצלאל 2</t>
+          <t xml:space="preserve">בית ספר חקלאי </t>
         </is>
       </c>
       <c s="5" t="str" r="I121"/>
-      <c s="5" t="str" r="J121"/>
-      <c s="6" t="str" r="K121"/>
+      <c s="5" t="inlineStr" r="J121">
+        <is>
+          <t xml:space="preserve">10105</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K121">
+        <is>
+          <t xml:space="preserve">89-117</t>
+        </is>
+      </c>
       <c s="7" r="L121">
-        <v>44241</v>
+        <v>44238</v>
       </c>
       <c s="7" r="M121">
-        <v>44971</v>
+        <v>44969</v>
       </c>
       <c s="2" t="inlineStr" r="N121">
         <is>
@@ -9060,20 +9106,20 @@
       </c>
       <c s="2" t="inlineStr" r="O121">
         <is>
-          <t xml:space="preserve">אלמוגן</t>
+          <t xml:space="preserve">זית אירופי</t>
         </is>
       </c>
       <c s="3" r="P121">
         <v>2</v>
       </c>
-      <c s="2" t="str" r="Q121"/>
-      <c s="4" t="inlineStr" r="R121">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="2" t="inlineStr" r="Q121">
+        <is>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R121"/>
       <c s="7" r="S121">
-        <v>44240</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="122" ht="14.15" customHeight="0">
@@ -9083,46 +9129,50 @@
         </is>
       </c>
       <c s="3" r="B122">
-        <v>22563</v>
+        <v>22455</v>
       </c>
       <c s="2" t="inlineStr" r="C122">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D122">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">מועצה מקומית פרדס חנה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E122">
         <is>
-          <t xml:space="preserve">עץ מת</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F122"/>
       <c s="4" t="inlineStr" r="G122">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">פרדס חנה-כרכור</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H122">
         <is>
-          <t xml:space="preserve">מול אשר ברש</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I122">
-        <is>
-          <t xml:space="preserve">34</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J122"/>
-      <c s="6" t="str" r="K122"/>
+          <t xml:space="preserve">בית ספר חקלאי </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I122"/>
+      <c s="5" t="inlineStr" r="J122">
+        <is>
+          <t xml:space="preserve">10105</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K122">
+        <is>
+          <t xml:space="preserve">89-117</t>
+        </is>
+      </c>
       <c s="7" r="L122">
-        <v>44241</v>
+        <v>44238</v>
       </c>
       <c s="7" r="M122">
-        <v>44971</v>
+        <v>44969</v>
       </c>
       <c s="2" t="inlineStr" r="N122">
         <is>
@@ -9131,20 +9181,20 @@
       </c>
       <c s="2" t="inlineStr" r="O122">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">קליסטמון הנצרים 'ליטל-ז'ון'</t>
         </is>
       </c>
       <c s="3" r="P122">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q122"/>
-      <c s="4" t="inlineStr" r="R122">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q122">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R122"/>
       <c s="7" r="S122">
-        <v>44240</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="123" ht="14.2" customHeight="0">
@@ -9154,7 +9204,7 @@
         </is>
       </c>
       <c s="3" r="B123">
-        <v>22586</v>
+        <v>22477</v>
       </c>
       <c s="2" t="inlineStr" r="C123">
         <is>
@@ -9163,34 +9213,26 @@
       </c>
       <c s="2" t="inlineStr" r="D123">
         <is>
-          <t xml:space="preserve">שרית נחמקין בן ארי</t>
+          <t xml:space="preserve">מועצה מקומית זכרון יעקב</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E123">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F123">
-        <is>
-          <t xml:space="preserve">שורשים גורמים נזק לכביש ולביוב</t>
-        </is>
-      </c>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F123"/>
       <c s="4" t="inlineStr" r="G123">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">זכרון יעקב          </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H123">
         <is>
-          <t xml:space="preserve">איציק מנגר</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I123">
-        <is>
-          <t xml:space="preserve">1</t>
-        </is>
-      </c>
+          <t xml:space="preserve">שיכונים פינת תירוש </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I123"/>
       <c s="5" t="str" r="J123"/>
       <c s="6" t="str" r="K123"/>
       <c s="7" r="L123">
@@ -9206,7 +9248,7 @@
       </c>
       <c s="2" t="inlineStr" r="O123">
         <is>
-          <t xml:space="preserve">סיסם הודי</t>
+          <t xml:space="preserve">אורנים</t>
         </is>
       </c>
       <c s="3" r="P123">
@@ -9229,7 +9271,7 @@
         </is>
       </c>
       <c s="3" r="B124">
-        <v>22586</v>
+        <v>22479</v>
       </c>
       <c s="2" t="inlineStr" r="C124">
         <is>
@@ -9238,7 +9280,7 @@
       </c>
       <c s="2" t="inlineStr" r="D124">
         <is>
-          <t xml:space="preserve">שרית נחמקין בן ארי</t>
+          <t xml:space="preserve">מועצה מקומית זכרון יעקב</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E124">
@@ -9248,31 +9290,31 @@
       </c>
       <c s="2" t="inlineStr" r="F124">
         <is>
-          <t xml:space="preserve">שורשים גורמים נזק לכביש ולביוב</t>
+          <t xml:space="preserve">נוטים</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G124">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">זכרון יעקב          </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H124">
         <is>
-          <t xml:space="preserve">איציק מנגר</t>
+          <t xml:space="preserve">חצב</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I124">
         <is>
-          <t xml:space="preserve">1</t>
+          <t xml:space="preserve">71</t>
         </is>
       </c>
       <c s="5" t="str" r="J124"/>
       <c s="6" t="str" r="K124"/>
       <c s="7" r="L124">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M124">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c s="2" t="inlineStr" r="N124">
         <is>
@@ -9281,7 +9323,7 @@
       </c>
       <c s="2" t="inlineStr" r="O124">
         <is>
-          <t xml:space="preserve">פיקוס בינימינה</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c s="3" r="P124">
@@ -9294,7 +9336,7 @@
         </is>
       </c>
       <c s="7" r="S124">
-        <v>44236</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="125" ht="14.2" customHeight="0">
@@ -9304,7 +9346,7 @@
         </is>
       </c>
       <c s="3" r="B125">
-        <v>22592</v>
+        <v>22479</v>
       </c>
       <c s="2" t="inlineStr" r="C125">
         <is>
@@ -9313,37 +9355,41 @@
       </c>
       <c s="2" t="inlineStr" r="D125">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">מועצה מקומית זכרון יעקב</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E125">
         <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F125"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F125">
+        <is>
+          <t xml:space="preserve">נוטים</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G125">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">זכרון יעקב          </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H125">
         <is>
-          <t xml:space="preserve">רמת ים מול מלון דניאל</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I125"/>
+          <t xml:space="preserve">חצב</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I125">
+        <is>
+          <t xml:space="preserve">71</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J125"/>
-      <c s="6" t="inlineStr" r="K125">
-        <is>
-          <t xml:space="preserve">ליד מס' 63</t>
-        </is>
-      </c>
+      <c s="6" t="str" r="K125"/>
       <c s="7" r="L125">
-        <v>44241</v>
+        <v>44236</v>
       </c>
       <c s="7" r="M125">
-        <v>44971</v>
+        <v>44966</v>
       </c>
       <c s="2" t="inlineStr" r="N125">
         <is>
@@ -9352,11 +9398,11 @@
       </c>
       <c s="2" t="inlineStr" r="O125">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">מילה ירוקת-עד</t>
         </is>
       </c>
       <c s="3" r="P125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="2" t="str" r="Q125"/>
       <c s="4" t="inlineStr" r="R125">
@@ -9365,7 +9411,7 @@
         </is>
       </c>
       <c s="7" r="S125">
-        <v>44240</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="126" ht="14.15" customHeight="0">
@@ -9375,7 +9421,7 @@
         </is>
       </c>
       <c s="3" r="B126">
-        <v>22593</v>
+        <v>22523</v>
       </c>
       <c s="2" t="inlineStr" r="C126">
         <is>
@@ -9384,7 +9430,7 @@
       </c>
       <c s="2" t="inlineStr" r="D126">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">דנה ורונן קלמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E126">
@@ -9394,31 +9440,31 @@
       </c>
       <c s="2" t="inlineStr" r="F126">
         <is>
-          <t xml:space="preserve">רקבונות בבסיס הגזע</t>
+          <t xml:space="preserve">נוטה לכיוון הבית</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G126">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H126">
-        <is>
-          <t xml:space="preserve">הקי דמה ,גינת וריזלנד</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I126">
-        <is>
-          <t xml:space="preserve">82</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J126"/>
-      <c s="6" t="str" r="K126"/>
+          <t xml:space="preserve">גן השומרון          </t>
+        </is>
+      </c>
+      <c s="2" t="str" r="H126"/>
+      <c s="5" t="str" r="I126"/>
+      <c s="5" t="inlineStr" r="J126">
+        <is>
+          <t xml:space="preserve">10080</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K126">
+        <is>
+          <t xml:space="preserve">84</t>
+        </is>
+      </c>
       <c s="7" r="L126">
-        <v>44241</v>
+        <v>44244</v>
       </c>
       <c s="7" r="M126">
-        <v>44971</v>
+        <v>44976</v>
       </c>
       <c s="2" t="inlineStr" r="N126">
         <is>
@@ -9427,7 +9473,7 @@
       </c>
       <c s="2" t="inlineStr" r="O126">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P126">
@@ -9440,7 +9486,7 @@
         </is>
       </c>
       <c s="7" r="S126">
-        <v>44240</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="127" ht="14.15" customHeight="0">
@@ -9450,7 +9496,7 @@
         </is>
       </c>
       <c s="3" r="B127">
-        <v>22594</v>
+        <v>22554</v>
       </c>
       <c s="2" t="inlineStr" r="C127">
         <is>
@@ -9464,10 +9510,14 @@
       </c>
       <c s="2" t="inlineStr" r="E127">
         <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F127"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F127">
+        <is>
+          <t xml:space="preserve">שבר בגזע מרכזי</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G127">
         <is>
           <t xml:space="preserve">הרצליה              </t>
@@ -9475,14 +9525,10 @@
       </c>
       <c s="2" t="inlineStr" r="H127">
         <is>
-          <t xml:space="preserve">יצחק בן צבי</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I127">
-        <is>
-          <t xml:space="preserve">157</t>
-        </is>
-      </c>
+          <t xml:space="preserve">חניה של הבין תחומי</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I127"/>
       <c s="5" t="str" r="J127"/>
       <c s="6" t="str" r="K127"/>
       <c s="7" r="L127">
@@ -9498,16 +9544,16 @@
       </c>
       <c s="2" t="inlineStr" r="O127">
         <is>
-          <t xml:space="preserve">גרווילאה חסונה</t>
+          <t xml:space="preserve">שלטית מקומטת</t>
         </is>
       </c>
       <c s="3" r="P127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q127"/>
       <c s="4" t="inlineStr" r="R127">
         <is>
-          <t xml:space="preserve">מת לכריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S127">
@@ -9521,7 +9567,7 @@
         </is>
       </c>
       <c s="3" r="B128">
-        <v>22599</v>
+        <v>22555</v>
       </c>
       <c s="2" t="inlineStr" r="C128">
         <is>
@@ -9540,7 +9586,7 @@
       </c>
       <c s="2" t="inlineStr" r="F128">
         <is>
-          <t xml:space="preserve">נוטה על שביל ציבורי</t>
+          <t xml:space="preserve">רקבונות קשים בגזע מרכזי</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G128">
@@ -9550,21 +9596,17 @@
       </c>
       <c s="2" t="inlineStr" r="H128">
         <is>
-          <t xml:space="preserve">האלה</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I128">
-        <is>
-          <t xml:space="preserve">5</t>
-        </is>
-      </c>
+          <t xml:space="preserve">מול בצלאל 2</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I128"/>
       <c s="5" t="str" r="J128"/>
       <c s="6" t="str" r="K128"/>
       <c s="7" r="L128">
-        <v>44244</v>
+        <v>44241</v>
       </c>
       <c s="7" r="M128">
-        <v>44976</v>
+        <v>44971</v>
       </c>
       <c s="2" t="inlineStr" r="N128">
         <is>
@@ -9573,11 +9615,11 @@
       </c>
       <c s="2" t="inlineStr" r="O128">
         <is>
-          <t xml:space="preserve">טבבוית איפה</t>
+          <t xml:space="preserve">אלמוגן</t>
         </is>
       </c>
       <c s="3" r="P128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q128"/>
       <c s="4" t="inlineStr" r="R128">
@@ -9586,7 +9628,7 @@
         </is>
       </c>
       <c s="7" r="S128">
-        <v>44243</v>
+        <v>44240</v>
       </c>
     </row>
     <row r="129" ht="14.15" customHeight="0">
@@ -9596,7 +9638,7 @@
         </is>
       </c>
       <c s="3" r="B129">
-        <v>22602</v>
+        <v>22563</v>
       </c>
       <c s="2" t="inlineStr" r="C129">
         <is>
@@ -9605,19 +9647,15 @@
       </c>
       <c s="2" t="inlineStr" r="D129">
         <is>
-          <t xml:space="preserve">שמש אליעזר</t>
+          <t xml:space="preserve">עיריית הרצליה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E129">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F129">
-        <is>
-          <t xml:space="preserve">נזק לאיטום הבית ונוטים</t>
-        </is>
-      </c>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F129"/>
       <c s="4" t="inlineStr" r="G129">
         <is>
           <t xml:space="preserve">הרצליה              </t>
@@ -9625,21 +9663,21 @@
       </c>
       <c s="2" t="inlineStr" r="H129">
         <is>
-          <t xml:space="preserve">המעפילים</t>
+          <t xml:space="preserve">מול אשר ברש</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I129">
         <is>
-          <t xml:space="preserve">42</t>
+          <t xml:space="preserve">34</t>
         </is>
       </c>
       <c s="5" t="str" r="J129"/>
       <c s="6" t="str" r="K129"/>
       <c s="7" r="L129">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c s="7" r="M129">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c s="2" t="inlineStr" r="N129">
         <is>
@@ -9648,11 +9686,11 @@
       </c>
       <c s="2" t="inlineStr" r="O129">
         <is>
-          <t xml:space="preserve">ושינגטוניה חוטית</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q129"/>
       <c s="4" t="inlineStr" r="R129">
@@ -9661,7 +9699,7 @@
         </is>
       </c>
       <c s="7" r="S129">
-        <v>44241</v>
+        <v>44240</v>
       </c>
     </row>
     <row r="130" ht="14.2" customHeight="0">
@@ -9671,7 +9709,7 @@
         </is>
       </c>
       <c s="3" r="B130">
-        <v>22602</v>
+        <v>22586</v>
       </c>
       <c s="2" t="inlineStr" r="C130">
         <is>
@@ -9680,7 +9718,7 @@
       </c>
       <c s="2" t="inlineStr" r="D130">
         <is>
-          <t xml:space="preserve">שמש אליעזר</t>
+          <t xml:space="preserve">שרית נחמקין בן ארי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E130">
@@ -9690,7 +9728,7 @@
       </c>
       <c s="2" t="inlineStr" r="F130">
         <is>
-          <t xml:space="preserve">נזק לאיטום הבית ונוטים</t>
+          <t xml:space="preserve">שורשים גורמים נזק לכביש ולביוב</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G130">
@@ -9700,21 +9738,21 @@
       </c>
       <c s="2" t="inlineStr" r="H130">
         <is>
-          <t xml:space="preserve">המעפילים</t>
+          <t xml:space="preserve">איציק מנגר</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I130">
         <is>
-          <t xml:space="preserve">42</t>
+          <t xml:space="preserve">1</t>
         </is>
       </c>
       <c s="5" t="str" r="J130"/>
       <c s="6" t="str" r="K130"/>
       <c s="7" r="L130">
-        <v>44242</v>
+        <v>44237</v>
       </c>
       <c s="7" r="M130">
-        <v>44972</v>
+        <v>44969</v>
       </c>
       <c s="2" t="inlineStr" r="N130">
         <is>
@@ -9723,11 +9761,11 @@
       </c>
       <c s="2" t="inlineStr" r="O130">
         <is>
-          <t xml:space="preserve">סייאגרוס רומנזוף</t>
+          <t xml:space="preserve">סיסם הודי</t>
         </is>
       </c>
       <c s="3" r="P130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q130"/>
       <c s="4" t="inlineStr" r="R130">
@@ -9736,7 +9774,7 @@
         </is>
       </c>
       <c s="7" r="S130">
-        <v>44241</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="131" ht="14.15" customHeight="0">
@@ -9746,7 +9784,7 @@
         </is>
       </c>
       <c s="3" r="B131">
-        <v>22603</v>
+        <v>22586</v>
       </c>
       <c s="2" t="inlineStr" r="C131">
         <is>
@@ -9755,7 +9793,7 @@
       </c>
       <c s="2" t="inlineStr" r="D131">
         <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
+          <t xml:space="preserve">שרית נחמקין בן ארי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E131">
@@ -9765,31 +9803,31 @@
       </c>
       <c s="2" t="inlineStr" r="F131">
         <is>
-          <t xml:space="preserve">פולשים לעבר הגן ופירות רעילים</t>
+          <t xml:space="preserve">שורשים גורמים נזק לכביש ולביוב</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G131">
         <is>
-          <t xml:space="preserve">רמת השרון           </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H131">
         <is>
-          <t xml:space="preserve">מוריה, חורשת מוריה</t>
+          <t xml:space="preserve">איציק מנגר</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I131">
         <is>
-          <t xml:space="preserve">מול 24</t>
+          <t xml:space="preserve">1</t>
         </is>
       </c>
       <c s="5" t="str" r="J131"/>
       <c s="6" t="str" r="K131"/>
       <c s="7" r="L131">
-        <v>44242</v>
+        <v>44237</v>
       </c>
       <c s="7" r="M131">
-        <v>44972</v>
+        <v>44969</v>
       </c>
       <c s="2" t="inlineStr" r="N131">
         <is>
@@ -9798,20 +9836,20 @@
       </c>
       <c s="2" t="inlineStr" r="O131">
         <is>
-          <t xml:space="preserve">אזדרכת מצויה</t>
+          <t xml:space="preserve">פיקוס בינימינה</t>
         </is>
       </c>
       <c s="3" r="P131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q131"/>
       <c s="4" t="inlineStr" r="R131">
         <is>
-          <t xml:space="preserve">לכריתהה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S131">
-        <v>44241</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="132" ht="14.2" customHeight="0">
@@ -9821,7 +9859,7 @@
         </is>
       </c>
       <c s="3" r="B132">
-        <v>22604</v>
+        <v>22592</v>
       </c>
       <c s="2" t="inlineStr" r="C132">
         <is>
@@ -9830,37 +9868,37 @@
       </c>
       <c s="2" t="inlineStr" r="D132">
         <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
+          <t xml:space="preserve">עיריית הרצליה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E132">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F132">
-        <is>
-          <t xml:space="preserve">נטוי ונשען על הגדר</t>
-        </is>
-      </c>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F132"/>
       <c s="4" t="inlineStr" r="G132">
         <is>
-          <t xml:space="preserve">רמת השרון           </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H132">
         <is>
-          <t xml:space="preserve">יצחק שדה גן ילדים דקלים</t>
+          <t xml:space="preserve">רמת ים מול מלון דניאל</t>
         </is>
       </c>
       <c s="5" t="str" r="I132"/>
       <c s="5" t="str" r="J132"/>
-      <c s="6" t="str" r="K132"/>
+      <c s="6" t="inlineStr" r="K132">
+        <is>
+          <t xml:space="preserve">ליד מס' 63</t>
+        </is>
+      </c>
       <c s="7" r="L132">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c s="7" r="M132">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c s="2" t="inlineStr" r="N132">
         <is>
@@ -9869,7 +9907,7 @@
       </c>
       <c s="2" t="inlineStr" r="O132">
         <is>
-          <t xml:space="preserve">אורנים</t>
+          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P132">
@@ -9878,11 +9916,11 @@
       <c s="2" t="str" r="Q132"/>
       <c s="4" t="inlineStr" r="R132">
         <is>
-          <t xml:space="preserve">אורן צעיר לכריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S132">
-        <v>44241</v>
+        <v>44240</v>
       </c>
     </row>
     <row r="133" ht="14.15" customHeight="0">
@@ -9892,7 +9930,7 @@
         </is>
       </c>
       <c s="3" r="B133">
-        <v>22605</v>
+        <v>22593</v>
       </c>
       <c s="2" t="inlineStr" r="C133">
         <is>
@@ -9901,33 +9939,41 @@
       </c>
       <c s="2" t="inlineStr" r="D133">
         <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
+          <t xml:space="preserve">עיריית הרצליה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E133">
         <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F133"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F133">
+        <is>
+          <t xml:space="preserve">רקבונות בבסיס הגזע</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G133">
         <is>
-          <t xml:space="preserve">רמת השרון           </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H133">
         <is>
-          <t xml:space="preserve">פארק אלכסנדרוני</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I133"/>
+          <t xml:space="preserve">הקי דמה ,גינת וריזלנד</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I133">
+        <is>
+          <t xml:space="preserve">82</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J133"/>
       <c s="6" t="str" r="K133"/>
       <c s="7" r="L133">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c s="7" r="M133">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c s="2" t="inlineStr" r="N133">
         <is>
@@ -9936,7 +9982,7 @@
       </c>
       <c s="2" t="inlineStr" r="O133">
         <is>
-          <t xml:space="preserve">אלביציה צהובה (לבק)</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P133">
@@ -9949,7 +9995,7 @@
         </is>
       </c>
       <c s="7" r="S133">
-        <v>44241</v>
+        <v>44240</v>
       </c>
     </row>
     <row r="134" ht="14.2" customHeight="0">
@@ -9959,7 +10005,7 @@
         </is>
       </c>
       <c s="3" r="B134">
-        <v>22605</v>
+        <v>22594</v>
       </c>
       <c s="2" t="inlineStr" r="C134">
         <is>
@@ -9968,7 +10014,7 @@
       </c>
       <c s="2" t="inlineStr" r="D134">
         <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
+          <t xml:space="preserve">עיריית הרצליה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E134">
@@ -9979,22 +10025,26 @@
       <c s="2" t="str" r="F134"/>
       <c s="4" t="inlineStr" r="G134">
         <is>
-          <t xml:space="preserve">רמת השרון           </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H134">
         <is>
-          <t xml:space="preserve">פארק אלכסנדרוני</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I134"/>
+          <t xml:space="preserve">יצחק בן צבי</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I134">
+        <is>
+          <t xml:space="preserve">157</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J134"/>
       <c s="6" t="str" r="K134"/>
       <c s="7" r="L134">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c s="7" r="M134">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c s="2" t="inlineStr" r="N134">
         <is>
@@ -10003,20 +10053,20 @@
       </c>
       <c s="2" t="inlineStr" r="O134">
         <is>
-          <t xml:space="preserve">ברכיכיטון אדרי</t>
+          <t xml:space="preserve">גרווילאה חסונה</t>
         </is>
       </c>
       <c s="3" r="P134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q134"/>
       <c s="4" t="inlineStr" r="R134">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">מת לכריתה</t>
         </is>
       </c>
       <c s="7" r="S134">
-        <v>44241</v>
+        <v>44240</v>
       </c>
     </row>
     <row r="135" ht="14.15" customHeight="0">
@@ -10026,7 +10076,7 @@
         </is>
       </c>
       <c s="3" r="B135">
-        <v>22607</v>
+        <v>22599</v>
       </c>
       <c s="2" t="inlineStr" r="C135">
         <is>
@@ -10035,7 +10085,7 @@
       </c>
       <c s="2" t="inlineStr" r="D135">
         <is>
-          <t xml:space="preserve">עידו גורן</t>
+          <t xml:space="preserve">עיריית הרצליה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E135">
@@ -10045,7 +10095,7 @@
       </c>
       <c s="2" t="inlineStr" r="F135">
         <is>
-          <t xml:space="preserve">גורם הפרעה לארון כיבוי אש ובמצב לא טוב</t>
+          <t xml:space="preserve">נוטה על שביל ציבורי</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G135">
@@ -10055,21 +10105,21 @@
       </c>
       <c s="2" t="inlineStr" r="H135">
         <is>
-          <t xml:space="preserve">פסח יפהר</t>
+          <t xml:space="preserve">האלה</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I135">
         <is>
-          <t xml:space="preserve">45</t>
+          <t xml:space="preserve">5</t>
         </is>
       </c>
       <c s="5" t="str" r="J135"/>
       <c s="6" t="str" r="K135"/>
       <c s="7" r="L135">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c s="7" r="M135">
-        <v>44973</v>
+        <v>44976</v>
       </c>
       <c s="2" t="inlineStr" r="N135">
         <is>
@@ -10078,7 +10128,7 @@
       </c>
       <c s="2" t="inlineStr" r="O135">
         <is>
-          <t xml:space="preserve">אזדרכת מצויה</t>
+          <t xml:space="preserve">טבבוית איפה</t>
         </is>
       </c>
       <c s="3" r="P135">
@@ -10091,7 +10141,7 @@
         </is>
       </c>
       <c s="7" r="S135">
-        <v>44242</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="136" ht="14.2" customHeight="0">
@@ -10101,7 +10151,7 @@
         </is>
       </c>
       <c s="3" r="B136">
-        <v>22608</v>
+        <v>22602</v>
       </c>
       <c s="2" t="inlineStr" r="C136">
         <is>
@@ -10110,7 +10160,7 @@
       </c>
       <c s="2" t="inlineStr" r="D136">
         <is>
-          <t xml:space="preserve">סעידי מרים</t>
+          <t xml:space="preserve">שמש אליעזר</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E136">
@@ -10120,31 +10170,31 @@
       </c>
       <c s="2" t="inlineStr" r="F136">
         <is>
-          <t xml:space="preserve">צמודים לקו טלפון</t>
+          <t xml:space="preserve">נזק לאיטום הבית ונוטים</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G136">
         <is>
-          <t xml:space="preserve">רמת השרון           </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H136">
         <is>
-          <t xml:space="preserve">שבטי ישראל</t>
+          <t xml:space="preserve">המעפילים</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I136">
         <is>
-          <t xml:space="preserve">69</t>
+          <t xml:space="preserve">42</t>
         </is>
       </c>
       <c s="5" t="str" r="J136"/>
       <c s="6" t="str" r="K136"/>
       <c s="7" r="L136">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c s="7" r="M136">
-        <v>44973</v>
+        <v>44972</v>
       </c>
       <c s="2" t="inlineStr" r="N136">
         <is>
@@ -10153,11 +10203,11 @@
       </c>
       <c s="2" t="inlineStr" r="O136">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">ושינגטוניה חוטית</t>
         </is>
       </c>
       <c s="3" r="P136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="2" t="str" r="Q136"/>
       <c s="4" t="inlineStr" r="R136">
@@ -10166,7 +10216,7 @@
         </is>
       </c>
       <c s="7" r="S136">
-        <v>44242</v>
+        <v>44241</v>
       </c>
     </row>
     <row r="137" ht="14.15" customHeight="0">
@@ -10176,7 +10226,7 @@
         </is>
       </c>
       <c s="3" r="B137">
-        <v>22608</v>
+        <v>22602</v>
       </c>
       <c s="2" t="inlineStr" r="C137">
         <is>
@@ -10185,7 +10235,7 @@
       </c>
       <c s="2" t="inlineStr" r="D137">
         <is>
-          <t xml:space="preserve">סעידי מרים</t>
+          <t xml:space="preserve">שמש אליעזר</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E137">
@@ -10195,31 +10245,31 @@
       </c>
       <c s="2" t="inlineStr" r="F137">
         <is>
-          <t xml:space="preserve">צמודים לקו טלפון</t>
+          <t xml:space="preserve">נזק לאיטום הבית ונוטים</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G137">
         <is>
-          <t xml:space="preserve">רמת השרון           </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H137">
         <is>
-          <t xml:space="preserve">שבטי ישראל</t>
+          <t xml:space="preserve">המעפילים</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I137">
         <is>
-          <t xml:space="preserve">69</t>
+          <t xml:space="preserve">42</t>
         </is>
       </c>
       <c s="5" t="str" r="J137"/>
       <c s="6" t="str" r="K137"/>
       <c s="7" r="L137">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c s="7" r="M137">
-        <v>44973</v>
+        <v>44972</v>
       </c>
       <c s="2" t="inlineStr" r="N137">
         <is>
@@ -10228,11 +10278,11 @@
       </c>
       <c s="2" t="inlineStr" r="O137">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">סייאגרוס רומנזוף</t>
         </is>
       </c>
       <c s="3" r="P137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c s="2" t="str" r="Q137"/>
       <c s="4" t="inlineStr" r="R137">
@@ -10241,7 +10291,7 @@
         </is>
       </c>
       <c s="7" r="S137">
-        <v>44242</v>
+        <v>44241</v>
       </c>
     </row>
     <row r="138" ht="14.2" customHeight="0">
@@ -10251,7 +10301,7 @@
         </is>
       </c>
       <c s="3" r="B138">
-        <v>22609</v>
+        <v>22603</v>
       </c>
       <c s="2" t="inlineStr" r="C138">
         <is>
@@ -10260,33 +10310,41 @@
       </c>
       <c s="2" t="inlineStr" r="D138">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E138">
         <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F138"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F138">
+        <is>
+          <t xml:space="preserve">פולשים לעבר הגן ופירות רעילים</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G138">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H138">
         <is>
-          <t xml:space="preserve">חורשת הנ"מ</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I138"/>
+          <t xml:space="preserve">מוריה, חורשת מוריה</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I138">
+        <is>
+          <t xml:space="preserve">מול 24</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J138"/>
       <c s="6" t="str" r="K138"/>
       <c s="7" r="L138">
-        <v>44244</v>
+        <v>44242</v>
       </c>
       <c s="7" r="M138">
-        <v>44976</v>
+        <v>44972</v>
       </c>
       <c s="2" t="inlineStr" r="N138">
         <is>
@@ -10295,20 +10353,20 @@
       </c>
       <c s="2" t="inlineStr" r="O138">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t xml:space="preserve">אזדרכת מצויה</t>
         </is>
       </c>
       <c s="3" r="P138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q138"/>
       <c s="4" t="inlineStr" r="R138">
         <is>
-          <t xml:space="preserve">יבשים לכריתה</t>
+          <t xml:space="preserve">לכריתהה</t>
         </is>
       </c>
       <c s="7" r="S138">
-        <v>44243</v>
+        <v>44241</v>
       </c>
     </row>
     <row r="139" ht="14.15" customHeight="0">
@@ -10318,7 +10376,7 @@
         </is>
       </c>
       <c s="3" r="B139">
-        <v>22610</v>
+        <v>22604</v>
       </c>
       <c s="2" t="inlineStr" r="C139">
         <is>
@@ -10327,37 +10385,37 @@
       </c>
       <c s="2" t="inlineStr" r="D139">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E139">
         <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F139"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F139">
+        <is>
+          <t xml:space="preserve">נטוי ונשען על הגדר</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G139">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H139">
         <is>
-          <t xml:space="preserve">סמטת יפת בן זכריה</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I139">
-        <is>
-          <t xml:space="preserve">58</t>
-        </is>
-      </c>
+          <t xml:space="preserve">יצחק שדה גן ילדים דקלים</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I139"/>
       <c s="5" t="str" r="J139"/>
       <c s="6" t="str" r="K139"/>
       <c s="7" r="L139">
-        <v>44244</v>
+        <v>44242</v>
       </c>
       <c s="7" r="M139">
-        <v>44976</v>
+        <v>44972</v>
       </c>
       <c s="2" t="inlineStr" r="N139">
         <is>
@@ -10366,7 +10424,7 @@
       </c>
       <c s="2" t="inlineStr" r="O139">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">אורנים</t>
         </is>
       </c>
       <c s="3" r="P139">
@@ -10375,11 +10433,11 @@
       <c s="2" t="str" r="Q139"/>
       <c s="4" t="inlineStr" r="R139">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">אורן צעיר לכריתה</t>
         </is>
       </c>
       <c s="7" r="S139">
-        <v>44243</v>
+        <v>44241</v>
       </c>
     </row>
     <row r="140" ht="14.15" customHeight="0">
@@ -10389,7 +10447,7 @@
         </is>
       </c>
       <c s="3" r="B140">
-        <v>22611</v>
+        <v>22605</v>
       </c>
       <c s="2" t="inlineStr" r="C140">
         <is>
@@ -10398,7 +10456,7 @@
       </c>
       <c s="2" t="inlineStr" r="D140">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E140">
@@ -10409,26 +10467,22 @@
       <c s="2" t="str" r="F140"/>
       <c s="4" t="inlineStr" r="G140">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H140">
         <is>
-          <t xml:space="preserve">יצחק נגר</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I140">
-        <is>
-          <t xml:space="preserve">9</t>
-        </is>
-      </c>
+          <t xml:space="preserve">פארק אלכסנדרוני</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I140"/>
       <c s="5" t="str" r="J140"/>
       <c s="6" t="str" r="K140"/>
       <c s="7" r="L140">
-        <v>44244</v>
+        <v>44242</v>
       </c>
       <c s="7" r="M140">
-        <v>44976</v>
+        <v>44972</v>
       </c>
       <c s="2" t="inlineStr" r="N140">
         <is>
@@ -10437,7 +10491,7 @@
       </c>
       <c s="2" t="inlineStr" r="O140">
         <is>
-          <t xml:space="preserve">דולב אדרי</t>
+          <t xml:space="preserve">אלביציה צהובה (לבק)</t>
         </is>
       </c>
       <c s="3" r="P140">
@@ -10450,7 +10504,7 @@
         </is>
       </c>
       <c s="7" r="S140">
-        <v>44243</v>
+        <v>44241</v>
       </c>
     </row>
     <row r="141" ht="14.2" customHeight="0">
@@ -10460,7 +10514,7 @@
         </is>
       </c>
       <c s="3" r="B141">
-        <v>22612</v>
+        <v>22605</v>
       </c>
       <c s="2" t="inlineStr" r="C141">
         <is>
@@ -10469,7 +10523,7 @@
       </c>
       <c s="2" t="inlineStr" r="D141">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E141">
@@ -10480,26 +10534,22 @@
       <c s="2" t="str" r="F141"/>
       <c s="4" t="inlineStr" r="G141">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H141">
         <is>
-          <t xml:space="preserve">בן צבי</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I141">
-        <is>
-          <t xml:space="preserve">מול 157</t>
-        </is>
-      </c>
+          <t xml:space="preserve">פארק אלכסנדרוני</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I141"/>
       <c s="5" t="str" r="J141"/>
       <c s="6" t="str" r="K141"/>
       <c s="7" r="L141">
-        <v>44244</v>
+        <v>44242</v>
       </c>
       <c s="7" r="M141">
-        <v>44976</v>
+        <v>44972</v>
       </c>
       <c s="2" t="inlineStr" r="N141">
         <is>
@@ -10508,7 +10558,7 @@
       </c>
       <c s="2" t="inlineStr" r="O141">
         <is>
-          <t xml:space="preserve">בוהיניה מגוונת</t>
+          <t xml:space="preserve">ברכיכיטון אדרי</t>
         </is>
       </c>
       <c s="3" r="P141">
@@ -10521,7 +10571,7 @@
         </is>
       </c>
       <c s="7" r="S141">
-        <v>44243</v>
+        <v>44241</v>
       </c>
     </row>
     <row r="142" ht="14.15" customHeight="0">
@@ -10531,7 +10581,7 @@
         </is>
       </c>
       <c s="3" r="B142">
-        <v>22612</v>
+        <v>22607</v>
       </c>
       <c s="2" t="inlineStr" r="C142">
         <is>
@@ -10540,15 +10590,19 @@
       </c>
       <c s="2" t="inlineStr" r="D142">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">עידו גורן</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E142">
         <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F142"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F142">
+        <is>
+          <t xml:space="preserve">גורם הפרעה לארון כיבוי אש ובמצב לא טוב</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G142">
         <is>
           <t xml:space="preserve">הרצליה              </t>
@@ -10556,21 +10610,21 @@
       </c>
       <c s="2" t="inlineStr" r="H142">
         <is>
-          <t xml:space="preserve">בן צבי</t>
+          <t xml:space="preserve">פסח יפהר</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I142">
         <is>
-          <t xml:space="preserve">מול 157</t>
+          <t xml:space="preserve">45</t>
         </is>
       </c>
       <c s="5" t="str" r="J142"/>
       <c s="6" t="str" r="K142"/>
       <c s="7" r="L142">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c s="7" r="M142">
-        <v>44976</v>
+        <v>44973</v>
       </c>
       <c s="2" t="inlineStr" r="N142">
         <is>
@@ -10579,7 +10633,7 @@
       </c>
       <c s="2" t="inlineStr" r="O142">
         <is>
-          <t xml:space="preserve">פנסית דו-נוצתית</t>
+          <t xml:space="preserve">אזדרכת מצויה</t>
         </is>
       </c>
       <c s="3" r="P142">
@@ -10592,7 +10646,7 @@
         </is>
       </c>
       <c s="7" r="S142">
-        <v>44243</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="143" ht="14.2" customHeight="0">
@@ -10602,7 +10656,7 @@
         </is>
       </c>
       <c s="3" r="B143">
-        <v>22613</v>
+        <v>22608</v>
       </c>
       <c s="2" t="inlineStr" r="C143">
         <is>
@@ -10611,37 +10665,41 @@
       </c>
       <c s="2" t="inlineStr" r="D143">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">סעידי מרים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E143">
         <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F143"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F143">
+        <is>
+          <t xml:space="preserve">צמודים לקו טלפון</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G143">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H143">
         <is>
-          <t xml:space="preserve">בן צבי</t>
+          <t xml:space="preserve">שבטי ישראל</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I143">
         <is>
-          <t xml:space="preserve">מול 163</t>
+          <t xml:space="preserve">69</t>
         </is>
       </c>
       <c s="5" t="str" r="J143"/>
       <c s="6" t="str" r="K143"/>
       <c s="7" r="L143">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c s="7" r="M143">
-        <v>44976</v>
+        <v>44973</v>
       </c>
       <c s="2" t="inlineStr" r="N143">
         <is>
@@ -10650,7 +10708,7 @@
       </c>
       <c s="2" t="inlineStr" r="O143">
         <is>
-          <t xml:space="preserve">פלטופורום אפריקנום</t>
+          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P143">
@@ -10663,7 +10721,7 @@
         </is>
       </c>
       <c s="7" r="S143">
-        <v>44243</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="144" ht="14.15" customHeight="0">
@@ -10673,7 +10731,7 @@
         </is>
       </c>
       <c s="3" r="B144">
-        <v>22613</v>
+        <v>22608</v>
       </c>
       <c s="2" t="inlineStr" r="C144">
         <is>
@@ -10682,37 +10740,41 @@
       </c>
       <c s="2" t="inlineStr" r="D144">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">סעידי מרים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E144">
         <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F144"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F144">
+        <is>
+          <t xml:space="preserve">צמודים לקו טלפון</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G144">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H144">
         <is>
-          <t xml:space="preserve">בן צבי</t>
+          <t xml:space="preserve">שבטי ישראל</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I144">
         <is>
-          <t xml:space="preserve">מול 163</t>
+          <t xml:space="preserve">69</t>
         </is>
       </c>
       <c s="5" t="str" r="J144"/>
       <c s="6" t="str" r="K144"/>
       <c s="7" r="L144">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c s="7" r="M144">
-        <v>44976</v>
+        <v>44973</v>
       </c>
       <c s="2" t="inlineStr" r="N144">
         <is>
@@ -10721,7 +10783,7 @@
       </c>
       <c s="2" t="inlineStr" r="O144">
         <is>
-          <t xml:space="preserve">פנסית דו-נוצתית</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P144">
@@ -10734,7 +10796,7 @@
         </is>
       </c>
       <c s="7" r="S144">
-        <v>44243</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="145" ht="14.2" customHeight="0">
@@ -10744,11 +10806,11 @@
         </is>
       </c>
       <c s="3" r="B145">
-        <v>22614</v>
+        <v>22609</v>
       </c>
       <c s="2" t="inlineStr" r="C145">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D145">
@@ -10758,14 +10820,10 @@
       </c>
       <c s="2" t="inlineStr" r="E145">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F145">
-        <is>
-          <t xml:space="preserve">מפריע למערכת השקייה</t>
-        </is>
-      </c>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F145"/>
       <c s="4" t="inlineStr" r="G145">
         <is>
           <t xml:space="preserve">הרצליה              </t>
@@ -10773,7 +10831,7 @@
       </c>
       <c s="2" t="inlineStr" r="H145">
         <is>
-          <t xml:space="preserve">גן תמר מול שבט מנשה 40</t>
+          <t xml:space="preserve">חורשת הנ"מ</t>
         </is>
       </c>
       <c s="5" t="str" r="I145"/>
@@ -10792,7 +10850,7 @@
       </c>
       <c s="2" t="inlineStr" r="O145">
         <is>
-          <t xml:space="preserve">פנסית דו-נוצתית</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c s="3" r="P145">
@@ -10801,7 +10859,7 @@
       <c s="2" t="str" r="Q145"/>
       <c s="4" t="inlineStr" r="R145">
         <is>
-          <t xml:space="preserve">להעתקה</t>
+          <t xml:space="preserve">יבשים לכריתה</t>
         </is>
       </c>
       <c s="7" r="S145">
@@ -10815,7 +10873,7 @@
         </is>
       </c>
       <c s="3" r="B146">
-        <v>22615</v>
+        <v>22610</v>
       </c>
       <c s="2" t="inlineStr" r="C146">
         <is>
@@ -10840,12 +10898,12 @@
       </c>
       <c s="2" t="inlineStr" r="H146">
         <is>
-          <t xml:space="preserve">המסילה</t>
+          <t xml:space="preserve">סמטת יפת בן זכריה</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I146">
         <is>
-          <t xml:space="preserve">מול 17</t>
+          <t xml:space="preserve">58</t>
         </is>
       </c>
       <c s="5" t="str" r="J146"/>
@@ -10863,7 +10921,7 @@
       </c>
       <c s="2" t="inlineStr" r="O146">
         <is>
-          <t xml:space="preserve">סיגלון עלה-מימוסה</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P146">
@@ -10886,7 +10944,7 @@
         </is>
       </c>
       <c s="3" r="B147">
-        <v>22616</v>
+        <v>22611</v>
       </c>
       <c s="2" t="inlineStr" r="C147">
         <is>
@@ -10911,12 +10969,12 @@
       </c>
       <c s="2" t="inlineStr" r="H147">
         <is>
-          <t xml:space="preserve">חורשת האירוסים</t>
+          <t xml:space="preserve">יצחק נגר</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I147">
         <is>
-          <t xml:space="preserve">23-25</t>
+          <t xml:space="preserve">9</t>
         </is>
       </c>
       <c s="5" t="str" r="J147"/>
@@ -10934,7 +10992,7 @@
       </c>
       <c s="2" t="inlineStr" r="O147">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t xml:space="preserve">דולב אדרי</t>
         </is>
       </c>
       <c s="3" r="P147">
@@ -10957,7 +11015,7 @@
         </is>
       </c>
       <c s="3" r="B148">
-        <v>22617</v>
+        <v>22612</v>
       </c>
       <c s="2" t="inlineStr" r="C148">
         <is>
@@ -10982,12 +11040,12 @@
       </c>
       <c s="2" t="inlineStr" r="H148">
         <is>
-          <t xml:space="preserve">בר כוכבא מאחורי תעלת מים</t>
+          <t xml:space="preserve">בן צבי</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I148">
         <is>
-          <t xml:space="preserve">מאחורי 40,42</t>
+          <t xml:space="preserve">מול 157</t>
         </is>
       </c>
       <c s="5" t="str" r="J148"/>
@@ -11005,11 +11063,11 @@
       </c>
       <c s="2" t="inlineStr" r="O148">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t xml:space="preserve">בוהיניה מגוונת</t>
         </is>
       </c>
       <c s="3" r="P148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q148"/>
       <c s="4" t="inlineStr" r="R148">
@@ -11028,7 +11086,7 @@
         </is>
       </c>
       <c s="3" r="B149">
-        <v>22618</v>
+        <v>22612</v>
       </c>
       <c s="2" t="inlineStr" r="C149">
         <is>
@@ -11053,12 +11111,12 @@
       </c>
       <c s="2" t="inlineStr" r="H149">
         <is>
-          <t xml:space="preserve">גולומב ,גינה ציבורית</t>
+          <t xml:space="preserve">בן צבי</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I149">
         <is>
-          <t xml:space="preserve">מול 75</t>
+          <t xml:space="preserve">מול 157</t>
         </is>
       </c>
       <c s="5" t="str" r="J149"/>
@@ -11076,7 +11134,7 @@
       </c>
       <c s="2" t="inlineStr" r="O149">
         <is>
-          <t xml:space="preserve">צאלון נאה</t>
+          <t xml:space="preserve">פנסית דו-נוצתית</t>
         </is>
       </c>
       <c s="3" r="P149">
@@ -11099,7 +11157,7 @@
         </is>
       </c>
       <c s="3" r="B150">
-        <v>22619</v>
+        <v>22613</v>
       </c>
       <c s="2" t="inlineStr" r="C150">
         <is>
@@ -11113,14 +11171,10 @@
       </c>
       <c s="2" t="inlineStr" r="E150">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F150">
-        <is>
-          <t xml:space="preserve">שורשים גורמים נזק לתחנת דלק</t>
-        </is>
-      </c>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F150"/>
       <c s="4" t="inlineStr" r="G150">
         <is>
           <t xml:space="preserve">הרצליה              </t>
@@ -11128,10 +11182,14 @@
       </c>
       <c s="2" t="inlineStr" r="H150">
         <is>
-          <t xml:space="preserve">אגף יובל </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I150"/>
+          <t xml:space="preserve">בן צבי</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I150">
+        <is>
+          <t xml:space="preserve">מול 163</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J150"/>
       <c s="6" t="str" r="K150"/>
       <c s="7" r="L150">
@@ -11147,11 +11205,11 @@
       </c>
       <c s="2" t="inlineStr" r="O150">
         <is>
-          <t xml:space="preserve">סיסם הודי</t>
+          <t xml:space="preserve">פלטופורום אפריקנום</t>
         </is>
       </c>
       <c s="3" r="P150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q150"/>
       <c s="4" t="inlineStr" r="R150">
@@ -11163,105 +11221,826 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="151" ht="13.9" customHeight="0">
-      <c s="8" t="inlineStr" r="A151">
+    <row r="151" ht="14.2" customHeight="0">
+      <c s="2" t="inlineStr" r="A151">
+        <is>
+          <t xml:space="preserve">מנשה שרון</t>
+        </is>
+      </c>
+      <c s="3" r="B151">
+        <v>22613</v>
+      </c>
+      <c s="2" t="inlineStr" r="C151">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="D151">
+        <is>
+          <t xml:space="preserve">עיריית הרצליה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="E151">
+        <is>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F151"/>
+      <c s="4" t="inlineStr" r="G151">
+        <is>
+          <t xml:space="preserve">הרצליה              </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H151">
+        <is>
+          <t xml:space="preserve">בן צבי</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I151">
+        <is>
+          <t xml:space="preserve">מול 163</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J151"/>
+      <c s="6" t="str" r="K151"/>
+      <c s="7" r="L151">
+        <v>44244</v>
+      </c>
+      <c s="7" r="M151">
+        <v>44976</v>
+      </c>
+      <c s="2" t="inlineStr" r="N151">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O151">
+        <is>
+          <t xml:space="preserve">פנסית דו-נוצתית</t>
+        </is>
+      </c>
+      <c s="3" r="P151">
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q151"/>
+      <c s="4" t="inlineStr" r="R151">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
+      <c s="7" r="S151">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="152" ht="14.15" customHeight="0">
+      <c s="2" t="inlineStr" r="A152">
+        <is>
+          <t xml:space="preserve">מנשה שרון</t>
+        </is>
+      </c>
+      <c s="3" r="B152">
+        <v>22614</v>
+      </c>
+      <c s="2" t="inlineStr" r="C152">
+        <is>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="D152">
+        <is>
+          <t xml:space="preserve">עיריית הרצליה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="E152">
+        <is>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F152">
+        <is>
+          <t xml:space="preserve">מפריע למערכת השקייה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="G152">
+        <is>
+          <t xml:space="preserve">הרצליה              </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H152">
+        <is>
+          <t xml:space="preserve">גן תמר מול שבט מנשה 40</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I152"/>
+      <c s="5" t="str" r="J152"/>
+      <c s="6" t="str" r="K152"/>
+      <c s="7" r="L152">
+        <v>44244</v>
+      </c>
+      <c s="7" r="M152">
+        <v>44976</v>
+      </c>
+      <c s="2" t="inlineStr" r="N152">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O152">
+        <is>
+          <t xml:space="preserve">פנסית דו-נוצתית</t>
+        </is>
+      </c>
+      <c s="3" r="P152">
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q152"/>
+      <c s="4" t="inlineStr" r="R152">
+        <is>
+          <t xml:space="preserve">להעתקה</t>
+        </is>
+      </c>
+      <c s="7" r="S152">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="153" ht="14.2" customHeight="0">
+      <c s="2" t="inlineStr" r="A153">
+        <is>
+          <t xml:space="preserve">מנשה שרון</t>
+        </is>
+      </c>
+      <c s="3" r="B153">
+        <v>22615</v>
+      </c>
+      <c s="2" t="inlineStr" r="C153">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="D153">
+        <is>
+          <t xml:space="preserve">עיריית הרצליה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="E153">
+        <is>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F153"/>
+      <c s="4" t="inlineStr" r="G153">
+        <is>
+          <t xml:space="preserve">הרצליה              </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H153">
+        <is>
+          <t xml:space="preserve">המסילה</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I153">
+        <is>
+          <t xml:space="preserve">מול 17</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J153"/>
+      <c s="6" t="str" r="K153"/>
+      <c s="7" r="L153">
+        <v>44244</v>
+      </c>
+      <c s="7" r="M153">
+        <v>44976</v>
+      </c>
+      <c s="2" t="inlineStr" r="N153">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O153">
+        <is>
+          <t xml:space="preserve">סיגלון עלה-מימוסה</t>
+        </is>
+      </c>
+      <c s="3" r="P153">
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q153"/>
+      <c s="4" t="inlineStr" r="R153">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
+      <c s="7" r="S153">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="154" ht="14.15" customHeight="0">
+      <c s="2" t="inlineStr" r="A154">
+        <is>
+          <t xml:space="preserve">מנשה שרון</t>
+        </is>
+      </c>
+      <c s="3" r="B154">
+        <v>22616</v>
+      </c>
+      <c s="2" t="inlineStr" r="C154">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="D154">
+        <is>
+          <t xml:space="preserve">עיריית הרצליה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="E154">
+        <is>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F154"/>
+      <c s="4" t="inlineStr" r="G154">
+        <is>
+          <t xml:space="preserve">הרצליה              </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H154">
+        <is>
+          <t xml:space="preserve">חורשת האירוסים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I154">
+        <is>
+          <t xml:space="preserve">23-25</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J154"/>
+      <c s="6" t="str" r="K154"/>
+      <c s="7" r="L154">
+        <v>44244</v>
+      </c>
+      <c s="7" r="M154">
+        <v>44976</v>
+      </c>
+      <c s="2" t="inlineStr" r="N154">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O154">
+        <is>
+          <t xml:space="preserve">איקליפטוס המקור </t>
+        </is>
+      </c>
+      <c s="3" r="P154">
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q154"/>
+      <c s="4" t="inlineStr" r="R154">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
+      <c s="7" r="S154">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="155" ht="14.15" customHeight="0">
+      <c s="2" t="inlineStr" r="A155">
+        <is>
+          <t xml:space="preserve">מנשה שרון</t>
+        </is>
+      </c>
+      <c s="3" r="B155">
+        <v>22617</v>
+      </c>
+      <c s="2" t="inlineStr" r="C155">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="D155">
+        <is>
+          <t xml:space="preserve">עיריית הרצליה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="E155">
+        <is>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F155"/>
+      <c s="4" t="inlineStr" r="G155">
+        <is>
+          <t xml:space="preserve">הרצליה              </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H155">
+        <is>
+          <t xml:space="preserve">בר כוכבא מאחורי תעלת מים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I155">
+        <is>
+          <t xml:space="preserve">מאחורי 40,42</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J155"/>
+      <c s="6" t="str" r="K155"/>
+      <c s="7" r="L155">
+        <v>44244</v>
+      </c>
+      <c s="7" r="M155">
+        <v>44976</v>
+      </c>
+      <c s="2" t="inlineStr" r="N155">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O155">
+        <is>
+          <t xml:space="preserve">איקליפטוס המקור </t>
+        </is>
+      </c>
+      <c s="3" r="P155">
+        <v>2</v>
+      </c>
+      <c s="2" t="str" r="Q155"/>
+      <c s="4" t="inlineStr" r="R155">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
+      <c s="7" r="S155">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="156" ht="14.2" customHeight="0">
+      <c s="2" t="inlineStr" r="A156">
+        <is>
+          <t xml:space="preserve">מנשה שרון</t>
+        </is>
+      </c>
+      <c s="3" r="B156">
+        <v>22618</v>
+      </c>
+      <c s="2" t="inlineStr" r="C156">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="D156">
+        <is>
+          <t xml:space="preserve">עיריית הרצליה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="E156">
+        <is>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F156"/>
+      <c s="4" t="inlineStr" r="G156">
+        <is>
+          <t xml:space="preserve">הרצליה              </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H156">
+        <is>
+          <t xml:space="preserve">גולומב ,גינה ציבורית</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I156">
+        <is>
+          <t xml:space="preserve">מול 75</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J156"/>
+      <c s="6" t="str" r="K156"/>
+      <c s="7" r="L156">
+        <v>44244</v>
+      </c>
+      <c s="7" r="M156">
+        <v>44976</v>
+      </c>
+      <c s="2" t="inlineStr" r="N156">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O156">
+        <is>
+          <t xml:space="preserve">צאלון נאה</t>
+        </is>
+      </c>
+      <c s="3" r="P156">
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q156"/>
+      <c s="4" t="inlineStr" r="R156">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
+      <c s="7" r="S156">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="157" ht="14.15" customHeight="0">
+      <c s="2" t="inlineStr" r="A157">
+        <is>
+          <t xml:space="preserve">מנשה שרון</t>
+        </is>
+      </c>
+      <c s="3" r="B157">
+        <v>22619</v>
+      </c>
+      <c s="2" t="inlineStr" r="C157">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="D157">
+        <is>
+          <t xml:space="preserve">עיריית הרצליה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="E157">
+        <is>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F157">
+        <is>
+          <t xml:space="preserve">שורשים גורמים נזק לתחנת דלק</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="G157">
+        <is>
+          <t xml:space="preserve">הרצליה              </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H157">
+        <is>
+          <t xml:space="preserve">אגף יובל </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I157"/>
+      <c s="5" t="str" r="J157"/>
+      <c s="6" t="str" r="K157"/>
+      <c s="7" r="L157">
+        <v>44244</v>
+      </c>
+      <c s="7" r="M157">
+        <v>44976</v>
+      </c>
+      <c s="2" t="inlineStr" r="N157">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O157">
+        <is>
+          <t xml:space="preserve">סיסם הודי</t>
+        </is>
+      </c>
+      <c s="3" r="P157">
+        <v>2</v>
+      </c>
+      <c s="2" t="str" r="Q157"/>
+      <c s="4" t="inlineStr" r="R157">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
+      <c s="7" r="S157">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="158" ht="14.2" customHeight="0">
+      <c s="2" t="inlineStr" r="A158">
+        <is>
+          <t xml:space="preserve">מנשה שרון</t>
+        </is>
+      </c>
+      <c s="3" r="B158">
+        <v>22621</v>
+      </c>
+      <c s="2" t="inlineStr" r="C158">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="D158">
+        <is>
+          <t xml:space="preserve">עיריית הרצליה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="E158">
+        <is>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F158">
+        <is>
+          <t xml:space="preserve">נוטה על המדרכה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="G158">
+        <is>
+          <t xml:space="preserve">הרצליה              </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H158">
+        <is>
+          <t xml:space="preserve">בן גוריון</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I158">
+        <is>
+          <t xml:space="preserve">89</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J158"/>
+      <c s="6" t="str" r="K158"/>
+      <c s="7" r="L158">
+        <v>44245</v>
+      </c>
+      <c s="7" r="M158">
+        <v>44976</v>
+      </c>
+      <c s="2" t="inlineStr" r="N158">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O158">
+        <is>
+          <t xml:space="preserve">סיסם הודי</t>
+        </is>
+      </c>
+      <c s="3" r="P158">
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q158"/>
+      <c s="4" t="inlineStr" r="R158">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
+      <c s="7" r="S158">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="159" ht="14.15" customHeight="0">
+      <c s="2" t="inlineStr" r="A159">
+        <is>
+          <t xml:space="preserve">מנשה שרון</t>
+        </is>
+      </c>
+      <c s="3" r="B159">
+        <v>22622</v>
+      </c>
+      <c s="2" t="inlineStr" r="C159">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="D159">
+        <is>
+          <t xml:space="preserve">חן אביבה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="E159">
+        <is>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F159">
+        <is>
+          <t xml:space="preserve">נזק לקיר גינה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="G159">
+        <is>
+          <t xml:space="preserve">רמת השרון           </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H159">
+        <is>
+          <t xml:space="preserve">דרך הראשונים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I159">
+        <is>
+          <t xml:space="preserve">38</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J159"/>
+      <c s="6" t="str" r="K159"/>
+      <c s="7" r="L159">
+        <v>44245</v>
+      </c>
+      <c s="7" r="M159">
+        <v>44976</v>
+      </c>
+      <c s="2" t="inlineStr" r="N159">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O159">
+        <is>
+          <t xml:space="preserve">אראוקריה בידויל</t>
+        </is>
+      </c>
+      <c s="3" r="P159">
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q159"/>
+      <c s="4" t="inlineStr" r="R159">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
+      <c s="7" r="S159">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="160" ht="14.2" customHeight="0">
+      <c s="2" t="inlineStr" r="A160">
+        <is>
+          <t xml:space="preserve">מנשה שרון</t>
+        </is>
+      </c>
+      <c s="3" r="B160">
+        <v>22622</v>
+      </c>
+      <c s="2" t="inlineStr" r="C160">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="D160">
+        <is>
+          <t xml:space="preserve">חן אביבה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="E160">
+        <is>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F160">
+        <is>
+          <t xml:space="preserve">נזק לקיר גינה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="G160">
+        <is>
+          <t xml:space="preserve">רמת השרון           </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H160">
+        <is>
+          <t xml:space="preserve">דרך הראשונים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I160">
+        <is>
+          <t xml:space="preserve">38</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J160"/>
+      <c s="6" t="str" r="K160"/>
+      <c s="7" r="L160">
+        <v>44245</v>
+      </c>
+      <c s="7" r="M160">
+        <v>44976</v>
+      </c>
+      <c s="2" t="inlineStr" r="N160">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O160">
+        <is>
+          <t xml:space="preserve">דקל משולש</t>
+        </is>
+      </c>
+      <c s="3" r="P160">
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q160"/>
+      <c s="4" t="inlineStr" r="R160">
+        <is>
+          <t xml:space="preserve">דקל טבעות לכריתה</t>
+        </is>
+      </c>
+      <c s="7" r="S160">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="161" ht="13.9" customHeight="0">
+      <c s="8" t="inlineStr" r="A161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="B151">
+      <c s="8" t="inlineStr" r="B161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="C151">
+      <c s="8" t="inlineStr" r="C161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="D151">
+      <c s="8" t="inlineStr" r="D161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="E151">
+      <c s="8" t="inlineStr" r="E161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="F151">
+      <c s="8" t="inlineStr" r="F161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="G151">
+      <c s="8" t="inlineStr" r="G161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="H151">
+      <c s="8" t="inlineStr" r="H161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="I151">
+      <c s="8" t="inlineStr" r="I161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="J151">
+      <c s="8" t="inlineStr" r="J161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="K151">
+      <c s="8" t="inlineStr" r="K161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="L151">
+      <c s="8" t="inlineStr" r="L161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="M151">
+      <c s="8" t="inlineStr" r="M161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="N151">
+      <c s="8" t="inlineStr" r="N161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="O151">
+      <c s="8" t="inlineStr" r="O161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="P151">
+      <c s="8" t="inlineStr" r="P161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="Q151">
+      <c s="8" t="inlineStr" r="Q161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="R151">
+      <c s="8" t="inlineStr" r="R161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="S151">
+      <c s="8" t="inlineStr" r="S161">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
     </row>
-    <row r="152" ht="0.05" customHeight="1"/>
-    <row r="153" ht="73.15" customHeight="1"/>
+    <row r="162" ht="73.15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.196850393700787" bottom="0.118110236220472" header="0.196850393700787" footer="0.118110236220472"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -11505,13 +12284,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D43D1334-A678-4C1E-A624-141748FE7E0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4FBD5C-ADBF-4C3B-B4C5-CB171C5E292D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D1A4DA-4673-449E-9E19-9596860C5EB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C25B2E83-D27C-4C90-A278-BBB084F03E66}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{131DED35-C35E-4DDE-8B44-349B15A9F799}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8F88F29-1403-4D20-BC84-0DCD055E5B79}"/>
 </file>
--- a/general-before.xlsx
+++ b/general-before.xlsx
@@ -2383,18 +2383,14 @@
         </is>
       </c>
       <c s="3" r="P28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q28">
         <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="R28">
-        <is>
-          <t xml:space="preserve">327.328.335</t>
-        </is>
-      </c>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R28"/>
       <c s="7" r="S28">
         <v>44256</v>
       </c>
@@ -2458,11 +2454,11 @@
         </is>
       </c>
       <c s="3" r="P29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c s="2" t="inlineStr" r="Q29">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R29"/>
@@ -2529,14 +2525,18 @@
         </is>
       </c>
       <c s="3" r="P30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c s="2" t="inlineStr" r="Q30">
         <is>
           <t xml:space="preserve">העתקה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R30"/>
+      <c s="4" t="inlineStr" r="R30">
+        <is>
+          <t xml:space="preserve">327.328.335</t>
+        </is>
+      </c>
       <c s="7" r="S30">
         <v>44256</v>
       </c>
@@ -2959,14 +2959,18 @@
         </is>
       </c>
       <c s="3" r="P36">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c s="2" t="inlineStr" r="Q36">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R36"/>
+      <c s="4" t="inlineStr" r="R36">
+        <is>
+          <t xml:space="preserve">521.519.520.522</t>
+        </is>
+      </c>
       <c s="7" r="S36">
         <v>44256</v>
       </c>
@@ -3030,18 +3034,14 @@
         </is>
       </c>
       <c s="3" r="P37">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c s="2" t="inlineStr" r="Q37">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="inlineStr" r="R37">
-        <is>
-          <t xml:space="preserve">521.519.520.522</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R37"/>
       <c s="7" r="S37">
         <v>44256</v>
       </c>
@@ -3992,11 +3992,11 @@
     <row r="51" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B51">
-        <v>13253</v>
+        <v>17599</v>
       </c>
       <c s="2" t="inlineStr" r="C51">
         <is>
@@ -4005,65 +4005,77 @@
       </c>
       <c s="2" t="inlineStr" r="D51">
         <is>
-          <t xml:space="preserve">עיריית בני ברק</t>
+          <t xml:space="preserve">ויקי חג'ג ושאול לוי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E51">
         <is>
-          <t xml:space="preserve">בטיחות</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F51"/>
       <c s="4" t="inlineStr" r="G51">
         <is>
-          <t xml:space="preserve">בני ברק             </t>
+          <t xml:space="preserve">כפר יונה            </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H51">
         <is>
-          <t xml:space="preserve">דנגור</t>
+          <t xml:space="preserve">המייסדים</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I51">
         <is>
-          <t xml:space="preserve">13</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J51"/>
-      <c s="6" t="str" r="K51"/>
+          <t xml:space="preserve">97</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J51">
+        <is>
+          <t xml:space="preserve">8152</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K51">
+        <is>
+          <t xml:space="preserve">222 </t>
+        </is>
+      </c>
       <c s="7" r="L51">
-        <v>44245</v>
+        <v>44250</v>
       </c>
       <c s="7" r="M51">
-        <v>44334</v>
+        <v>44980</v>
       </c>
       <c s="2" t="inlineStr" r="N51">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O51">
         <is>
-          <t xml:space="preserve">אזדרכת מצויה</t>
+          <t xml:space="preserve">אורן קפריסאי</t>
         </is>
       </c>
       <c s="3" r="P51">
         <v>1</v>
       </c>
       <c s="2" t="str" r="Q51"/>
-      <c s="4" t="str" r="R51"/>
+      <c s="4" t="inlineStr" r="R51">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S51">
-        <v>44244</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="52" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B52">
-        <v>13256</v>
+        <v>17599</v>
       </c>
       <c s="2" t="inlineStr" r="C52">
         <is>
@@ -4072,7 +4084,7 @@
       </c>
       <c s="2" t="inlineStr" r="D52">
         <is>
-          <t xml:space="preserve">יגל דויטש</t>
+          <t xml:space="preserve">ויקי חג'ג ושאול לוי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E52">
@@ -4083,59 +4095,75 @@
       <c s="2" t="str" r="F52"/>
       <c s="4" t="inlineStr" r="G52">
         <is>
-          <t xml:space="preserve">בת ים               </t>
+          <t xml:space="preserve">כפר יונה            </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H52">
         <is>
-          <t xml:space="preserve">רק"ל קו אדום בת ים רח' רוטשילד</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I52"/>
-      <c s="5" t="str" r="J52"/>
-      <c s="6" t="str" r="K52"/>
+          <t xml:space="preserve">המייסדים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I52">
+        <is>
+          <t xml:space="preserve">97</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J52">
+        <is>
+          <t xml:space="preserve">8152</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K52">
+        <is>
+          <t xml:space="preserve">222 </t>
+        </is>
+      </c>
       <c s="7" r="L52">
-        <v>44245</v>
+        <v>44250</v>
       </c>
       <c s="7" r="M52">
-        <v>44334</v>
+        <v>44980</v>
       </c>
       <c s="2" t="inlineStr" r="N52">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O52">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">פקן תרבותי</t>
         </is>
       </c>
       <c s="3" r="P52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q52"/>
-      <c s="4" t="str" r="R52"/>
+      <c s="4" t="inlineStr" r="R52">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S52">
-        <v>44244</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="53" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B53">
-        <v>13258</v>
+        <v>17599</v>
       </c>
       <c s="2" t="inlineStr" r="C53">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D53">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">ויקי חג'ג ושאול לוי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E53">
@@ -4146,71 +4174,75 @@
       <c s="2" t="str" r="F53"/>
       <c s="4" t="inlineStr" r="G53">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">כפר יונה            </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H53">
         <is>
-          <t xml:space="preserve">משה דיין</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I53"/>
+          <t xml:space="preserve">המייסדים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I53">
+        <is>
+          <t xml:space="preserve">97</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J53">
         <is>
-          <t xml:space="preserve">6759,7126</t>
+          <t xml:space="preserve">8152</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K53">
         <is>
-          <t xml:space="preserve">224.240.291.323</t>
+          <t xml:space="preserve">222 </t>
         </is>
       </c>
       <c s="7" r="L53">
-        <v>44245</v>
+        <v>44250</v>
       </c>
       <c s="7" r="M53">
-        <v>44334</v>
+        <v>44980</v>
       </c>
       <c s="2" t="inlineStr" r="N53">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O53">
         <is>
-          <t xml:space="preserve">ברוש גדול-פירות</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P53">
-        <v>4</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q53">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R53"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q53"/>
+      <c s="4" t="inlineStr" r="R53">
+        <is>
+          <t xml:space="preserve">תמר רובליני לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S53">
-        <v>44244</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="54" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B54">
-        <v>13258</v>
+        <v>17599</v>
       </c>
       <c s="2" t="inlineStr" r="C54">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D54">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">ויקי חג'ג ושאול לוי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E54">
@@ -4221,62 +4253,66 @@
       <c s="2" t="str" r="F54"/>
       <c s="4" t="inlineStr" r="G54">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">כפר יונה            </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H54">
         <is>
-          <t xml:space="preserve">משה דיין</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I54"/>
+          <t xml:space="preserve">המייסדים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I54">
+        <is>
+          <t xml:space="preserve">97</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J54">
         <is>
-          <t xml:space="preserve">6759,7126</t>
+          <t xml:space="preserve">8152</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K54">
         <is>
-          <t xml:space="preserve">224.240.291.323</t>
+          <t xml:space="preserve">222 </t>
         </is>
       </c>
       <c s="7" r="L54">
-        <v>44245</v>
+        <v>44250</v>
       </c>
       <c s="7" r="M54">
-        <v>44334</v>
+        <v>44980</v>
       </c>
       <c s="2" t="inlineStr" r="N54">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O54">
         <is>
-          <t xml:space="preserve">מכנף נאה</t>
+          <t xml:space="preserve">פלומריה ריחנית</t>
         </is>
       </c>
       <c s="3" r="P54">
-        <v>4</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q54">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R54"/>
+        <v>2</v>
+      </c>
+      <c s="2" t="str" r="Q54"/>
+      <c s="4" t="inlineStr" r="R54">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S54">
-        <v>44244</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="55" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B55">
-        <v>13258</v>
+        <v>18059</v>
       </c>
       <c s="2" t="inlineStr" r="C55">
         <is>
@@ -4285,7 +4321,7 @@
       </c>
       <c s="2" t="inlineStr" r="D55">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">קיבוץ גן שמואל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E55">
@@ -4296,62 +4332,66 @@
       <c s="2" t="str" r="F55"/>
       <c s="4" t="inlineStr" r="G55">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">גן שמואל            </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H55">
         <is>
-          <t xml:space="preserve">משה דיין</t>
+          <t xml:space="preserve">בית 264</t>
         </is>
       </c>
       <c s="5" t="str" r="I55"/>
       <c s="5" t="inlineStr" r="J55">
         <is>
-          <t xml:space="preserve">6759,7126</t>
+          <t xml:space="preserve">10052</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K55">
         <is>
-          <t xml:space="preserve">224.240.291.323</t>
+          <t xml:space="preserve">15,23</t>
         </is>
       </c>
       <c s="7" r="L55">
-        <v>44245</v>
+        <v>44257</v>
       </c>
       <c s="7" r="M55">
-        <v>44334</v>
+        <v>44987</v>
       </c>
       <c s="2" t="inlineStr" r="N55">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O55">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">עצי פרי</t>
         </is>
       </c>
       <c s="3" r="P55">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q55">
         <is>
           <t xml:space="preserve">העתקה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R55"/>
+      <c s="4" t="inlineStr" r="R55">
+        <is>
+          <t xml:space="preserve">מנגו להעתקה</t>
+        </is>
+      </c>
       <c s="7" r="S55">
-        <v>44244</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="56" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B56">
-        <v>13258</v>
+        <v>18059</v>
       </c>
       <c s="2" t="inlineStr" r="C56">
         <is>
@@ -4360,7 +4400,7 @@
       </c>
       <c s="2" t="inlineStr" r="D56">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">קיבוץ גן שמואל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E56">
@@ -4371,71 +4411,75 @@
       <c s="2" t="str" r="F56"/>
       <c s="4" t="inlineStr" r="G56">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">גן שמואל            </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H56">
         <is>
-          <t xml:space="preserve">משה דיין</t>
+          <t xml:space="preserve">בית 264</t>
         </is>
       </c>
       <c s="5" t="str" r="I56"/>
       <c s="5" t="inlineStr" r="J56">
         <is>
-          <t xml:space="preserve">6759,7126</t>
+          <t xml:space="preserve">10052</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K56">
         <is>
-          <t xml:space="preserve">224.240.291.323</t>
+          <t xml:space="preserve">15,23</t>
         </is>
       </c>
       <c s="7" r="L56">
-        <v>44245</v>
+        <v>44257</v>
       </c>
       <c s="7" r="M56">
-        <v>44334</v>
+        <v>44987</v>
       </c>
       <c s="2" t="inlineStr" r="N56">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O56">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">אראוקריה רמה</t>
         </is>
       </c>
       <c s="3" r="P56">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q56">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R56"/>
+      <c s="4" t="inlineStr" r="R56">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S56">
-        <v>44244</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="57" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B57">
-        <v>13258</v>
+        <v>18062</v>
       </c>
       <c s="2" t="inlineStr" r="C57">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D57">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">רינובו בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E57">
@@ -4446,71 +4490,71 @@
       <c s="2" t="str" r="F57"/>
       <c s="4" t="inlineStr" r="G57">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H57">
         <is>
-          <t xml:space="preserve">משה דיין</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I57"/>
+          <t xml:space="preserve">הדר</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I57">
+        <is>
+          <t xml:space="preserve">42</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J57">
         <is>
-          <t xml:space="preserve">6759,7126</t>
+          <t xml:space="preserve">6536</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K57">
         <is>
-          <t xml:space="preserve">224.240.291.323</t>
+          <t xml:space="preserve">718</t>
         </is>
       </c>
       <c s="7" r="L57">
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c s="7" r="M57">
-        <v>44334</v>
+        <v>44979</v>
       </c>
       <c s="2" t="inlineStr" r="N57">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O57">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P57">
-        <v>19</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q57">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q57"/>
       <c s="4" t="str" r="R57"/>
       <c s="7" r="S57">
-        <v>44244</v>
+        <v>44248</v>
       </c>
     </row>
     <row r="58" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B58">
-        <v>13258</v>
+        <v>18062</v>
       </c>
       <c s="2" t="inlineStr" r="C58">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D58">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">רינובו בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E58">
@@ -4521,71 +4565,71 @@
       <c s="2" t="str" r="F58"/>
       <c s="4" t="inlineStr" r="G58">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H58">
         <is>
-          <t xml:space="preserve">משה דיין</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I58"/>
+          <t xml:space="preserve">הדר</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I58">
+        <is>
+          <t xml:space="preserve">42</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J58">
         <is>
-          <t xml:space="preserve">6759,7126</t>
+          <t xml:space="preserve">6536</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K58">
         <is>
-          <t xml:space="preserve">224.240.291.323</t>
+          <t xml:space="preserve">718</t>
         </is>
       </c>
       <c s="7" r="L58">
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c s="7" r="M58">
-        <v>44334</v>
+        <v>44979</v>
       </c>
       <c s="2" t="inlineStr" r="N58">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O58">
         <is>
-          <t xml:space="preserve">פיקוס בינימינה</t>
+          <t xml:space="preserve">אלמוגן</t>
         </is>
       </c>
       <c s="3" r="P58">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q58">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c s="2" t="str" r="Q58"/>
       <c s="4" t="str" r="R58"/>
       <c s="7" r="S58">
-        <v>44244</v>
+        <v>44248</v>
       </c>
     </row>
     <row r="59" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B59">
-        <v>13258</v>
+        <v>18062</v>
       </c>
       <c s="2" t="inlineStr" r="C59">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D59">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">רינובו בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E59">
@@ -4596,71 +4640,71 @@
       <c s="2" t="str" r="F59"/>
       <c s="4" t="inlineStr" r="G59">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H59">
         <is>
-          <t xml:space="preserve">משה דיין</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I59"/>
+          <t xml:space="preserve">הדר</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I59">
+        <is>
+          <t xml:space="preserve">42</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J59">
         <is>
-          <t xml:space="preserve">6759,7126</t>
+          <t xml:space="preserve">6536</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K59">
         <is>
-          <t xml:space="preserve">224.240.291.323</t>
+          <t xml:space="preserve">718</t>
         </is>
       </c>
       <c s="7" r="L59">
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c s="7" r="M59">
-        <v>44334</v>
+        <v>44979</v>
       </c>
       <c s="2" t="inlineStr" r="N59">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O59">
         <is>
-          <t xml:space="preserve">שלטית מקומטת</t>
+          <t xml:space="preserve">ברכיכיטון אדרי</t>
         </is>
       </c>
       <c s="3" r="P59">
-        <v>9</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q59">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c s="2" t="str" r="Q59"/>
       <c s="4" t="str" r="R59"/>
       <c s="7" r="S59">
-        <v>44244</v>
+        <v>44248</v>
       </c>
     </row>
     <row r="60" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B60">
-        <v>13258</v>
+        <v>18062</v>
       </c>
       <c s="2" t="inlineStr" r="C60">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D60">
         <is>
-          <t xml:space="preserve">גיל נכט</t>
+          <t xml:space="preserve">רינובו בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E60">
@@ -4671,52 +4715,52 @@
       <c s="2" t="str" r="F60"/>
       <c s="4" t="inlineStr" r="G60">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H60">
         <is>
-          <t xml:space="preserve">משה דיין</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I60"/>
+          <t xml:space="preserve">הדר</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I60">
+        <is>
+          <t xml:space="preserve">42</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J60">
         <is>
-          <t xml:space="preserve">6759,7126</t>
+          <t xml:space="preserve">6536</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K60">
         <is>
-          <t xml:space="preserve">224.240.291.323</t>
+          <t xml:space="preserve">718</t>
         </is>
       </c>
       <c s="7" r="L60">
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c s="7" r="M60">
-        <v>44334</v>
+        <v>44979</v>
       </c>
       <c s="2" t="inlineStr" r="N60">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O60">
         <is>
-          <t xml:space="preserve">פנסית דו-נוצתית</t>
+          <t xml:space="preserve">קליסטמון</t>
         </is>
       </c>
       <c s="3" r="P60">
-        <v>4</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q60">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c s="2" t="str" r="Q60"/>
       <c s="4" t="str" r="R60"/>
       <c s="7" r="S60">
-        <v>44244</v>
+        <v>44248</v>
       </c>
     </row>
     <row r="61" ht="14.2" customHeight="0">
@@ -4726,7 +4770,7 @@
         </is>
       </c>
       <c s="3" r="B61">
-        <v>17599</v>
+        <v>20947</v>
       </c>
       <c s="2" t="inlineStr" r="C61">
         <is>
@@ -4735,45 +4779,41 @@
       </c>
       <c s="2" t="inlineStr" r="D61">
         <is>
-          <t xml:space="preserve">ויקי חג'ג ושאול לוי</t>
+          <t xml:space="preserve">כוכבי אריאלה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E61">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F61"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F61">
+        <is>
+          <t xml:space="preserve">גבוה וקרוב לבית</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G61">
         <is>
-          <t xml:space="preserve">כפר יונה            </t>
+          <t xml:space="preserve">כפר סבא             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H61">
         <is>
-          <t xml:space="preserve">המייסדים</t>
+          <t xml:space="preserve">טהון</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I61">
         <is>
-          <t xml:space="preserve">97</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J61">
-        <is>
-          <t xml:space="preserve">8152</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K61">
-        <is>
-          <t xml:space="preserve">222 </t>
-        </is>
-      </c>
+          <t xml:space="preserve">9</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J61"/>
+      <c s="6" t="str" r="K61"/>
       <c s="7" r="L61">
-        <v>44250</v>
+        <v>44629</v>
       </c>
       <c s="7" r="M61">
-        <v>44980</v>
+        <v>44629</v>
       </c>
       <c s="2" t="inlineStr" r="N61">
         <is>
@@ -4782,7 +4822,7 @@
       </c>
       <c s="2" t="inlineStr" r="O61">
         <is>
-          <t xml:space="preserve">אורן קפריסאי</t>
+          <t xml:space="preserve">דקל משולש</t>
         </is>
       </c>
       <c s="3" r="P61">
@@ -4791,11 +4831,11 @@
       <c s="2" t="str" r="Q61"/>
       <c s="4" t="inlineStr" r="R61">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">דקל לכריתה</t>
         </is>
       </c>
       <c s="7" r="S61">
-        <v>44249</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="62" ht="14.15" customHeight="0">
@@ -4805,7 +4845,7 @@
         </is>
       </c>
       <c s="3" r="B62">
-        <v>17599</v>
+        <v>20947</v>
       </c>
       <c s="2" t="inlineStr" r="C62">
         <is>
@@ -4814,45 +4854,41 @@
       </c>
       <c s="2" t="inlineStr" r="D62">
         <is>
-          <t xml:space="preserve">ויקי חג'ג ושאול לוי</t>
+          <t xml:space="preserve">כוכבי אריאלה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E62">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F62"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F62">
+        <is>
+          <t xml:space="preserve">גבוה וקרוב לבית</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G62">
         <is>
-          <t xml:space="preserve">כפר יונה            </t>
+          <t xml:space="preserve">כפר סבא             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H62">
         <is>
-          <t xml:space="preserve">המייסדים</t>
+          <t xml:space="preserve">טהון</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I62">
         <is>
-          <t xml:space="preserve">97</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J62">
-        <is>
-          <t xml:space="preserve">8152</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K62">
-        <is>
-          <t xml:space="preserve">222 </t>
-        </is>
-      </c>
+          <t xml:space="preserve">9</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J62"/>
+      <c s="6" t="str" r="K62"/>
       <c s="7" r="L62">
-        <v>44250</v>
+        <v>44629</v>
       </c>
       <c s="7" r="M62">
-        <v>44980</v>
+        <v>44629</v>
       </c>
       <c s="2" t="inlineStr" r="N62">
         <is>
@@ -4861,7 +4897,7 @@
       </c>
       <c s="2" t="inlineStr" r="O62">
         <is>
-          <t xml:space="preserve">פקן תרבותי</t>
+          <t xml:space="preserve">אבוקדו הודי</t>
         </is>
       </c>
       <c s="3" r="P62">
@@ -4874,7 +4910,7 @@
         </is>
       </c>
       <c s="7" r="S62">
-        <v>44249</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="63" ht="14.2" customHeight="0">
@@ -4884,16 +4920,16 @@
         </is>
       </c>
       <c s="3" r="B63">
-        <v>17599</v>
+        <v>21180</v>
       </c>
       <c s="2" t="inlineStr" r="C63">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D63">
         <is>
-          <t xml:space="preserve">ויקי חג'ג ושאול לוי</t>
+          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E63">
@@ -4904,34 +4940,30 @@
       <c s="2" t="str" r="F63"/>
       <c s="4" t="inlineStr" r="G63">
         <is>
-          <t xml:space="preserve">כפר יונה            </t>
+          <t xml:space="preserve">צור יצחק</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H63">
         <is>
-          <t xml:space="preserve">המייסדים</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I63">
-        <is>
-          <t xml:space="preserve">97</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I63"/>
       <c s="5" t="inlineStr" r="J63">
         <is>
-          <t xml:space="preserve">8152</t>
+          <t xml:space="preserve">8901</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K63">
         <is>
-          <t xml:space="preserve">222 </t>
+          <t xml:space="preserve">67</t>
         </is>
       </c>
       <c s="7" r="L63">
-        <v>44250</v>
+        <v>44256</v>
       </c>
       <c s="7" r="M63">
-        <v>44980</v>
+        <v>44986</v>
       </c>
       <c s="2" t="inlineStr" r="N63">
         <is>
@@ -4940,20 +4972,24 @@
       </c>
       <c s="2" t="inlineStr" r="O63">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">שיטה כחלחלה</t>
         </is>
       </c>
       <c s="3" r="P63">
         <v>1</v>
       </c>
-      <c s="2" t="str" r="Q63"/>
+      <c s="2" t="inlineStr" r="Q63">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="R63">
         <is>
-          <t xml:space="preserve">תמר רובליני לכריתה</t>
+          <t xml:space="preserve">כריתה </t>
         </is>
       </c>
       <c s="7" r="S63">
-        <v>44249</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="64" ht="14.15" customHeight="0">
@@ -4963,16 +4999,16 @@
         </is>
       </c>
       <c s="3" r="B64">
-        <v>17599</v>
+        <v>21180</v>
       </c>
       <c s="2" t="inlineStr" r="C64">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D64">
         <is>
-          <t xml:space="preserve">ויקי חג'ג ושאול לוי</t>
+          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E64">
@@ -4983,34 +5019,30 @@
       <c s="2" t="str" r="F64"/>
       <c s="4" t="inlineStr" r="G64">
         <is>
-          <t xml:space="preserve">כפר יונה            </t>
+          <t xml:space="preserve">צור יצחק</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">המייסדים</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I64">
-        <is>
-          <t xml:space="preserve">97</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I64"/>
       <c s="5" t="inlineStr" r="J64">
         <is>
-          <t xml:space="preserve">8152</t>
+          <t xml:space="preserve">8901</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K64">
         <is>
-          <t xml:space="preserve">222 </t>
+          <t xml:space="preserve">67</t>
         </is>
       </c>
       <c s="7" r="L64">
-        <v>44250</v>
+        <v>44256</v>
       </c>
       <c s="7" r="M64">
-        <v>44980</v>
+        <v>44986</v>
       </c>
       <c s="2" t="inlineStr" r="N64">
         <is>
@@ -5019,20 +5051,24 @@
       </c>
       <c s="2" t="inlineStr" r="O64">
         <is>
-          <t xml:space="preserve">פלומריה ריחנית</t>
+          <t xml:space="preserve">אלון אנגלי</t>
         </is>
       </c>
       <c s="3" r="P64">
-        <v>2</v>
-      </c>
-      <c s="2" t="str" r="Q64"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q64">
+        <is>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="R64">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="7" r="S64">
-        <v>44249</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="65" ht="14.2" customHeight="0">
@@ -5042,16 +5078,16 @@
         </is>
       </c>
       <c s="3" r="B65">
-        <v>18062</v>
+        <v>21180</v>
       </c>
       <c s="2" t="inlineStr" r="C65">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D65">
         <is>
-          <t xml:space="preserve">רינובו בע"מ</t>
+          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E65">
@@ -5062,52 +5098,56 @@
       <c s="2" t="str" r="F65"/>
       <c s="4" t="inlineStr" r="G65">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">צור יצחק</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H65">
         <is>
+          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I65"/>
+      <c s="5" t="inlineStr" r="J65">
+        <is>
+          <t xml:space="preserve">8901</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K65">
+        <is>
+          <t xml:space="preserve">67</t>
+        </is>
+      </c>
+      <c s="7" r="L65">
+        <v>44256</v>
+      </c>
+      <c s="7" r="M65">
+        <v>44986</v>
+      </c>
+      <c s="2" t="inlineStr" r="N65">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O65">
+        <is>
           <t xml:space="preserve">הדר</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I65">
-        <is>
-          <t xml:space="preserve">42</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J65">
-        <is>
-          <t xml:space="preserve">6536</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K65">
-        <is>
-          <t xml:space="preserve">718</t>
-        </is>
-      </c>
-      <c s="7" r="L65">
-        <v>44249</v>
-      </c>
-      <c s="7" r="M65">
-        <v>44979</v>
-      </c>
-      <c s="2" t="inlineStr" r="N65">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O65">
-        <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P65">
         <v>1</v>
       </c>
-      <c s="2" t="str" r="Q65"/>
-      <c s="4" t="str" r="R65"/>
+      <c s="2" t="inlineStr" r="Q65">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="R65">
+        <is>
+          <t xml:space="preserve">לימון </t>
+        </is>
+      </c>
       <c s="7" r="S65">
-        <v>44248</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="66" ht="14.15" customHeight="0">
@@ -5117,16 +5157,16 @@
         </is>
       </c>
       <c s="3" r="B66">
-        <v>18062</v>
+        <v>21180</v>
       </c>
       <c s="2" t="inlineStr" r="C66">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D66">
         <is>
-          <t xml:space="preserve">רינובו בע"מ</t>
+          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E66">
@@ -5137,34 +5177,30 @@
       <c s="2" t="str" r="F66"/>
       <c s="4" t="inlineStr" r="G66">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">צור יצחק</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H66">
         <is>
-          <t xml:space="preserve">הדר</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I66">
-        <is>
-          <t xml:space="preserve">42</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I66"/>
       <c s="5" t="inlineStr" r="J66">
         <is>
-          <t xml:space="preserve">6536</t>
+          <t xml:space="preserve">8901</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K66">
         <is>
-          <t xml:space="preserve">718</t>
+          <t xml:space="preserve">67</t>
         </is>
       </c>
       <c s="7" r="L66">
-        <v>44249</v>
+        <v>44256</v>
       </c>
       <c s="7" r="M66">
-        <v>44979</v>
+        <v>44986</v>
       </c>
       <c s="2" t="inlineStr" r="N66">
         <is>
@@ -5173,16 +5209,24 @@
       </c>
       <c s="2" t="inlineStr" r="O66">
         <is>
-          <t xml:space="preserve">אלמוגן</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P66">
-        <v>3</v>
-      </c>
-      <c s="2" t="str" r="Q66"/>
-      <c s="4" t="str" r="R66"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q66">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="R66">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="7" r="S66">
-        <v>44248</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="67" ht="14.2" customHeight="0">
@@ -5192,16 +5236,16 @@
         </is>
       </c>
       <c s="3" r="B67">
-        <v>18062</v>
+        <v>21180</v>
       </c>
       <c s="2" t="inlineStr" r="C67">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D67">
         <is>
-          <t xml:space="preserve">רינובו בע"מ</t>
+          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E67">
@@ -5212,34 +5256,30 @@
       <c s="2" t="str" r="F67"/>
       <c s="4" t="inlineStr" r="G67">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">צור יצחק</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H67">
         <is>
-          <t xml:space="preserve">הדר</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I67">
-        <is>
-          <t xml:space="preserve">42</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I67"/>
       <c s="5" t="inlineStr" r="J67">
         <is>
-          <t xml:space="preserve">6536</t>
+          <t xml:space="preserve">8901</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K67">
         <is>
-          <t xml:space="preserve">718</t>
+          <t xml:space="preserve">67</t>
         </is>
       </c>
       <c s="7" r="L67">
-        <v>44249</v>
+        <v>44256</v>
       </c>
       <c s="7" r="M67">
-        <v>44979</v>
+        <v>44986</v>
       </c>
       <c s="2" t="inlineStr" r="N67">
         <is>
@@ -5248,16 +5288,24 @@
       </c>
       <c s="2" t="inlineStr" r="O67">
         <is>
-          <t xml:space="preserve">ברכיכיטון אדרי</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P67">
-        <v>2</v>
-      </c>
-      <c s="2" t="str" r="Q67"/>
-      <c s="4" t="str" r="R67"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q67">
+        <is>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="R67">
+        <is>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
       <c s="7" r="S67">
-        <v>44248</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="68" ht="14.15" customHeight="0">
@@ -5267,16 +5315,16 @@
         </is>
       </c>
       <c s="3" r="B68">
-        <v>18062</v>
+        <v>21180</v>
       </c>
       <c s="2" t="inlineStr" r="C68">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D68">
         <is>
-          <t xml:space="preserve">רינובו בע"מ</t>
+          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E68">
@@ -5287,34 +5335,30 @@
       <c s="2" t="str" r="F68"/>
       <c s="4" t="inlineStr" r="G68">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">צור יצחק</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">הדר</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I68">
-        <is>
-          <t xml:space="preserve">42</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I68"/>
       <c s="5" t="inlineStr" r="J68">
         <is>
-          <t xml:space="preserve">6536</t>
+          <t xml:space="preserve">8901</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K68">
         <is>
-          <t xml:space="preserve">718</t>
+          <t xml:space="preserve">67</t>
         </is>
       </c>
       <c s="7" r="L68">
-        <v>44249</v>
+        <v>44256</v>
       </c>
       <c s="7" r="M68">
-        <v>44979</v>
+        <v>44986</v>
       </c>
       <c s="2" t="inlineStr" r="N68">
         <is>
@@ -5323,16 +5367,24 @@
       </c>
       <c s="2" t="inlineStr" r="O68">
         <is>
-          <t xml:space="preserve">קליסטמון</t>
+          <t xml:space="preserve">ספיון השעוה</t>
         </is>
       </c>
       <c s="3" r="P68">
-        <v>3</v>
-      </c>
-      <c s="2" t="str" r="Q68"/>
-      <c s="4" t="str" r="R68"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q68">
+        <is>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="R68">
+        <is>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
       <c s="7" r="S68">
-        <v>44248</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="69" ht="14.2" customHeight="0">
@@ -5342,50 +5394,42 @@
         </is>
       </c>
       <c s="3" r="B69">
-        <v>20947</v>
+        <v>21651</v>
       </c>
       <c s="2" t="inlineStr" r="C69">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D69">
         <is>
-          <t xml:space="preserve">כוכבי אריאלה</t>
+          <t xml:space="preserve">מ.מ.אבן יהודה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E69">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F69">
-        <is>
-          <t xml:space="preserve">גבוה וקרוב לבית</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F69"/>
       <c s="4" t="inlineStr" r="G69">
         <is>
-          <t xml:space="preserve">כפר סבא             </t>
+          <t xml:space="preserve">אבן יהודה           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H69">
         <is>
-          <t xml:space="preserve">טהון</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I69">
-        <is>
-          <t xml:space="preserve">9</t>
-        </is>
-      </c>
+          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I69"/>
       <c s="5" t="str" r="J69"/>
       <c s="6" t="str" r="K69"/>
       <c s="7" r="L69">
-        <v>44629</v>
+        <v>44252</v>
       </c>
       <c s="7" r="M69">
-        <v>44629</v>
+        <v>44983</v>
       </c>
       <c s="2" t="inlineStr" r="N69">
         <is>
@@ -5394,20 +5438,20 @@
       </c>
       <c s="2" t="inlineStr" r="O69">
         <is>
-          <t xml:space="preserve">דקל משולש</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P69">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q69"/>
-      <c s="4" t="inlineStr" r="R69">
-        <is>
-          <t xml:space="preserve">דקל לכריתה</t>
-        </is>
-      </c>
+        <v>7</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q69">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R69"/>
       <c s="7" r="S69">
-        <v>44628</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="70" ht="14.15" customHeight="0">
@@ -5417,50 +5461,42 @@
         </is>
       </c>
       <c s="3" r="B70">
-        <v>20947</v>
+        <v>21651</v>
       </c>
       <c s="2" t="inlineStr" r="C70">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D70">
         <is>
-          <t xml:space="preserve">כוכבי אריאלה</t>
+          <t xml:space="preserve">מ.מ.אבן יהודה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E70">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F70">
-        <is>
-          <t xml:space="preserve">גבוה וקרוב לבית</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F70"/>
       <c s="4" t="inlineStr" r="G70">
         <is>
-          <t xml:space="preserve">כפר סבא             </t>
+          <t xml:space="preserve">אבן יהודה           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H70">
         <is>
-          <t xml:space="preserve">טהון</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I70">
-        <is>
-          <t xml:space="preserve">9</t>
-        </is>
-      </c>
+          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I70"/>
       <c s="5" t="str" r="J70"/>
       <c s="6" t="str" r="K70"/>
       <c s="7" r="L70">
-        <v>44629</v>
+        <v>44252</v>
       </c>
       <c s="7" r="M70">
-        <v>44629</v>
+        <v>44983</v>
       </c>
       <c s="2" t="inlineStr" r="N70">
         <is>
@@ -5469,20 +5505,24 @@
       </c>
       <c s="2" t="inlineStr" r="O70">
         <is>
-          <t xml:space="preserve">אבוקדו הודי</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c s="3" r="P70">
         <v>1</v>
       </c>
-      <c s="2" t="str" r="Q70"/>
+      <c s="2" t="inlineStr" r="Q70">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="R70">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">איקליפטוס טורלי לכריתה</t>
         </is>
       </c>
       <c s="7" r="S70">
-        <v>44628</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="71" ht="14.15" customHeight="0">
@@ -5492,7 +5532,7 @@
         </is>
       </c>
       <c s="3" r="B71">
-        <v>21180</v>
+        <v>21651</v>
       </c>
       <c s="2" t="inlineStr" r="C71">
         <is>
@@ -5501,7 +5541,7 @@
       </c>
       <c s="2" t="inlineStr" r="D71">
         <is>
-          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
+          <t xml:space="preserve">מ.מ.אבן יהודה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E71">
@@ -5512,30 +5552,22 @@
       <c s="2" t="str" r="F71"/>
       <c s="4" t="inlineStr" r="G71">
         <is>
-          <t xml:space="preserve">צור יצחק</t>
+          <t xml:space="preserve">אבן יהודה           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H71">
         <is>
-          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
         </is>
       </c>
       <c s="5" t="str" r="I71"/>
-      <c s="5" t="inlineStr" r="J71">
-        <is>
-          <t xml:space="preserve">8901</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K71">
-        <is>
-          <t xml:space="preserve">67</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J71"/>
+      <c s="6" t="str" r="K71"/>
       <c s="7" r="L71">
-        <v>44256</v>
+        <v>44252</v>
       </c>
       <c s="7" r="M71">
-        <v>44986</v>
+        <v>44983</v>
       </c>
       <c s="2" t="inlineStr" r="N71">
         <is>
@@ -5544,7 +5576,7 @@
       </c>
       <c s="2" t="inlineStr" r="O71">
         <is>
-          <t xml:space="preserve">שיטה כחלחלה</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c s="3" r="P71">
@@ -5557,11 +5589,11 @@
       </c>
       <c s="4" t="inlineStr" r="R71">
         <is>
-          <t xml:space="preserve">כריתה </t>
+          <t xml:space="preserve">קורימביה יפת עלים</t>
         </is>
       </c>
       <c s="7" r="S71">
-        <v>44255</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="72" ht="14.2" customHeight="0">
@@ -5571,7 +5603,7 @@
         </is>
       </c>
       <c s="3" r="B72">
-        <v>21180</v>
+        <v>21651</v>
       </c>
       <c s="2" t="inlineStr" r="C72">
         <is>
@@ -5580,7 +5612,7 @@
       </c>
       <c s="2" t="inlineStr" r="D72">
         <is>
-          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
+          <t xml:space="preserve">מ.מ.אבן יהודה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E72">
@@ -5591,30 +5623,22 @@
       <c s="2" t="str" r="F72"/>
       <c s="4" t="inlineStr" r="G72">
         <is>
-          <t xml:space="preserve">צור יצחק</t>
+          <t xml:space="preserve">אבן יהודה           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H72">
         <is>
-          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
         </is>
       </c>
       <c s="5" t="str" r="I72"/>
-      <c s="5" t="inlineStr" r="J72">
-        <is>
-          <t xml:space="preserve">8901</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K72">
-        <is>
-          <t xml:space="preserve">67</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J72"/>
+      <c s="6" t="str" r="K72"/>
       <c s="7" r="L72">
-        <v>44256</v>
+        <v>44252</v>
       </c>
       <c s="7" r="M72">
-        <v>44986</v>
+        <v>44983</v>
       </c>
       <c s="2" t="inlineStr" r="N72">
         <is>
@@ -5623,24 +5647,20 @@
       </c>
       <c s="2" t="inlineStr" r="O72">
         <is>
-          <t xml:space="preserve">אלון אנגלי</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c s="3" r="P72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="2" t="inlineStr" r="Q72">
         <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="R72">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R72"/>
       <c s="7" r="S72">
-        <v>44255</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="73" ht="14.15" customHeight="0">
@@ -5650,7 +5670,7 @@
         </is>
       </c>
       <c s="3" r="B73">
-        <v>21180</v>
+        <v>21651</v>
       </c>
       <c s="2" t="inlineStr" r="C73">
         <is>
@@ -5659,7 +5679,7 @@
       </c>
       <c s="2" t="inlineStr" r="D73">
         <is>
-          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
+          <t xml:space="preserve">מ.מ.אבן יהודה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E73">
@@ -5670,30 +5690,22 @@
       <c s="2" t="str" r="F73"/>
       <c s="4" t="inlineStr" r="G73">
         <is>
-          <t xml:space="preserve">צור יצחק</t>
+          <t xml:space="preserve">אבן יהודה           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H73">
         <is>
-          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
         </is>
       </c>
       <c s="5" t="str" r="I73"/>
-      <c s="5" t="inlineStr" r="J73">
-        <is>
-          <t xml:space="preserve">8901</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K73">
-        <is>
-          <t xml:space="preserve">67</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J73"/>
+      <c s="6" t="str" r="K73"/>
       <c s="7" r="L73">
-        <v>44256</v>
+        <v>44252</v>
       </c>
       <c s="7" r="M73">
-        <v>44986</v>
+        <v>44983</v>
       </c>
       <c s="2" t="inlineStr" r="N73">
         <is>
@@ -5702,24 +5714,20 @@
       </c>
       <c s="2" t="inlineStr" r="O73">
         <is>
-          <t xml:space="preserve">הדר</t>
+          <t xml:space="preserve">אזדרכת מצויה</t>
         </is>
       </c>
       <c s="3" r="P73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q73">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="inlineStr" r="R73">
-        <is>
-          <t xml:space="preserve">לימון </t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R73"/>
       <c s="7" r="S73">
-        <v>44255</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="74" ht="14.2" customHeight="0">
@@ -5729,7 +5737,7 @@
         </is>
       </c>
       <c s="3" r="B74">
-        <v>21180</v>
+        <v>21651</v>
       </c>
       <c s="2" t="inlineStr" r="C74">
         <is>
@@ -5738,7 +5746,7 @@
       </c>
       <c s="2" t="inlineStr" r="D74">
         <is>
-          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
+          <t xml:space="preserve">מ.מ.אבן יהודה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E74">
@@ -5749,30 +5757,22 @@
       <c s="2" t="str" r="F74"/>
       <c s="4" t="inlineStr" r="G74">
         <is>
-          <t xml:space="preserve">צור יצחק</t>
+          <t xml:space="preserve">אבן יהודה           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H74">
         <is>
-          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
         </is>
       </c>
       <c s="5" t="str" r="I74"/>
-      <c s="5" t="inlineStr" r="J74">
-        <is>
-          <t xml:space="preserve">8901</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K74">
-        <is>
-          <t xml:space="preserve">67</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J74"/>
+      <c s="6" t="str" r="K74"/>
       <c s="7" r="L74">
-        <v>44256</v>
+        <v>44252</v>
       </c>
       <c s="7" r="M74">
-        <v>44986</v>
+        <v>44983</v>
       </c>
       <c s="2" t="inlineStr" r="N74">
         <is>
@@ -5781,7 +5781,7 @@
       </c>
       <c s="2" t="inlineStr" r="O74">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">הדר</t>
         </is>
       </c>
       <c s="3" r="P74">
@@ -5794,11 +5794,11 @@
       </c>
       <c s="4" t="inlineStr" r="R74">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">תפוז לכריתה</t>
         </is>
       </c>
       <c s="7" r="S74">
-        <v>44255</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="75" ht="14.15" customHeight="0">
@@ -5808,7 +5808,7 @@
         </is>
       </c>
       <c s="3" r="B75">
-        <v>21180</v>
+        <v>21651</v>
       </c>
       <c s="2" t="inlineStr" r="C75">
         <is>
@@ -5817,7 +5817,7 @@
       </c>
       <c s="2" t="inlineStr" r="D75">
         <is>
-          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
+          <t xml:space="preserve">מ.מ.אבן יהודה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E75">
@@ -5828,30 +5828,22 @@
       <c s="2" t="str" r="F75"/>
       <c s="4" t="inlineStr" r="G75">
         <is>
-          <t xml:space="preserve">צור יצחק</t>
+          <t xml:space="preserve">אבן יהודה           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
         </is>
       </c>
       <c s="5" t="str" r="I75"/>
-      <c s="5" t="inlineStr" r="J75">
-        <is>
-          <t xml:space="preserve">8901</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K75">
-        <is>
-          <t xml:space="preserve">67</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J75"/>
+      <c s="6" t="str" r="K75"/>
       <c s="7" r="L75">
-        <v>44256</v>
+        <v>44252</v>
       </c>
       <c s="7" r="M75">
-        <v>44986</v>
+        <v>44983</v>
       </c>
       <c s="2" t="inlineStr" r="N75">
         <is>
@@ -5860,7 +5852,7 @@
       </c>
       <c s="2" t="inlineStr" r="O75">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">הדר</t>
         </is>
       </c>
       <c s="3" r="P75">
@@ -5868,16 +5860,16 @@
       </c>
       <c s="2" t="inlineStr" r="Q75">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="R75">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">הדר מנדרין לכריתה</t>
         </is>
       </c>
       <c s="7" r="S75">
-        <v>44255</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="76" ht="14.2" customHeight="0">
@@ -5887,7 +5879,7 @@
         </is>
       </c>
       <c s="3" r="B76">
-        <v>21180</v>
+        <v>21651</v>
       </c>
       <c s="2" t="inlineStr" r="C76">
         <is>
@@ -5896,7 +5888,7 @@
       </c>
       <c s="2" t="inlineStr" r="D76">
         <is>
-          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
+          <t xml:space="preserve">מ.מ.אבן יהודה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E76">
@@ -5907,30 +5899,22 @@
       <c s="2" t="str" r="F76"/>
       <c s="4" t="inlineStr" r="G76">
         <is>
-          <t xml:space="preserve">צור יצחק</t>
+          <t xml:space="preserve">אבן יהודה           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H76">
         <is>
-          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
         </is>
       </c>
       <c s="5" t="str" r="I76"/>
-      <c s="5" t="inlineStr" r="J76">
-        <is>
-          <t xml:space="preserve">8901</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K76">
-        <is>
-          <t xml:space="preserve">67</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J76"/>
+      <c s="6" t="str" r="K76"/>
       <c s="7" r="L76">
-        <v>44256</v>
+        <v>44252</v>
       </c>
       <c s="7" r="M76">
-        <v>44986</v>
+        <v>44983</v>
       </c>
       <c s="2" t="inlineStr" r="N76">
         <is>
@@ -5939,24 +5923,24 @@
       </c>
       <c s="2" t="inlineStr" r="O76">
         <is>
-          <t xml:space="preserve">ספיון השעוה</t>
+          <t xml:space="preserve">הדר</t>
         </is>
       </c>
       <c s="3" r="P76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q76">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="R76">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">אשכולית לכריתה</t>
         </is>
       </c>
       <c s="7" r="S76">
-        <v>44255</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="77" ht="14.15" customHeight="0">
@@ -6010,11 +5994,11 @@
       </c>
       <c s="2" t="inlineStr" r="O77">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">קריית הפקן</t>
         </is>
       </c>
       <c s="3" r="P77">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q77">
         <is>
@@ -6077,22 +6061,18 @@
       </c>
       <c s="2" t="inlineStr" r="O78">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t xml:space="preserve">אלון התולע</t>
         </is>
       </c>
       <c s="3" r="P78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q78">
         <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="R78">
-        <is>
-          <t xml:space="preserve">איקליפטוס טורלי לכריתה</t>
-        </is>
-      </c>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R78"/>
       <c s="7" r="S78">
         <v>44251</v>
       </c>
@@ -6148,22 +6128,18 @@
       </c>
       <c s="2" t="inlineStr" r="O79">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t xml:space="preserve">אשל הפרקים</t>
         </is>
       </c>
       <c s="3" r="P79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c s="2" t="inlineStr" r="Q79">
         <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="R79">
-        <is>
-          <t xml:space="preserve">קורימביה יפת עלים</t>
-        </is>
-      </c>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R79"/>
       <c s="7" r="S79">
         <v>44251</v>
       </c>
@@ -6219,15 +6195,15 @@
       </c>
       <c s="2" t="inlineStr" r="O80">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t xml:space="preserve">זית אירופי</t>
         </is>
       </c>
       <c s="3" r="P80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q80">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R80"/>
@@ -6286,11 +6262,11 @@
       </c>
       <c s="2" t="inlineStr" r="O81">
         <is>
-          <t xml:space="preserve">אזדרכת מצויה</t>
+          <t xml:space="preserve">ושינגטוניה חוטית</t>
         </is>
       </c>
       <c s="3" r="P81">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c s="2" t="inlineStr" r="Q81">
         <is>
@@ -6353,22 +6329,18 @@
       </c>
       <c s="2" t="inlineStr" r="O82">
         <is>
-          <t xml:space="preserve">הדר</t>
+          <t xml:space="preserve">סייגרוס רומנזוף</t>
         </is>
       </c>
       <c s="3" r="P82">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c s="2" t="inlineStr" r="Q82">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="inlineStr" r="R82">
-        <is>
-          <t xml:space="preserve">תפוז לכריתה</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R82"/>
       <c s="7" r="S82">
         <v>44251</v>
       </c>
@@ -6424,22 +6396,18 @@
       </c>
       <c s="2" t="inlineStr" r="O83">
         <is>
-          <t xml:space="preserve">הדר</t>
+          <t xml:space="preserve">ברכיכיטון אדרי</t>
         </is>
       </c>
       <c s="3" r="P83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q83">
         <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="R83">
-        <is>
-          <t xml:space="preserve">הדר מנדרין לכריתה</t>
-        </is>
-      </c>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R83"/>
       <c s="7" r="S83">
         <v>44251</v>
       </c>
@@ -6495,22 +6463,18 @@
       </c>
       <c s="2" t="inlineStr" r="O84">
         <is>
-          <t xml:space="preserve">הדר</t>
+          <t xml:space="preserve">ברכיכיטון אוסטרלי</t>
         </is>
       </c>
       <c s="3" r="P84">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c s="2" t="inlineStr" r="Q84">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="inlineStr" r="R84">
-        <is>
-          <t xml:space="preserve">אשכולית לכריתה</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R84"/>
       <c s="7" r="S84">
         <v>44251</v>
       </c>
@@ -6566,7 +6530,7 @@
       </c>
       <c s="2" t="inlineStr" r="O85">
         <is>
-          <t xml:space="preserve">קריית הפקן</t>
+          <t xml:space="preserve">גואיבה מצויה</t>
         </is>
       </c>
       <c s="3" r="P85">
@@ -6633,11 +6597,11 @@
       </c>
       <c s="2" t="inlineStr" r="O86">
         <is>
-          <t xml:space="preserve">אלון התולע</t>
+          <t xml:space="preserve">פיקוס בינימינה</t>
         </is>
       </c>
       <c s="3" r="P86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q86">
         <is>
@@ -6700,15 +6664,15 @@
       </c>
       <c s="2" t="inlineStr" r="O87">
         <is>
-          <t xml:space="preserve">אשל הפרקים</t>
+          <t xml:space="preserve">פיקוס בינימינה</t>
         </is>
       </c>
       <c s="3" r="P87">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c s="2" t="inlineStr" r="Q87">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R87"/>
@@ -6767,15 +6731,15 @@
       </c>
       <c s="2" t="inlineStr" r="O88">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">שלטית מקומטת</t>
         </is>
       </c>
       <c s="3" r="P88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q88">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R88"/>
@@ -6834,15 +6798,15 @@
       </c>
       <c s="2" t="inlineStr" r="O89">
         <is>
-          <t xml:space="preserve">ושינגטוניה חוטית</t>
+          <t xml:space="preserve">שלטית מקומטת</t>
         </is>
       </c>
       <c s="3" r="P89">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q89">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R89"/>
@@ -6857,42 +6821,58 @@
         </is>
       </c>
       <c s="3" r="B90">
-        <v>21651</v>
+        <v>21750</v>
       </c>
       <c s="2" t="inlineStr" r="C90">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D90">
         <is>
-          <t xml:space="preserve">מ.מ.אבן יהודה</t>
+          <t xml:space="preserve">שמוליק רוטשס</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E90">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F90"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F90">
+        <is>
+          <t xml:space="preserve">גבוה וללא תרומה לסביבה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G90">
         <is>
-          <t xml:space="preserve">אבן יהודה           </t>
+          <t xml:space="preserve">כוכב יאיר           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H90">
         <is>
-          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I90"/>
-      <c s="5" t="str" r="J90"/>
-      <c s="6" t="str" r="K90"/>
+          <t xml:space="preserve">הכרכום</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I90">
+        <is>
+          <t xml:space="preserve">11</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J90">
+        <is>
+          <t xml:space="preserve">8917</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K90">
+        <is>
+          <t xml:space="preserve">95</t>
+        </is>
+      </c>
       <c s="7" r="L90">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M90">
-        <v>44983</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N90">
         <is>
@@ -6901,20 +6881,20 @@
       </c>
       <c s="2" t="inlineStr" r="O90">
         <is>
-          <t xml:space="preserve">סייגרוס רומנזוף</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P90">
-        <v>21</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q90">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R90"/>
+        <v>7</v>
+      </c>
+      <c s="2" t="str" r="Q90"/>
+      <c s="4" t="inlineStr" r="R90">
+        <is>
+          <t xml:space="preserve">נוספו לכריתה בהתאם להחלטת ערר</t>
+        </is>
+      </c>
       <c s="7" r="S90">
-        <v>44251</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="91" ht="14.2" customHeight="0">
@@ -6924,42 +6904,58 @@
         </is>
       </c>
       <c s="3" r="B91">
-        <v>21651</v>
+        <v>21750</v>
       </c>
       <c s="2" t="inlineStr" r="C91">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D91">
         <is>
-          <t xml:space="preserve">מ.מ.אבן יהודה</t>
+          <t xml:space="preserve">שמוליק רוטשס</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E91">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F91"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F91">
+        <is>
+          <t xml:space="preserve">גבוה וללא תרומה לסביבה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G91">
         <is>
-          <t xml:space="preserve">אבן יהודה           </t>
+          <t xml:space="preserve">כוכב יאיר           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H91">
         <is>
-          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I91"/>
-      <c s="5" t="str" r="J91"/>
-      <c s="6" t="str" r="K91"/>
+          <t xml:space="preserve">הכרכום</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I91">
+        <is>
+          <t xml:space="preserve">11</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J91">
+        <is>
+          <t xml:space="preserve">8917</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K91">
+        <is>
+          <t xml:space="preserve">95</t>
+        </is>
+      </c>
       <c s="7" r="L91">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M91">
-        <v>44983</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N91">
         <is>
@@ -6968,20 +6964,20 @@
       </c>
       <c s="2" t="inlineStr" r="O91">
         <is>
-          <t xml:space="preserve">ברכיכיטון אדרי</t>
+          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P91">
-        <v>2</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q91">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R91"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q91"/>
+      <c s="4" t="inlineStr" r="R91">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S91">
-        <v>44251</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="92" ht="14.15" customHeight="0">
@@ -6991,42 +6987,50 @@
         </is>
       </c>
       <c s="3" r="B92">
-        <v>21651</v>
+        <v>22365</v>
       </c>
       <c s="2" t="inlineStr" r="C92">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D92">
         <is>
-          <t xml:space="preserve">מ.מ.אבן יהודה</t>
+          <t xml:space="preserve">נחמני יוזי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E92">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F92"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F92">
+        <is>
+          <t xml:space="preserve">נוטים ויבשים</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G92">
         <is>
-          <t xml:space="preserve">אבן יהודה           </t>
+          <t xml:space="preserve">חדרה                </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H92">
         <is>
-          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I92"/>
+          <t xml:space="preserve">שחל</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I92">
+        <is>
+          <t xml:space="preserve">6</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J92"/>
       <c s="6" t="str" r="K92"/>
       <c s="7" r="L92">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c s="7" r="M92">
-        <v>44983</v>
+        <v>44980</v>
       </c>
       <c s="2" t="inlineStr" r="N92">
         <is>
@@ -7035,20 +7039,20 @@
       </c>
       <c s="2" t="inlineStr" r="O92">
         <is>
-          <t xml:space="preserve">ברכיכיטון אוסטרלי</t>
+          <t xml:space="preserve">ברושים</t>
         </is>
       </c>
       <c s="3" r="P92">
-        <v>8</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q92">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R92"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q92"/>
+      <c s="4" t="inlineStr" r="R92">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S92">
-        <v>44251</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="93" ht="14.2" customHeight="0">
@@ -7058,42 +7062,50 @@
         </is>
       </c>
       <c s="3" r="B93">
-        <v>21651</v>
+        <v>22365</v>
       </c>
       <c s="2" t="inlineStr" r="C93">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D93">
         <is>
-          <t xml:space="preserve">מ.מ.אבן יהודה</t>
+          <t xml:space="preserve">נחמני יוזי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E93">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F93"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F93">
+        <is>
+          <t xml:space="preserve">נוטים ויבשים</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G93">
         <is>
-          <t xml:space="preserve">אבן יהודה           </t>
+          <t xml:space="preserve">חדרה                </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H93">
         <is>
-          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I93"/>
+          <t xml:space="preserve">שחל</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I93">
+        <is>
+          <t xml:space="preserve">6</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J93"/>
       <c s="6" t="str" r="K93"/>
       <c s="7" r="L93">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c s="7" r="M93">
-        <v>44983</v>
+        <v>44980</v>
       </c>
       <c s="2" t="inlineStr" r="N93">
         <is>
@@ -7102,20 +7114,20 @@
       </c>
       <c s="2" t="inlineStr" r="O93">
         <is>
-          <t xml:space="preserve">גואיבה מצויה</t>
+          <t xml:space="preserve">דקל משולש</t>
         </is>
       </c>
       <c s="3" r="P93">
         <v>1</v>
       </c>
-      <c s="2" t="inlineStr" r="Q93">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R93"/>
+      <c s="2" t="str" r="Q93"/>
+      <c s="4" t="inlineStr" r="R93">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S93">
-        <v>44251</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="94" ht="14.15" customHeight="0">
@@ -7125,42 +7137,50 @@
         </is>
       </c>
       <c s="3" r="B94">
-        <v>21651</v>
+        <v>22492</v>
       </c>
       <c s="2" t="inlineStr" r="C94">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D94">
         <is>
-          <t xml:space="preserve">מ.מ.אבן יהודה</t>
+          <t xml:space="preserve">כוכבי ענבל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E94">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F94"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F94">
+        <is>
+          <t xml:space="preserve">נוטה לכיוון השכנים</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G94">
         <is>
-          <t xml:space="preserve">אבן יהודה           </t>
+          <t xml:space="preserve">חדרה                </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H94">
         <is>
-          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I94"/>
+          <t xml:space="preserve">קיבוץ גלויות </t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I94">
+        <is>
+          <t xml:space="preserve">38</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J94"/>
       <c s="6" t="str" r="K94"/>
       <c s="7" r="L94">
-        <v>44252</v>
+        <v>44248</v>
       </c>
       <c s="7" r="M94">
-        <v>44983</v>
+        <v>44978</v>
       </c>
       <c s="2" t="inlineStr" r="N94">
         <is>
@@ -7169,20 +7189,20 @@
       </c>
       <c s="2" t="inlineStr" r="O94">
         <is>
-          <t xml:space="preserve">פיקוס בינימינה</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P94">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q94">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R94"/>
+        <v>2</v>
+      </c>
+      <c s="2" t="str" r="Q94"/>
+      <c s="4" t="inlineStr" r="R94">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S94">
-        <v>44251</v>
+        <v>44247</v>
       </c>
     </row>
     <row r="95" ht="14.2" customHeight="0">
@@ -7192,42 +7212,50 @@
         </is>
       </c>
       <c s="3" r="B95">
-        <v>21651</v>
+        <v>22494</v>
       </c>
       <c s="2" t="inlineStr" r="C95">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D95">
         <is>
-          <t xml:space="preserve">מ.מ.אבן יהודה</t>
+          <t xml:space="preserve">סוזנה רחל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E95">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F95"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F95">
+        <is>
+          <t xml:space="preserve">גבוה מאוד ונוגע בכבל חשמל ומרים ריצוף</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G95">
         <is>
-          <t xml:space="preserve">אבן יהודה           </t>
+          <t xml:space="preserve">חדרה                </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H95">
         <is>
-          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I95"/>
+          <t xml:space="preserve">קק"ל</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I95">
+        <is>
+          <t xml:space="preserve">32 ב'</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J95"/>
       <c s="6" t="str" r="K95"/>
       <c s="7" r="L95">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c s="7" r="M95">
-        <v>44983</v>
+        <v>44980</v>
       </c>
       <c s="2" t="inlineStr" r="N95">
         <is>
@@ -7236,20 +7264,20 @@
       </c>
       <c s="2" t="inlineStr" r="O95">
         <is>
-          <t xml:space="preserve">פיקוס בינימינה</t>
+          <t xml:space="preserve">דקל משולש</t>
         </is>
       </c>
       <c s="3" r="P95">
-        <v>34</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q95">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R95"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q95"/>
+      <c s="4" t="inlineStr" r="R95">
+        <is>
+          <t xml:space="preserve">דקל לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S95">
-        <v>44251</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="96" ht="14.15" customHeight="0">
@@ -7259,42 +7287,50 @@
         </is>
       </c>
       <c s="3" r="B96">
-        <v>21651</v>
+        <v>22606</v>
       </c>
       <c s="2" t="inlineStr" r="C96">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D96">
         <is>
-          <t xml:space="preserve">מ.מ.אבן יהודה</t>
+          <t xml:space="preserve">שירז אסתר אמיר</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E96">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F96"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F96">
+        <is>
+          <t xml:space="preserve">נזק לקיר וביוב</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G96">
         <is>
-          <t xml:space="preserve">אבן יהודה           </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H96">
         <is>
-          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I96"/>
+          <t xml:space="preserve">ברנר</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I96">
+        <is>
+          <t xml:space="preserve">82</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J96"/>
       <c s="6" t="str" r="K96"/>
       <c s="7" r="L96">
-        <v>44252</v>
+        <v>44249</v>
       </c>
       <c s="7" r="M96">
-        <v>44983</v>
+        <v>44979</v>
       </c>
       <c s="2" t="inlineStr" r="N96">
         <is>
@@ -7303,20 +7339,20 @@
       </c>
       <c s="2" t="inlineStr" r="O96">
         <is>
-          <t xml:space="preserve">שלטית מקומטת</t>
+          <t xml:space="preserve">פיקוס בינימינה</t>
         </is>
       </c>
       <c s="3" r="P96">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q96">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R96"/>
+        <v>2</v>
+      </c>
+      <c s="2" t="str" r="Q96"/>
+      <c s="4" t="inlineStr" r="R96">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S96">
-        <v>44251</v>
+        <v>44248</v>
       </c>
     </row>
     <row r="97" ht="14.2" customHeight="0">
@@ -7326,42 +7362,50 @@
         </is>
       </c>
       <c s="3" r="B97">
-        <v>21651</v>
+        <v>22624</v>
       </c>
       <c s="2" t="inlineStr" r="C97">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D97">
         <is>
-          <t xml:space="preserve">מ.מ.אבן יהודה</t>
+          <t xml:space="preserve">שוקר עוזי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E97">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F97"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F97">
+        <is>
+          <t xml:space="preserve">צוואר בקבוק בגזע תחתון</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G97">
         <is>
-          <t xml:space="preserve">אבן יהודה           </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H97">
         <is>
-          <t xml:space="preserve">הצ 250 מתחם הדסים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I97"/>
+          <t xml:space="preserve">סנהדרין</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I97">
+        <is>
+          <t xml:space="preserve">15</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J97"/>
       <c s="6" t="str" r="K97"/>
       <c s="7" r="L97">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c s="7" r="M97">
-        <v>44983</v>
+        <v>44980</v>
       </c>
       <c s="2" t="inlineStr" r="N97">
         <is>
@@ -7370,20 +7414,20 @@
       </c>
       <c s="2" t="inlineStr" r="O97">
         <is>
-          <t xml:space="preserve">שלטית מקומטת</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P97">
-        <v>2</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q97">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R97"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q97"/>
+      <c s="4" t="inlineStr" r="R97">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S97">
-        <v>44251</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="98" ht="14.15" customHeight="0">
@@ -7393,54 +7437,50 @@
         </is>
       </c>
       <c s="3" r="B98">
-        <v>22053</v>
+        <v>22626</v>
       </c>
       <c s="2" t="inlineStr" r="C98">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D98">
         <is>
-          <t xml:space="preserve">קיבוץ גליל ים</t>
+          <t xml:space="preserve">ועד בית כ"ט בנובמבר 5</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E98">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">עץ מת</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="F98">
         <is>
-          <t xml:space="preserve">בניית ממ"ד</t>
+          <t xml:space="preserve"/>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G98">
         <is>
-          <t xml:space="preserve">גליל ים             </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H98">
         <is>
-          <t xml:space="preserve">אלת המסטיק,הוספת ממ"ד גן ילדים </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I98"/>
-      <c s="5" t="inlineStr" r="J98">
-        <is>
-          <t xml:space="preserve">6424</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K98">
-        <is>
-          <t xml:space="preserve">133</t>
-        </is>
-      </c>
+          <t xml:space="preserve">כ"ט בנובמבר</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I98">
+        <is>
+          <t xml:space="preserve">5</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J98"/>
+      <c s="6" t="str" r="K98"/>
       <c s="7" r="L98">
-        <v>44245</v>
+        <v>44250</v>
       </c>
       <c s="7" r="M98">
-        <v>44976</v>
+        <v>44980</v>
       </c>
       <c s="2" t="inlineStr" r="N98">
         <is>
@@ -7449,7 +7489,7 @@
       </c>
       <c s="2" t="inlineStr" r="O98">
         <is>
-          <t xml:space="preserve">אלה ארץ-ישראלית</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P98">
@@ -7458,11 +7498,11 @@
       <c s="2" t="str" r="Q98"/>
       <c s="4" t="inlineStr" r="R98">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S98">
-        <v>44244</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="99" ht="14.15" customHeight="0">
@@ -7472,7 +7512,7 @@
         </is>
       </c>
       <c s="3" r="B99">
-        <v>22226</v>
+        <v>22626</v>
       </c>
       <c s="2" t="inlineStr" r="C99">
         <is>
@@ -7481,45 +7521,41 @@
       </c>
       <c s="2" t="inlineStr" r="D99">
         <is>
-          <t xml:space="preserve">מועצה מקומית פרדס חנה כרכור</t>
+          <t xml:space="preserve">ועד בית כ"ט בנובמבר 5</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E99">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">עץ מת</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="F99">
         <is>
-          <t xml:space="preserve">הרחבת בית ספר</t>
+          <t xml:space="preserve"/>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G99">
         <is>
-          <t xml:space="preserve">פרדס חנה-כרכור</t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H99">
         <is>
-          <t xml:space="preserve">סמטת ברקן </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I99"/>
-      <c s="5" t="inlineStr" r="J99">
-        <is>
-          <t xml:space="preserve">13922</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K99">
-        <is>
-          <t xml:space="preserve">126</t>
-        </is>
-      </c>
+          <t xml:space="preserve">כ"ט בנובמבר</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I99">
+        <is>
+          <t xml:space="preserve">5</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J99"/>
+      <c s="6" t="str" r="K99"/>
       <c s="7" r="L99">
-        <v>44244</v>
+        <v>44250</v>
       </c>
       <c s="7" r="M99">
-        <v>44976</v>
+        <v>44980</v>
       </c>
       <c s="2" t="inlineStr" r="N99">
         <is>
@@ -7528,20 +7564,20 @@
       </c>
       <c s="2" t="inlineStr" r="O99">
         <is>
-          <t xml:space="preserve">אורן ירושלים</t>
+          <t xml:space="preserve">תות</t>
         </is>
       </c>
       <c s="3" r="P99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q99"/>
       <c s="4" t="inlineStr" r="R99">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S99">
-        <v>44243</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="100" ht="14.2" customHeight="0">
@@ -7551,7 +7587,7 @@
         </is>
       </c>
       <c s="3" r="B100">
-        <v>22226</v>
+        <v>22628</v>
       </c>
       <c s="2" t="inlineStr" r="C100">
         <is>
@@ -7560,45 +7596,41 @@
       </c>
       <c s="2" t="inlineStr" r="D100">
         <is>
-          <t xml:space="preserve">מועצה מקומית פרדס חנה כרכור</t>
+          <t xml:space="preserve">יואב דותן</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E100">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">אחר</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="F100">
         <is>
-          <t xml:space="preserve">הרחבת בית ספר</t>
+          <t xml:space="preserve">גורם נזק לשכן</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G100">
         <is>
-          <t xml:space="preserve">פרדס חנה-כרכור</t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H100">
         <is>
-          <t xml:space="preserve">סמטת ברקן </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I100"/>
-      <c s="5" t="inlineStr" r="J100">
-        <is>
-          <t xml:space="preserve">13922</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K100">
-        <is>
-          <t xml:space="preserve">126</t>
-        </is>
-      </c>
+          <t xml:space="preserve">קפלן</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I100">
+        <is>
+          <t xml:space="preserve">91</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J100"/>
+      <c s="6" t="str" r="K100"/>
       <c s="7" r="L100">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c s="7" r="M100">
-        <v>44976</v>
+        <v>44987</v>
       </c>
       <c s="2" t="inlineStr" r="N100">
         <is>
@@ -7607,20 +7639,20 @@
       </c>
       <c s="2" t="inlineStr" r="O100">
         <is>
-          <t xml:space="preserve">אקליפטוסים</t>
+          <t xml:space="preserve">פיקוס הגומי</t>
         </is>
       </c>
       <c s="3" r="P100">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q100"/>
       <c s="4" t="inlineStr" r="R100">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S100">
-        <v>44243</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="101" ht="14.15" customHeight="0">
@@ -7630,7 +7662,7 @@
         </is>
       </c>
       <c s="3" r="B101">
-        <v>22365</v>
+        <v>22629</v>
       </c>
       <c s="2" t="inlineStr" r="C101">
         <is>
@@ -7639,7 +7671,7 @@
       </c>
       <c s="2" t="inlineStr" r="D101">
         <is>
-          <t xml:space="preserve">נחמני יוזי</t>
+          <t xml:space="preserve">ועד בית בר כוכבא 115</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E101">
@@ -7649,31 +7681,31 @@
       </c>
       <c s="2" t="inlineStr" r="F101">
         <is>
-          <t xml:space="preserve">נוטים ויבשים</t>
+          <t xml:space="preserve">הורדת משקל וגובה </t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G101">
         <is>
-          <t xml:space="preserve">חדרה                </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H101">
         <is>
-          <t xml:space="preserve">שחל</t>
+          <t xml:space="preserve">בר כוכבא</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I101">
         <is>
-          <t xml:space="preserve">6</t>
+          <t xml:space="preserve">115</t>
         </is>
       </c>
       <c s="5" t="str" r="J101"/>
       <c s="6" t="str" r="K101"/>
       <c s="7" r="L101">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c s="7" r="M101">
-        <v>44980</v>
+        <v>44983</v>
       </c>
       <c s="2" t="inlineStr" r="N101">
         <is>
@@ -7682,20 +7714,20 @@
       </c>
       <c s="2" t="inlineStr" r="O101">
         <is>
-          <t xml:space="preserve">ברושים</t>
+          <t xml:space="preserve">פלטופורום מסופק</t>
         </is>
       </c>
       <c s="3" r="P101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q101"/>
       <c s="4" t="inlineStr" r="R101">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">להורדת משקל וגובה</t>
         </is>
       </c>
       <c s="7" r="S101">
-        <v>44249</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="102" ht="14.2" customHeight="0">
@@ -7705,7 +7737,7 @@
         </is>
       </c>
       <c s="3" r="B102">
-        <v>22365</v>
+        <v>22637</v>
       </c>
       <c s="2" t="inlineStr" r="C102">
         <is>
@@ -7714,41 +7746,41 @@
       </c>
       <c s="2" t="inlineStr" r="D102">
         <is>
-          <t xml:space="preserve">נחמני יוזי</t>
+          <t xml:space="preserve">כפר הנוער עתיד רזיאל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E102">
         <is>
-          <t xml:space="preserve">אחר</t>
+          <t xml:space="preserve">מחלת עץ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="F102">
         <is>
-          <t xml:space="preserve">נוטים ויבשים</t>
+          <t xml:space="preserve">רקבונות ושבר בגזע מרכזי</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G102">
         <is>
-          <t xml:space="preserve">חדרה                </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H102">
         <is>
-          <t xml:space="preserve">שחל</t>
+          <t xml:space="preserve">רזיאל</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I102">
         <is>
-          <t xml:space="preserve">6</t>
+          <t xml:space="preserve">24</t>
         </is>
       </c>
       <c s="5" t="str" r="J102"/>
       <c s="6" t="str" r="K102"/>
       <c s="7" r="L102">
-        <v>44250</v>
+        <v>44256</v>
       </c>
       <c s="7" r="M102">
-        <v>44980</v>
+        <v>44986</v>
       </c>
       <c s="2" t="inlineStr" r="N102">
         <is>
@@ -7757,7 +7789,7 @@
       </c>
       <c s="2" t="inlineStr" r="O102">
         <is>
-          <t xml:space="preserve">דקל משולש</t>
+          <t xml:space="preserve">קזוארינה</t>
         </is>
       </c>
       <c s="3" r="P102">
@@ -7770,7 +7802,7 @@
         </is>
       </c>
       <c s="7" r="S102">
-        <v>44249</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="103" ht="14.15" customHeight="0">
@@ -7780,7 +7812,7 @@
         </is>
       </c>
       <c s="3" r="B103">
-        <v>22492</v>
+        <v>22637</v>
       </c>
       <c s="2" t="inlineStr" r="C103">
         <is>
@@ -7789,41 +7821,41 @@
       </c>
       <c s="2" t="inlineStr" r="D103">
         <is>
-          <t xml:space="preserve">כוכבי ענבל</t>
+          <t xml:space="preserve">כפר הנוער עתיד רזיאל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E103">
         <is>
-          <t xml:space="preserve">אחר</t>
+          <t xml:space="preserve">מחלת עץ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="F103">
         <is>
-          <t xml:space="preserve">נוטה לכיוון השכנים</t>
+          <t xml:space="preserve">רקבונות ושבר בגזע מרכזי</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G103">
         <is>
-          <t xml:space="preserve">חדרה                </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H103">
         <is>
-          <t xml:space="preserve">קיבוץ גלויות </t>
+          <t xml:space="preserve">רזיאל</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I103">
         <is>
-          <t xml:space="preserve">38</t>
+          <t xml:space="preserve">24</t>
         </is>
       </c>
       <c s="5" t="str" r="J103"/>
       <c s="6" t="str" r="K103"/>
       <c s="7" r="L103">
-        <v>44248</v>
+        <v>44256</v>
       </c>
       <c s="7" r="M103">
-        <v>44978</v>
+        <v>44986</v>
       </c>
       <c s="2" t="inlineStr" r="N103">
         <is>
@@ -7832,11 +7864,11 @@
       </c>
       <c s="2" t="inlineStr" r="O103">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">גרווילאה חסונה</t>
         </is>
       </c>
       <c s="3" r="P103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q103"/>
       <c s="4" t="inlineStr" r="R103">
@@ -7845,7 +7877,7 @@
         </is>
       </c>
       <c s="7" r="S103">
-        <v>44247</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="104" ht="14.2" customHeight="0">
@@ -7855,50 +7887,50 @@
         </is>
       </c>
       <c s="3" r="B104">
-        <v>22494</v>
+        <v>22639</v>
       </c>
       <c s="2" t="inlineStr" r="C104">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D104">
         <is>
-          <t xml:space="preserve">סוזנה רחל</t>
+          <t xml:space="preserve">קיבוץ גליל ים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E104">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F104">
-        <is>
-          <t xml:space="preserve">גבוה מאוד ונוגע בכבל חשמל ומרים ריצוף</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F104"/>
       <c s="4" t="inlineStr" r="G104">
         <is>
-          <t xml:space="preserve">חדרה                </t>
+          <t xml:space="preserve">גליל ים             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H104">
         <is>
-          <t xml:space="preserve">קק"ל</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I104">
-        <is>
-          <t xml:space="preserve">32 ב'</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J104"/>
-      <c s="6" t="str" r="K104"/>
+          <t xml:space="preserve">תוספת ממ"ד גן ילדים חצב</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I104"/>
+      <c s="5" t="inlineStr" r="J104">
+        <is>
+          <t xml:space="preserve">6423</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K104">
+        <is>
+          <t xml:space="preserve">6+9</t>
+        </is>
+      </c>
       <c s="7" r="L104">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M104">
-        <v>44980</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N104">
         <is>
@@ -7907,20 +7939,20 @@
       </c>
       <c s="2" t="inlineStr" r="O104">
         <is>
-          <t xml:space="preserve">דקל משולש</t>
+          <t xml:space="preserve">זית אירופי</t>
         </is>
       </c>
       <c s="3" r="P104">
         <v>1</v>
       </c>
-      <c s="2" t="str" r="Q104"/>
-      <c s="4" t="inlineStr" r="R104">
-        <is>
-          <t xml:space="preserve">דקל לכריתה</t>
-        </is>
-      </c>
+      <c s="2" t="inlineStr" r="Q104">
+        <is>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R104"/>
       <c s="7" r="S104">
-        <v>44249</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="105" ht="14.15" customHeight="0">
@@ -7930,50 +7962,50 @@
         </is>
       </c>
       <c s="3" r="B105">
-        <v>22523</v>
+        <v>22639</v>
       </c>
       <c s="2" t="inlineStr" r="C105">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D105">
         <is>
-          <t xml:space="preserve">דנה ורונן קלמי</t>
+          <t xml:space="preserve">קיבוץ גליל ים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E105">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F105">
-        <is>
-          <t xml:space="preserve">נוטה לכיוון הבית</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F105"/>
       <c s="4" t="inlineStr" r="G105">
         <is>
-          <t xml:space="preserve">גן השומרון          </t>
-        </is>
-      </c>
-      <c s="2" t="str" r="H105"/>
+          <t xml:space="preserve">גליל ים             </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H105">
+        <is>
+          <t xml:space="preserve">תוספת ממ"ד גן ילדים חצב</t>
+        </is>
+      </c>
       <c s="5" t="str" r="I105"/>
       <c s="5" t="inlineStr" r="J105">
         <is>
-          <t xml:space="preserve">10080</t>
+          <t xml:space="preserve">6423</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K105">
         <is>
-          <t xml:space="preserve">84</t>
+          <t xml:space="preserve">6+9</t>
         </is>
       </c>
       <c s="7" r="L105">
-        <v>44244</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M105">
-        <v>44976</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N105">
         <is>
@@ -7982,20 +8014,20 @@
       </c>
       <c s="2" t="inlineStr" r="O105">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">ושינגטוניה חוטית</t>
         </is>
       </c>
       <c s="3" r="P105">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q105"/>
-      <c s="4" t="inlineStr" r="R105">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q105">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R105"/>
       <c s="7" r="S105">
-        <v>44243</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="106" ht="14.2" customHeight="0">
@@ -8005,7 +8037,7 @@
         </is>
       </c>
       <c s="3" r="B106">
-        <v>22599</v>
+        <v>22640</v>
       </c>
       <c s="2" t="inlineStr" r="C106">
         <is>
@@ -8014,7 +8046,7 @@
       </c>
       <c s="2" t="inlineStr" r="D106">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">וינשטוק מוריס</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E106">
@@ -8024,31 +8056,31 @@
       </c>
       <c s="2" t="inlineStr" r="F106">
         <is>
-          <t xml:space="preserve">נוטה על שביל ציבורי</t>
+          <t xml:space="preserve">שידרוג גינה</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G106">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H106">
         <is>
-          <t xml:space="preserve">האלה</t>
+          <t xml:space="preserve">הבושם</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I106">
         <is>
-          <t xml:space="preserve">5</t>
+          <t xml:space="preserve">17</t>
         </is>
       </c>
       <c s="5" t="str" r="J106"/>
       <c s="6" t="str" r="K106"/>
       <c s="7" r="L106">
-        <v>44244</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M106">
-        <v>44976</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N106">
         <is>
@@ -8057,7 +8089,7 @@
       </c>
       <c s="2" t="inlineStr" r="O106">
         <is>
-          <t xml:space="preserve">טבבוית איפה</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P106">
@@ -8070,7 +8102,7 @@
         </is>
       </c>
       <c s="7" r="S106">
-        <v>44243</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="107" ht="14.15" customHeight="0">
@@ -8080,7 +8112,7 @@
         </is>
       </c>
       <c s="3" r="B107">
-        <v>22606</v>
+        <v>22640</v>
       </c>
       <c s="2" t="inlineStr" r="C107">
         <is>
@@ -8089,7 +8121,7 @@
       </c>
       <c s="2" t="inlineStr" r="D107">
         <is>
-          <t xml:space="preserve">שירז אסתר אמיר</t>
+          <t xml:space="preserve">וינשטוק מוריס</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E107">
@@ -8099,31 +8131,31 @@
       </c>
       <c s="2" t="inlineStr" r="F107">
         <is>
-          <t xml:space="preserve">נזק לקיר וביוב</t>
+          <t xml:space="preserve">שידרוג גינה</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G107">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H107">
         <is>
-          <t xml:space="preserve">ברנר</t>
+          <t xml:space="preserve">הבושם</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I107">
         <is>
-          <t xml:space="preserve">82</t>
+          <t xml:space="preserve">17</t>
         </is>
       </c>
       <c s="5" t="str" r="J107"/>
       <c s="6" t="str" r="K107"/>
       <c s="7" r="L107">
-        <v>44249</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M107">
-        <v>44979</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N107">
         <is>
@@ -8132,7 +8164,7 @@
       </c>
       <c s="2" t="inlineStr" r="O107">
         <is>
-          <t xml:space="preserve">פיקוס בינימינה</t>
+          <t xml:space="preserve">דקל משולש</t>
         </is>
       </c>
       <c s="3" r="P107">
@@ -8141,11 +8173,11 @@
       <c s="2" t="str" r="Q107"/>
       <c s="4" t="inlineStr" r="R107">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">דקל טבעות לכריתה</t>
         </is>
       </c>
       <c s="7" r="S107">
-        <v>44248</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="108" ht="14.2" customHeight="0">
@@ -8155,7 +8187,7 @@
         </is>
       </c>
       <c s="3" r="B108">
-        <v>22609</v>
+        <v>22640</v>
       </c>
       <c s="2" t="inlineStr" r="C108">
         <is>
@@ -8164,33 +8196,41 @@
       </c>
       <c s="2" t="inlineStr" r="D108">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">וינשטוק מוריס</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E108">
         <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F108"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F108">
+        <is>
+          <t xml:space="preserve">שידרוג גינה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G108">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H108">
         <is>
-          <t xml:space="preserve">חורשת הנ"מ</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I108"/>
+          <t xml:space="preserve">הבושם</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I108">
+        <is>
+          <t xml:space="preserve">17</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J108"/>
       <c s="6" t="str" r="K108"/>
       <c s="7" r="L108">
-        <v>44244</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M108">
-        <v>44976</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N108">
         <is>
@@ -8199,20 +8239,20 @@
       </c>
       <c s="2" t="inlineStr" r="O108">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q108"/>
       <c s="4" t="inlineStr" r="R108">
         <is>
-          <t xml:space="preserve">יבשים לכריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S108">
-        <v>44243</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="109" ht="14.15" customHeight="0">
@@ -8222,7 +8262,7 @@
         </is>
       </c>
       <c s="3" r="B109">
-        <v>22610</v>
+        <v>22640</v>
       </c>
       <c s="2" t="inlineStr" r="C109">
         <is>
@@ -8231,37 +8271,41 @@
       </c>
       <c s="2" t="inlineStr" r="D109">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">וינשטוק מוריס</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E109">
         <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F109"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F109">
+        <is>
+          <t xml:space="preserve">שידרוג גינה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G109">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H109">
         <is>
-          <t xml:space="preserve">סמטת יפת בן זכריה</t>
+          <t xml:space="preserve">הבושם</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I109">
         <is>
-          <t xml:space="preserve">58</t>
+          <t xml:space="preserve">17</t>
         </is>
       </c>
       <c s="5" t="str" r="J109"/>
       <c s="6" t="str" r="K109"/>
       <c s="7" r="L109">
-        <v>44244</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M109">
-        <v>44976</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N109">
         <is>
@@ -8270,7 +8314,7 @@
       </c>
       <c s="2" t="inlineStr" r="O109">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">שפלרה מקרינה</t>
         </is>
       </c>
       <c s="3" r="P109">
@@ -8283,1492 +8327,107 @@
         </is>
       </c>
       <c s="7" r="S109">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="110" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A110">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B110">
-        <v>22611</v>
-      </c>
-      <c s="2" t="inlineStr" r="C110">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D110">
-        <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E110">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F110"/>
-      <c s="4" t="inlineStr" r="G110">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H110">
-        <is>
-          <t xml:space="preserve">יצחק נגר</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I110">
-        <is>
-          <t xml:space="preserve">9</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J110"/>
-      <c s="6" t="str" r="K110"/>
-      <c s="7" r="L110">
-        <v>44244</v>
-      </c>
-      <c s="7" r="M110">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N110">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O110">
-        <is>
-          <t xml:space="preserve">דולב אדרי</t>
-        </is>
-      </c>
-      <c s="3" r="P110">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q110"/>
-      <c s="4" t="inlineStr" r="R110">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S110">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="111" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A111">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B111">
-        <v>22612</v>
-      </c>
-      <c s="2" t="inlineStr" r="C111">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D111">
-        <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E111">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F111"/>
-      <c s="4" t="inlineStr" r="G111">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H111">
-        <is>
-          <t xml:space="preserve">בן צבי</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I111">
-        <is>
-          <t xml:space="preserve">מול 157</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J111"/>
-      <c s="6" t="str" r="K111"/>
-      <c s="7" r="L111">
-        <v>44244</v>
-      </c>
-      <c s="7" r="M111">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N111">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O111">
-        <is>
-          <t xml:space="preserve">בוהיניה מגוונת</t>
-        </is>
-      </c>
-      <c s="3" r="P111">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q111"/>
-      <c s="4" t="inlineStr" r="R111">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S111">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="112" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A112">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B112">
-        <v>22612</v>
-      </c>
-      <c s="2" t="inlineStr" r="C112">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D112">
-        <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E112">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F112"/>
-      <c s="4" t="inlineStr" r="G112">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H112">
-        <is>
-          <t xml:space="preserve">בן צבי</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I112">
-        <is>
-          <t xml:space="preserve">מול 157</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J112"/>
-      <c s="6" t="str" r="K112"/>
-      <c s="7" r="L112">
-        <v>44244</v>
-      </c>
-      <c s="7" r="M112">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N112">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O112">
-        <is>
-          <t xml:space="preserve">פנסית דו-נוצתית</t>
-        </is>
-      </c>
-      <c s="3" r="P112">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q112"/>
-      <c s="4" t="inlineStr" r="R112">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S112">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="113" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A113">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B113">
-        <v>22613</v>
-      </c>
-      <c s="2" t="inlineStr" r="C113">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D113">
-        <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E113">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F113"/>
-      <c s="4" t="inlineStr" r="G113">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H113">
-        <is>
-          <t xml:space="preserve">בן צבי</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I113">
-        <is>
-          <t xml:space="preserve">מול 163</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J113"/>
-      <c s="6" t="str" r="K113"/>
-      <c s="7" r="L113">
-        <v>44244</v>
-      </c>
-      <c s="7" r="M113">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N113">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O113">
-        <is>
-          <t xml:space="preserve">פלטופורום אפריקנום</t>
-        </is>
-      </c>
-      <c s="3" r="P113">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q113"/>
-      <c s="4" t="inlineStr" r="R113">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S113">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="114" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A114">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B114">
-        <v>22613</v>
-      </c>
-      <c s="2" t="inlineStr" r="C114">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D114">
-        <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E114">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F114"/>
-      <c s="4" t="inlineStr" r="G114">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H114">
-        <is>
-          <t xml:space="preserve">בן צבי</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I114">
-        <is>
-          <t xml:space="preserve">מול 163</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J114"/>
-      <c s="6" t="str" r="K114"/>
-      <c s="7" r="L114">
-        <v>44244</v>
-      </c>
-      <c s="7" r="M114">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N114">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O114">
-        <is>
-          <t xml:space="preserve">פנסית דו-נוצתית</t>
-        </is>
-      </c>
-      <c s="3" r="P114">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q114"/>
-      <c s="4" t="inlineStr" r="R114">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S114">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="115" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A115">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B115">
-        <v>22615</v>
-      </c>
-      <c s="2" t="inlineStr" r="C115">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D115">
-        <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E115">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F115"/>
-      <c s="4" t="inlineStr" r="G115">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H115">
-        <is>
-          <t xml:space="preserve">המסילה</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I115">
-        <is>
-          <t xml:space="preserve">מול 17</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J115"/>
-      <c s="6" t="str" r="K115"/>
-      <c s="7" r="L115">
-        <v>44244</v>
-      </c>
-      <c s="7" r="M115">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N115">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O115">
-        <is>
-          <t xml:space="preserve">סיגלון עלה-מימוסה</t>
-        </is>
-      </c>
-      <c s="3" r="P115">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q115"/>
-      <c s="4" t="inlineStr" r="R115">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S115">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="116" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A116">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B116">
-        <v>22616</v>
-      </c>
-      <c s="2" t="inlineStr" r="C116">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D116">
-        <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E116">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F116"/>
-      <c s="4" t="inlineStr" r="G116">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H116">
-        <is>
-          <t xml:space="preserve">חורשת האירוסים</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I116">
-        <is>
-          <t xml:space="preserve">23-25</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J116"/>
-      <c s="6" t="str" r="K116"/>
-      <c s="7" r="L116">
-        <v>44244</v>
-      </c>
-      <c s="7" r="M116">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N116">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O116">
-        <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
-        </is>
-      </c>
-      <c s="3" r="P116">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q116"/>
-      <c s="4" t="inlineStr" r="R116">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S116">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="117" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A117">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B117">
-        <v>22617</v>
-      </c>
-      <c s="2" t="inlineStr" r="C117">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D117">
-        <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E117">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F117"/>
-      <c s="4" t="inlineStr" r="G117">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H117">
-        <is>
-          <t xml:space="preserve">בר כוכבא מאחורי תעלת מים</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I117">
-        <is>
-          <t xml:space="preserve">מאחורי 40,42</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J117"/>
-      <c s="6" t="str" r="K117"/>
-      <c s="7" r="L117">
-        <v>44244</v>
-      </c>
-      <c s="7" r="M117">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N117">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O117">
-        <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
-        </is>
-      </c>
-      <c s="3" r="P117">
-        <v>2</v>
-      </c>
-      <c s="2" t="str" r="Q117"/>
-      <c s="4" t="inlineStr" r="R117">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S117">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="118" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A118">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B118">
-        <v>22618</v>
-      </c>
-      <c s="2" t="inlineStr" r="C118">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D118">
-        <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E118">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F118"/>
-      <c s="4" t="inlineStr" r="G118">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H118">
-        <is>
-          <t xml:space="preserve">גולומב ,גינה ציבורית</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I118">
-        <is>
-          <t xml:space="preserve">מול 75</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J118"/>
-      <c s="6" t="str" r="K118"/>
-      <c s="7" r="L118">
-        <v>44244</v>
-      </c>
-      <c s="7" r="M118">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N118">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O118">
-        <is>
-          <t xml:space="preserve">צאלון נאה</t>
-        </is>
-      </c>
-      <c s="3" r="P118">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q118"/>
-      <c s="4" t="inlineStr" r="R118">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S118">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="119" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A119">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B119">
-        <v>22619</v>
-      </c>
-      <c s="2" t="inlineStr" r="C119">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D119">
-        <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E119">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F119">
-        <is>
-          <t xml:space="preserve">שורשים גורמים נזק לתחנת דלק</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G119">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H119">
-        <is>
-          <t xml:space="preserve">יוסף נבו 6 אגף יובל</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I119"/>
-      <c s="5" t="str" r="J119"/>
-      <c s="6" t="str" r="K119"/>
-      <c s="7" r="L119">
-        <v>44244</v>
-      </c>
-      <c s="7" r="M119">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N119">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O119">
-        <is>
-          <t xml:space="preserve">סיסם הודי</t>
-        </is>
-      </c>
-      <c s="3" r="P119">
-        <v>2</v>
-      </c>
-      <c s="2" t="str" r="Q119"/>
-      <c s="4" t="inlineStr" r="R119">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S119">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="120" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A120">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B120">
-        <v>22621</v>
-      </c>
-      <c s="2" t="inlineStr" r="C120">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D120">
-        <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E120">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F120">
-        <is>
-          <t xml:space="preserve">נוטה על המדרכה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G120">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H120">
-        <is>
-          <t xml:space="preserve">בן גוריון</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I120">
-        <is>
-          <t xml:space="preserve">89</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J120"/>
-      <c s="6" t="str" r="K120"/>
-      <c s="7" r="L120">
-        <v>44245</v>
-      </c>
-      <c s="7" r="M120">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N120">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O120">
-        <is>
-          <t xml:space="preserve">סיסם הודי</t>
-        </is>
-      </c>
-      <c s="3" r="P120">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q120"/>
-      <c s="4" t="inlineStr" r="R120">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S120">
-        <v>44244</v>
-      </c>
-    </row>
-    <row r="121" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A121">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B121">
-        <v>22622</v>
-      </c>
-      <c s="2" t="inlineStr" r="C121">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D121">
-        <is>
-          <t xml:space="preserve">חן אביבה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E121">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F121">
-        <is>
-          <t xml:space="preserve">נזק לקיר גינה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G121">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H121">
-        <is>
-          <t xml:space="preserve">דרך הראשונים</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I121">
-        <is>
-          <t xml:space="preserve">38</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J121"/>
-      <c s="6" t="str" r="K121"/>
-      <c s="7" r="L121">
-        <v>44245</v>
-      </c>
-      <c s="7" r="M121">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N121">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O121">
-        <is>
-          <t xml:space="preserve">אראוקריה בידויל</t>
-        </is>
-      </c>
-      <c s="3" r="P121">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q121"/>
-      <c s="4" t="inlineStr" r="R121">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S121">
-        <v>44244</v>
-      </c>
-    </row>
-    <row r="122" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A122">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B122">
-        <v>22622</v>
-      </c>
-      <c s="2" t="inlineStr" r="C122">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D122">
-        <is>
-          <t xml:space="preserve">חן אביבה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E122">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F122">
-        <is>
-          <t xml:space="preserve">נזק לקיר גינה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G122">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H122">
-        <is>
-          <t xml:space="preserve">דרך הראשונים</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I122">
-        <is>
-          <t xml:space="preserve">38</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J122"/>
-      <c s="6" t="str" r="K122"/>
-      <c s="7" r="L122">
-        <v>44245</v>
-      </c>
-      <c s="7" r="M122">
-        <v>44976</v>
-      </c>
-      <c s="2" t="inlineStr" r="N122">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O122">
-        <is>
-          <t xml:space="preserve">דקל משולש</t>
-        </is>
-      </c>
-      <c s="3" r="P122">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q122"/>
-      <c s="4" t="inlineStr" r="R122">
-        <is>
-          <t xml:space="preserve">דקל טבעות לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S122">
-        <v>44244</v>
-      </c>
-    </row>
-    <row r="123" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A123">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B123">
-        <v>22624</v>
-      </c>
-      <c s="2" t="inlineStr" r="C123">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D123">
-        <is>
-          <t xml:space="preserve">שוקר עוזי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E123">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F123">
-        <is>
-          <t xml:space="preserve">צוואר בקבוק בגזע תחתון</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G123">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H123">
-        <is>
-          <t xml:space="preserve">סנהדרין</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I123">
-        <is>
-          <t xml:space="preserve">15</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J123"/>
-      <c s="6" t="str" r="K123"/>
-      <c s="7" r="L123">
-        <v>44250</v>
-      </c>
-      <c s="7" r="M123">
-        <v>44980</v>
-      </c>
-      <c s="2" t="inlineStr" r="N123">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O123">
-        <is>
-          <t xml:space="preserve">תמר מצוי</t>
-        </is>
-      </c>
-      <c s="3" r="P123">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q123"/>
-      <c s="4" t="inlineStr" r="R123">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S123">
-        <v>44249</v>
-      </c>
-    </row>
-    <row r="124" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A124">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B124">
-        <v>22626</v>
-      </c>
-      <c s="2" t="inlineStr" r="C124">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D124">
-        <is>
-          <t xml:space="preserve">ועד בית כ"ט בנובמבר 5</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E124">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F124">
+        <v>44257</v>
+      </c>
+    </row>
+    <row r="110" ht="13.9" customHeight="0">
+      <c s="8" t="inlineStr" r="A110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="4" t="inlineStr" r="G124">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H124">
-        <is>
-          <t xml:space="preserve">כ"ט בנובמבר</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I124">
-        <is>
-          <t xml:space="preserve">5</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J124"/>
-      <c s="6" t="str" r="K124"/>
-      <c s="7" r="L124">
-        <v>44250</v>
-      </c>
-      <c s="7" r="M124">
-        <v>44980</v>
-      </c>
-      <c s="2" t="inlineStr" r="N124">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O124">
-        <is>
-          <t xml:space="preserve">ברוש מצוי</t>
-        </is>
-      </c>
-      <c s="3" r="P124">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q124"/>
-      <c s="4" t="inlineStr" r="R124">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S124">
-        <v>44249</v>
-      </c>
-    </row>
-    <row r="125" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A125">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B125">
-        <v>22626</v>
-      </c>
-      <c s="2" t="inlineStr" r="C125">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D125">
-        <is>
-          <t xml:space="preserve">ועד בית כ"ט בנובמבר 5</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E125">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F125">
+      <c s="8" t="inlineStr" r="B110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="4" t="inlineStr" r="G125">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H125">
-        <is>
-          <t xml:space="preserve">כ"ט בנובמבר</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I125">
-        <is>
-          <t xml:space="preserve">5</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J125"/>
-      <c s="6" t="str" r="K125"/>
-      <c s="7" r="L125">
-        <v>44250</v>
-      </c>
-      <c s="7" r="M125">
-        <v>44980</v>
-      </c>
-      <c s="2" t="inlineStr" r="N125">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O125">
-        <is>
-          <t xml:space="preserve">תות</t>
-        </is>
-      </c>
-      <c s="3" r="P125">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q125"/>
-      <c s="4" t="inlineStr" r="R125">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S125">
-        <v>44249</v>
-      </c>
-    </row>
-    <row r="126" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A126">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B126">
-        <v>22629</v>
-      </c>
-      <c s="2" t="inlineStr" r="C126">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D126">
-        <is>
-          <t xml:space="preserve">ועד בית בר כוכבא 115</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E126">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F126">
-        <is>
-          <t xml:space="preserve">הורדת משקל וגובה </t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G126">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H126">
-        <is>
-          <t xml:space="preserve">בר כוכבא</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I126">
-        <is>
-          <t xml:space="preserve">115</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J126"/>
-      <c s="6" t="str" r="K126"/>
-      <c s="7" r="L126">
-        <v>44251</v>
-      </c>
-      <c s="7" r="M126">
-        <v>44983</v>
-      </c>
-      <c s="2" t="inlineStr" r="N126">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O126">
-        <is>
-          <t xml:space="preserve">פלטופורום מסופק</t>
-        </is>
-      </c>
-      <c s="3" r="P126">
-        <v>2</v>
-      </c>
-      <c s="2" t="str" r="Q126"/>
-      <c s="4" t="inlineStr" r="R126">
-        <is>
-          <t xml:space="preserve">להורדת משקל וגובה</t>
-        </is>
-      </c>
-      <c s="7" r="S126">
-        <v>44250</v>
-      </c>
-    </row>
-    <row r="127" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A127">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B127">
-        <v>22637</v>
-      </c>
-      <c s="2" t="inlineStr" r="C127">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D127">
-        <is>
-          <t xml:space="preserve">כפר הנוער עתיד רזיאל</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E127">
-        <is>
-          <t xml:space="preserve">מחלת עץ</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F127">
-        <is>
-          <t xml:space="preserve">רקבונות ושבר בגזע מרכזי</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G127">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H127">
-        <is>
-          <t xml:space="preserve">רזיאל</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I127">
-        <is>
-          <t xml:space="preserve">24</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J127"/>
-      <c s="6" t="str" r="K127"/>
-      <c s="7" r="L127">
-        <v>44256</v>
-      </c>
-      <c s="7" r="M127">
-        <v>44986</v>
-      </c>
-      <c s="2" t="inlineStr" r="N127">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O127">
-        <is>
-          <t xml:space="preserve">קזוארינה</t>
-        </is>
-      </c>
-      <c s="3" r="P127">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q127"/>
-      <c s="4" t="inlineStr" r="R127">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S127">
-        <v>44255</v>
-      </c>
-    </row>
-    <row r="128" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A128">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B128">
-        <v>22637</v>
-      </c>
-      <c s="2" t="inlineStr" r="C128">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D128">
-        <is>
-          <t xml:space="preserve">כפר הנוער עתיד רזיאל</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E128">
-        <is>
-          <t xml:space="preserve">מחלת עץ</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F128">
-        <is>
-          <t xml:space="preserve">רקבונות ושבר בגזע מרכזי</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G128">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H128">
-        <is>
-          <t xml:space="preserve">רזיאל</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I128">
-        <is>
-          <t xml:space="preserve">24</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J128"/>
-      <c s="6" t="str" r="K128"/>
-      <c s="7" r="L128">
-        <v>44256</v>
-      </c>
-      <c s="7" r="M128">
-        <v>44986</v>
-      </c>
-      <c s="2" t="inlineStr" r="N128">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O128">
-        <is>
-          <t xml:space="preserve">גרווילאה חסונה</t>
-        </is>
-      </c>
-      <c s="3" r="P128">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q128"/>
-      <c s="4" t="inlineStr" r="R128">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S128">
-        <v>44255</v>
-      </c>
-    </row>
-    <row r="129" ht="13.9" customHeight="0">
-      <c s="8" t="inlineStr" r="A129">
+      <c s="8" t="inlineStr" r="C110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="B129">
+      <c s="8" t="inlineStr" r="D110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="C129">
+      <c s="8" t="inlineStr" r="E110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="D129">
+      <c s="8" t="inlineStr" r="F110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="E129">
+      <c s="8" t="inlineStr" r="G110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="F129">
+      <c s="8" t="inlineStr" r="H110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="G129">
+      <c s="8" t="inlineStr" r="I110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="H129">
+      <c s="8" t="inlineStr" r="J110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="I129">
+      <c s="8" t="inlineStr" r="K110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="J129">
+      <c s="8" t="inlineStr" r="L110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="K129">
+      <c s="8" t="inlineStr" r="M110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="L129">
+      <c s="8" t="inlineStr" r="N110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="M129">
+      <c s="8" t="inlineStr" r="O110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="N129">
+      <c s="8" t="inlineStr" r="P110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="O129">
+      <c s="8" t="inlineStr" r="Q110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="P129">
+      <c s="8" t="inlineStr" r="R110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="Q129">
+      <c s="8" t="inlineStr" r="S110">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="R129">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="8" t="inlineStr" r="S129">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-    </row>
-    <row r="130" ht="73.15" customHeight="1"/>
+    </row>
+    <row r="111" ht="73.2" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.196850393700787" bottom="0.118110236220472" header="0.196850393700787" footer="0.118110236220472"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -10012,13 +8671,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40C9C558-94C9-4E2D-BC10-FE581DE622EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5611846C-F45E-4F73-B526-362F1723105C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F1448-A9AC-48DC-9D6B-0B7E85DFFBBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{453936FA-51EC-4FEF-BB97-F336BE14FCFD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623D26D0-0666-44F9-895D-4F9B59BEEE00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CFAC254-26A7-4424-8A40-DA97B6893A92}"/>
 </file>
--- a/general-before.xlsx
+++ b/general-before.xlsx
@@ -498,28 +498,24 @@
         </is>
       </c>
       <c s="3" r="B5">
-        <v>13031</v>
+        <v>13261</v>
       </c>
       <c s="2" t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D5">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">דהן רינה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F5">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בטיחות</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F5"/>
       <c s="4" t="inlineStr" r="G5">
         <is>
           <t xml:space="preserve">חולון               </t>
@@ -527,17 +523,21 @@
       </c>
       <c s="2" t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I5"/>
+          <t xml:space="preserve">וולפסון</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I5">
+        <is>
+          <t xml:space="preserve">5</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J5"/>
       <c s="6" t="str" r="K5"/>
       <c s="7" r="L5">
-        <v>44257</v>
+        <v>44262</v>
       </c>
       <c s="7" r="M5">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c s="2" t="inlineStr" r="N5">
         <is>
@@ -546,20 +546,20 @@
       </c>
       <c s="2" t="inlineStr" r="O5">
         <is>
-          <t xml:space="preserve">אלביציה צהובה (לבק)</t>
+          <t xml:space="preserve">דקל משולש</t>
         </is>
       </c>
       <c s="3" r="P5">
-        <v>26</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q5">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R5"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q5"/>
+      <c s="4" t="inlineStr" r="R5">
+        <is>
+          <t xml:space="preserve">תמר </t>
+        </is>
+      </c>
       <c s="7" r="S5">
-        <v>44256</v>
+        <v>44261</v>
       </c>
     </row>
     <row r="6" ht="14.15" customHeight="0">
@@ -569,28 +569,24 @@
         </is>
       </c>
       <c s="3" r="B6">
-        <v>13031</v>
+        <v>13264</v>
       </c>
       <c s="2" t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D6">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">איריס נבו</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F6">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בטיחות</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F6"/>
       <c s="4" t="inlineStr" r="G6">
         <is>
           <t xml:space="preserve">חולון               </t>
@@ -598,17 +594,21 @@
       </c>
       <c s="2" t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I6"/>
+          <t xml:space="preserve">דב הוז</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I6">
+        <is>
+          <t xml:space="preserve">51</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J6"/>
       <c s="6" t="str" r="K6"/>
       <c s="7" r="L6">
-        <v>44257</v>
+        <v>44262</v>
       </c>
       <c s="7" r="M6">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c s="2" t="inlineStr" r="N6">
         <is>
@@ -617,20 +617,16 @@
       </c>
       <c s="2" t="inlineStr" r="O6">
         <is>
-          <t xml:space="preserve">מילה ירוקת-עד</t>
+          <t xml:space="preserve">ברכיכיטון אוסטרליס</t>
         </is>
       </c>
       <c s="3" r="P6">
-        <v>5</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q6">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q6"/>
       <c s="4" t="str" r="R6"/>
       <c s="7" r="S6">
-        <v>44256</v>
+        <v>44261</v>
       </c>
     </row>
     <row r="7" ht="14.2" customHeight="0">
@@ -640,28 +636,24 @@
         </is>
       </c>
       <c s="3" r="B7">
-        <v>13031</v>
+        <v>13269</v>
       </c>
       <c s="2" t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D7">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">עמית שמאלי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F7">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בטיחות</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F7"/>
       <c s="4" t="inlineStr" r="G7">
         <is>
           <t xml:space="preserve">חולון               </t>
@@ -669,17 +661,21 @@
       </c>
       <c s="2" t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I7"/>
+          <t xml:space="preserve">גבעה</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I7">
+        <is>
+          <t xml:space="preserve">2/69</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J7"/>
       <c s="6" t="str" r="K7"/>
       <c s="7" r="L7">
-        <v>44257</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M7">
-        <v>44349</v>
+        <v>44355</v>
       </c>
       <c s="2" t="inlineStr" r="N7">
         <is>
@@ -688,20 +684,16 @@
       </c>
       <c s="2" t="inlineStr" r="O7">
         <is>
-          <t xml:space="preserve">סיסם הודי</t>
+          <t xml:space="preserve">אזדרכת מצויה</t>
         </is>
       </c>
       <c s="3" r="P7">
-        <v>4</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q7">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q7"/>
       <c s="4" t="str" r="R7"/>
       <c s="7" r="S7">
-        <v>44256</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="8" ht="14.15" customHeight="0">
@@ -711,46 +703,46 @@
         </is>
       </c>
       <c s="3" r="B8">
-        <v>13031</v>
+        <v>13273</v>
       </c>
       <c s="2" t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D8">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">עיריית בני ברק</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F8">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בטיחות</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F8"/>
       <c s="4" t="inlineStr" r="G8">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">בני ברק             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I8"/>
+          <t xml:space="preserve">כהנמן</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I8">
+        <is>
+          <t xml:space="preserve">126</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J8"/>
       <c s="6" t="str" r="K8"/>
       <c s="7" r="L8">
-        <v>44257</v>
+        <v>44262</v>
       </c>
       <c s="7" r="M8">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c s="2" t="inlineStr" r="N8">
         <is>
@@ -759,30 +751,26 @@
       </c>
       <c s="2" t="inlineStr" r="O8">
         <is>
-          <t xml:space="preserve">צאלון נאה</t>
+          <t xml:space="preserve">ברכיכיטון אדרי</t>
         </is>
       </c>
       <c s="3" r="P8">
         <v>1</v>
       </c>
-      <c s="2" t="inlineStr" r="Q8">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="Q8"/>
       <c s="4" t="str" r="R8"/>
       <c s="7" r="S8">
-        <v>44256</v>
+        <v>44261</v>
       </c>
     </row>
     <row r="9" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B9">
-        <v>13031</v>
+        <v>17230</v>
       </c>
       <c s="2" t="inlineStr" r="C9">
         <is>
@@ -791,7 +779,7 @@
       </c>
       <c s="2" t="inlineStr" r="D9">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">ארינוס פרוייקטים בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E9">
@@ -799,38 +787,46 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F9">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F9"/>
       <c s="4" t="inlineStr" r="G9">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">רעננה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I9"/>
-      <c s="5" t="str" r="J9"/>
-      <c s="6" t="str" r="K9"/>
+          <t xml:space="preserve">המייסדים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I9">
+        <is>
+          <t xml:space="preserve">5</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J9">
+        <is>
+          <t xml:space="preserve">6587</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K9">
+        <is>
+          <t xml:space="preserve">96</t>
+        </is>
+      </c>
       <c s="7" r="L9">
-        <v>44257</v>
+        <v>44262</v>
       </c>
       <c s="7" r="M9">
-        <v>44349</v>
+        <v>44992</v>
       </c>
       <c s="2" t="inlineStr" r="N9">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O9">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">אזדרכת מצויה</t>
         </is>
       </c>
       <c s="3" r="P9">
@@ -841,19 +837,23 @@
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R9"/>
+      <c s="4" t="inlineStr" r="R9">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S9">
-        <v>44256</v>
+        <v>44261</v>
       </c>
     </row>
     <row r="10" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B10">
-        <v>13031</v>
+        <v>17230</v>
       </c>
       <c s="2" t="inlineStr" r="C10">
         <is>
@@ -862,7 +862,7 @@
       </c>
       <c s="2" t="inlineStr" r="D10">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">ארינוס פרוייקטים בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E10">
@@ -870,33 +870,41 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F10">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F10"/>
       <c s="4" t="inlineStr" r="G10">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">רעננה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I10"/>
-      <c s="5" t="str" r="J10"/>
-      <c s="6" t="str" r="K10"/>
+          <t xml:space="preserve">המייסדים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I10">
+        <is>
+          <t xml:space="preserve">5</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J10">
+        <is>
+          <t xml:space="preserve">6587</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K10">
+        <is>
+          <t xml:space="preserve">96</t>
+        </is>
+      </c>
       <c s="7" r="L10">
-        <v>44257</v>
+        <v>44262</v>
       </c>
       <c s="7" r="M10">
-        <v>44349</v>
+        <v>44992</v>
       </c>
       <c s="2" t="inlineStr" r="N10">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O10">
@@ -905,26 +913,30 @@
         </is>
       </c>
       <c s="3" r="P10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q10">
         <is>
           <t xml:space="preserve">העתקה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R10"/>
+      <c s="4" t="inlineStr" r="R10">
+        <is>
+          <t xml:space="preserve">להעתקה</t>
+        </is>
+      </c>
       <c s="7" r="S10">
-        <v>44256</v>
+        <v>44261</v>
       </c>
     </row>
     <row r="11" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B11">
-        <v>13031</v>
+        <v>17230</v>
       </c>
       <c s="2" t="inlineStr" r="C11">
         <is>
@@ -933,7 +945,7 @@
       </c>
       <c s="2" t="inlineStr" r="D11">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">ארינוס פרוייקטים בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E11">
@@ -941,65 +953,73 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F11">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F11"/>
       <c s="4" t="inlineStr" r="G11">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">רעננה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H11">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I11"/>
-      <c s="5" t="str" r="J11"/>
-      <c s="6" t="str" r="K11"/>
+          <t xml:space="preserve">המייסדים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I11">
+        <is>
+          <t xml:space="preserve">5</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J11">
+        <is>
+          <t xml:space="preserve">6587</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K11">
+        <is>
+          <t xml:space="preserve">96</t>
+        </is>
+      </c>
       <c s="7" r="L11">
-        <v>44257</v>
+        <v>44262</v>
       </c>
       <c s="7" r="M11">
-        <v>44349</v>
+        <v>44992</v>
       </c>
       <c s="2" t="inlineStr" r="N11">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O11">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q11">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="R11">
         <is>
-          <t xml:space="preserve">327.328.335</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S11">
-        <v>44256</v>
+        <v>44261</v>
       </c>
     </row>
     <row r="12" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B12">
-        <v>13031</v>
+        <v>17230</v>
       </c>
       <c s="2" t="inlineStr" r="C12">
         <is>
@@ -1008,7 +1028,7 @@
       </c>
       <c s="2" t="inlineStr" r="D12">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">ארינוס פרוייקטים בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E12">
@@ -1016,38 +1036,46 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F12">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F12"/>
       <c s="4" t="inlineStr" r="G12">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">רעננה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H12">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I12"/>
-      <c s="5" t="str" r="J12"/>
-      <c s="6" t="str" r="K12"/>
+          <t xml:space="preserve">המייסדים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I12">
+        <is>
+          <t xml:space="preserve">5</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J12">
+        <is>
+          <t xml:space="preserve">6587</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K12">
+        <is>
+          <t xml:space="preserve">96</t>
+        </is>
+      </c>
       <c s="7" r="L12">
-        <v>44257</v>
+        <v>44262</v>
       </c>
       <c s="7" r="M12">
-        <v>44349</v>
+        <v>44992</v>
       </c>
       <c s="2" t="inlineStr" r="N12">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O12">
         <is>
-          <t xml:space="preserve">דקלים - גילת</t>
+          <t xml:space="preserve">קליסטמון</t>
         </is>
       </c>
       <c s="3" r="P12">
@@ -1060,243 +1088,255 @@
       </c>
       <c s="4" t="inlineStr" r="R12">
         <is>
-          <t xml:space="preserve">ליויסטוניה דקלים </t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S12">
-        <v>44256</v>
+        <v>44261</v>
       </c>
     </row>
     <row r="13" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B13">
-        <v>13031</v>
+        <v>20379</v>
       </c>
       <c s="2" t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D13">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">מירה רנן</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">אחר</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
+          <t xml:space="preserve">נפילת בדים פתאומית</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G13">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">רעננה               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H13">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I13"/>
+          <t xml:space="preserve">האופק </t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I13">
+        <is>
+          <t xml:space="preserve">31</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J13"/>
       <c s="6" t="str" r="K13"/>
       <c s="7" r="L13">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M13">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c s="2" t="inlineStr" r="N13">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O13">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c s="3" r="P13">
-        <v>4</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q13">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R13"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q13"/>
+      <c s="4" t="inlineStr" r="R13">
+        <is>
+          <t xml:space="preserve">איקליפטוס טורלי לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S13">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="14" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B14">
-        <v>13031</v>
+        <v>20947</v>
       </c>
       <c s="2" t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D14">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">כוכבי אריאלה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">אחר</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
+          <t xml:space="preserve">גבוה וקרוב לבית</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G14">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">כפר סבא             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H14">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I14"/>
+          <t xml:space="preserve">טהון</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I14">
+        <is>
+          <t xml:space="preserve">9</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J14"/>
       <c s="6" t="str" r="K14"/>
       <c s="7" r="L14">
-        <v>44257</v>
+        <v>44629</v>
       </c>
       <c s="7" r="M14">
-        <v>44349</v>
+        <v>44629</v>
       </c>
       <c s="2" t="inlineStr" r="N14">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O14">
         <is>
-          <t xml:space="preserve">כמרופס נמוך</t>
+          <t xml:space="preserve">דקל משולש</t>
         </is>
       </c>
       <c s="3" r="P14">
-        <v>14</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q14">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R14"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q14"/>
+      <c s="4" t="inlineStr" r="R14">
+        <is>
+          <t xml:space="preserve">דקל לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S14">
-        <v>44256</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="15" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B15">
-        <v>13031</v>
+        <v>20947</v>
       </c>
       <c s="2" t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D15">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">כוכבי אריאלה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">אחר</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
+          <t xml:space="preserve">גבוה וקרוב לבית</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G15">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">כפר סבא             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I15"/>
+          <t xml:space="preserve">טהון</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I15">
+        <is>
+          <t xml:space="preserve">9</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J15"/>
       <c s="6" t="str" r="K15"/>
       <c s="7" r="L15">
-        <v>44257</v>
+        <v>44629</v>
       </c>
       <c s="7" r="M15">
-        <v>44349</v>
+        <v>44629</v>
       </c>
       <c s="2" t="inlineStr" r="N15">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O15">
         <is>
-          <t xml:space="preserve">סייאגרוס רומנזוף</t>
+          <t xml:space="preserve">אבוקדו הודי</t>
         </is>
       </c>
       <c s="3" r="P15">
         <v>1</v>
       </c>
-      <c s="2" t="inlineStr" r="Q15">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R15"/>
+      <c s="2" t="str" r="Q15"/>
+      <c s="4" t="inlineStr" r="R15">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S15">
-        <v>44256</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="16" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B16">
-        <v>13031</v>
+        <v>21192</v>
       </c>
       <c s="2" t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D16">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">קידר מבנים בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E16">
@@ -1304,61 +1344,69 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F16">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F16"/>
       <c s="4" t="inlineStr" r="G16">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">כפר סבא             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H16">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I16"/>
-      <c s="5" t="str" r="J16"/>
-      <c s="6" t="str" r="K16"/>
+          <t xml:space="preserve">אהרונוביץ</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve">6</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J16">
+        <is>
+          <t xml:space="preserve">6426</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K16">
+        <is>
+          <t xml:space="preserve">72</t>
+        </is>
+      </c>
       <c s="7" r="L16">
-        <v>44257</v>
+        <v>44262</v>
       </c>
       <c s="7" r="M16">
-        <v>44349</v>
+        <v>44992</v>
       </c>
       <c s="2" t="inlineStr" r="N16">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O16">
         <is>
-          <t xml:space="preserve">סייאגרוס רומנזוף</t>
+          <t xml:space="preserve">הדרים</t>
         </is>
       </c>
       <c s="3" r="P16">
         <v>1</v>
       </c>
-      <c s="2" t="inlineStr" r="Q16">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R16"/>
+      <c s="2" t="str" r="Q16"/>
+      <c s="4" t="inlineStr" r="R16">
+        <is>
+          <t xml:space="preserve">הדר האשכולית לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S16">
-        <v>44256</v>
+        <v>44261</v>
       </c>
     </row>
     <row r="17" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B17">
-        <v>13031</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C17">
         <is>
@@ -1367,7 +1415,7 @@
       </c>
       <c s="2" t="inlineStr" r="D17">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E17">
@@ -1375,65 +1423,69 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F17">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F17"/>
       <c s="4" t="inlineStr" r="G17">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I17"/>
-      <c s="5" t="str" r="J17"/>
-      <c s="6" t="str" r="K17"/>
+          <t xml:space="preserve">הגנים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">14</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">7624</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K17">
+        <is>
+          <t xml:space="preserve">36</t>
+        </is>
+      </c>
       <c s="7" r="L17">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M17">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N17">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O17">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">אורן קנרי</t>
         </is>
       </c>
       <c s="3" r="P17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q17">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="inlineStr" r="R17">
-        <is>
-          <t xml:space="preserve">521.519.520.522</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R17"/>
       <c s="7" r="S17">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="18" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B18">
-        <v>13031</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C18">
         <is>
@@ -1442,7 +1494,7 @@
       </c>
       <c s="2" t="inlineStr" r="D18">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E18">
@@ -1450,42 +1502,50 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F18">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F18"/>
       <c s="4" t="inlineStr" r="G18">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H18">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I18"/>
-      <c s="5" t="str" r="J18"/>
-      <c s="6" t="str" r="K18"/>
+          <t xml:space="preserve">הגנים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I18">
+        <is>
+          <t xml:space="preserve">14</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J18">
+        <is>
+          <t xml:space="preserve">7624</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K18">
+        <is>
+          <t xml:space="preserve">36</t>
+        </is>
+      </c>
       <c s="7" r="L18">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M18">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N18">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O18">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">פלפלון דמוי-אלה</t>
         </is>
       </c>
       <c s="3" r="P18">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q18">
         <is>
@@ -1494,17 +1554,17 @@
       </c>
       <c s="4" t="str" r="R18"/>
       <c s="7" r="S18">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="19" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B19">
-        <v>13031</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C19">
         <is>
@@ -1513,7 +1573,7 @@
       </c>
       <c s="2" t="inlineStr" r="D19">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E19">
@@ -1521,38 +1581,46 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F19">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F19"/>
       <c s="4" t="inlineStr" r="G19">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I19"/>
-      <c s="5" t="str" r="J19"/>
-      <c s="6" t="str" r="K19"/>
+          <t xml:space="preserve">הגנים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I19">
+        <is>
+          <t xml:space="preserve">14</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J19">
+        <is>
+          <t xml:space="preserve">7624</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K19">
+        <is>
+          <t xml:space="preserve">36</t>
+        </is>
+      </c>
       <c s="7" r="L19">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M19">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N19">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O19">
         <is>
-          <t xml:space="preserve">ברכיכיטון אדרי</t>
+          <t xml:space="preserve">תות שחור</t>
         </is>
       </c>
       <c s="3" r="P19">
@@ -1565,17 +1633,17 @@
       </c>
       <c s="4" t="str" r="R19"/>
       <c s="7" r="S19">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="20" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B20">
-        <v>13031</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C20">
         <is>
@@ -1584,7 +1652,7 @@
       </c>
       <c s="2" t="inlineStr" r="D20">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E20">
@@ -1592,38 +1660,46 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F20">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F20"/>
       <c s="4" t="inlineStr" r="G20">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I20"/>
-      <c s="5" t="str" r="J20"/>
-      <c s="6" t="str" r="K20"/>
+          <t xml:space="preserve">הגנים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I20">
+        <is>
+          <t xml:space="preserve">14</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">7624</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K20">
+        <is>
+          <t xml:space="preserve">36</t>
+        </is>
+      </c>
       <c s="7" r="L20">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M20">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N20">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O20">
         <is>
-          <t xml:space="preserve">ברכיכיטון דו-גוני</t>
+          <t xml:space="preserve">תות שחור</t>
         </is>
       </c>
       <c s="3" r="P20">
@@ -1631,22 +1707,22 @@
       </c>
       <c s="2" t="inlineStr" r="Q20">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R20"/>
       <c s="7" r="S20">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="21" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B21">
-        <v>13031</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C21">
         <is>
@@ -1655,7 +1731,7 @@
       </c>
       <c s="2" t="inlineStr" r="D21">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E21">
@@ -1663,61 +1739,73 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F21">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F21"/>
       <c s="4" t="inlineStr" r="G21">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I21"/>
-      <c s="5" t="str" r="J21"/>
-      <c s="6" t="str" r="K21"/>
+          <t xml:space="preserve">הגנים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I21">
+        <is>
+          <t xml:space="preserve">14</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J21">
+        <is>
+          <t xml:space="preserve">7624</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K21">
+        <is>
+          <t xml:space="preserve">36</t>
+        </is>
+      </c>
       <c s="7" r="L21">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M21">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N21">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O21">
         <is>
-          <t xml:space="preserve">ברכיכיטון אוסטרלי</t>
+          <t xml:space="preserve">עצי פרי</t>
         </is>
       </c>
       <c s="3" r="P21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q21">
         <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R21"/>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="R21">
+        <is>
+          <t xml:space="preserve">מנגו להעתקה</t>
+        </is>
+      </c>
       <c s="7" r="S21">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="22" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B22">
-        <v>13031</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C22">
         <is>
@@ -1726,7 +1814,7 @@
       </c>
       <c s="2" t="inlineStr" r="D22">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E22">
@@ -1734,61 +1822,73 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F22">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F22"/>
       <c s="4" t="inlineStr" r="G22">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I22"/>
-      <c s="5" t="str" r="J22"/>
-      <c s="6" t="str" r="K22"/>
+          <t xml:space="preserve">הגנים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I22">
+        <is>
+          <t xml:space="preserve">14</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">7624</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K22">
+        <is>
+          <t xml:space="preserve">36</t>
+        </is>
+      </c>
       <c s="7" r="L22">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M22">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N22">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O22">
         <is>
-          <t xml:space="preserve">סיגלון עלה-מימוסה</t>
+          <t xml:space="preserve">עצי פרי</t>
         </is>
       </c>
       <c s="3" r="P22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q22">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R22"/>
+      <c s="4" t="inlineStr" r="R22">
+        <is>
+          <t xml:space="preserve">מנגו לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S22">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="23" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B23">
-        <v>13031</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C23">
         <is>
@@ -1797,7 +1897,7 @@
       </c>
       <c s="2" t="inlineStr" r="D23">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E23">
@@ -1805,38 +1905,46 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F23">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F23"/>
       <c s="4" t="inlineStr" r="G23">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I23"/>
-      <c s="5" t="str" r="J23"/>
-      <c s="6" t="str" r="K23"/>
+          <t xml:space="preserve">הגנים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I23">
+        <is>
+          <t xml:space="preserve">14</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J23">
+        <is>
+          <t xml:space="preserve">7624</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K23">
+        <is>
+          <t xml:space="preserve">36</t>
+        </is>
+      </c>
       <c s="7" r="L23">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M23">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N23">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O23">
         <is>
-          <t xml:space="preserve">פיקוס השדרות</t>
+          <t xml:space="preserve">עצי פרי</t>
         </is>
       </c>
       <c s="3" r="P23">
@@ -1847,19 +1955,23 @@
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R23"/>
+      <c s="4" t="inlineStr" r="R23">
+        <is>
+          <t xml:space="preserve">אפרסמון לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S23">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="24" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B24">
-        <v>13031</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C24">
         <is>
@@ -1868,7 +1980,7 @@
       </c>
       <c s="2" t="inlineStr" r="D24">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E24">
@@ -1876,42 +1988,50 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F24">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F24"/>
       <c s="4" t="inlineStr" r="G24">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I24"/>
-      <c s="5" t="str" r="J24"/>
-      <c s="6" t="str" r="K24"/>
+          <t xml:space="preserve">הגנים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I24">
+        <is>
+          <t xml:space="preserve">14</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J24">
+        <is>
+          <t xml:space="preserve">7624</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K24">
+        <is>
+          <t xml:space="preserve">36</t>
+        </is>
+      </c>
       <c s="7" r="L24">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M24">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N24">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O24">
         <is>
-          <t xml:space="preserve">שלטית מקומטת</t>
+          <t xml:space="preserve">הדרים</t>
         </is>
       </c>
       <c s="3" r="P24">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q24">
         <is>
@@ -1920,17 +2040,17 @@
       </c>
       <c s="4" t="str" r="R24"/>
       <c s="7" r="S24">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="25" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B25">
-        <v>13031</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C25">
         <is>
@@ -1939,7 +2059,7 @@
       </c>
       <c s="2" t="inlineStr" r="D25">
         <is>
-          <t xml:space="preserve">שלמה מיארה</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E25">
@@ -1947,42 +2067,50 @@
           <t xml:space="preserve">בניה</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="F25">
-        <is>
-          <t xml:space="preserve">רק"ל הקו הירוק g2-5</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="F25"/>
       <c s="4" t="inlineStr" r="G25">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">חיים בר לב פינת משה דיין וראובן ברקת </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I25"/>
-      <c s="5" t="str" r="J25"/>
-      <c s="6" t="str" r="K25"/>
+          <t xml:space="preserve">הגנים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I25">
+        <is>
+          <t xml:space="preserve">14</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J25">
+        <is>
+          <t xml:space="preserve">7624</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K25">
+        <is>
+          <t xml:space="preserve">36</t>
+        </is>
+      </c>
       <c s="7" r="L25">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M25">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N25">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O25">
         <is>
-          <t xml:space="preserve">פנסית דו-נוצתית</t>
+          <t xml:space="preserve">רימון מצוי</t>
         </is>
       </c>
       <c s="3" r="P25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q25">
         <is>
@@ -1991,26 +2119,26 @@
       </c>
       <c s="4" t="str" r="R25"/>
       <c s="7" r="S25">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="26" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B26">
-        <v>13112</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C26">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D26">
         <is>
-          <t xml:space="preserve">צילה דיין</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E26">
@@ -2021,71 +2149,75 @@
       <c s="2" t="str" r="F26"/>
       <c s="4" t="inlineStr" r="G26">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">חזית חמש </t>
+          <t xml:space="preserve">הגנים</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I26">
         <is>
-          <t xml:space="preserve">7</t>
+          <t xml:space="preserve">14</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="J26">
         <is>
-          <t xml:space="preserve">6996</t>
+          <t xml:space="preserve">7624</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K26">
         <is>
-          <t xml:space="preserve">232</t>
+          <t xml:space="preserve">36</t>
         </is>
       </c>
       <c s="7" r="L26">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M26">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N26">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O26">
         <is>
-          <t xml:space="preserve">סיסם הודי</t>
+          <t xml:space="preserve">אבוקדו הודי</t>
         </is>
       </c>
       <c s="3" r="P26">
-        <v>3</v>
-      </c>
-      <c s="2" t="str" r="Q26"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q26">
+        <is>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R26"/>
       <c s="7" r="S26">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="27" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B27">
-        <v>13112</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C27">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D27">
         <is>
-          <t xml:space="preserve">צילה דיין</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E27">
@@ -2096,75 +2228,75 @@
       <c s="2" t="str" r="F27"/>
       <c s="4" t="inlineStr" r="G27">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H27">
         <is>
-          <t xml:space="preserve">חזית חמש </t>
+          <t xml:space="preserve">הגנים</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I27">
         <is>
-          <t xml:space="preserve">7</t>
+          <t xml:space="preserve">14</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="J27">
         <is>
-          <t xml:space="preserve">6996</t>
+          <t xml:space="preserve">7624</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K27">
         <is>
-          <t xml:space="preserve">232</t>
+          <t xml:space="preserve">36</t>
         </is>
       </c>
       <c s="7" r="L27">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M27">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N27">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O27">
         <is>
-          <t xml:space="preserve">לא ידוע</t>
+          <t xml:space="preserve">גואיבה מצויה</t>
         </is>
       </c>
       <c s="3" r="P27">
         <v>2</v>
       </c>
-      <c s="2" t="str" r="Q27"/>
-      <c s="4" t="inlineStr" r="R27">
-        <is>
-          <t xml:space="preserve">יסרנגה </t>
-        </is>
-      </c>
+      <c s="2" t="inlineStr" r="Q27">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R27"/>
       <c s="7" r="S27">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="28" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B28">
-        <v>13212</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C28">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D28">
         <is>
-          <t xml:space="preserve">עמר אוראל</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E28">
@@ -2175,71 +2307,75 @@
       <c s="2" t="str" r="F28"/>
       <c s="4" t="inlineStr" r="G28">
         <is>
-          <t xml:space="preserve">בת ים               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H28">
         <is>
-          <t xml:space="preserve">דניאל</t>
+          <t xml:space="preserve">הגנים</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I28">
         <is>
-          <t xml:space="preserve">8</t>
+          <t xml:space="preserve">14</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="J28">
         <is>
-          <t xml:space="preserve">7149</t>
+          <t xml:space="preserve">7624</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K28">
         <is>
-          <t xml:space="preserve">199</t>
+          <t xml:space="preserve">36</t>
         </is>
       </c>
       <c s="7" r="L28">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M28">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N28">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O28">
         <is>
-          <t xml:space="preserve">ברוש גדול-פירות</t>
+          <t xml:space="preserve">פיקוס בינימינה</t>
         </is>
       </c>
       <c s="3" r="P28">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q28"/>
+        <v>2</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q28">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R28"/>
       <c s="7" r="S28">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="29" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B29">
-        <v>13212</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C29">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D29">
         <is>
-          <t xml:space="preserve">עמר אוראל</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E29">
@@ -2250,71 +2386,75 @@
       <c s="2" t="str" r="F29"/>
       <c s="4" t="inlineStr" r="G29">
         <is>
-          <t xml:space="preserve">בת ים               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H29">
         <is>
-          <t xml:space="preserve">דניאל</t>
+          <t xml:space="preserve">הגנים</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I29">
         <is>
-          <t xml:space="preserve">8</t>
+          <t xml:space="preserve">14</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="J29">
         <is>
-          <t xml:space="preserve">7149</t>
+          <t xml:space="preserve">7624</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K29">
         <is>
-          <t xml:space="preserve">199</t>
+          <t xml:space="preserve">36</t>
         </is>
       </c>
       <c s="7" r="L29">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M29">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N29">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O29">
         <is>
-          <t xml:space="preserve">אזדרכת מצויה</t>
+          <t xml:space="preserve">פיקוס השדרות</t>
         </is>
       </c>
       <c s="3" r="P29">
         <v>1</v>
       </c>
-      <c s="2" t="str" r="Q29"/>
+      <c s="2" t="inlineStr" r="Q29">
+        <is>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R29"/>
       <c s="7" r="S29">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="30" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B30">
-        <v>13212</v>
+        <v>21491</v>
       </c>
       <c s="2" t="inlineStr" r="C30">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D30">
         <is>
-          <t xml:space="preserve">עמר אוראל</t>
+          <t xml:space="preserve">נתן שוחמי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E30">
@@ -2325,62 +2465,66 @@
       <c s="2" t="str" r="F30"/>
       <c s="4" t="inlineStr" r="G30">
         <is>
-          <t xml:space="preserve">בת ים               </t>
+          <t xml:space="preserve">צופית               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">דניאל</t>
+          <t xml:space="preserve">הגנים</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I30">
         <is>
-          <t xml:space="preserve">8</t>
+          <t xml:space="preserve">14</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="J30">
         <is>
-          <t xml:space="preserve">7149</t>
+          <t xml:space="preserve">7624</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K30">
         <is>
-          <t xml:space="preserve">199</t>
+          <t xml:space="preserve">36</t>
         </is>
       </c>
       <c s="7" r="L30">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M30">
-        <v>44349</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N30">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O30">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">פנסית דו-נוצתית</t>
         </is>
       </c>
       <c s="3" r="P30">
         <v>1</v>
       </c>
-      <c s="2" t="str" r="Q30"/>
+      <c s="2" t="inlineStr" r="Q30">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
       <c s="4" t="str" r="R30"/>
       <c s="7" r="S30">
-        <v>44256</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="31" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B31">
-        <v>13261</v>
+        <v>21750</v>
       </c>
       <c s="2" t="inlineStr" r="C31">
         <is>
@@ -2389,69 +2533,81 @@
       </c>
       <c s="2" t="inlineStr" r="D31">
         <is>
-          <t xml:space="preserve">דהן רינה</t>
+          <t xml:space="preserve">שמוליק רוטשס</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">בטיחות</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F31"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F31">
+        <is>
+          <t xml:space="preserve">גבוה וללא תרומה לסביבה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G31">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">כוכב יאיר           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H31">
         <is>
-          <t xml:space="preserve">וולפסון</t>
+          <t xml:space="preserve">הכרכום</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I31">
         <is>
-          <t xml:space="preserve">5</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J31"/>
-      <c s="6" t="str" r="K31"/>
+          <t xml:space="preserve">11</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J31">
+        <is>
+          <t xml:space="preserve">8917</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K31">
+        <is>
+          <t xml:space="preserve">95</t>
+        </is>
+      </c>
       <c s="7" r="L31">
-        <v>44262</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M31">
-        <v>44354</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N31">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O31">
         <is>
-          <t xml:space="preserve">דקל משולש</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c s="2" t="str" r="Q31"/>
       <c s="4" t="inlineStr" r="R31">
         <is>
-          <t xml:space="preserve">תמר </t>
+          <t xml:space="preserve">נוספו לכריתה בהתאם להחלטת ערר</t>
         </is>
       </c>
       <c s="7" r="S31">
-        <v>44261</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="32" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B32">
-        <v>13264</v>
+        <v>21750</v>
       </c>
       <c s="2" t="inlineStr" r="C32">
         <is>
@@ -2460,118 +2616,160 @@
       </c>
       <c s="2" t="inlineStr" r="D32">
         <is>
-          <t xml:space="preserve">איריס נבו</t>
+          <t xml:space="preserve">שמוליק רוטשס</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">בטיחות</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F32"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F32">
+        <is>
+          <t xml:space="preserve">גבוה וללא תרומה לסביבה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G32">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">כוכב יאיר           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">דב הוז</t>
+          <t xml:space="preserve">הכרכום</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I32">
         <is>
-          <t xml:space="preserve">51</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J32"/>
-      <c s="6" t="str" r="K32"/>
+          <t xml:space="preserve">11</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J32">
+        <is>
+          <t xml:space="preserve">8917</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K32">
+        <is>
+          <t xml:space="preserve">95</t>
+        </is>
+      </c>
       <c s="7" r="L32">
-        <v>44262</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M32">
-        <v>44354</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N32">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O32">
         <is>
-          <t xml:space="preserve">ברכיכיטון אוסטרליס</t>
+          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P32">
         <v>1</v>
       </c>
       <c s="2" t="str" r="Q32"/>
-      <c s="4" t="str" r="R32"/>
+      <c s="4" t="inlineStr" r="R32">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S32">
-        <v>44261</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="33" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B33">
-        <v>13267</v>
+        <v>22131</v>
       </c>
       <c s="2" t="inlineStr" r="C33">
         <is>
-          <t xml:space="preserve">דילול וגיזום</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D33">
         <is>
-          <t xml:space="preserve">אלחואמדה מגדי</t>
+          <t xml:space="preserve">ישי גרנית</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">דילול רגיל</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F33"/>
       <c s="4" t="inlineStr" r="G33">
         <is>
-          <t xml:space="preserve">יערות קק"ל</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="H33"/>
-      <c s="5" t="str" r="I33"/>
-      <c s="5" t="str" r="J33"/>
-      <c s="6" t="str" r="K33"/>
+          <t xml:space="preserve">בנימינה             </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H33">
+        <is>
+          <t xml:space="preserve">השחר - פינת השניים </t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I33">
+        <is>
+          <t xml:space="preserve">12</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J33">
+        <is>
+          <t xml:space="preserve">10207</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K33">
+        <is>
+          <t xml:space="preserve">51</t>
+        </is>
+      </c>
       <c s="7" r="L33">
-        <v>44255</v>
+        <v>44266</v>
       </c>
       <c s="7" r="M33">
-        <v>44560</v>
+        <v>44997</v>
       </c>
       <c s="2" t="inlineStr" r="N33">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="O33"/>
-      <c s="5" t="str" r="P33"/>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O33">
+        <is>
+          <t xml:space="preserve">קזוארינה שבטבטית</t>
+        </is>
+      </c>
+      <c s="3" r="P33">
+        <v>4</v>
+      </c>
       <c s="2" t="str" r="Q33"/>
-      <c s="4" t="str" r="R33"/>
+      <c s="4" t="inlineStr" r="R33">
+        <is>
+          <t xml:space="preserve">כריתה </t>
+        </is>
+      </c>
       <c s="7" r="S33">
-        <v>44254</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="34" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B34">
-        <v>13269</v>
+        <v>22377</v>
       </c>
       <c s="2" t="inlineStr" r="C34">
         <is>
@@ -2580,65 +2778,77 @@
       </c>
       <c s="2" t="inlineStr" r="D34">
         <is>
-          <t xml:space="preserve">עמית שמאלי</t>
+          <t xml:space="preserve">יואב בר עוז</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">בטיחות</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F34"/>
       <c s="4" t="inlineStr" r="G34">
         <is>
-          <t xml:space="preserve">חולון               </t>
+          <t xml:space="preserve">פרדס חנה            </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H34">
         <is>
-          <t xml:space="preserve">גבעה</t>
+          <t xml:space="preserve">הדקלים</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I34">
         <is>
-          <t xml:space="preserve">2/69</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J34"/>
-      <c s="6" t="str" r="K34"/>
+          <t xml:space="preserve">181</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J34">
+        <is>
+          <t xml:space="preserve">10101</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K34">
+        <is>
+          <t xml:space="preserve">150,151</t>
+        </is>
+      </c>
       <c s="7" r="L34">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c s="7" r="M34">
-        <v>44355</v>
+        <v>44994</v>
       </c>
       <c s="2" t="inlineStr" r="N34">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O34">
         <is>
-          <t xml:space="preserve">אזדרכת מצויה</t>
+          <t xml:space="preserve">שיטה כחלחלה</t>
         </is>
       </c>
       <c s="3" r="P34">
         <v>1</v>
       </c>
       <c s="2" t="str" r="Q34"/>
-      <c s="4" t="str" r="R34"/>
+      <c s="4" t="inlineStr" r="R34">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S34">
-        <v>44262</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="35" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B35">
-        <v>13273</v>
+        <v>22377</v>
       </c>
       <c s="2" t="inlineStr" r="C35">
         <is>
@@ -2647,65 +2857,77 @@
       </c>
       <c s="2" t="inlineStr" r="D35">
         <is>
-          <t xml:space="preserve">עיריית בני ברק</t>
+          <t xml:space="preserve">יואב בר עוז</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">בטיחות</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F35"/>
       <c s="4" t="inlineStr" r="G35">
         <is>
-          <t xml:space="preserve">בני ברק             </t>
+          <t xml:space="preserve">פרדס חנה            </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H35">
         <is>
-          <t xml:space="preserve">כהנמן</t>
+          <t xml:space="preserve">הדקלים</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I35">
         <is>
-          <t xml:space="preserve">126</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J35"/>
-      <c s="6" t="str" r="K35"/>
+          <t xml:space="preserve">181</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J35">
+        <is>
+          <t xml:space="preserve">10101</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K35">
+        <is>
+          <t xml:space="preserve">150,151</t>
+        </is>
+      </c>
       <c s="7" r="L35">
-        <v>44262</v>
+        <v>44264</v>
       </c>
       <c s="7" r="M35">
-        <v>44354</v>
+        <v>44994</v>
       </c>
       <c s="2" t="inlineStr" r="N35">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O35">
         <is>
-          <t xml:space="preserve">ברכיכיטון אדרי</t>
+          <t xml:space="preserve">הדר</t>
         </is>
       </c>
       <c s="3" r="P35">
         <v>1</v>
       </c>
       <c s="2" t="str" r="Q35"/>
-      <c s="4" t="str" r="R35"/>
+      <c s="4" t="inlineStr" r="R35">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S35">
-        <v>44261</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="36" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B36">
-        <v>13274</v>
+        <v>22377</v>
       </c>
       <c s="2" t="inlineStr" r="C36">
         <is>
@@ -2714,51 +2936,67 @@
       </c>
       <c s="2" t="inlineStr" r="D36">
         <is>
-          <t xml:space="preserve">עיריית בני ברק</t>
+          <t xml:space="preserve">יואב בר עוז</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">בטיחות</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="str" r="F36"/>
       <c s="4" t="inlineStr" r="G36">
         <is>
-          <t xml:space="preserve">בני ברק             </t>
+          <t xml:space="preserve">פרדס חנה            </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">שד' רבינא </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I36"/>
-      <c s="5" t="str" r="J36"/>
-      <c s="6" t="str" r="K36"/>
+          <t xml:space="preserve">הדקלים</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I36">
+        <is>
+          <t xml:space="preserve">181</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J36">
+        <is>
+          <t xml:space="preserve">10101</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K36">
+        <is>
+          <t xml:space="preserve">150,151</t>
+        </is>
+      </c>
       <c s="7" r="L36">
-        <v>44255</v>
+        <v>44264</v>
       </c>
       <c s="7" r="M36">
-        <v>44282</v>
+        <v>44994</v>
       </c>
       <c s="2" t="inlineStr" r="N36">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O36">
         <is>
-          <t xml:space="preserve">סייאגרוס רומנזוף</t>
+          <t xml:space="preserve">אלון התבור</t>
         </is>
       </c>
       <c s="3" r="P36">
         <v>1</v>
       </c>
       <c s="2" t="str" r="Q36"/>
-      <c s="4" t="str" r="R36"/>
+      <c s="4" t="inlineStr" r="R36">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S36">
-        <v>44254</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="37" ht="14.2" customHeight="0">
@@ -2768,16 +3006,16 @@
         </is>
       </c>
       <c s="3" r="B37">
-        <v>17230</v>
+        <v>22377</v>
       </c>
       <c s="2" t="inlineStr" r="C37">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D37">
         <is>
-          <t xml:space="preserve">ארינוס פרוייקטים בע"מ</t>
+          <t xml:space="preserve">יואב בר עוז</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E37">
@@ -2788,34 +3026,34 @@
       <c s="2" t="str" r="F37"/>
       <c s="4" t="inlineStr" r="G37">
         <is>
-          <t xml:space="preserve">רעננה               </t>
+          <t xml:space="preserve">פרדס חנה            </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">המייסדים</t>
+          <t xml:space="preserve">הדקלים</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I37">
         <is>
-          <t xml:space="preserve">5</t>
+          <t xml:space="preserve">181</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="J37">
         <is>
-          <t xml:space="preserve">6587</t>
+          <t xml:space="preserve">10101</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K37">
         <is>
-          <t xml:space="preserve">96</t>
+          <t xml:space="preserve">150,151</t>
         </is>
       </c>
       <c s="7" r="L37">
-        <v>44262</v>
+        <v>44264</v>
       </c>
       <c s="7" r="M37">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c s="2" t="inlineStr" r="N37">
         <is>
@@ -2824,24 +3062,20 @@
       </c>
       <c s="2" t="inlineStr" r="O37">
         <is>
-          <t xml:space="preserve">אזדרכת מצויה</t>
+          <t xml:space="preserve">אבוקדו הודי</t>
         </is>
       </c>
       <c s="3" r="P37">
         <v>1</v>
       </c>
-      <c s="2" t="inlineStr" r="Q37">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="Q37"/>
       <c s="4" t="inlineStr" r="R37">
         <is>
           <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S37">
-        <v>44261</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="38" ht="14.15" customHeight="0">
@@ -2851,16 +3085,16 @@
         </is>
       </c>
       <c s="3" r="B38">
-        <v>17230</v>
+        <v>22377</v>
       </c>
       <c s="2" t="inlineStr" r="C38">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D38">
         <is>
-          <t xml:space="preserve">ארינוס פרוייקטים בע"מ</t>
+          <t xml:space="preserve">יואב בר עוז</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E38">
@@ -2871,34 +3105,34 @@
       <c s="2" t="str" r="F38"/>
       <c s="4" t="inlineStr" r="G38">
         <is>
-          <t xml:space="preserve">רעננה               </t>
+          <t xml:space="preserve">פרדס חנה            </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H38">
         <is>
-          <t xml:space="preserve">המייסדים</t>
+          <t xml:space="preserve">הדקלים</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I38">
         <is>
-          <t xml:space="preserve">5</t>
+          <t xml:space="preserve">181</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="J38">
         <is>
-          <t xml:space="preserve">6587</t>
+          <t xml:space="preserve">10101</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K38">
         <is>
-          <t xml:space="preserve">96</t>
+          <t xml:space="preserve">150,151</t>
         </is>
       </c>
       <c s="7" r="L38">
-        <v>44262</v>
+        <v>44264</v>
       </c>
       <c s="7" r="M38">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c s="2" t="inlineStr" r="N38">
         <is>
@@ -2907,24 +3141,20 @@
       </c>
       <c s="2" t="inlineStr" r="O38">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">פיקוס צר-עלים</t>
         </is>
       </c>
       <c s="3" r="P38">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q38">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c s="2" t="str" r="Q38"/>
       <c s="4" t="inlineStr" r="R38">
         <is>
-          <t xml:space="preserve">להעתקה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S38">
-        <v>44261</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="39" ht="14.2" customHeight="0">
@@ -2934,80 +3164,72 @@
         </is>
       </c>
       <c s="3" r="B39">
-        <v>17230</v>
+        <v>22620</v>
       </c>
       <c s="2" t="inlineStr" r="C39">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D39">
         <is>
-          <t xml:space="preserve">ארינוס פרוייקטים בע"מ</t>
+          <t xml:space="preserve">עיריית הרצליה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F39"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F39">
+        <is>
+          <t xml:space="preserve">עם רקבונות קשים</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G39">
         <is>
-          <t xml:space="preserve">רעננה               </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H39">
         <is>
-          <t xml:space="preserve">המייסדים</t>
+          <t xml:space="preserve">פינסקר</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I39">
         <is>
-          <t xml:space="preserve">5</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J39">
-        <is>
-          <t xml:space="preserve">6587</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K39">
-        <is>
-          <t xml:space="preserve">96</t>
-        </is>
-      </c>
+          <t xml:space="preserve">15</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J39"/>
+      <c s="6" t="str" r="K39"/>
       <c s="7" r="L39">
+        <v>44263</v>
+      </c>
+      <c s="7" r="M39">
+        <v>44993</v>
+      </c>
+      <c s="2" t="inlineStr" r="N39">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O39">
+        <is>
+          <t xml:space="preserve">פקן תרבותי</t>
+        </is>
+      </c>
+      <c s="3" r="P39">
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q39"/>
+      <c s="4" t="inlineStr" r="R39">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
+      <c s="7" r="S39">
         <v>44262</v>
-      </c>
-      <c s="7" r="M39">
-        <v>44992</v>
-      </c>
-      <c s="2" t="inlineStr" r="N39">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O39">
-        <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
-        </is>
-      </c>
-      <c s="3" r="P39">
-        <v>2</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q39">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="R39">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S39">
-        <v>44261</v>
       </c>
     </row>
     <row r="40" ht="14.15" customHeight="0">
@@ -3017,54 +3239,46 @@
         </is>
       </c>
       <c s="3" r="B40">
-        <v>17230</v>
+        <v>22631</v>
       </c>
       <c s="2" t="inlineStr" r="C40">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D40">
         <is>
-          <t xml:space="preserve">ארינוס פרוייקטים בע"מ</t>
+          <t xml:space="preserve">שלומית שביט</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">עץ מת</t>
         </is>
       </c>
       <c s="2" t="str" r="F40"/>
       <c s="4" t="inlineStr" r="G40">
         <is>
-          <t xml:space="preserve">רעננה               </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H40">
         <is>
-          <t xml:space="preserve">המייסדים</t>
+          <t xml:space="preserve">דוד אלעזר</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I40">
         <is>
-          <t xml:space="preserve">5</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J40">
-        <is>
-          <t xml:space="preserve">6587</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K40">
-        <is>
-          <t xml:space="preserve">96</t>
-        </is>
-      </c>
+          <t xml:space="preserve">36</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J40"/>
+      <c s="6" t="str" r="K40"/>
       <c s="7" r="L40">
-        <v>44262</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M40">
-        <v>44992</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N40">
         <is>
@@ -3073,24 +3287,20 @@
       </c>
       <c s="2" t="inlineStr" r="O40">
         <is>
-          <t xml:space="preserve">קליסטמון</t>
+          <t xml:space="preserve">פקן תרבותי</t>
         </is>
       </c>
       <c s="3" r="P40">
         <v>1</v>
       </c>
-      <c s="2" t="inlineStr" r="Q40">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="Q40"/>
       <c s="4" t="inlineStr" r="R40">
         <is>
           <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S40">
-        <v>44261</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="41" ht="14.2" customHeight="0">
@@ -3100,7 +3310,7 @@
         </is>
       </c>
       <c s="3" r="B41">
-        <v>18059</v>
+        <v>22639</v>
       </c>
       <c s="2" t="inlineStr" r="C41">
         <is>
@@ -3109,7 +3319,7 @@
       </c>
       <c s="2" t="inlineStr" r="D41">
         <is>
-          <t xml:space="preserve">קיבוץ גן שמואל</t>
+          <t xml:space="preserve">קיבוץ גליל ים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E41">
@@ -3120,30 +3330,30 @@
       <c s="2" t="str" r="F41"/>
       <c s="4" t="inlineStr" r="G41">
         <is>
-          <t xml:space="preserve">גן שמואל            </t>
+          <t xml:space="preserve">גליל ים             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H41">
         <is>
-          <t xml:space="preserve">בית 264</t>
+          <t xml:space="preserve">תוספת ממ"ד גן ילדים חצב</t>
         </is>
       </c>
       <c s="5" t="str" r="I41"/>
       <c s="5" t="inlineStr" r="J41">
         <is>
-          <t xml:space="preserve">10052</t>
+          <t xml:space="preserve">6423</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K41">
         <is>
-          <t xml:space="preserve">15,23</t>
+          <t xml:space="preserve">6+9</t>
         </is>
       </c>
       <c s="7" r="L41">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M41">
-        <v>44987</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N41">
         <is>
@@ -3152,7 +3362,7 @@
       </c>
       <c s="2" t="inlineStr" r="O41">
         <is>
-          <t xml:space="preserve">עצי פרי</t>
+          <t xml:space="preserve">זית אירופי</t>
         </is>
       </c>
       <c s="3" r="P41">
@@ -3163,13 +3373,9 @@
           <t xml:space="preserve">העתקה</t>
         </is>
       </c>
-      <c s="4" t="inlineStr" r="R41">
-        <is>
-          <t xml:space="preserve">מנגו להעתקה</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R41"/>
       <c s="7" r="S41">
-        <v>44256</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="42" ht="14.15" customHeight="0">
@@ -3179,7 +3385,7 @@
         </is>
       </c>
       <c s="3" r="B42">
-        <v>18059</v>
+        <v>22639</v>
       </c>
       <c s="2" t="inlineStr" r="C42">
         <is>
@@ -3188,7 +3394,7 @@
       </c>
       <c s="2" t="inlineStr" r="D42">
         <is>
-          <t xml:space="preserve">קיבוץ גן שמואל</t>
+          <t xml:space="preserve">קיבוץ גליל ים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E42">
@@ -3199,56 +3405,52 @@
       <c s="2" t="str" r="F42"/>
       <c s="4" t="inlineStr" r="G42">
         <is>
-          <t xml:space="preserve">גן שמואל            </t>
+          <t xml:space="preserve">גליל ים             </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H42">
         <is>
-          <t xml:space="preserve">בית 264</t>
+          <t xml:space="preserve">תוספת ממ"ד גן ילדים חצב</t>
         </is>
       </c>
       <c s="5" t="str" r="I42"/>
       <c s="5" t="inlineStr" r="J42">
         <is>
-          <t xml:space="preserve">10052</t>
+          <t xml:space="preserve">6423</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K42">
         <is>
-          <t xml:space="preserve">15,23</t>
+          <t xml:space="preserve">6+9</t>
         </is>
       </c>
       <c s="7" r="L42">
+        <v>44258</v>
+      </c>
+      <c s="7" r="M42">
+        <v>44990</v>
+      </c>
+      <c s="2" t="inlineStr" r="N42">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O42">
+        <is>
+          <t xml:space="preserve">ושינגטוניה חוטית</t>
+        </is>
+      </c>
+      <c s="3" r="P42">
+        <v>2</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q42">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R42"/>
+      <c s="7" r="S42">
         <v>44257</v>
-      </c>
-      <c s="7" r="M42">
-        <v>44987</v>
-      </c>
-      <c s="2" t="inlineStr" r="N42">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O42">
-        <is>
-          <t xml:space="preserve">אראוקריה רמה</t>
-        </is>
-      </c>
-      <c s="3" r="P42">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q42">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="R42">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S42">
-        <v>44256</v>
       </c>
     </row>
     <row r="43" ht="14.15" customHeight="0">
@@ -3258,7 +3460,7 @@
         </is>
       </c>
       <c s="3" r="B43">
-        <v>20947</v>
+        <v>22640</v>
       </c>
       <c s="2" t="inlineStr" r="C43">
         <is>
@@ -3267,7 +3469,7 @@
       </c>
       <c s="2" t="inlineStr" r="D43">
         <is>
-          <t xml:space="preserve">כוכבי אריאלה</t>
+          <t xml:space="preserve">וינשטוק מוריס</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E43">
@@ -3277,31 +3479,31 @@
       </c>
       <c s="2" t="inlineStr" r="F43">
         <is>
-          <t xml:space="preserve">גבוה וקרוב לבית</t>
+          <t xml:space="preserve">שידרוג גינה</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G43">
         <is>
-          <t xml:space="preserve">כפר סבא             </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H43">
         <is>
-          <t xml:space="preserve">טהון</t>
+          <t xml:space="preserve">הבושם</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I43">
         <is>
-          <t xml:space="preserve">9</t>
+          <t xml:space="preserve">17</t>
         </is>
       </c>
       <c s="5" t="str" r="J43"/>
       <c s="6" t="str" r="K43"/>
       <c s="7" r="L43">
-        <v>44629</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M43">
-        <v>44629</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N43">
         <is>
@@ -3310,7 +3512,7 @@
       </c>
       <c s="2" t="inlineStr" r="O43">
         <is>
-          <t xml:space="preserve">דקל משולש</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P43">
@@ -3319,11 +3521,11 @@
       <c s="2" t="str" r="Q43"/>
       <c s="4" t="inlineStr" r="R43">
         <is>
-          <t xml:space="preserve">דקל לכריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S43">
-        <v>44628</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="44" ht="14.2" customHeight="0">
@@ -3333,7 +3535,7 @@
         </is>
       </c>
       <c s="3" r="B44">
-        <v>20947</v>
+        <v>22640</v>
       </c>
       <c s="2" t="inlineStr" r="C44">
         <is>
@@ -3342,7 +3544,7 @@
       </c>
       <c s="2" t="inlineStr" r="D44">
         <is>
-          <t xml:space="preserve">כוכבי אריאלה</t>
+          <t xml:space="preserve">וינשטוק מוריס</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E44">
@@ -3352,31 +3554,31 @@
       </c>
       <c s="2" t="inlineStr" r="F44">
         <is>
-          <t xml:space="preserve">גבוה וקרוב לבית</t>
+          <t xml:space="preserve">שידרוג גינה</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G44">
         <is>
-          <t xml:space="preserve">כפר סבא             </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H44">
         <is>
-          <t xml:space="preserve">טהון</t>
+          <t xml:space="preserve">הבושם</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I44">
         <is>
-          <t xml:space="preserve">9</t>
+          <t xml:space="preserve">17</t>
         </is>
       </c>
       <c s="5" t="str" r="J44"/>
       <c s="6" t="str" r="K44"/>
       <c s="7" r="L44">
-        <v>44629</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M44">
-        <v>44629</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N44">
         <is>
@@ -3385,20 +3587,20 @@
       </c>
       <c s="2" t="inlineStr" r="O44">
         <is>
-          <t xml:space="preserve">אבוקדו הודי</t>
+          <t xml:space="preserve">דקל משולש</t>
         </is>
       </c>
       <c s="3" r="P44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q44"/>
       <c s="4" t="inlineStr" r="R44">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">דקל טבעות לכריתה</t>
         </is>
       </c>
       <c s="7" r="S44">
-        <v>44628</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="45" ht="14.15" customHeight="0">
@@ -3408,50 +3610,50 @@
         </is>
       </c>
       <c s="3" r="B45">
-        <v>21180</v>
+        <v>22640</v>
       </c>
       <c s="2" t="inlineStr" r="C45">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D45">
         <is>
-          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
+          <t xml:space="preserve">וינשטוק מוריס</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E45">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F45"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F45">
+        <is>
+          <t xml:space="preserve">שידרוג גינה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G45">
         <is>
-          <t xml:space="preserve">צור יצחק</t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H45">
         <is>
-          <t xml:space="preserve">בית ספר מקיף דרכים </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I45"/>
-      <c s="5" t="inlineStr" r="J45">
-        <is>
-          <t xml:space="preserve">8901</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K45">
-        <is>
-          <t xml:space="preserve">67</t>
-        </is>
-      </c>
+          <t xml:space="preserve">הבושם</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I45">
+        <is>
+          <t xml:space="preserve">17</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J45"/>
+      <c s="6" t="str" r="K45"/>
       <c s="7" r="L45">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M45">
-        <v>44986</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N45">
         <is>
@@ -3460,24 +3662,20 @@
       </c>
       <c s="2" t="inlineStr" r="O45">
         <is>
-          <t xml:space="preserve">שיטה כחלחלה</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P45">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q45">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c s="2" t="str" r="Q45"/>
       <c s="4" t="inlineStr" r="R45">
         <is>
-          <t xml:space="preserve">כריתה </t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S45">
-        <v>44255</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="46" ht="14.2" customHeight="0">
@@ -3487,50 +3685,50 @@
         </is>
       </c>
       <c s="3" r="B46">
-        <v>21180</v>
+        <v>22640</v>
       </c>
       <c s="2" t="inlineStr" r="C46">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D46">
         <is>
-          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
+          <t xml:space="preserve">וינשטוק מוריס</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E46">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F46"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F46">
+        <is>
+          <t xml:space="preserve">שידרוג גינה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G46">
         <is>
-          <t xml:space="preserve">צור יצחק</t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H46">
         <is>
-          <t xml:space="preserve">בית ספר מקיף דרכים </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I46"/>
-      <c s="5" t="inlineStr" r="J46">
-        <is>
-          <t xml:space="preserve">8901</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K46">
-        <is>
-          <t xml:space="preserve">67</t>
-        </is>
-      </c>
+          <t xml:space="preserve">הבושם</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I46">
+        <is>
+          <t xml:space="preserve">17</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J46"/>
+      <c s="6" t="str" r="K46"/>
       <c s="7" r="L46">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c s="7" r="M46">
-        <v>44986</v>
+        <v>44990</v>
       </c>
       <c s="2" t="inlineStr" r="N46">
         <is>
@@ -3539,24 +3737,20 @@
       </c>
       <c s="2" t="inlineStr" r="O46">
         <is>
-          <t xml:space="preserve">אלון אנגלי</t>
+          <t xml:space="preserve">שפלרה מקרינה</t>
         </is>
       </c>
       <c s="3" r="P46">
         <v>1</v>
       </c>
-      <c s="2" t="inlineStr" r="Q46">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="Q46"/>
       <c s="4" t="inlineStr" r="R46">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S46">
-        <v>44255</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="47" ht="14.15" customHeight="0">
@@ -3566,16 +3760,16 @@
         </is>
       </c>
       <c s="3" r="B47">
-        <v>21180</v>
+        <v>22643</v>
       </c>
       <c s="2" t="inlineStr" r="C47">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D47">
         <is>
-          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
+          <t xml:space="preserve">עיריית הרצליה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E47">
@@ -3586,30 +3780,30 @@
       <c s="2" t="str" r="F47"/>
       <c s="4" t="inlineStr" r="G47">
         <is>
-          <t xml:space="preserve">צור יצחק</t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">בית ספר מקיף דרכים </t>
+          <t xml:space="preserve">ז'בוטינסקי פארק הרצליה בי"ס יבילים</t>
         </is>
       </c>
       <c s="5" t="str" r="I47"/>
       <c s="5" t="inlineStr" r="J47">
         <is>
-          <t xml:space="preserve">8901</t>
+          <t xml:space="preserve">6524</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K47">
         <is>
-          <t xml:space="preserve">67</t>
+          <t xml:space="preserve">22</t>
         </is>
       </c>
       <c s="7" r="L47">
-        <v>44256</v>
+        <v>44262</v>
       </c>
       <c s="7" r="M47">
-        <v>44986</v>
+        <v>44992</v>
       </c>
       <c s="2" t="inlineStr" r="N47">
         <is>
@@ -3618,24 +3812,20 @@
       </c>
       <c s="2" t="inlineStr" r="O47">
         <is>
-          <t xml:space="preserve">הדר</t>
+          <t xml:space="preserve">אלביציה צהובה (לבק)</t>
         </is>
       </c>
       <c s="3" r="P47">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q47">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>21</v>
+      </c>
+      <c s="2" t="str" r="Q47"/>
       <c s="4" t="inlineStr" r="R47">
         <is>
-          <t xml:space="preserve">לימון </t>
+          <t xml:space="preserve">להעתקה</t>
         </is>
       </c>
       <c s="7" r="S47">
-        <v>44255</v>
+        <v>44261</v>
       </c>
     </row>
     <row r="48" ht="14.2" customHeight="0">
@@ -3645,50 +3835,58 @@
         </is>
       </c>
       <c s="3" r="B48">
-        <v>21180</v>
+        <v>22649</v>
       </c>
       <c s="2" t="inlineStr" r="C48">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D48">
         <is>
-          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
+          <t xml:space="preserve">אביבית קונדה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E48">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F48"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F48">
+        <is>
+          <t xml:space="preserve">נזק לבמנה הבית</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G48">
         <is>
-          <t xml:space="preserve">צור יצחק</t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H48">
         <is>
-          <t xml:space="preserve">בית ספר מקיף דרכים </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I48"/>
+          <t xml:space="preserve">נחשון</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I48">
+        <is>
+          <t xml:space="preserve">15</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J48">
         <is>
-          <t xml:space="preserve">8901</t>
+          <t xml:space="preserve">6598</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K48">
         <is>
-          <t xml:space="preserve">67</t>
+          <t xml:space="preserve">454</t>
         </is>
       </c>
       <c s="7" r="L48">
-        <v>44256</v>
+        <v>44262</v>
       </c>
       <c s="7" r="M48">
-        <v>44986</v>
+        <v>44992</v>
       </c>
       <c s="2" t="inlineStr" r="N48">
         <is>
@@ -3697,24 +3895,20 @@
       </c>
       <c s="2" t="inlineStr" r="O48">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">אראוקריה רמה</t>
         </is>
       </c>
       <c s="3" r="P48">
         <v>1</v>
       </c>
-      <c s="2" t="inlineStr" r="Q48">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="Q48"/>
       <c s="4" t="inlineStr" r="R48">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S48">
-        <v>44255</v>
+        <v>44261</v>
       </c>
     </row>
     <row r="49" ht="14.15" customHeight="0">
@@ -3724,50 +3918,50 @@
         </is>
       </c>
       <c s="3" r="B49">
-        <v>21180</v>
+        <v>22650</v>
       </c>
       <c s="2" t="inlineStr" r="C49">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D49">
         <is>
-          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
+          <t xml:space="preserve">שחף תמר</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E49">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F49"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F49">
+        <is>
+          <t xml:space="preserve">יבשים ,עם שבר בצמרת וגיזום</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G49">
         <is>
-          <t xml:space="preserve">צור יצחק</t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H49">
         <is>
-          <t xml:space="preserve">בית ספר מקיף דרכים </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I49"/>
-      <c s="5" t="inlineStr" r="J49">
-        <is>
-          <t xml:space="preserve">8901</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K49">
-        <is>
-          <t xml:space="preserve">67</t>
-        </is>
-      </c>
+          <t xml:space="preserve">אוסישקין</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I49">
+        <is>
+          <t xml:space="preserve">80</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J49"/>
+      <c s="6" t="str" r="K49"/>
       <c s="7" r="L49">
-        <v>44256</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M49">
-        <v>44986</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N49">
         <is>
@@ -3776,24 +3970,20 @@
       </c>
       <c s="2" t="inlineStr" r="O49">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P49">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q49">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c s="2" t="str" r="Q49"/>
       <c s="4" t="inlineStr" r="R49">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S49">
-        <v>44255</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="50" ht="14.2" customHeight="0">
@@ -3803,50 +3993,50 @@
         </is>
       </c>
       <c s="3" r="B50">
-        <v>21180</v>
+        <v>22650</v>
       </c>
       <c s="2" t="inlineStr" r="C50">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D50">
         <is>
-          <t xml:space="preserve">מועצה אזורית דרום השרון</t>
+          <t xml:space="preserve">שחף תמר</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E50">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F50"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F50">
+        <is>
+          <t xml:space="preserve">יבשים ,עם שבר בצמרת וגיזום</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G50">
         <is>
-          <t xml:space="preserve">צור יצחק</t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H50">
         <is>
-          <t xml:space="preserve">בית ספר מקיף דרכים </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I50"/>
-      <c s="5" t="inlineStr" r="J50">
-        <is>
-          <t xml:space="preserve">8901</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K50">
-        <is>
-          <t xml:space="preserve">67</t>
-        </is>
-      </c>
+          <t xml:space="preserve">אוסישקין</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I50">
+        <is>
+          <t xml:space="preserve">80</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J50"/>
+      <c s="6" t="str" r="K50"/>
       <c s="7" r="L50">
-        <v>44256</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M50">
-        <v>44986</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N50">
         <is>
@@ -3855,24 +4045,20 @@
       </c>
       <c s="2" t="inlineStr" r="O50">
         <is>
-          <t xml:space="preserve">ספיון השעוה</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P50">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q50">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c s="2" t="str" r="Q50"/>
       <c s="4" t="inlineStr" r="R50">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">עיצוב/גיזום</t>
         </is>
       </c>
       <c s="7" r="S50">
-        <v>44255</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="51" ht="14.15" customHeight="0">
@@ -3882,7 +4068,7 @@
         </is>
       </c>
       <c s="3" r="B51">
-        <v>21192</v>
+        <v>22651</v>
       </c>
       <c s="2" t="inlineStr" r="C51">
         <is>
@@ -3891,45 +4077,33 @@
       </c>
       <c s="2" t="inlineStr" r="D51">
         <is>
-          <t xml:space="preserve">קידר מבנים בע"מ</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E51">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">עץ מת</t>
         </is>
       </c>
       <c s="2" t="str" r="F51"/>
       <c s="4" t="inlineStr" r="G51">
         <is>
-          <t xml:space="preserve">כפר סבא             </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H51">
         <is>
-          <t xml:space="preserve">אהרונוביץ</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I51">
-        <is>
-          <t xml:space="preserve">6</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J51">
-        <is>
-          <t xml:space="preserve">6426</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K51">
-        <is>
-          <t xml:space="preserve">72</t>
-        </is>
-      </c>
+          <t xml:space="preserve">פארק אלכסנדרוני</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I51"/>
+      <c s="5" t="str" r="J51"/>
+      <c s="6" t="str" r="K51"/>
       <c s="7" r="L51">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M51">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N51">
         <is>
@@ -3938,7 +4112,7 @@
       </c>
       <c s="2" t="inlineStr" r="O51">
         <is>
-          <t xml:space="preserve">הדרים</t>
+          <t xml:space="preserve">אלביציה צהובה (לבק)</t>
         </is>
       </c>
       <c s="3" r="P51">
@@ -3947,11 +4121,11 @@
       <c s="2" t="str" r="Q51"/>
       <c s="4" t="inlineStr" r="R51">
         <is>
-          <t xml:space="preserve">הדר האשכולית לכריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S51">
-        <v>44261</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="52" ht="14.2" customHeight="0">
@@ -3961,7 +4135,7 @@
         </is>
       </c>
       <c s="3" r="B52">
-        <v>21750</v>
+        <v>22651</v>
       </c>
       <c s="2" t="inlineStr" r="C52">
         <is>
@@ -3970,49 +4144,33 @@
       </c>
       <c s="2" t="inlineStr" r="D52">
         <is>
-          <t xml:space="preserve">שמוליק רוטשס</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E52">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F52">
-        <is>
-          <t xml:space="preserve">גבוה וללא תרומה לסביבה</t>
-        </is>
-      </c>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F52"/>
       <c s="4" t="inlineStr" r="G52">
         <is>
-          <t xml:space="preserve">כוכב יאיר           </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H52">
         <is>
-          <t xml:space="preserve">הכרכום</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I52">
-        <is>
-          <t xml:space="preserve">11</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J52">
-        <is>
-          <t xml:space="preserve">8917</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K52">
-        <is>
-          <t xml:space="preserve">95</t>
-        </is>
-      </c>
+          <t xml:space="preserve">פארק אלכסנדרוני</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I52"/>
+      <c s="5" t="str" r="J52"/>
+      <c s="6" t="str" r="K52"/>
       <c s="7" r="L52">
-        <v>44258</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M52">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N52">
         <is>
@@ -4021,20 +4179,20 @@
       </c>
       <c s="2" t="inlineStr" r="O52">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">ברכיכיטון אדרי</t>
         </is>
       </c>
       <c s="3" r="P52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q52"/>
       <c s="4" t="inlineStr" r="R52">
         <is>
-          <t xml:space="preserve">נוספו לכריתה בהתאם להחלטת ערר</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S52">
-        <v>44257</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="53" ht="14.15" customHeight="0">
@@ -4044,7 +4202,7 @@
         </is>
       </c>
       <c s="3" r="B53">
-        <v>21750</v>
+        <v>22652</v>
       </c>
       <c s="2" t="inlineStr" r="C53">
         <is>
@@ -4053,7 +4211,7 @@
       </c>
       <c s="2" t="inlineStr" r="D53">
         <is>
-          <t xml:space="preserve">שמוליק רוטשס</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E53">
@@ -4063,39 +4221,27 @@
       </c>
       <c s="2" t="inlineStr" r="F53">
         <is>
-          <t xml:space="preserve">גבוה וללא תרומה לסביבה</t>
+          <t xml:space="preserve">צמוד לגדר הגן וגורם נזק</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G53">
         <is>
-          <t xml:space="preserve">כוכב יאיר           </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H53">
         <is>
-          <t xml:space="preserve">הכרכום</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I53">
-        <is>
-          <t xml:space="preserve">11</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J53">
-        <is>
-          <t xml:space="preserve">8917</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K53">
-        <is>
-          <t xml:space="preserve">95</t>
-        </is>
-      </c>
+          <t xml:space="preserve">יצחק שדה אחרי גן ילדים "דקלים"</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I53"/>
+      <c s="5" t="str" r="J53"/>
+      <c s="6" t="str" r="K53"/>
       <c s="7" r="L53">
-        <v>44258</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M53">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N53">
         <is>
@@ -4104,7 +4250,7 @@
       </c>
       <c s="2" t="inlineStr" r="O53">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">אורן ירושלים</t>
         </is>
       </c>
       <c s="3" r="P53">
@@ -4113,11 +4259,11 @@
       <c s="2" t="str" r="Q53"/>
       <c s="4" t="inlineStr" r="R53">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">צעיר לכריתה</t>
         </is>
       </c>
       <c s="7" r="S53">
-        <v>44257</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="54" ht="14.2" customHeight="0">
@@ -4127,7 +4273,7 @@
         </is>
       </c>
       <c s="3" r="B54">
-        <v>22131</v>
+        <v>22653</v>
       </c>
       <c s="2" t="inlineStr" r="C54">
         <is>
@@ -4136,45 +4282,41 @@
       </c>
       <c s="2" t="inlineStr" r="D54">
         <is>
-          <t xml:space="preserve">ישי גרנית</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E54">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F54"/>
+          <t xml:space="preserve">מחלת עץ</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F54">
+        <is>
+          <t xml:space="preserve">ריקבון בצוואר השורש</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G54">
         <is>
-          <t xml:space="preserve">בנימינה             </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H54">
         <is>
-          <t xml:space="preserve">השחר - פינת השניים </t>
+          <t xml:space="preserve">קרן היסוד</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I54">
         <is>
-          <t xml:space="preserve">12</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J54">
-        <is>
-          <t xml:space="preserve">10207</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K54">
-        <is>
-          <t xml:space="preserve">51</t>
-        </is>
-      </c>
+          <t xml:space="preserve">46</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J54"/>
+      <c s="6" t="str" r="K54"/>
       <c s="7" r="L54">
-        <v>44266</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M54">
-        <v>44997</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N54">
         <is>
@@ -4183,20 +4325,20 @@
       </c>
       <c s="2" t="inlineStr" r="O54">
         <is>
-          <t xml:space="preserve">קזוארינה שבטבטית</t>
+          <t xml:space="preserve">סיגלון עלה-מימוסה</t>
         </is>
       </c>
       <c s="3" r="P54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q54"/>
       <c s="4" t="inlineStr" r="R54">
         <is>
-          <t xml:space="preserve">כריתה </t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S54">
-        <v>44265</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="55" ht="14.15" customHeight="0">
@@ -4206,7 +4348,7 @@
         </is>
       </c>
       <c s="3" r="B55">
-        <v>22377</v>
+        <v>22654</v>
       </c>
       <c s="2" t="inlineStr" r="C55">
         <is>
@@ -4215,45 +4357,41 @@
       </c>
       <c s="2" t="inlineStr" r="D55">
         <is>
-          <t xml:space="preserve">יואב בר עוז</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E55">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F55"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F55">
+        <is>
+          <t xml:space="preserve">פולשים לגן ילדים ועם פירות רעילים</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G55">
         <is>
-          <t xml:space="preserve">פרדס חנה            </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H55">
         <is>
-          <t xml:space="preserve">הדקלים</t>
+          <t xml:space="preserve">חורשת מוריה </t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I55">
         <is>
-          <t xml:space="preserve">181</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J55">
-        <is>
-          <t xml:space="preserve">10101</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K55">
-        <is>
-          <t xml:space="preserve">150,151</t>
-        </is>
-      </c>
+          <t xml:space="preserve">מול מס' 24</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J55"/>
+      <c s="6" t="str" r="K55"/>
       <c s="7" r="L55">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M55">
-        <v>44994</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N55">
         <is>
@@ -4262,11 +4400,11 @@
       </c>
       <c s="2" t="inlineStr" r="O55">
         <is>
-          <t xml:space="preserve">שיטה כחלחלה</t>
+          <t xml:space="preserve">אזדרכת מצויה</t>
         </is>
       </c>
       <c s="3" r="P55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q55"/>
       <c s="4" t="inlineStr" r="R55">
@@ -4275,7 +4413,7 @@
         </is>
       </c>
       <c s="7" r="S55">
-        <v>44263</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="56" ht="14.2" customHeight="0">
@@ -4285,7 +4423,7 @@
         </is>
       </c>
       <c s="3" r="B56">
-        <v>22377</v>
+        <v>22655</v>
       </c>
       <c s="2" t="inlineStr" r="C56">
         <is>
@@ -4294,45 +4432,37 @@
       </c>
       <c s="2" t="inlineStr" r="D56">
         <is>
-          <t xml:space="preserve">יואב בר עוז</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E56">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F56"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F56">
+        <is>
+          <t xml:space="preserve">נזק לקיר שכן</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G56">
         <is>
-          <t xml:space="preserve">פרדס חנה            </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H56">
         <is>
-          <t xml:space="preserve">הדקלים</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I56">
-        <is>
-          <t xml:space="preserve">181</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J56">
-        <is>
-          <t xml:space="preserve">10101</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K56">
-        <is>
-          <t xml:space="preserve">150,151</t>
-        </is>
-      </c>
+          <t xml:space="preserve">ז' בחשוון פינת רח' יצחק יצחק אלחנן</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I56"/>
+      <c s="5" t="str" r="J56"/>
+      <c s="6" t="str" r="K56"/>
       <c s="7" r="L56">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M56">
-        <v>44994</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N56">
         <is>
@@ -4341,11 +4471,11 @@
       </c>
       <c s="2" t="inlineStr" r="O56">
         <is>
-          <t xml:space="preserve">הדר</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c s="2" t="str" r="Q56"/>
       <c s="4" t="inlineStr" r="R56">
@@ -4354,7 +4484,7 @@
         </is>
       </c>
       <c s="7" r="S56">
-        <v>44263</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="57" ht="14.15" customHeight="0">
@@ -4364,7 +4494,7 @@
         </is>
       </c>
       <c s="3" r="B57">
-        <v>22377</v>
+        <v>22656</v>
       </c>
       <c s="2" t="inlineStr" r="C57">
         <is>
@@ -4373,45 +4503,37 @@
       </c>
       <c s="2" t="inlineStr" r="D57">
         <is>
-          <t xml:space="preserve">יואב בר עוז</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E57">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F57"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F57">
+        <is>
+          <t xml:space="preserve">נזק לקיר</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G57">
         <is>
-          <t xml:space="preserve">פרדס חנה            </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H57">
         <is>
-          <t xml:space="preserve">הדקלים</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I57">
-        <is>
-          <t xml:space="preserve">181</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J57">
-        <is>
-          <t xml:space="preserve">10101</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K57">
-        <is>
-          <t xml:space="preserve">150,151</t>
-        </is>
-      </c>
+          <t xml:space="preserve">הבנים ליד חניית גני ילדים</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I57"/>
+      <c s="5" t="str" r="J57"/>
+      <c s="6" t="str" r="K57"/>
       <c s="7" r="L57">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M57">
-        <v>44994</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N57">
         <is>
@@ -4420,11 +4542,11 @@
       </c>
       <c s="2" t="inlineStr" r="O57">
         <is>
-          <t xml:space="preserve">אלון התבור</t>
+          <t xml:space="preserve">פיקוס בינימינה</t>
         </is>
       </c>
       <c s="3" r="P57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="2" t="str" r="Q57"/>
       <c s="4" t="inlineStr" r="R57">
@@ -4433,7 +4555,7 @@
         </is>
       </c>
       <c s="7" r="S57">
-        <v>44263</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="58" ht="14.15" customHeight="0">
@@ -4443,7 +4565,7 @@
         </is>
       </c>
       <c s="3" r="B58">
-        <v>22377</v>
+        <v>22658</v>
       </c>
       <c s="2" t="inlineStr" r="C58">
         <is>
@@ -4452,45 +4574,37 @@
       </c>
       <c s="2" t="inlineStr" r="D58">
         <is>
-          <t xml:space="preserve">יואב בר עוז</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E58">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">עץ מת</t>
         </is>
       </c>
       <c s="2" t="str" r="F58"/>
       <c s="4" t="inlineStr" r="G58">
         <is>
-          <t xml:space="preserve">פרדס חנה            </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H58">
         <is>
-          <t xml:space="preserve">הדקלים</t>
+          <t xml:space="preserve">הגפן</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I58">
         <is>
-          <t xml:space="preserve">181</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J58">
-        <is>
-          <t xml:space="preserve">10101</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K58">
-        <is>
-          <t xml:space="preserve">150,151</t>
-        </is>
-      </c>
+          <t xml:space="preserve">13</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J58"/>
+      <c s="6" t="str" r="K58"/>
       <c s="7" r="L58">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M58">
-        <v>44994</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N58">
         <is>
@@ -4499,20 +4613,20 @@
       </c>
       <c s="2" t="inlineStr" r="O58">
         <is>
-          <t xml:space="preserve">אבוקדו הודי</t>
+          <t xml:space="preserve">אורן ירושלים</t>
         </is>
       </c>
       <c s="3" r="P58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q58"/>
       <c s="4" t="inlineStr" r="R58">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">מתוכם 1 גדם יבש מת לכריתה</t>
         </is>
       </c>
       <c s="7" r="S58">
-        <v>44263</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="59" ht="14.2" customHeight="0">
@@ -4522,7 +4636,7 @@
         </is>
       </c>
       <c s="3" r="B59">
-        <v>22377</v>
+        <v>22659</v>
       </c>
       <c s="2" t="inlineStr" r="C59">
         <is>
@@ -4531,45 +4645,41 @@
       </c>
       <c s="2" t="inlineStr" r="D59">
         <is>
-          <t xml:space="preserve">יואב בר עוז</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E59">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F59"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F59">
+        <is>
+          <t xml:space="preserve">עם קרע בגזע מרכזי</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G59">
         <is>
-          <t xml:space="preserve">פרדס חנה            </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H59">
         <is>
-          <t xml:space="preserve">הדקלים</t>
+          <t xml:space="preserve">ביאליק</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I59">
         <is>
-          <t xml:space="preserve">181</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J59">
-        <is>
-          <t xml:space="preserve">10101</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K59">
-        <is>
-          <t xml:space="preserve">150,151</t>
-        </is>
-      </c>
+          <t xml:space="preserve">מול מס' 47</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J59"/>
+      <c s="6" t="str" r="K59"/>
       <c s="7" r="L59">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M59">
-        <v>44994</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N59">
         <is>
@@ -4578,11 +4688,11 @@
       </c>
       <c s="2" t="inlineStr" r="O59">
         <is>
-          <t xml:space="preserve">פיקוס צר-עלים</t>
+          <t xml:space="preserve">מכנף נאה</t>
         </is>
       </c>
       <c s="3" r="P59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q59"/>
       <c s="4" t="inlineStr" r="R59">
@@ -4591,7 +4701,7 @@
         </is>
       </c>
       <c s="7" r="S59">
-        <v>44263</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="60" ht="14.15" customHeight="0">
@@ -4601,16 +4711,16 @@
         </is>
       </c>
       <c s="3" r="B60">
-        <v>22620</v>
+        <v>22660</v>
       </c>
       <c s="2" t="inlineStr" r="C60">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">גיזום</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D60">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E60">
@@ -4620,22 +4730,22 @@
       </c>
       <c s="2" t="inlineStr" r="F60">
         <is>
-          <t xml:space="preserve">עם רקבונות קשים</t>
+          <t xml:space="preserve">הורדת מקל ועיצוב גיזום</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G60">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H60">
         <is>
-          <t xml:space="preserve">פינסקר</t>
+          <t xml:space="preserve">למרחב </t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I60">
         <is>
-          <t xml:space="preserve">15</t>
+          <t xml:space="preserve">93 א'</t>
         </is>
       </c>
       <c s="5" t="str" r="J60"/>
@@ -4653,16 +4763,16 @@
       </c>
       <c s="2" t="inlineStr" r="O60">
         <is>
-          <t xml:space="preserve">פקן תרבותי</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c s="3" r="P60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q60"/>
       <c s="4" t="inlineStr" r="R60">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">להורדת משקל ועיצוב גיזום</t>
         </is>
       </c>
       <c s="7" r="S60">
@@ -4676,7 +4786,7 @@
         </is>
       </c>
       <c s="3" r="B61">
-        <v>22628</v>
+        <v>22661</v>
       </c>
       <c s="2" t="inlineStr" r="C61">
         <is>
@@ -4685,7 +4795,7 @@
       </c>
       <c s="2" t="inlineStr" r="D61">
         <is>
-          <t xml:space="preserve">יואב דותן</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E61">
@@ -4695,31 +4805,31 @@
       </c>
       <c s="2" t="inlineStr" r="F61">
         <is>
-          <t xml:space="preserve">גורם נזק לשכן</t>
+          <t xml:space="preserve">רקבונות בגזע מרכזי</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G61">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H61">
         <is>
-          <t xml:space="preserve">קפלן</t>
+          <t xml:space="preserve">י.ל. פרץ </t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I61">
         <is>
-          <t xml:space="preserve">91</t>
+          <t xml:space="preserve">מול מס' 12</t>
         </is>
       </c>
       <c s="5" t="str" r="J61"/>
       <c s="6" t="str" r="K61"/>
       <c s="7" r="L61">
-        <v>44257</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M61">
-        <v>44987</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N61">
         <is>
@@ -4728,7 +4838,7 @@
       </c>
       <c s="2" t="inlineStr" r="O61">
         <is>
-          <t xml:space="preserve">פיקוס הגומי</t>
+          <t xml:space="preserve">קזוארינה</t>
         </is>
       </c>
       <c s="3" r="P61">
@@ -4741,7 +4851,7 @@
         </is>
       </c>
       <c s="7" r="S61">
-        <v>44256</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="62" ht="14.15" customHeight="0">
@@ -4751,7 +4861,7 @@
         </is>
       </c>
       <c s="3" r="B62">
-        <v>22637</v>
+        <v>22662</v>
       </c>
       <c s="2" t="inlineStr" r="C62">
         <is>
@@ -4760,7 +4870,7 @@
       </c>
       <c s="2" t="inlineStr" r="D62">
         <is>
-          <t xml:space="preserve">כפר הנוער עתיד רזיאל</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E62">
@@ -4770,31 +4880,31 @@
       </c>
       <c s="2" t="inlineStr" r="F62">
         <is>
-          <t xml:space="preserve">רקבונות ושבר בגזע מרכזי</t>
+          <t xml:space="preserve">נפגעו מחדקונית הדקל</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G62">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H62">
         <is>
-          <t xml:space="preserve">רזיאל</t>
+          <t xml:space="preserve">הגפן</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I62">
         <is>
-          <t xml:space="preserve">24</t>
+          <t xml:space="preserve">64</t>
         </is>
       </c>
       <c s="5" t="str" r="J62"/>
       <c s="6" t="str" r="K62"/>
       <c s="7" r="L62">
-        <v>44256</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M62">
-        <v>44986</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N62">
         <is>
@@ -4803,20 +4913,20 @@
       </c>
       <c s="2" t="inlineStr" r="O62">
         <is>
-          <t xml:space="preserve">קזוארינה</t>
+          <t xml:space="preserve">תמר קנרי</t>
         </is>
       </c>
       <c s="3" r="P62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q62"/>
       <c s="4" t="inlineStr" r="R62">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">עצים מס' 6522,6521 לכריתה</t>
         </is>
       </c>
       <c s="7" r="S62">
-        <v>44255</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="63" ht="14.2" customHeight="0">
@@ -4826,7 +4936,7 @@
         </is>
       </c>
       <c s="3" r="B63">
-        <v>22637</v>
+        <v>22663</v>
       </c>
       <c s="2" t="inlineStr" r="C63">
         <is>
@@ -4835,41 +4945,33 @@
       </c>
       <c s="2" t="inlineStr" r="D63">
         <is>
-          <t xml:space="preserve">כפר הנוער עתיד רזיאל</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E63">
         <is>
-          <t xml:space="preserve">מחלת עץ</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F63">
-        <is>
-          <t xml:space="preserve">רקבונות ושבר בגזע מרכזי</t>
-        </is>
-      </c>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F63"/>
       <c s="4" t="inlineStr" r="G63">
         <is>
-          <t xml:space="preserve">הרצליה              </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H63">
         <is>
-          <t xml:space="preserve">רזיאל</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I63">
-        <is>
-          <t xml:space="preserve">24</t>
-        </is>
-      </c>
+          <t xml:space="preserve">יהושע טהון בי"ס עלומים</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I63"/>
       <c s="5" t="str" r="J63"/>
       <c s="6" t="str" r="K63"/>
       <c s="7" r="L63">
-        <v>44256</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M63">
-        <v>44986</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N63">
         <is>
@@ -4878,7 +4980,7 @@
       </c>
       <c s="2" t="inlineStr" r="O63">
         <is>
-          <t xml:space="preserve">גרווילאה חסונה</t>
+          <t xml:space="preserve">קזוארינה</t>
         </is>
       </c>
       <c s="3" r="P63">
@@ -4891,7 +4993,7 @@
         </is>
       </c>
       <c s="7" r="S63">
-        <v>44255</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="64" ht="14.15" customHeight="0">
@@ -4901,50 +5003,42 @@
         </is>
       </c>
       <c s="3" r="B64">
-        <v>22639</v>
+        <v>22663</v>
       </c>
       <c s="2" t="inlineStr" r="C64">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D64">
         <is>
-          <t xml:space="preserve">קיבוץ גליל ים</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E64">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">עץ מת</t>
         </is>
       </c>
       <c s="2" t="str" r="F64"/>
       <c s="4" t="inlineStr" r="G64">
         <is>
-          <t xml:space="preserve">גליל ים             </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">תוספת ממ"ד גן ילדים חצב</t>
+          <t xml:space="preserve">יהושע טהון בי"ס עלומים</t>
         </is>
       </c>
       <c s="5" t="str" r="I64"/>
-      <c s="5" t="inlineStr" r="J64">
-        <is>
-          <t xml:space="preserve">6423</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K64">
-        <is>
-          <t xml:space="preserve">6+9</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J64"/>
+      <c s="6" t="str" r="K64"/>
       <c s="7" r="L64">
-        <v>44258</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M64">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N64">
         <is>
@@ -4953,20 +5047,20 @@
       </c>
       <c s="2" t="inlineStr" r="O64">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">קזוארינה</t>
         </is>
       </c>
       <c s="3" r="P64">
-        <v>1</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q64">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R64"/>
+        <v>2</v>
+      </c>
+      <c s="2" t="str" r="Q64"/>
+      <c s="4" t="inlineStr" r="R64">
+        <is>
+          <t xml:space="preserve">גדמים לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S64">
-        <v>44257</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="65" ht="14.2" customHeight="0">
@@ -4976,50 +5070,50 @@
         </is>
       </c>
       <c s="3" r="B65">
-        <v>22639</v>
+        <v>22664</v>
       </c>
       <c s="2" t="inlineStr" r="C65">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D65">
         <is>
-          <t xml:space="preserve">קיבוץ גליל ים</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E65">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F65"/>
+          <t xml:space="preserve">מחלת עץ</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F65">
+        <is>
+          <t xml:space="preserve">נפגע מחדקונית הדקל</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G65">
         <is>
-          <t xml:space="preserve">גליל ים             </t>
+          <t xml:space="preserve">רמת השרון           </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H65">
         <is>
-          <t xml:space="preserve">תוספת ממ"ד גן ילדים חצב</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I65"/>
-      <c s="5" t="inlineStr" r="J65">
-        <is>
-          <t xml:space="preserve">6423</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K65">
-        <is>
-          <t xml:space="preserve">6+9</t>
-        </is>
-      </c>
+          <t xml:space="preserve">שדרות ביאליק</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I65">
+        <is>
+          <t xml:space="preserve">מול מס' 23</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J65"/>
+      <c s="6" t="str" r="K65"/>
       <c s="7" r="L65">
-        <v>44258</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M65">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N65">
         <is>
@@ -5028,20 +5122,20 @@
       </c>
       <c s="2" t="inlineStr" r="O65">
         <is>
-          <t xml:space="preserve">ושינגטוניה חוטית</t>
+          <t xml:space="preserve">תמר קנרי</t>
         </is>
       </c>
       <c s="3" r="P65">
-        <v>2</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q65">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R65"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q65"/>
+      <c s="4" t="inlineStr" r="R65">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
       <c s="7" r="S65">
-        <v>44257</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="66" ht="14.15" customHeight="0">
@@ -5051,7 +5145,7 @@
         </is>
       </c>
       <c s="3" r="B66">
-        <v>22640</v>
+        <v>22665</v>
       </c>
       <c s="2" t="inlineStr" r="C66">
         <is>
@@ -5060,19 +5154,15 @@
       </c>
       <c s="2" t="inlineStr" r="D66">
         <is>
-          <t xml:space="preserve">וינשטוק מוריס</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E66">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F66">
-        <is>
-          <t xml:space="preserve">שידרוג גינה</t>
-        </is>
-      </c>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F66"/>
       <c s="4" t="inlineStr" r="G66">
         <is>
           <t xml:space="preserve">רמת השרון           </t>
@@ -5080,21 +5170,21 @@
       </c>
       <c s="2" t="inlineStr" r="H66">
         <is>
-          <t xml:space="preserve">הבושם</t>
+          <t xml:space="preserve">טרומפלדור</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I66">
         <is>
-          <t xml:space="preserve">17</t>
+          <t xml:space="preserve">28</t>
         </is>
       </c>
       <c s="5" t="str" r="J66"/>
       <c s="6" t="str" r="K66"/>
       <c s="7" r="L66">
-        <v>44258</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M66">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N66">
         <is>
@@ -5103,7 +5193,7 @@
       </c>
       <c s="2" t="inlineStr" r="O66">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">סיסם הודי</t>
         </is>
       </c>
       <c s="3" r="P66">
@@ -5116,7 +5206,7 @@
         </is>
       </c>
       <c s="7" r="S66">
-        <v>44257</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="67" ht="14.2" customHeight="0">
@@ -5126,7 +5216,7 @@
         </is>
       </c>
       <c s="3" r="B67">
-        <v>22640</v>
+        <v>22666</v>
       </c>
       <c s="2" t="inlineStr" r="C67">
         <is>
@@ -5135,7 +5225,7 @@
       </c>
       <c s="2" t="inlineStr" r="D67">
         <is>
-          <t xml:space="preserve">וינשטוק מוריס</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E67">
@@ -5145,7 +5235,7 @@
       </c>
       <c s="2" t="inlineStr" r="F67">
         <is>
-          <t xml:space="preserve">שידרוג גינה</t>
+          <t xml:space="preserve">נזק לקיר חניה של בית משותף</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G67">
@@ -5155,21 +5245,17 @@
       </c>
       <c s="2" t="inlineStr" r="H67">
         <is>
-          <t xml:space="preserve">הבושם</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I67">
-        <is>
-          <t xml:space="preserve">17</t>
-        </is>
-      </c>
+          <t xml:space="preserve">דבורה הנביאה ,גן "דקר"</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I67"/>
       <c s="5" t="str" r="J67"/>
       <c s="6" t="str" r="K67"/>
       <c s="7" r="L67">
-        <v>44258</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M67">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N67">
         <is>
@@ -5178,20 +5264,20 @@
       </c>
       <c s="2" t="inlineStr" r="O67">
         <is>
-          <t xml:space="preserve">דקל משולש</t>
+          <t xml:space="preserve">פלפלון דמוי-אלה</t>
         </is>
       </c>
       <c s="3" r="P67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q67"/>
       <c s="4" t="inlineStr" r="R67">
         <is>
-          <t xml:space="preserve">דקל טבעות לכריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
       <c s="7" r="S67">
-        <v>44257</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="68" ht="14.15" customHeight="0">
@@ -5201,7 +5287,7 @@
         </is>
       </c>
       <c s="3" r="B68">
-        <v>22640</v>
+        <v>22667</v>
       </c>
       <c s="2" t="inlineStr" r="C68">
         <is>
@@ -5210,7 +5296,7 @@
       </c>
       <c s="2" t="inlineStr" r="D68">
         <is>
-          <t xml:space="preserve">וינשטוק מוריס</t>
+          <t xml:space="preserve">עיריית רמת השרון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E68">
@@ -5220,7 +5306,7 @@
       </c>
       <c s="2" t="inlineStr" r="F68">
         <is>
-          <t xml:space="preserve">שידרוג גינה</t>
+          <t xml:space="preserve">נזק לבר מים ראשי של שצ"פ</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G68">
@@ -5230,21 +5316,17 @@
       </c>
       <c s="2" t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">הבושם</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I68">
-        <is>
-          <t xml:space="preserve">17</t>
-        </is>
-      </c>
+          <t xml:space="preserve">סמטת הראל מול נחשון 15</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I68"/>
       <c s="5" t="str" r="J68"/>
       <c s="6" t="str" r="K68"/>
       <c s="7" r="L68">
-        <v>44258</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M68">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N68">
         <is>
@@ -5253,20 +5335,20 @@
       </c>
       <c s="2" t="inlineStr" r="O68">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">פיקוס בינימינה</t>
         </is>
       </c>
       <c s="3" r="P68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q68"/>
       <c s="4" t="inlineStr" r="R68">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">צעיר לכריתה</t>
         </is>
       </c>
       <c s="7" r="S68">
-        <v>44257</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="69" ht="14.2" customHeight="0">
@@ -5276,7 +5358,7 @@
         </is>
       </c>
       <c s="3" r="B69">
-        <v>22640</v>
+        <v>22668</v>
       </c>
       <c s="2" t="inlineStr" r="C69">
         <is>
@@ -5285,19 +5367,15 @@
       </c>
       <c s="2" t="inlineStr" r="D69">
         <is>
-          <t xml:space="preserve">וינשטוק מוריס</t>
+          <t xml:space="preserve">ועד בית ביאליק 55</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E69">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F69">
-        <is>
-          <t xml:space="preserve">שידרוג גינה</t>
-        </is>
-      </c>
+          <t xml:space="preserve">עץ מת</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F69"/>
       <c s="4" t="inlineStr" r="G69">
         <is>
           <t xml:space="preserve">רמת השרון           </t>
@@ -5305,21 +5383,29 @@
       </c>
       <c s="2" t="inlineStr" r="H69">
         <is>
-          <t xml:space="preserve">הבושם</t>
+          <t xml:space="preserve">ירמוך</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I69">
         <is>
-          <t xml:space="preserve">17</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J69"/>
-      <c s="6" t="str" r="K69"/>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J69">
+        <is>
+          <t xml:space="preserve">6416</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K69">
+        <is>
+          <t xml:space="preserve">200</t>
+        </is>
+      </c>
       <c s="7" r="L69">
-        <v>44258</v>
+        <v>44263</v>
       </c>
       <c s="7" r="M69">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c s="2" t="inlineStr" r="N69">
         <is>
@@ -5328,7 +5414,7 @@
       </c>
       <c s="2" t="inlineStr" r="O69">
         <is>
-          <t xml:space="preserve">שפלרה מקרינה</t>
+          <t xml:space="preserve">גרווילאה חסונה</t>
         </is>
       </c>
       <c s="3" r="P69">
@@ -5337,11 +5423,11 @@
       <c s="2" t="str" r="Q69"/>
       <c s="4" t="inlineStr" r="R69">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">יבש מת לכריתה</t>
         </is>
       </c>
       <c s="7" r="S69">
-        <v>44257</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="70" ht="14.15" customHeight="0">
@@ -5351,16 +5437,16 @@
         </is>
       </c>
       <c s="3" r="B70">
-        <v>22643</v>
+        <v>22670</v>
       </c>
       <c s="2" t="inlineStr" r="C70">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">תלונה/פניה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D70">
         <is>
-          <t xml:space="preserve">עיריית הרצליה</t>
+          <t xml:space="preserve">שמעון גנון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E70">
@@ -5376,47 +5462,41 @@
       </c>
       <c s="2" t="inlineStr" r="H70">
         <is>
-          <t xml:space="preserve">ז'בוטינסקי פארק הרצליה בי"ס יבילים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I70"/>
+          <t xml:space="preserve">טנא</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I70">
+        <is>
+          <t xml:space="preserve">15</t>
+        </is>
+      </c>
       <c s="5" t="inlineStr" r="J70">
         <is>
-          <t xml:space="preserve">6524</t>
+          <t xml:space="preserve">6558</t>
         </is>
       </c>
       <c s="6" t="inlineStr" r="K70">
         <is>
-          <t xml:space="preserve">22</t>
+          <t xml:space="preserve">36</t>
         </is>
       </c>
       <c s="7" r="L70">
+        <v>44263</v>
+      </c>
+      <c s="7" r="M70">
+        <v>44293</v>
+      </c>
+      <c s="2" t="inlineStr" r="N70">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="O70"/>
+      <c s="5" t="str" r="P70"/>
+      <c s="2" t="str" r="Q70"/>
+      <c s="4" t="str" r="R70"/>
+      <c s="7" r="S70">
         <v>44262</v>
-      </c>
-      <c s="7" r="M70">
-        <v>44992</v>
-      </c>
-      <c s="2" t="inlineStr" r="N70">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O70">
-        <is>
-          <t xml:space="preserve">אלביציה צהובה (לבק)</t>
-        </is>
-      </c>
-      <c s="3" r="P70">
-        <v>21</v>
-      </c>
-      <c s="2" t="str" r="Q70"/>
-      <c s="4" t="inlineStr" r="R70">
-        <is>
-          <t xml:space="preserve">להעתקה</t>
-        </is>
-      </c>
-      <c s="7" r="S70">
-        <v>44261</v>
       </c>
     </row>
     <row r="71" ht="14.15" customHeight="0">
@@ -5426,7 +5506,7 @@
         </is>
       </c>
       <c s="3" r="B71">
-        <v>22649</v>
+        <v>22673</v>
       </c>
       <c s="2" t="inlineStr" r="C71">
         <is>
@@ -5435,7 +5515,7 @@
       </c>
       <c s="2" t="inlineStr" r="D71">
         <is>
-          <t xml:space="preserve">אביבית קונדה</t>
+          <t xml:space="preserve">יובל קוץ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E71">
@@ -5445,7 +5525,7 @@
       </c>
       <c s="2" t="inlineStr" r="F71">
         <is>
-          <t xml:space="preserve">נזק לבמנה הבית</t>
+          <t xml:space="preserve">שידרוג הגינה</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G71">
@@ -5455,29 +5535,21 @@
       </c>
       <c s="2" t="inlineStr" r="H71">
         <is>
-          <t xml:space="preserve">נחשון</t>
+          <t xml:space="preserve">איה</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I71">
         <is>
-          <t xml:space="preserve">15</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J71">
-        <is>
-          <t xml:space="preserve">6598</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K71">
-        <is>
-          <t xml:space="preserve">454</t>
-        </is>
-      </c>
+          <t xml:space="preserve">38</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J71"/>
+      <c s="6" t="str" r="K71"/>
       <c s="7" r="L71">
-        <v>44262</v>
+        <v>44266</v>
       </c>
       <c s="7" r="M71">
-        <v>44992</v>
+        <v>44997</v>
       </c>
       <c s="2" t="inlineStr" r="N71">
         <is>
@@ -5486,11 +5558,11 @@
       </c>
       <c s="2" t="inlineStr" r="O71">
         <is>
-          <t xml:space="preserve">אראוקריה רמה</t>
+          <t xml:space="preserve">הדרים</t>
         </is>
       </c>
       <c s="3" r="P71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q71"/>
       <c s="4" t="inlineStr" r="R71">
@@ -5499,7 +5571,7 @@
         </is>
       </c>
       <c s="7" r="S71">
-        <v>44261</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="72" ht="14.2" customHeight="0">
@@ -5509,7 +5581,7 @@
         </is>
       </c>
       <c s="3" r="B72">
-        <v>22650</v>
+        <v>22673</v>
       </c>
       <c s="2" t="inlineStr" r="C72">
         <is>
@@ -5518,7 +5590,7 @@
       </c>
       <c s="2" t="inlineStr" r="D72">
         <is>
-          <t xml:space="preserve">שחף תמר</t>
+          <t xml:space="preserve">יובל קוץ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E72">
@@ -5528,7 +5600,7 @@
       </c>
       <c s="2" t="inlineStr" r="F72">
         <is>
-          <t xml:space="preserve">יבשים ,עם שבר בצמרת וגיזום</t>
+          <t xml:space="preserve">שידרוג הגינה</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G72">
@@ -5538,21 +5610,21 @@
       </c>
       <c s="2" t="inlineStr" r="H72">
         <is>
-          <t xml:space="preserve">אוסישקין</t>
+          <t xml:space="preserve">איה</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I72">
         <is>
-          <t xml:space="preserve">80</t>
+          <t xml:space="preserve">38</t>
         </is>
       </c>
       <c s="5" t="str" r="J72"/>
       <c s="6" t="str" r="K72"/>
       <c s="7" r="L72">
-        <v>44263</v>
+        <v>44266</v>
       </c>
       <c s="7" r="M72">
-        <v>44993</v>
+        <v>44997</v>
       </c>
       <c s="2" t="inlineStr" r="N72">
         <is>
@@ -5561,11 +5633,11 @@
       </c>
       <c s="2" t="inlineStr" r="O72">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">שיזף מצוי</t>
         </is>
       </c>
       <c s="3" r="P72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q72"/>
       <c s="4" t="inlineStr" r="R72">
@@ -5574,7 +5646,7 @@
         </is>
       </c>
       <c s="7" r="S72">
-        <v>44262</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="73" ht="14.15" customHeight="0">
@@ -5584,7 +5656,7 @@
         </is>
       </c>
       <c s="3" r="B73">
-        <v>22650</v>
+        <v>22674</v>
       </c>
       <c s="2" t="inlineStr" r="C73">
         <is>
@@ -5593,7 +5665,7 @@
       </c>
       <c s="2" t="inlineStr" r="D73">
         <is>
-          <t xml:space="preserve">שחף תמר</t>
+          <t xml:space="preserve">אביעד עמית</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E73">
@@ -5603,31 +5675,31 @@
       </c>
       <c s="2" t="inlineStr" r="F73">
         <is>
-          <t xml:space="preserve">יבשים ,עם שבר בצמרת וגיזום</t>
+          <t xml:space="preserve">נפילת בדים פתאומית</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G73">
         <is>
-          <t xml:space="preserve">רמת השרון           </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H73">
         <is>
-          <t xml:space="preserve">אוסישקין</t>
+          <t xml:space="preserve">זלמן שניאור</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="I73">
         <is>
-          <t xml:space="preserve">80</t>
+          <t xml:space="preserve">32</t>
         </is>
       </c>
       <c s="5" t="str" r="J73"/>
       <c s="6" t="str" r="K73"/>
       <c s="7" r="L73">
-        <v>44263</v>
+        <v>44266</v>
       </c>
       <c s="7" r="M73">
-        <v>44993</v>
+        <v>44997</v>
       </c>
       <c s="2" t="inlineStr" r="N73">
         <is>
@@ -5636,20 +5708,20 @@
       </c>
       <c s="2" t="inlineStr" r="O73">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">דקלים - גילת</t>
         </is>
       </c>
       <c s="3" r="P73">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c s="2" t="str" r="Q73"/>
       <c s="4" t="inlineStr" r="R73">
         <is>
-          <t xml:space="preserve">עיצוב/גיזום</t>
+          <t xml:space="preserve">דקל טבעות לכריתה</t>
         </is>
       </c>
       <c s="7" r="S73">
-        <v>44262</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="74" ht="14.2" customHeight="0">
@@ -5659,7 +5731,7 @@
         </is>
       </c>
       <c s="3" r="B74">
-        <v>22651</v>
+        <v>22678</v>
       </c>
       <c s="2" t="inlineStr" r="C74">
         <is>
@@ -5668,33 +5740,41 @@
       </c>
       <c s="2" t="inlineStr" r="D74">
         <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
+          <t xml:space="preserve">לאה צבי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E74">
         <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F74"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F74">
+        <is>
+          <t xml:space="preserve">נזק למערכת השקייה ונפילת פירות</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G74">
         <is>
-          <t xml:space="preserve">רמת השרון           </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H74">
         <is>
-          <t xml:space="preserve">פארק אלכסנדרוני</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I74"/>
+          <t xml:space="preserve">כיבוש העבודה</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I74">
+        <is>
+          <t xml:space="preserve">15</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J74"/>
       <c s="6" t="str" r="K74"/>
       <c s="7" r="L74">
-        <v>44263</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M74">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N74">
         <is>
@@ -5703,11 +5783,11 @@
       </c>
       <c s="2" t="inlineStr" r="O74">
         <is>
-          <t xml:space="preserve">אלביציה צהובה (לבק)</t>
+          <t xml:space="preserve">סייגרוס רומנזוף</t>
         </is>
       </c>
       <c s="3" r="P74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="2" t="str" r="Q74"/>
       <c s="4" t="inlineStr" r="R74">
@@ -5716,7 +5796,7 @@
         </is>
       </c>
       <c s="7" r="S74">
-        <v>44262</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="75" ht="14.15" customHeight="0">
@@ -5726,7 +5806,7 @@
         </is>
       </c>
       <c s="3" r="B75">
-        <v>22651</v>
+        <v>22679</v>
       </c>
       <c s="2" t="inlineStr" r="C75">
         <is>
@@ -5735,33 +5815,41 @@
       </c>
       <c s="2" t="inlineStr" r="D75">
         <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
+          <t xml:space="preserve">מרגריטה אסיונוב</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E75">
         <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F75"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F75">
+        <is>
+          <t xml:space="preserve">נוטים עם שורשים חשופים</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G75">
         <is>
-          <t xml:space="preserve">רמת השרון           </t>
+          <t xml:space="preserve">הרצליה              </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">פארק אלכסנדרוני</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I75"/>
+          <t xml:space="preserve">ניר</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I75">
+        <is>
+          <t xml:space="preserve">10</t>
+        </is>
+      </c>
       <c s="5" t="str" r="J75"/>
       <c s="6" t="str" r="K75"/>
       <c s="7" r="L75">
-        <v>44263</v>
+        <v>44270</v>
       </c>
       <c s="7" r="M75">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c s="2" t="inlineStr" r="N75">
         <is>
@@ -5770,11 +5858,11 @@
       </c>
       <c s="2" t="inlineStr" r="O75">
         <is>
-          <t xml:space="preserve">ברכיכיטון אדרי</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q75"/>
       <c s="4" t="inlineStr" r="R75">
@@ -5783,1708 +5871,108 @@
         </is>
       </c>
       <c s="7" r="S75">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="76" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A76">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B76">
-        <v>22652</v>
-      </c>
-      <c s="2" t="inlineStr" r="C76">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D76">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E76">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F76">
-        <is>
-          <t xml:space="preserve">צמוד לגדר הגן וגורם נזק</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G76">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H76">
-        <is>
-          <t xml:space="preserve">יצחק שדה אחרי גן ילדים "דקלים"</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I76"/>
-      <c s="5" t="str" r="J76"/>
-      <c s="6" t="str" r="K76"/>
-      <c s="7" r="L76">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M76">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N76">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O76">
-        <is>
-          <t xml:space="preserve">אורן ירושלים</t>
-        </is>
-      </c>
-      <c s="3" r="P76">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q76"/>
-      <c s="4" t="inlineStr" r="R76">
-        <is>
-          <t xml:space="preserve">צעיר לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S76">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="77" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A77">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B77">
-        <v>22653</v>
-      </c>
-      <c s="2" t="inlineStr" r="C77">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D77">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E77">
-        <is>
-          <t xml:space="preserve">מחלת עץ</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F77">
-        <is>
-          <t xml:space="preserve">ריקבון בצוואר השורש</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G77">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H77">
-        <is>
-          <t xml:space="preserve">קרן היסוד</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I77">
-        <is>
-          <t xml:space="preserve">46</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J77"/>
-      <c s="6" t="str" r="K77"/>
-      <c s="7" r="L77">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M77">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N77">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O77">
-        <is>
-          <t xml:space="preserve">סיגלון עלה-מימוסה</t>
-        </is>
-      </c>
-      <c s="3" r="P77">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q77"/>
-      <c s="4" t="inlineStr" r="R77">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S77">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="78" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A78">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B78">
-        <v>22654</v>
-      </c>
-      <c s="2" t="inlineStr" r="C78">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D78">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E78">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F78">
-        <is>
-          <t xml:space="preserve">פולשים לגן ילדים ועם פירות רעילים</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G78">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H78">
-        <is>
-          <t xml:space="preserve">חורשת מוריה </t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I78">
-        <is>
-          <t xml:space="preserve">מול מס' 24</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J78"/>
-      <c s="6" t="str" r="K78"/>
-      <c s="7" r="L78">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M78">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N78">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O78">
-        <is>
-          <t xml:space="preserve">אזדרכת מצויה</t>
-        </is>
-      </c>
-      <c s="3" r="P78">
-        <v>2</v>
-      </c>
-      <c s="2" t="str" r="Q78"/>
-      <c s="4" t="inlineStr" r="R78">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S78">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="79" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A79">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B79">
-        <v>22655</v>
-      </c>
-      <c s="2" t="inlineStr" r="C79">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D79">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E79">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F79">
-        <is>
-          <t xml:space="preserve">נזק לקיר שכן</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G79">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H79">
-        <is>
-          <t xml:space="preserve">ז' בחשוון פינת רח' יצחק יצחק אלחנן</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I79"/>
-      <c s="5" t="str" r="J79"/>
-      <c s="6" t="str" r="K79"/>
-      <c s="7" r="L79">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M79">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N79">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O79">
-        <is>
-          <t xml:space="preserve">ברוש מצוי</t>
-        </is>
-      </c>
-      <c s="3" r="P79">
-        <v>8</v>
-      </c>
-      <c s="2" t="str" r="Q79"/>
-      <c s="4" t="inlineStr" r="R79">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S79">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="80" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A80">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B80">
-        <v>22656</v>
-      </c>
-      <c s="2" t="inlineStr" r="C80">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D80">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E80">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F80">
-        <is>
-          <t xml:space="preserve">נזק לקיר</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G80">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H80">
-        <is>
-          <t xml:space="preserve">הבנים ליד חניית גני ילדים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I80"/>
-      <c s="5" t="str" r="J80"/>
-      <c s="6" t="str" r="K80"/>
-      <c s="7" r="L80">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M80">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N80">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O80">
-        <is>
-          <t xml:space="preserve">פיקוס בינימינה</t>
-        </is>
-      </c>
-      <c s="3" r="P80">
-        <v>4</v>
-      </c>
-      <c s="2" t="str" r="Q80"/>
-      <c s="4" t="inlineStr" r="R80">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S80">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="81" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A81">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B81">
-        <v>22658</v>
-      </c>
-      <c s="2" t="inlineStr" r="C81">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D81">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E81">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F81"/>
-      <c s="4" t="inlineStr" r="G81">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H81">
-        <is>
-          <t xml:space="preserve">הגפן</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I81">
-        <is>
-          <t xml:space="preserve">13</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J81"/>
-      <c s="6" t="str" r="K81"/>
-      <c s="7" r="L81">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M81">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N81">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O81">
-        <is>
-          <t xml:space="preserve">אורן ירושלים</t>
-        </is>
-      </c>
-      <c s="3" r="P81">
-        <v>2</v>
-      </c>
-      <c s="2" t="str" r="Q81"/>
-      <c s="4" t="inlineStr" r="R81">
-        <is>
-          <t xml:space="preserve">מתוכם 1 גדם יבש מת לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S81">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="82" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A82">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B82">
-        <v>22659</v>
-      </c>
-      <c s="2" t="inlineStr" r="C82">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D82">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E82">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F82">
-        <is>
-          <t xml:space="preserve">עם קרע בגזע מרכזי</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G82">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H82">
-        <is>
-          <t xml:space="preserve">ביאליק</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I82">
-        <is>
-          <t xml:space="preserve">מול מס' 47</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J82"/>
-      <c s="6" t="str" r="K82"/>
-      <c s="7" r="L82">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M82">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N82">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O82">
-        <is>
-          <t xml:space="preserve">מכנף נאה</t>
-        </is>
-      </c>
-      <c s="3" r="P82">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q82"/>
-      <c s="4" t="inlineStr" r="R82">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S82">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="83" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A83">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B83">
-        <v>22660</v>
-      </c>
-      <c s="2" t="inlineStr" r="C83">
-        <is>
-          <t xml:space="preserve">גיזום</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D83">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E83">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F83">
-        <is>
-          <t xml:space="preserve">הורדת מקל ועיצוב גיזום</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G83">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H83">
-        <is>
-          <t xml:space="preserve">למרחב </t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I83">
-        <is>
-          <t xml:space="preserve">93 א'</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J83"/>
-      <c s="6" t="str" r="K83"/>
-      <c s="7" r="L83">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M83">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N83">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O83">
-        <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
-        </is>
-      </c>
-      <c s="3" r="P83">
-        <v>2</v>
-      </c>
-      <c s="2" t="str" r="Q83"/>
-      <c s="4" t="inlineStr" r="R83">
-        <is>
-          <t xml:space="preserve">להורדת משקל ועיצוב גיזום</t>
-        </is>
-      </c>
-      <c s="7" r="S83">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="84" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A84">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B84">
-        <v>22661</v>
-      </c>
-      <c s="2" t="inlineStr" r="C84">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D84">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E84">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F84">
-        <is>
-          <t xml:space="preserve">רקבונות בגזע מרכזי</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G84">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H84">
-        <is>
-          <t xml:space="preserve">י.ל. פרץ </t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I84">
-        <is>
-          <t xml:space="preserve">מול מס' 12</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J84"/>
-      <c s="6" t="str" r="K84"/>
-      <c s="7" r="L84">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M84">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N84">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O84">
-        <is>
-          <t xml:space="preserve">קזוארינה</t>
-        </is>
-      </c>
-      <c s="3" r="P84">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q84"/>
-      <c s="4" t="inlineStr" r="R84">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S84">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="85" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A85">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B85">
-        <v>22662</v>
-      </c>
-      <c s="2" t="inlineStr" r="C85">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D85">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E85">
-        <is>
-          <t xml:space="preserve">מחלת עץ</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F85">
-        <is>
-          <t xml:space="preserve">נפגעו מחדקונית הדקל</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G85">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H85">
-        <is>
-          <t xml:space="preserve">הגפן</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I85">
-        <is>
-          <t xml:space="preserve">64</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J85"/>
-      <c s="6" t="str" r="K85"/>
-      <c s="7" r="L85">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M85">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N85">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O85">
-        <is>
-          <t xml:space="preserve">תמר קנרי</t>
-        </is>
-      </c>
-      <c s="3" r="P85">
-        <v>2</v>
-      </c>
-      <c s="2" t="str" r="Q85"/>
-      <c s="4" t="inlineStr" r="R85">
-        <is>
-          <t xml:space="preserve">עצים מס' 6522,6521 לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S85">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="86" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A86">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B86">
-        <v>22663</v>
-      </c>
-      <c s="2" t="inlineStr" r="C86">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D86">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E86">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F86"/>
-      <c s="4" t="inlineStr" r="G86">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H86">
-        <is>
-          <t xml:space="preserve">יהושע טהון בי"ס עלומים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I86"/>
-      <c s="5" t="str" r="J86"/>
-      <c s="6" t="str" r="K86"/>
-      <c s="7" r="L86">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M86">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N86">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O86">
-        <is>
-          <t xml:space="preserve">קזוארינה</t>
-        </is>
-      </c>
-      <c s="3" r="P86">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q86"/>
-      <c s="4" t="inlineStr" r="R86">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S86">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="87" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A87">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B87">
-        <v>22663</v>
-      </c>
-      <c s="2" t="inlineStr" r="C87">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D87">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E87">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F87"/>
-      <c s="4" t="inlineStr" r="G87">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H87">
-        <is>
-          <t xml:space="preserve">יהושע טהון בי"ס עלומים</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I87"/>
-      <c s="5" t="str" r="J87"/>
-      <c s="6" t="str" r="K87"/>
-      <c s="7" r="L87">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M87">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N87">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O87">
-        <is>
-          <t xml:space="preserve">קזוארינה</t>
-        </is>
-      </c>
-      <c s="3" r="P87">
-        <v>2</v>
-      </c>
-      <c s="2" t="str" r="Q87"/>
-      <c s="4" t="inlineStr" r="R87">
-        <is>
-          <t xml:space="preserve">גדמים לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S87">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="88" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A88">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B88">
-        <v>22664</v>
-      </c>
-      <c s="2" t="inlineStr" r="C88">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D88">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E88">
-        <is>
-          <t xml:space="preserve">מחלת עץ</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F88">
-        <is>
-          <t xml:space="preserve">נפגע מחדקונית הדקל</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G88">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H88">
-        <is>
-          <t xml:space="preserve">שדרות ביאליק</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I88">
-        <is>
-          <t xml:space="preserve">מול מס' 23</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J88"/>
-      <c s="6" t="str" r="K88"/>
-      <c s="7" r="L88">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M88">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N88">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O88">
-        <is>
-          <t xml:space="preserve">תמר קנרי</t>
-        </is>
-      </c>
-      <c s="3" r="P88">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q88"/>
-      <c s="4" t="inlineStr" r="R88">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S88">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="89" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A89">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B89">
-        <v>22665</v>
-      </c>
-      <c s="2" t="inlineStr" r="C89">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D89">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E89">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F89"/>
-      <c s="4" t="inlineStr" r="G89">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H89">
-        <is>
-          <t xml:space="preserve">טרומפלדור</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I89">
-        <is>
-          <t xml:space="preserve">28</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J89"/>
-      <c s="6" t="str" r="K89"/>
-      <c s="7" r="L89">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M89">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N89">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O89">
-        <is>
-          <t xml:space="preserve">סיסם הודי</t>
-        </is>
-      </c>
-      <c s="3" r="P89">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q89"/>
-      <c s="4" t="inlineStr" r="R89">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S89">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="90" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A90">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B90">
-        <v>22666</v>
-      </c>
-      <c s="2" t="inlineStr" r="C90">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D90">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E90">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F90">
-        <is>
-          <t xml:space="preserve">נזק לקיר חניה של בית משותף</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G90">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H90">
-        <is>
-          <t xml:space="preserve">דבורה הנביאה ,גן "דקר"</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I90"/>
-      <c s="5" t="str" r="J90"/>
-      <c s="6" t="str" r="K90"/>
-      <c s="7" r="L90">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M90">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N90">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O90">
-        <is>
-          <t xml:space="preserve">פלפלון דמוי-אלה</t>
-        </is>
-      </c>
-      <c s="3" r="P90">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q90"/>
-      <c s="4" t="inlineStr" r="R90">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S90">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="91" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A91">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B91">
-        <v>22667</v>
-      </c>
-      <c s="2" t="inlineStr" r="C91">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D91">
-        <is>
-          <t xml:space="preserve">עיריית רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E91">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F91">
-        <is>
-          <t xml:space="preserve">נזק לבר מים ראשי של שצ"פ</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G91">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H91">
-        <is>
-          <t xml:space="preserve">סמטת הראל מול נחשון 15</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I91"/>
-      <c s="5" t="str" r="J91"/>
-      <c s="6" t="str" r="K91"/>
-      <c s="7" r="L91">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M91">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N91">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O91">
-        <is>
-          <t xml:space="preserve">פיקוס בינימינה</t>
-        </is>
-      </c>
-      <c s="3" r="P91">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q91"/>
-      <c s="4" t="inlineStr" r="R91">
-        <is>
-          <t xml:space="preserve">צעיר לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S91">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="92" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A92">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B92">
-        <v>22668</v>
-      </c>
-      <c s="2" t="inlineStr" r="C92">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D92">
-        <is>
-          <t xml:space="preserve">ועד בית ביאליק 55</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E92">
-        <is>
-          <t xml:space="preserve">עץ מת</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F92"/>
-      <c s="4" t="inlineStr" r="G92">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H92">
-        <is>
-          <t xml:space="preserve">ירמוך</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I92">
-        <is>
-          <t xml:space="preserve">1</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J92">
-        <is>
-          <t xml:space="preserve">6416</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K92">
-        <is>
-          <t xml:space="preserve">200</t>
-        </is>
-      </c>
-      <c s="7" r="L92">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M92">
-        <v>44993</v>
-      </c>
-      <c s="2" t="inlineStr" r="N92">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O92">
-        <is>
-          <t xml:space="preserve">גרווילאה חסונה</t>
-        </is>
-      </c>
-      <c s="3" r="P92">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q92"/>
-      <c s="4" t="inlineStr" r="R92">
-        <is>
-          <t xml:space="preserve">יבש מת לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S92">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="93" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A93">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B93">
-        <v>22670</v>
-      </c>
-      <c s="2" t="inlineStr" r="C93">
-        <is>
-          <t xml:space="preserve">תלונה/פניה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D93">
-        <is>
-          <t xml:space="preserve">שמעון גנון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E93">
-        <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F93"/>
-      <c s="4" t="inlineStr" r="G93">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H93">
-        <is>
-          <t xml:space="preserve">טנא</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I93">
-        <is>
-          <t xml:space="preserve">15</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J93">
-        <is>
-          <t xml:space="preserve">6558</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K93">
-        <is>
-          <t xml:space="preserve">36</t>
-        </is>
-      </c>
-      <c s="7" r="L93">
-        <v>44263</v>
-      </c>
-      <c s="7" r="M93">
-        <v>44293</v>
-      </c>
-      <c s="2" t="inlineStr" r="N93">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="O93"/>
-      <c s="5" t="str" r="P93"/>
-      <c s="2" t="str" r="Q93"/>
-      <c s="4" t="str" r="R93"/>
-      <c s="7" r="S93">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="94" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A94">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B94">
-        <v>22673</v>
-      </c>
-      <c s="2" t="inlineStr" r="C94">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D94">
-        <is>
-          <t xml:space="preserve">יובל קוץ</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E94">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F94">
-        <is>
-          <t xml:space="preserve">שידרוג הגינה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G94">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H94">
-        <is>
-          <t xml:space="preserve">איה</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I94">
-        <is>
-          <t xml:space="preserve">38</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J94"/>
-      <c s="6" t="str" r="K94"/>
-      <c s="7" r="L94">
-        <v>44266</v>
-      </c>
-      <c s="7" r="M94">
-        <v>44997</v>
-      </c>
-      <c s="2" t="inlineStr" r="N94">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O94">
-        <is>
-          <t xml:space="preserve">הדרים</t>
-        </is>
-      </c>
-      <c s="3" r="P94">
-        <v>2</v>
-      </c>
-      <c s="2" t="str" r="Q94"/>
-      <c s="4" t="inlineStr" r="R94">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S94">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="95" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A95">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B95">
-        <v>22673</v>
-      </c>
-      <c s="2" t="inlineStr" r="C95">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D95">
-        <is>
-          <t xml:space="preserve">יובל קוץ</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E95">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F95">
-        <is>
-          <t xml:space="preserve">שידרוג הגינה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G95">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H95">
-        <is>
-          <t xml:space="preserve">איה</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I95">
-        <is>
-          <t xml:space="preserve">38</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J95"/>
-      <c s="6" t="str" r="K95"/>
-      <c s="7" r="L95">
-        <v>44266</v>
-      </c>
-      <c s="7" r="M95">
-        <v>44997</v>
-      </c>
-      <c s="2" t="inlineStr" r="N95">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O95">
-        <is>
-          <t xml:space="preserve">שיזף מצוי</t>
-        </is>
-      </c>
-      <c s="3" r="P95">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q95"/>
-      <c s="4" t="inlineStr" r="R95">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S95">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="96" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A96">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B96">
-        <v>22674</v>
-      </c>
-      <c s="2" t="inlineStr" r="C96">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D96">
-        <is>
-          <t xml:space="preserve">אביעד עמית</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E96">
-        <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F96">
-        <is>
-          <t xml:space="preserve">נפילת בדים פתאומית</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G96">
-        <is>
-          <t xml:space="preserve">הרצליה              </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H96">
-        <is>
-          <t xml:space="preserve">זלמן שניאור</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I96">
-        <is>
-          <t xml:space="preserve">32</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J96"/>
-      <c s="6" t="str" r="K96"/>
-      <c s="7" r="L96">
-        <v>44266</v>
-      </c>
-      <c s="7" r="M96">
-        <v>44997</v>
-      </c>
-      <c s="2" t="inlineStr" r="N96">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O96">
-        <is>
-          <t xml:space="preserve">דקלים - גילת</t>
-        </is>
-      </c>
-      <c s="3" r="P96">
-        <v>3</v>
-      </c>
-      <c s="2" t="str" r="Q96"/>
-      <c s="4" t="inlineStr" r="R96">
-        <is>
-          <t xml:space="preserve">דקל טבעות לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S96">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="97" ht="14.2" customHeight="0">
-      <c s="2" t="inlineStr" r="A97">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B97">
-        <v>22675</v>
-      </c>
-      <c s="2" t="inlineStr" r="C97">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D97">
-        <is>
-          <t xml:space="preserve">תע"ש רמת השרון</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E97">
-        <is>
-          <t xml:space="preserve">בטיחות</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F97">
-        <is>
-          <t xml:space="preserve">סכנה מיידית</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G97">
-        <is>
-          <t xml:space="preserve">רמת השרון           </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H97">
-        <is>
-          <t xml:space="preserve">ליד מתחם אליהו מלבין</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I97"/>
-      <c s="5" t="str" r="J97"/>
-      <c s="6" t="str" r="K97"/>
-      <c s="7" r="L97">
-        <v>44255</v>
-      </c>
-      <c s="7" r="M97">
-        <v>44262</v>
-      </c>
-      <c s="2" t="inlineStr" r="N97">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O97">
-        <is>
-          <t xml:space="preserve">אורן ירושלים</t>
-        </is>
-      </c>
-      <c s="3" r="P97">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q97"/>
-      <c s="4" t="inlineStr" r="R97">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
-      <c s="7" r="S97">
-        <v>44254</v>
-      </c>
-    </row>
-    <row r="98" ht="13.85" customHeight="0">
-      <c s="8" t="inlineStr" r="A98">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="76" ht="13.9" customHeight="0">
+      <c s="8" t="inlineStr" r="A76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="B98">
+      <c s="8" t="inlineStr" r="B76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="C98">
+      <c s="8" t="inlineStr" r="C76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="D98">
+      <c s="8" t="inlineStr" r="D76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="E98">
+      <c s="8" t="inlineStr" r="E76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="F98">
+      <c s="8" t="inlineStr" r="F76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="G98">
+      <c s="8" t="inlineStr" r="G76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="H98">
+      <c s="8" t="inlineStr" r="H76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="I98">
+      <c s="8" t="inlineStr" r="I76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="J98">
+      <c s="8" t="inlineStr" r="J76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="K98">
+      <c s="8" t="inlineStr" r="K76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="L98">
+      <c s="8" t="inlineStr" r="L76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="M98">
+      <c s="8" t="inlineStr" r="M76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="N98">
+      <c s="8" t="inlineStr" r="N76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="O98">
+      <c s="8" t="inlineStr" r="O76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="P98">
+      <c s="8" t="inlineStr" r="P76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="Q98">
+      <c s="8" t="inlineStr" r="Q76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="R98">
+      <c s="8" t="inlineStr" r="R76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="S98">
+      <c s="8" t="inlineStr" r="S76">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
     </row>
-    <row r="99" ht="0.05" customHeight="1"/>
-    <row r="100" ht="73.15" customHeight="1"/>
+    <row r="77" ht="0.05" customHeight="1"/>
+    <row r="78" ht="73.15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.196850393700787" bottom="0.118110236220472" header="0.196850393700787" footer="0.118110236220472"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -7728,13 +6216,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42BD68C2-C6D9-44FC-ACE2-654591B41C3F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83098794-F791-4BB0-851A-B978F2BB058F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAE965B2-76CB-494F-A9A4-C4ECDF6D32CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D117767-C41A-4BA3-8FB6-6F9AD34D70BB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7305A3E4-5194-4900-9914-9ADC9824CDB5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B90C00F-F6E0-46FC-9D71-E77F89DBED09}"/>
 </file>